--- a/config/default/forms/app/hts_retest_test.xlsx
+++ b/config/default/forms/app/hts_retest_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -1308,6 +1308,24 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFB7B7B7"/>
       </font>
@@ -1348,20 +1366,22 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFD9D2E9"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <strike val="1"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFC27BA0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFD9D2E9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1403,26 +1423,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1497,7 +1497,7 @@
   </sheetPr>
   <dimension ref="A1:Y65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1505,20 +1505,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.4540816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.7244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.6020408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1377551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="67.5612244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="82.9591836734694"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.1377551020408"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.1479591836735"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.1377551020408"/>
-    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="33.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="16.1377551020408"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.5765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.8469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.6071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6479591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="69.9234693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.1581632653061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.9948979591837"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.9795918367347"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="85.9438775510204"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.6479591836735"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.1581632653061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.6479591836735"/>
+    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="34.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="16.6479591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5360,2005 +5360,2005 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(A1 = "type", COUNTIF($A$1:$A$1058, "begin group") = COUNTIF($A$1:$A$1058, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1049, "begin group") = COUNTIF($A$1:$A$1058, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" priority="4" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="4" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsText" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="label" dxfId="5"/>
+    <cfRule type="notContainsText" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="label" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" priority="6" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="6" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"required"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" priority="7" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="7" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" priority="8" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="8" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" priority="9" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="9" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsText" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="constraint_message" dxfId="5"/>
+    <cfRule type="notContainsText" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="constraint_message" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" priority="11" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="11" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" priority="12" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="12" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsText" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="hint" dxfId="5"/>
+    <cfRule type="notContainsText" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="hint" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" priority="14" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="14" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:Y1">
-    <cfRule type="cellIs" priority="15" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="15" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="containsText" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A29="end group", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:I31">
-    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($I30 = "", $A30 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C31">
-    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(AND(NOT($A30 = "end group"), NOT($A30 = "end repeat"), NOT($A30 = "")), $C30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B31">
-    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND(AND(NOT($A30 = "end group"), NOT($A30 = "end repeat"), NOT($A30 = "")), $B30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:A31">
-    <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B31">
-    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>COUNTIF($B$2:$B$1057,B30)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:H31">
-    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(NOT($G30 = ""), $H30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:E31">
-    <cfRule type="containsText" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:E31">
-    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:E31">
-    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A30="end group", $B30 = "", $C30 = "", $D30 = "", $E30 = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:E31">
-    <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:E31">
-    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:E31">
-    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $D30 = "", $E30 = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="containsText" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A34="begin group", NOT($B34 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A34="end group", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A34="begin repeat", NOT($B34 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A34="end repeat", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($I33 = "", $A33 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(AND(NOT($A33 = "end group"), NOT($A33 = "end repeat"), NOT($A33 = "")), $C33 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND(AND(NOT($A33 = "end group"), NOT($A33 = "end repeat"), NOT($A33 = "")), $B33 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="cellIs" priority="43" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="43" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>COUNTIF($B$2:$B$1056,B33)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(NOT($G33 = ""), $H33 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="containsText" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A33="begin group", NOT($B33 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A33="end group", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" priority="49" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="49" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A33="begin repeat", NOT($B33 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A33="end repeat", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="containsText" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A32="begin group", NOT($B32 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A32="end group", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" priority="55" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="55" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A32="begin repeat", NOT($B32 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A32="end repeat", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($I35 = "", $A35 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(AND(NOT($A35 = "end group"), NOT($A35 = "end repeat"), NOT($A35 = "")), $C35 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND(AND(NOT($A35 = "end group"), NOT($A35 = "end repeat"), NOT($A35 = "")), $B35 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="cellIs" priority="61" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="61" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>COUNTIF($B$2:$B$1055,B35)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(NOT($G35 = ""), $H35 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="containsText" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="expression" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A35="begin group", NOT($B35 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="expression" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A35="end group", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" priority="67" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="67" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A35="begin repeat", NOT($B35 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A35="end repeat", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($I36 = "", $A36 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="expression" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(AND(NOT($A36 = "end group"), NOT($A36 = "end repeat"), NOT($A36 = "")), $C36 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND(AND(NOT($A36 = "end group"), NOT($A36 = "end repeat"), NOT($A36 = "")), $B36 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" priority="74" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="74" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>COUNTIF($B$2:$B$1054,B36)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(NOT($G36 = ""), $H36 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="containsText" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="expression" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A36="begin group", NOT($B36 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A36="end group", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" priority="79" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="79" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="expression" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A36="begin repeat", NOT($B36 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A36="end repeat", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($I38 = "", $A38 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(AND(NOT($A38 = "end group"), NOT($A38 = "end repeat"), NOT($A38 = "")), $C38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" priority="84" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="84" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND(AND(NOT($A38 = "end group"), NOT($A38 = "end repeat"), NOT($A38 = "")), $B38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="cellIs" priority="85" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="85" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>COUNTIF($B$2:$B$1054,B38)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(NOT($G38 = ""), $H38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="containsText" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A38="begin group", NOT($B38 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A38="end group", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" priority="91" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="91" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A38="begin repeat", NOT($B38 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="expression" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A38="end repeat", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($I39 = "", $A39 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(AND(NOT($A39 = "end group"), NOT($A39 = "end repeat"), NOT($A39 = "")), $C39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND(AND(NOT($A39 = "end group"), NOT($A39 = "end repeat"), NOT($A39 = "")), $B39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="cellIs" priority="97" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="97" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>COUNTIF($B$2:$B$1053,B39)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(NOT($G39 = ""), $H39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="containsText" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A39="begin group", NOT($B39 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A39="end group", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" priority="103" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="103" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="expression" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A39="begin repeat", NOT($B39 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A39="end repeat", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="cellIs" priority="106" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="106" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="containsText" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A40="begin group", NOT($B40 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A40="end group", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="cellIs" priority="110" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="110" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="cellIs" priority="111" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="111" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A40="begin repeat", NOT($B40 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="containsText" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="expression" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A46="begin group", NOT($B46 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="expression" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A46="end group", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="cellIs" priority="117" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="117" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="cellIs" priority="118" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="118" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="expression" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A46="begin repeat", NOT($B46 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A46="end repeat", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:Y45">
-    <cfRule type="containsText" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:Y45">
-    <cfRule type="expression" priority="122" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="122" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:Y45">
-    <cfRule type="expression" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:Y45">
-    <cfRule type="cellIs" priority="124" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="124" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:I45">
-    <cfRule type="expression" priority="125" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="125" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($I43 = "", $A43 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C45">
-    <cfRule type="expression" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $C43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:B45">
-    <cfRule type="expression" priority="127" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="127" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $B43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:A45">
-    <cfRule type="cellIs" priority="128" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="128" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:B45">
-    <cfRule type="expression" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>COUNTIF($B$2:$B$1044,B43)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:H45">
-    <cfRule type="expression" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(NOT($G43 = ""), $H43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:Y45">
-    <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:Y45">
-    <cfRule type="expression" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="cellIs" priority="133" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="133" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="containsText" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" priority="136" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="136" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A47="end group", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="cellIs" priority="137" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="137" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="cellIs" priority="138" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="138" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" priority="139" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="139" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" priority="140" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="140" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="containsText" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="expression" priority="142" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="142" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="expression" priority="143" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="143" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="cellIs" priority="144" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="144" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="cellIs" priority="145" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="145" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="expression" priority="146" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="146" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="expression" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:Y52">
-    <cfRule type="containsText" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:Y52">
-    <cfRule type="expression" priority="149" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="149" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:Y52">
-    <cfRule type="expression" priority="150" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="150" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:Y52">
-    <cfRule type="cellIs" priority="151" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="151" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50:I52">
-    <cfRule type="expression" priority="152" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="152" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($I50 = "", $A50 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C52">
-    <cfRule type="expression" priority="153" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="153" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $C50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B52">
-    <cfRule type="expression" priority="154" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="154" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $B50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:A52">
-    <cfRule type="cellIs" priority="155" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="155" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B52">
-    <cfRule type="expression" priority="156" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="156" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>COUNTIF($B$2:$B$1038,B50)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50:H52">
-    <cfRule type="expression" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(NOT($G50 = ""), $H50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:Y52">
-    <cfRule type="expression" priority="158" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="158" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:Y52">
-    <cfRule type="expression" priority="159" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="159" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="containsText" priority="160" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="160" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" priority="161" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="161" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" priority="162" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="162" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A47="end group", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" priority="163" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="163" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" priority="164" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="164" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" priority="165" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="165" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:Y54">
-    <cfRule type="containsText" priority="166" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="166" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:Y54">
-    <cfRule type="expression" priority="167" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="167" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:Y54">
-    <cfRule type="expression" priority="168" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="168" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:Y54">
-    <cfRule type="cellIs" priority="169" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="169" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="expression" priority="170" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="170" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($I54 = "", $A54 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" priority="171" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="171" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $C54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" priority="172" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="172" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $B54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" priority="173" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="173" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" priority="174" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="174" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>COUNTIF($B$2:$B$1044,B54)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="expression" priority="175" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="175" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(NOT($G54 = ""), $H54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:Y54">
-    <cfRule type="expression" priority="176" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="176" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:Y54">
-    <cfRule type="expression" priority="177" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="177" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55">
-    <cfRule type="expression" priority="178" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="178" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($I55 = "", $A55 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" priority="179" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="179" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $C55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="expression" priority="180" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="180" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $B55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" priority="181" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="181" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="expression" priority="182" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="182" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>COUNTIF($B$2:$B$1053,B55)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="expression" priority="183" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="183" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(NOT($G55 = ""), $H55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="containsText" priority="184" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="184" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="185" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="185" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="186" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="186" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" priority="187" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="187" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="188" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="188" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="189" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="189" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56:I57">
-    <cfRule type="expression" priority="190" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="190" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($I56 = "", $A56 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" priority="191" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="191" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $C56 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56:B57">
-    <cfRule type="expression" priority="192" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="192" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $B56 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:A57">
-    <cfRule type="cellIs" priority="193" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="193" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56:B57">
-    <cfRule type="expression" priority="194" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="194" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>COUNTIF($B$2:$B$1052,B56)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56:H57">
-    <cfRule type="expression" priority="195" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="195" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(NOT($G56 = ""), $H56 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56:E57">
-    <cfRule type="containsText" priority="196" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="196" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56:E57">
-    <cfRule type="expression" priority="197" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="197" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56:E57">
-    <cfRule type="expression" priority="198" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="198" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A56="end group", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56:E57">
-    <cfRule type="cellIs" priority="199" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="199" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56:E57">
-    <cfRule type="expression" priority="200" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="200" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A56="begin repeat", NOT($B56 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56:E57">
-    <cfRule type="expression" priority="201" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="201" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:Y48">
-    <cfRule type="containsText" priority="202" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="202" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:Y48">
-    <cfRule type="expression" priority="203" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="203" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:Y48">
-    <cfRule type="expression" priority="204" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="204" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:Y48">
-    <cfRule type="cellIs" priority="205" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="205" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="expression" priority="206" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="206" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($I48 = "", $A48 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="expression" priority="207" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="207" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(AND(NOT($A48 = "end group"), NOT($A48 = "end repeat"), NOT($A48 = "")), $C48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" priority="208" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="208" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND(AND(NOT($A48 = "end group"), NOT($A48 = "end repeat"), NOT($A48 = "")), $B48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="cellIs" priority="209" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="209" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" priority="210" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="210" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>COUNTIF($B$2:$B$1056,B48)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="expression" priority="211" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="211" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(NOT($G48 = ""), $H48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:Y48">
-    <cfRule type="expression" priority="212" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="212" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:Y48">
-    <cfRule type="expression" priority="213" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="213" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:Y41">
-    <cfRule type="containsText" priority="214" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="214" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:Y41">
-    <cfRule type="expression" priority="215" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="215" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:Y41">
-    <cfRule type="expression" priority="216" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="216" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:Y41">
-    <cfRule type="cellIs" priority="217" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="217" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="expression" priority="218" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="218" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($I41 = "", $A41 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" priority="219" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="219" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(AND(NOT($A41 = "end group"), NOT($A41 = "end repeat"), NOT($A41 = "")), $C41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="expression" priority="220" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="220" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND(AND(NOT($A41 = "end group"), NOT($A41 = "end repeat"), NOT($A41 = "")), $B41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="cellIs" priority="221" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="221" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="expression" priority="222" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="222" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>COUNTIF($B$2:$B$1055,B41)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="expression" priority="223" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="223" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(NOT($G41 = ""), $H41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:Y41">
-    <cfRule type="expression" priority="224" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="224" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:Y41">
-    <cfRule type="expression" priority="225" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="225" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78:E89">
-    <cfRule type="containsText" priority="226" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="226" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78:E89">
-    <cfRule type="expression" priority="227" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="227" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A78="begin group", NOT($B78 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78:E89">
-    <cfRule type="expression" priority="228" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="228" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A78="end group", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $I78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78:E89">
-    <cfRule type="cellIs" priority="229" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="229" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78:E89">
-    <cfRule type="expression" priority="230" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="230" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A78="begin repeat", NOT($B78 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78:E89">
-    <cfRule type="expression" priority="231" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="231" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A78="end repeat", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $I78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I89">
-    <cfRule type="expression" priority="232" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="232" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($I89 = "", $A89 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89">
-    <cfRule type="expression" priority="233" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="233" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(AND(NOT($A89 = "end group"), NOT($A89 = "end repeat"), NOT($A89 = "")), $C89 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="expression" priority="234" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="234" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND(AND(NOT($A89 = "end group"), NOT($A89 = "end repeat"), NOT($A89 = "")), $B89 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="cellIs" priority="235" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="235" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="expression" priority="236" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="236" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>COUNTIF($B$2:$B$1056,B89)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89">
-    <cfRule type="expression" priority="237" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="237" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(NOT($G89 = ""), $H89 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:Y91">
-    <cfRule type="containsText" priority="238" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="238" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:Y91">
-    <cfRule type="expression" priority="239" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="239" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A91="begin group", NOT($B91 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:Y91">
-    <cfRule type="expression" priority="240" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="240" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A91="end group", $B91 = "", $C91 = "", $D91 = "", $E91 = "", $F91 = "", $G91 = "", $H91 = "", $I91 = "", $J91 = "", $K91 = "", $L91 = "", $M91 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:Y91">
-    <cfRule type="cellIs" priority="241" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="241" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I91">
-    <cfRule type="expression" priority="242" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="242" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($I91 = "", $A91 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="expression" priority="243" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="243" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(AND(NOT($A91 = "end group"), NOT($A91 = "end repeat"), NOT($A91 = "")), $C91 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="expression" priority="244" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="244" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND(AND(NOT($A91 = "end group"), NOT($A91 = "end repeat"), NOT($A91 = "")), $B91 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="cellIs" priority="245" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="245" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="expression" priority="246" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="246" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>COUNTIF($B$2:$B$1056,B91)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H91">
-    <cfRule type="expression" priority="247" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="247" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(NOT($G91 = ""), $H91 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:Y91">
-    <cfRule type="expression" priority="248" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="248" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A91="begin repeat", NOT($B91 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:Y91">
-    <cfRule type="expression" priority="249" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="249" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A91="end repeat", $B91 = "", $C91 = "", $D91 = "", $E91 = "", $F91 = "", $G91 = "", $H91 = "", $I91 = "", $J91 = "", $K91 = "", $L91 = "", $M91 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:Y92">
-    <cfRule type="containsText" priority="250" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="250" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:Y92">
-    <cfRule type="expression" priority="251" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="251" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A92="begin group", NOT($B92 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:Y92">
-    <cfRule type="expression" priority="252" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="252" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A92="end group", $B92 = "", $C92 = "", $D92 = "", $E92 = "", $F92 = "", $G92 = "", $H92 = "", $I92 = "", $J92 = "", $K92 = "", $L92 = "", $M92 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:Y92">
-    <cfRule type="cellIs" priority="253" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="253" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I92">
-    <cfRule type="expression" priority="254" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="254" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($I92 = "", $A92 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92">
-    <cfRule type="expression" priority="255" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="255" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(AND(NOT($A92 = "end group"), NOT($A92 = "end repeat"), NOT($A92 = "")), $C92 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="expression" priority="256" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="256" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND(AND(NOT($A92 = "end group"), NOT($A92 = "end repeat"), NOT($A92 = "")), $B92 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="cellIs" priority="257" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="257" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="expression" priority="258" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="258" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>COUNTIF($B$2:$B$1055,B92)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="expression" priority="259" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="259" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(NOT($G92 = ""), $H92 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:Y92">
-    <cfRule type="expression" priority="260" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="260" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A92="begin repeat", NOT($B92 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:Y92">
-    <cfRule type="expression" priority="261" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="261" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A92="end repeat", $B92 = "", $C92 = "", $D92 = "", $E92 = "", $F92 = "", $G92 = "", $H92 = "", $I92 = "", $J92 = "", $K92 = "", $L92 = "", $M92 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:Y94">
-    <cfRule type="containsText" priority="262" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="262" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:Y94">
-    <cfRule type="expression" priority="263" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="263" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A94="begin group", NOT($B94 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:Y94">
-    <cfRule type="expression" priority="264" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="264" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A94="end group", $B94 = "", $C94 = "", $D94 = "", $E94 = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:Y94">
-    <cfRule type="cellIs" priority="265" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="265" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I94">
-    <cfRule type="expression" priority="266" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="266" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($I94 = "", $A94 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94">
-    <cfRule type="expression" priority="267" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="267" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(AND(NOT($A94 = "end group"), NOT($A94 = "end repeat"), NOT($A94 = "")), $C94 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="expression" priority="268" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="268" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND(AND(NOT($A94 = "end group"), NOT($A94 = "end repeat"), NOT($A94 = "")), $B94 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="cellIs" priority="269" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="269" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="expression" priority="270" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="270" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>COUNTIF($B$2:$B$1054,B94)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H94">
-    <cfRule type="expression" priority="271" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="271" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(NOT($G94 = ""), $H94 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:Y94">
-    <cfRule type="expression" priority="272" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="272" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A94="begin repeat", NOT($B94 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:Y94">
-    <cfRule type="expression" priority="273" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="273" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A94="end repeat", $B94 = "", $C94 = "", $D94 = "", $E94 = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:Y95">
-    <cfRule type="containsText" priority="274" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="274" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:Y95">
-    <cfRule type="expression" priority="275" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="275" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A95="begin group", NOT($B95 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:Y95">
-    <cfRule type="expression" priority="276" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="276" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A95="end group", $B95 = "", $C95 = "", $D95 = "", $E95 = "", $F95 = "", $G95 = "", $H95 = "", $I95 = "", $J95 = "", $K95 = "", $L95 = "", $M95 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:Y95">
-    <cfRule type="cellIs" priority="277" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="277" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I95">
-    <cfRule type="expression" priority="278" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="278" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($I95 = "", $A95 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C95">
-    <cfRule type="expression" priority="279" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="279" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(AND(NOT($A95 = "end group"), NOT($A95 = "end repeat"), NOT($A95 = "")), $C95 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95">
-    <cfRule type="expression" priority="280" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="280" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND(AND(NOT($A95 = "end group"), NOT($A95 = "end repeat"), NOT($A95 = "")), $B95 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="cellIs" priority="281" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="281" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95">
-    <cfRule type="expression" priority="282" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="282" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>COUNTIF($B$2:$B$1053,B95)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="expression" priority="283" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="283" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(NOT($G95 = ""), $H95 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:Y95">
-    <cfRule type="expression" priority="284" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="284" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A95="begin repeat", NOT($B95 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:Y95">
-    <cfRule type="expression" priority="285" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="285" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A95="end repeat", $B95 = "", $C95 = "", $D95 = "", $E95 = "", $F95 = "", $G95 = "", $H95 = "", $I95 = "", $J95 = "", $K95 = "", $L95 = "", $M95 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96:Y96">
-    <cfRule type="containsText" priority="286" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="286" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96:Y96">
-    <cfRule type="expression" priority="287" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="287" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A96="begin group", NOT($B96 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96:Y96">
-    <cfRule type="expression" priority="288" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="288" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A96="end group", $B96 = "", $C96 = "", $D96 = "", $E96 = "", $F96 = "", $G96 = "", $H96 = "", $I96 = "", $J96 = "", $K96 = "", $L96 = "", $M96 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96:Y96">
-    <cfRule type="cellIs" priority="289" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="289" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96">
-    <cfRule type="expression" priority="290" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="290" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($I96 = "", $A96 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C96">
-    <cfRule type="expression" priority="291" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="291" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(AND(NOT($A96 = "end group"), NOT($A96 = "end repeat"), NOT($A96 = "")), $C96 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96">
-    <cfRule type="expression" priority="292" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="292" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND(AND(NOT($A96 = "end group"), NOT($A96 = "end repeat"), NOT($A96 = "")), $B96 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="cellIs" priority="293" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="293" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96">
-    <cfRule type="expression" priority="294" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="294" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>COUNTIF($B$2:$B$1052,B96)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="expression" priority="295" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="295" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(NOT($G96 = ""), $H96 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96:Y96">
-    <cfRule type="expression" priority="296" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="296" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A96="begin repeat", NOT($B96 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96:Y96">
-    <cfRule type="expression" priority="297" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="297" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A96="end repeat", $B96 = "", $C96 = "", $D96 = "", $E96 = "", $F96 = "", $G96 = "", $H96 = "", $I96 = "", $J96 = "", $K96 = "", $L96 = "", $M96 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:Y98">
-    <cfRule type="containsText" priority="298" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="298" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:Y98">
-    <cfRule type="expression" priority="299" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="299" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A98="begin group", NOT($B98 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:Y98">
-    <cfRule type="expression" priority="300" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="300" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A98="end group", $B98 = "", $C98 = "", $D98 = "", $E98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:Y98">
-    <cfRule type="cellIs" priority="301" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="301" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98">
-    <cfRule type="expression" priority="302" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="302" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($I98 = "", $A98 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="expression" priority="303" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="303" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(AND(NOT($A98 = "end group"), NOT($A98 = "end repeat"), NOT($A98 = "")), $C98 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98">
-    <cfRule type="expression" priority="304" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="304" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND(AND(NOT($A98 = "end group"), NOT($A98 = "end repeat"), NOT($A98 = "")), $B98 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="cellIs" priority="305" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="305" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98">
-    <cfRule type="expression" priority="306" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="306" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>COUNTIF($B$2:$B$1051,B98)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="expression" priority="307" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="307" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(NOT($G98 = ""), $H98 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:Y98">
-    <cfRule type="expression" priority="308" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="308" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A98="begin repeat", NOT($B98 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:Y98">
-    <cfRule type="expression" priority="309" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="309" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A98="end repeat", $B98 = "", $C98 = "", $D98 = "", $E98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:Y99">
-    <cfRule type="containsText" priority="310" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="310" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:Y99">
-    <cfRule type="expression" priority="311" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="311" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A99="begin group", NOT($B99 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:Y99">
-    <cfRule type="expression" priority="312" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="312" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A99="end group", $B99 = "", $C99 = "", $D99 = "", $E99 = "", $F99 = "", $G99 = "", $H99 = "", $I99 = "", $J99 = "", $K99 = "", $L99 = "", $M99 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:Y99">
-    <cfRule type="cellIs" priority="313" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="313" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99">
-    <cfRule type="expression" priority="314" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="314" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($I99 = "", $A99 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C99">
-    <cfRule type="expression" priority="315" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="315" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(AND(NOT($A99 = "end group"), NOT($A99 = "end repeat"), NOT($A99 = "")), $C99 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="expression" priority="316" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="316" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND(AND(NOT($A99 = "end group"), NOT($A99 = "end repeat"), NOT($A99 = "")), $B99 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="cellIs" priority="317" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="317" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="expression" priority="318" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="318" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>COUNTIF($B$2:$B$1050,B99)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99">
-    <cfRule type="expression" priority="319" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="319" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(NOT($G99 = ""), $H99 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:Y99">
-    <cfRule type="expression" priority="320" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="320" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A99="begin repeat", NOT($B99 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:Y99">
-    <cfRule type="expression" priority="321" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="321" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A99="end repeat", $B99 = "", $C99 = "", $D99 = "", $E99 = "", $F99 = "", $G99 = "", $H99 = "", $I99 = "", $J99 = "", $K99 = "", $L99 = "", $M99 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:Y100">
-    <cfRule type="containsText" priority="322" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="322" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:Y100">
-    <cfRule type="expression" priority="323" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="323" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A100="begin group", NOT($B100 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:Y100">
-    <cfRule type="expression" priority="324" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="324" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A100="end group", $B100 = "", $C100 = "", $D100 = "", $E100 = "", $F100 = "", $G100 = "", $H100 = "", $I100 = "", $J100 = "", $K100 = "", $L100 = "", $M100 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:Y100">
-    <cfRule type="cellIs" priority="325" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="325" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100">
-    <cfRule type="expression" priority="326" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="326" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($I100 = "", $A100 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100">
-    <cfRule type="expression" priority="327" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="327" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(AND(NOT($A100 = "end group"), NOT($A100 = "end repeat"), NOT($A100 = "")), $C100 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="expression" priority="328" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="328" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND(AND(NOT($A100 = "end group"), NOT($A100 = "end repeat"), NOT($A100 = "")), $B100 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="cellIs" priority="329" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="329" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="expression" priority="330" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="330" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>COUNTIF($B$2:$B$1049,B100)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H100">
-    <cfRule type="expression" priority="331" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="331" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(NOT($G100 = ""), $H100 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:Y100">
-    <cfRule type="expression" priority="332" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="332" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A100="begin repeat", NOT($B100 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:Y100">
-    <cfRule type="expression" priority="333" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="333" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A100="end repeat", $B100 = "", $C100 = "", $D100 = "", $E100 = "", $F100 = "", $G100 = "", $H100 = "", $I100 = "", $J100 = "", $K100 = "", $L100 = "", $M100 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:Y105">
-    <cfRule type="containsText" priority="334" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="334" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:Y105">
-    <cfRule type="expression" priority="335" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="335" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A105="begin group", NOT($B105 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:Y105">
-    <cfRule type="expression" priority="336" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="336" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A105="end group", $B105 = "", $C105 = "", $D105 = "", $E105 = "", $F105 = "", $G105 = "", $H105 = "", $I105 = "", $J105 = "", $K105 = "", $L105 = "", $M105 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:Y105">
-    <cfRule type="cellIs" priority="337" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="337" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I105">
-    <cfRule type="expression" priority="338" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="338" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($I105 = "", $A105 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105">
-    <cfRule type="expression" priority="339" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="339" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(AND(NOT($A105 = "end group"), NOT($A105 = "end repeat"), NOT($A105 = "")), $C105 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105">
-    <cfRule type="expression" priority="340" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="340" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND(AND(NOT($A105 = "end group"), NOT($A105 = "end repeat"), NOT($A105 = "")), $B105 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105">
-    <cfRule type="cellIs" priority="341" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="341" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105">
-    <cfRule type="expression" priority="342" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="342" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>COUNTIF($B$2:$B$1056,B105)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="expression" priority="343" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="343" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(NOT($G105 = ""), $H105 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:Y105">
-    <cfRule type="expression" priority="344" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="344" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A105="begin repeat", NOT($B105 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:Y105">
-    <cfRule type="expression" priority="345" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="345" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A105="end repeat", $B105 = "", $C105 = "", $D105 = "", $E105 = "", $F105 = "", $G105 = "", $H105 = "", $I105 = "", $J105 = "", $K105 = "", $L105 = "", $M105 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110">
-    <cfRule type="containsText" priority="346" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="346" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110">
-    <cfRule type="expression" priority="347" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="347" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A110="begin group", NOT($B110 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110">
-    <cfRule type="expression" priority="348" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="348" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A110="end group", $B110 = "", $C110 = "", $D110 = "", $E110 = "", $F110 = "", $G110 = "", $H110 = "", $I110 = "", $J110 = "", $K110 = "", $L110 = "", $M110 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110">
-    <cfRule type="cellIs" priority="349" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="349" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110">
-    <cfRule type="cellIs" priority="350" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="350" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110">
-    <cfRule type="expression" priority="351" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="351" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A110="begin repeat", NOT($B110 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110">
-    <cfRule type="expression" priority="352" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="352" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A110="end repeat", $B110 = "", $C110 = "", $D110 = "", $E110 = "", $F110 = "", $G110 = "", $H110 = "", $I110 = "", $J110 = "", $K110 = "", $L110 = "", $M110 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I102:I104">
-    <cfRule type="expression" priority="353" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="353" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($I102 = "", $A102 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103:C104">
-    <cfRule type="expression" priority="354" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="354" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(AND(NOT($A103 = "end group"), NOT($A103 = "end repeat"), NOT($A103 = "")), $C103 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:B104">
-    <cfRule type="expression" priority="355" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="355" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND(AND(NOT($A103 = "end group"), NOT($A103 = "end repeat"), NOT($A103 = "")), $B103 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:A104">
-    <cfRule type="cellIs" priority="356" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="356" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:B104">
-    <cfRule type="expression" priority="357" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="357" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>COUNTIF($B$2:$B$1052,B103)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102:H104">
-    <cfRule type="expression" priority="358" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="358" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(NOT($G102 = ""), $H102 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:Y101">
-    <cfRule type="containsText" priority="359" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="359" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:Y101">
-    <cfRule type="expression" priority="360" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="360" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A101="begin group", NOT($B101 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:Y101">
-    <cfRule type="expression" priority="361" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="361" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A101="end group", $B101 = "", $C101 = "", $D101 = "", $E101 = "", $F101 = "", $G101 = "", $H101 = "", $I101 = "", $J101 = "", $K101 = "", $L101 = "", $M101 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:Y101">
-    <cfRule type="cellIs" priority="362" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="362" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I101">
-    <cfRule type="expression" priority="363" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="363" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($I101 = "", $A101 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101">
-    <cfRule type="expression" priority="364" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="364" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(AND(NOT($A101 = "end group"), NOT($A101 = "end repeat"), NOT($A101 = "")), $C101 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="expression" priority="365" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="365" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND(AND(NOT($A101 = "end group"), NOT($A101 = "end repeat"), NOT($A101 = "")), $B101 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="cellIs" priority="366" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="366" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="expression" priority="367" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="367" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>COUNTIF($B$2:$B$1051,B101)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H101">
-    <cfRule type="expression" priority="368" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="368" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(NOT($G101 = ""), $H101 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:Y101">
-    <cfRule type="expression" priority="369" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="369" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A101="begin repeat", NOT($B101 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:Y101">
-    <cfRule type="expression" priority="370" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="370" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A101="end repeat", $B101 = "", $C101 = "", $D101 = "", $E101 = "", $F101 = "", $G101 = "", $H101 = "", $I101 = "", $J101 = "", $K101 = "", $L101 = "", $M101 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="expression" priority="371" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="371" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($I37 = "", $A37 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" priority="372" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="372" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $C37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" priority="373" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="373" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $B37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="cellIs" priority="374" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="374" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" priority="375" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="375" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>COUNTIF($B$2:$B$1053,B37)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="expression" priority="376" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="376" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(NOT($G37 = ""), $H37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="containsText" priority="377" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="377" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="expression" priority="378" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="378" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="expression" priority="379" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="379" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" priority="380" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="380" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="expression" priority="381" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="381" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="expression" priority="382" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="382" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="containsText" priority="383" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="383" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="expression" priority="384" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="384" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A93="begin group", NOT($B93 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="expression" priority="385" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="385" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A93="end group", $B93 = "", $C93 = "", $D93 = "", $E93 = "", $F93 = "", $G93 = "", $H93 = "", $I93 = "", $J93 = "", $K93 = "", $L93 = "", $M93 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" priority="386" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="386" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="expression" priority="387" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="387" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A93="begin repeat", NOT($B93 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="expression" priority="388" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="388" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A93="end repeat", $B93 = "", $C93 = "", $D93 = "", $E93 = "", $F93 = "", $G93 = "", $H93 = "", $I93 = "", $J93 = "", $K93 = "", $L93 = "", $M93 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="containsText" priority="389" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="389" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="expression" priority="390" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="390" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A93="begin group", NOT($B93 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="expression" priority="391" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="391" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A93="end group", $B93 = "", $C93 = "", $D93 = "", $E93 = "", $F93 = "", $G93 = "", $H93 = "", $I93 = "", $J93 = "", $K93 = "", $L93 = "", $M93 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" priority="392" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="392" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="expression" priority="393" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="393" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A93="begin repeat", NOT($B93 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="expression" priority="394" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="394" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A93="end repeat", $B93 = "", $C93 = "", $D93 = "", $E93 = "", $F93 = "", $G93 = "", $H93 = "", $I93 = "", $J93 = "", $K93 = "", $L93 = "", $M93 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93">
-    <cfRule type="expression" priority="395" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="395" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($I93 = "", $A93 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93">
-    <cfRule type="expression" priority="396" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="396" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(AND(NOT($A93 = "end group"), NOT($A93 = "end repeat"), NOT($A93 = "")), $C93 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="expression" priority="397" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="397" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND(AND(NOT($A93 = "end group"), NOT($A93 = "end repeat"), NOT($A93 = "")), $B93 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="cellIs" priority="398" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="398" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="expression" priority="399" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="399" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>COUNTIF($B$2:$B$1056,B93)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H93">
-    <cfRule type="expression" priority="400" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="400" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(NOT($G93 = ""), $H93 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="containsText" priority="401" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="401" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="expression" priority="402" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="402" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A93="begin group", NOT($B93 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="expression" priority="403" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="403" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A93="end group", $B93 = "", $C93 = "", $D93 = "", $E93 = "", $F93 = "", $G93 = "", $H93 = "", $I93 = "", $J93 = "", $K93 = "", $L93 = "", $M93 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" priority="404" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="404" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="expression" priority="405" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="405" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A93="begin repeat", NOT($B93 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="expression" priority="406" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="406" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A93="end repeat", $B93 = "", $C93 = "", $D93 = "", $E93 = "", $F93 = "", $G93 = "", $H93 = "", $I93 = "", $J93 = "", $K93 = "", $L93 = "", $M93 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="containsText" priority="407" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+    <cfRule type="containsText" priority="407" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="expression" priority="408" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="408" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A93="begin group", NOT($B93 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="expression" priority="409" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="409" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A93="end group", $B93 = "", $C93 = "", $D93 = "", $E93 = "", $F93 = "", $G93 = "", $H93 = "", $I93 = "", $J93 = "", $K93 = "", $L93 = "", $M93 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" priority="410" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="410" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="expression" priority="411" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="411" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A93="begin repeat", NOT($B93 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="expression" priority="412" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="412" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A93="end repeat", $B93 = "", $C93 = "", $D93 = "", $E93 = "", $F93 = "", $G93 = "", $H93 = "", $I93 = "", $J93 = "", $K93 = "", $L93 = "", $M93 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97">
-    <cfRule type="expression" priority="413" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="413" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($I93 = "", $A93 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C97">
-    <cfRule type="expression" priority="414" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="414" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(AND(NOT($A93 = "end group"), NOT($A93 = "end repeat"), NOT($A93 = "")), $C93 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
-    <cfRule type="expression" priority="415" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="415" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND(AND(NOT($A93 = "end group"), NOT($A93 = "end repeat"), NOT($A93 = "")), $B93 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="cellIs" priority="416" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="416" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
-    <cfRule type="expression" priority="417" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="417" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>COUNTIF($B$2:$B$1055,B93)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H97">
-    <cfRule type="expression" priority="418" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="418" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(NOT($G93 = ""), $H93 = "")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7385,7 +7385,7 @@
   </sheetPr>
   <dimension ref="A1:F65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
@@ -7393,10 +7393,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.7551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.9336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="16.1377551020408"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.1785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="16.6479591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8498,7 +8498,7 @@
   </sheetPr>
   <dimension ref="A1:F65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
@@ -8506,9 +8506,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="16.1377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.8571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="16.1377551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="16.6479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="16.6479591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8540,7 +8540,7 @@
       </c>
       <c r="C2" s="13" t="n">
         <f aca="true">NOW()</f>
-        <v>43969.912729813</v>
+        <v>44033.9655296883</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>361</v>

--- a/config/default/forms/app/hts_retest_test.xlsx
+++ b/config/default/forms/app/hts_retest_test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="451">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -435,7 +435,10 @@
     <t xml:space="preserve">selected(${_164401_everTestedByProvider_99DCT},'_1065_yes_99DCT')</t>
   </si>
   <si>
-    <t xml:space="preserve">.&gt;=0 and .&lt;=12</t>
+    <t xml:space="preserve">.&gt;=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepts values above 0</t>
   </si>
   <si>
     <t xml:space="preserve">_164952_HasClientdoneHIVselfTestInlast12months_99DCT</t>
@@ -6728,25 +6731,28 @@
   </sheetPr>
   <dimension ref="A1:Y150"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="F127" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A127" activeCellId="0" sqref="A127"/>
-      <selection pane="topRight" activeCell="F148" activeCellId="0" sqref="148:150"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="H43" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
+      <selection pane="topRight" activeCell="H60" activeCellId="0" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.2244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.6683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="86.3928571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="106.821428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.3265306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="68.5765306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="57.6887755102041"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="131.030612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="44.0051020408163"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="42.1173469387755"/>
-    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="52.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.9387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="89.4540816326531"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="110.69387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.4081632653061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="71.0051020408163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="59.7551020408163"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="135.709183673469"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="45.5357142857143"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="43.5561224489796"/>
+    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="54.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8724,7 +8730,7 @@
       <c r="X59" s="5"/>
       <c r="Y59" s="5"/>
     </row>
-    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
         <v>133</v>
       </c>
@@ -8742,7 +8748,9 @@
       <c r="G60" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="H60" s="5"/>
+      <c r="H60" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
@@ -8766,10 +8774,10 @@
         <v>108</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>70</v>
@@ -8798,13 +8806,13 @@
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>70</v>
@@ -8836,16 +8844,16 @@
         <v>93</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>96</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="4"/>
@@ -8870,13 +8878,13 @@
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>70</v>
@@ -8908,16 +8916,16 @@
         <v>93</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>96</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="4"/>
@@ -8945,10 +8953,10 @@
         <v>108</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>70</v>
@@ -8977,19 +8985,19 @@
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
@@ -9044,14 +9052,14 @@
         <v>13</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
@@ -9076,13 +9084,13 @@
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>70</v>
@@ -9114,10 +9122,10 @@
         <v>93</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>70</v>
@@ -9149,10 +9157,10 @@
         <v>67</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>70</v>
@@ -9160,10 +9168,10 @@
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
@@ -9185,13 +9193,13 @@
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>70</v>
@@ -9220,19 +9228,19 @@
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
@@ -9289,14 +9297,14 @@
         <v>13</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
@@ -9321,13 +9329,13 @@
     </row>
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -9357,10 +9365,10 @@
         <v>93</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -9390,19 +9398,19 @@
         <v>67</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
@@ -9424,13 +9432,13 @@
     </row>
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -9489,7 +9497,7 @@
         <v>44</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -9498,7 +9506,7 @@
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
@@ -9522,7 +9530,7 @@
         <v>44</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
@@ -9531,7 +9539,7 @@
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
@@ -9552,17 +9560,17 @@
     </row>
     <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -9590,16 +9598,16 @@
         <v>108</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
@@ -9624,19 +9632,19 @@
     </row>
     <row r="86" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
@@ -9661,19 +9669,19 @@
     </row>
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
@@ -9701,10 +9709,10 @@
         <v>93</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -9763,15 +9771,15 @@
         <v>13</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
@@ -9795,13 +9803,13 @@
     </row>
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -9828,18 +9836,18 @@
     </row>
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
@@ -9863,13 +9871,13 @@
     </row>
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -9896,18 +9904,18 @@
     </row>
     <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
@@ -9931,13 +9939,13 @@
     </row>
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -9964,20 +9972,20 @@
     </row>
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -10001,20 +10009,20 @@
     </row>
     <row r="97" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
@@ -10038,20 +10046,20 @@
     </row>
     <row r="98" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -10075,13 +10083,13 @@
     </row>
     <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -10108,20 +10116,20 @@
     </row>
     <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -10145,20 +10153,20 @@
     </row>
     <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
@@ -10182,20 +10190,20 @@
     </row>
     <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
@@ -10219,20 +10227,20 @@
     </row>
     <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
@@ -10256,20 +10264,20 @@
     </row>
     <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
@@ -10293,20 +10301,20 @@
     </row>
     <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -10330,20 +10338,20 @@
     </row>
     <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
@@ -10367,20 +10375,20 @@
     </row>
     <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
@@ -10404,13 +10412,13 @@
     </row>
     <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -10437,20 +10445,20 @@
     </row>
     <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -10474,20 +10482,20 @@
     </row>
     <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -10511,20 +10519,20 @@
     </row>
     <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
@@ -10548,20 +10556,20 @@
     </row>
     <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
@@ -10585,20 +10593,20 @@
     </row>
     <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -10622,20 +10630,20 @@
     </row>
     <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
@@ -10659,20 +10667,20 @@
     </row>
     <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -10696,20 +10704,20 @@
     </row>
     <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -10733,20 +10741,20 @@
     </row>
     <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
@@ -10770,20 +10778,20 @@
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -10807,20 +10815,20 @@
     </row>
     <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -10844,13 +10852,13 @@
     </row>
     <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="4"/>
@@ -10877,20 +10885,20 @@
     </row>
     <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
@@ -10914,20 +10922,20 @@
     </row>
     <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
@@ -10951,20 +10959,20 @@
     </row>
     <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
@@ -10988,13 +10996,13 @@
     </row>
     <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="4"/>
@@ -11021,20 +11029,20 @@
     </row>
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
@@ -11058,20 +11066,20 @@
     </row>
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
@@ -11095,20 +11103,20 @@
     </row>
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
@@ -11132,13 +11140,13 @@
     </row>
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="4"/>
@@ -11165,20 +11173,20 @@
     </row>
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
@@ -11202,20 +11210,20 @@
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
@@ -11239,20 +11247,20 @@
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
@@ -11276,17 +11284,17 @@
     </row>
     <row r="132" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
@@ -11311,20 +11319,20 @@
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G133" s="12"/>
       <c r="H133" s="12"/>
@@ -11348,20 +11356,20 @@
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D134" s="12"/>
       <c r="E134" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G134" s="12"/>
       <c r="H134" s="12"/>
@@ -11385,20 +11393,20 @@
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D135" s="12"/>
       <c r="E135" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G135" s="12"/>
       <c r="H135" s="12"/>
@@ -11422,13 +11430,13 @@
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -11455,20 +11463,20 @@
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G137" s="12"/>
       <c r="H137" s="12"/>
@@ -11492,20 +11500,20 @@
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D138" s="12"/>
       <c r="E138" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G138" s="12"/>
       <c r="H138" s="12"/>
@@ -11529,20 +11537,20 @@
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D139" s="12"/>
       <c r="E139" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G139" s="12"/>
       <c r="H139" s="12"/>
@@ -11566,20 +11574,20 @@
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
@@ -11603,20 +11611,20 @@
     </row>
     <row r="141" s="16" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D141" s="13"/>
       <c r="E141" s="15" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F141" s="13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G141" s="13"/>
       <c r="H141" s="13"/>
@@ -11640,17 +11648,17 @@
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D142" s="18"/>
       <c r="E142" s="19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F142" s="17"/>
       <c r="G142" s="17"/>
@@ -11675,20 +11683,20 @@
     </row>
     <row r="143" s="16" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D143" s="13"/>
       <c r="E143" s="15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F143" s="13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G143" s="13"/>
       <c r="H143" s="13"/>
@@ -11712,17 +11720,17 @@
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D144" s="18"/>
       <c r="E144" s="19" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F144" s="17"/>
       <c r="G144" s="17"/>
@@ -11747,20 +11755,20 @@
     </row>
     <row r="145" s="23" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C145" s="21" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D145" s="20"/>
       <c r="E145" s="22" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F145" s="20" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G145" s="20"/>
       <c r="H145" s="20"/>
@@ -11784,17 +11792,17 @@
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D146" s="18"/>
       <c r="E146" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F146" s="17"/>
       <c r="G146" s="17"/>
@@ -11851,7 +11859,7 @@
         <v>13</v>
       </c>
       <c r="B148" s="24" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C148" s="24" t="s">
         <v>19</v>
@@ -11875,7 +11883,7 @@
         <v>44</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>19</v>
@@ -11886,7 +11894,7 @@
       <c r="G149" s="28"/>
       <c r="H149" s="28"/>
       <c r="I149" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J149" s="28"/>
       <c r="K149" s="28"/>
@@ -14445,19 +14453,20 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B77" activeCellId="1" sqref="148:150 B77"/>
+      <selection pane="bottomLeft" activeCell="B77" activeCellId="0" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.0867346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.7142857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="69.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.7091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.6989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="71.9948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -14471,13 +14480,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -14485,13 +14494,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -14507,13 +14516,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -14540,10 +14549,10 @@
         <v>75</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -14554,10 +14563,10 @@
         <v>75</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -14568,10 +14577,10 @@
         <v>75</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -14590,10 +14599,10 @@
         <v>84</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -14604,10 +14613,10 @@
         <v>84</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -14618,10 +14627,10 @@
         <v>84</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -14632,10 +14641,10 @@
         <v>84</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -14654,10 +14663,10 @@
         <v>99</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -14668,10 +14677,10 @@
         <v>99</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -14682,10 +14691,10 @@
         <v>99</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -14696,10 +14705,10 @@
         <v>99</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -14710,10 +14719,10 @@
         <v>99</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -14732,10 +14741,10 @@
         <v>119</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -14746,10 +14755,10 @@
         <v>119</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -14760,10 +14769,10 @@
         <v>119</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -14774,10 +14783,10 @@
         <v>119</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -14788,10 +14797,10 @@
         <v>119</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -14807,13 +14816,13 @@
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -14821,13 +14830,13 @@
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -14835,13 +14844,13 @@
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -14849,13 +14858,13 @@
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -14863,13 +14872,13 @@
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
@@ -14877,13 +14886,13 @@
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
@@ -14891,13 +14900,13 @@
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
@@ -14905,13 +14914,13 @@
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -14927,13 +14936,13 @@
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -14941,13 +14950,13 @@
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -14955,13 +14964,13 @@
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -14969,13 +14978,13 @@
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -14983,13 +14992,13 @@
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -14997,13 +15006,13 @@
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -15011,13 +15020,13 @@
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -15025,13 +15034,13 @@
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
@@ -15039,13 +15048,13 @@
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -15053,13 +15062,13 @@
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -15067,13 +15076,13 @@
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -15089,13 +15098,13 @@
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
@@ -15103,13 +15112,13 @@
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
@@ -15125,13 +15134,13 @@
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
@@ -15139,13 +15148,13 @@
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -15161,13 +15170,13 @@
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
@@ -15183,13 +15192,13 @@
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
@@ -15197,13 +15206,13 @@
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
@@ -15211,13 +15220,13 @@
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
@@ -15232,13 +15241,13 @@
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
@@ -15246,13 +15255,13 @@
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
@@ -15260,13 +15269,13 @@
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>429</v>
-      </c>
       <c r="C64" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
@@ -15282,13 +15291,13 @@
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
@@ -15296,13 +15305,13 @@
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
@@ -15310,13 +15319,13 @@
     </row>
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
@@ -15332,13 +15341,13 @@
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
@@ -15346,13 +15355,13 @@
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="10"/>
@@ -15360,13 +15369,13 @@
     </row>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
@@ -15374,13 +15383,13 @@
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
@@ -15388,13 +15397,13 @@
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
@@ -15402,13 +15411,13 @@
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D76" s="10"/>
       <c r="E76" s="10"/>
@@ -15416,13 +15425,13 @@
     </row>
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
@@ -15451,50 +15460,52 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="1" sqref="148:150 A2"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C2" s="32" t="n">
         <f aca="true">NOW()</f>
-        <v>44067.4372789057</v>
+        <v>44067.5461755536</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F2" s="10"/>
     </row>

--- a/config/default/forms/app/hts_retest_test.xlsx
+++ b/config/default/forms/app/hts_retest_test.xlsx
@@ -611,7 +611,7 @@
     <t xml:space="preserve">final_result_note</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;Final result: ${final_result} ${head}&lt;/h4&gt;</t>
+    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;Final result: ${final_result}&lt;/h4&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">_164848_resultGiven_99DCT</t>
@@ -6731,28 +6731,25 @@
   </sheetPr>
   <dimension ref="A1:Y150"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="H43" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
-      <selection pane="topRight" activeCell="H60" activeCellId="0" sqref="H60"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C79" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
+      <selection pane="topRight" activeCell="C84" activeCellId="0" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.9387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="89.4540816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="110.69387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.4081632653061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="71.0051020408163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="59.7551020408163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="135.709183673469"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="45.5357142857143"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="43.5561224489796"/>
-    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="54.4489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.8979591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="92.6938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="114.744897959184"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.4897959183673"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="73.5255102040816"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="61.8265306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="140.663265306122"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="47.1581632653061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="45.0867346938776"/>
+    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="56.4285714285714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9558,7 +9555,7 @@
       <c r="X83" s="5"/>
       <c r="Y83" s="5"/>
     </row>
-    <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
         <v>193</v>
       </c>
@@ -14458,10 +14455,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.7091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.6989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="71.9948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.4183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.6071428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15465,9 +15461,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.5765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.015306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15499,7 +15493,7 @@
       </c>
       <c r="C2" s="32" t="n">
         <f aca="true">NOW()</f>
-        <v>44067.5461755536</v>
+        <v>44068.5572405779</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>449</v>

--- a/config/default/forms/app/hts_retest_test.xlsx
+++ b/config/default/forms/app/hts_retest_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="502">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -531,6 +531,9 @@
     <t xml:space="preserve">selected(${_160540_htsEntryPoint_99DCT},'_5622_otherEntry_99DCT')</t>
   </si>
   <si>
+    <t xml:space="preserve">select_one client_consent</t>
+  </si>
+  <si>
     <t xml:space="preserve">_1710_clientConsented_99DCT</t>
   </si>
   <si>
@@ -546,7 +549,7 @@
     <t xml:space="preserve">Client tested as?</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(${_1710_clientConsented_99DCT},'_1065_yes_99DCT')</t>
+    <t xml:space="preserve">selected(${_1710_clientConsented_99DCT},'1')</t>
   </si>
   <si>
     <t xml:space="preserve">_164410_firstTest_99DCT</t>
@@ -606,7 +609,7 @@
     <t xml:space="preserve">Test 2</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(${_1040_testOneResults_99DCT},'_703_positive_99DCT') or selected(${_1040_testOneResults_99DCT},'_163611_invalid_99DCT') and selected(${_1710_clientConsented_99DCT},'_1065_yes_99DCT')</t>
+    <t xml:space="preserve">selected(${_1040_testOneResults_99DCT},'_703_positive_99DCT') or selected(${_1040_testOneResults_99DCT},'_163611_invalid_99DCT') and selected(${_1710_clientConsented_99DCT},'1')</t>
   </si>
   <si>
     <t xml:space="preserve">select_one kit2_name</t>
@@ -677,7 +680,7 @@
     <t xml:space="preserve">Couple is discordant</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(${_1710_clientConsented_99DCT},'_1065_yes_99DCT') and selected(${_164959_clientTestedAs_99DCT},'_164958_couple_99DCT')</t>
+    <t xml:space="preserve">selected(${_1710_clientConsented_99DCT},'1') and selected(${_164959_clientTestedAs_99DCT},'_164958_couple_99DCT')</t>
   </si>
   <si>
     <t xml:space="preserve">select_one tb_screening_result</t>
@@ -1494,6 +1497,9 @@
   </si>
   <si>
     <t xml:space="preserve">Other facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">client_consent</t>
   </si>
   <si>
     <t xml:space="preserve">form_title</t>
@@ -1535,7 +1541,7 @@
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="166" formatCode="DD\-MM\-YYYY\ HH\-MM\-SS"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1603,12 +1609,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
@@ -1659,11 +1659,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1738,7 +1733,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1787,27 +1782,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1847,27 +1834,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1875,15 +1862,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6724,23 +6711,26 @@
   </sheetPr>
   <dimension ref="A1:AL162"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B96" activeCellId="0" sqref="B96"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.6071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="68.6632653061225"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="99.4438775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="123.204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.7397959183673"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="78.9234693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="66.3265306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="151.010204081633"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="50.6683673469388"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="48.4183673469388"/>
-    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="60.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="58.6785714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="71.0969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="103.045918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="127.612244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.9081632653061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="81.7142857142857"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="68.7551020408163"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="156.5"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="52.4642857142857"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="50.219387755102"/>
+    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="62.7244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8897,7 +8887,7 @@
       <c r="D64" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E64" s="12"/>
+      <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
@@ -8926,13 +8916,13 @@
       <c r="B65" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="10" t="s">
         <v>149</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E65" s="12" t="s">
+      <c r="E65" s="8" t="s">
         <v>150</v>
       </c>
       <c r="F65" s="8"/>
@@ -8963,13 +8953,13 @@
       <c r="B66" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="10" t="s">
         <v>149</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E66" s="12" t="s">
+      <c r="E66" s="8" t="s">
         <v>153</v>
       </c>
       <c r="F66" s="8"/>
@@ -9074,13 +9064,13 @@
       <c r="B69" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="8" t="s">
         <v>161</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="E69" s="8" t="s">
         <v>150</v>
       </c>
       <c r="F69" s="8"/>
@@ -9111,13 +9101,13 @@
       <c r="B70" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="8" t="s">
         <v>161</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="E70" s="8" t="s">
         <v>153</v>
       </c>
       <c r="F70" s="8"/>
@@ -9158,7 +9148,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
-      <c r="I71" s="12" t="s">
+      <c r="I71" s="8" t="s">
         <v>165</v>
       </c>
       <c r="J71" s="8"/>
@@ -9215,15 +9205,15 @@
       <c r="X72" s="8"/>
       <c r="Y72" s="8"/>
     </row>
-    <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="8" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>73</v>
@@ -9250,21 +9240,21 @@
       <c r="X73" s="8"/>
       <c r="Y73" s="8"/>
     </row>
-    <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>73</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
@@ -9314,19 +9304,19 @@
       <c r="X75" s="8"/>
       <c r="Y75" s="8"/>
     </row>
-    <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
@@ -9351,13 +9341,13 @@
     </row>
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>73</v>
@@ -9389,10 +9379,10 @@
         <v>96</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>73</v>
@@ -9424,10 +9414,10 @@
         <v>70</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>73</v>
@@ -9435,10 +9425,10 @@
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
@@ -9460,13 +9450,13 @@
     </row>
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>73</v>
@@ -9495,19 +9485,19 @@
     </row>
     <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>73</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
@@ -9559,19 +9549,19 @@
       <c r="X82" s="8"/>
       <c r="Y82" s="8"/>
     </row>
-    <row r="83" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
@@ -9596,13 +9586,13 @@
     </row>
     <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -9632,10 +9622,10 @@
         <v>96</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -9665,19 +9655,19 @@
         <v>70</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
@@ -9699,13 +9689,13 @@
     </row>
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -9764,7 +9754,7 @@
         <v>47</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -9773,7 +9763,7 @@
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
       <c r="I89" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
@@ -9797,7 +9787,7 @@
         <v>47</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
@@ -9806,7 +9796,7 @@
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
       <c r="I90" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
@@ -9827,17 +9817,17 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
@@ -9860,21 +9850,21 @@
       <c r="X91" s="8"/>
       <c r="Y91" s="8"/>
     </row>
-    <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="8" t="s">
         <v>111</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>73</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
@@ -9897,21 +9887,21 @@
       <c r="X92" s="8"/>
       <c r="Y92" s="8"/>
     </row>
-    <row r="93" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>73</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
@@ -9934,21 +9924,21 @@
       <c r="X93" s="8"/>
       <c r="Y93" s="8"/>
     </row>
-    <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>73</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
@@ -9976,16 +9966,16 @@
         <v>13</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E95" s="12" t="s">
-        <v>223</v>
+      <c r="E95" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
@@ -10010,18 +10000,18 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E96" s="12"/>
+      <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
@@ -10045,13 +10035,13 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B97" s="12" t="s">
         <v>228</v>
       </c>
+      <c r="B97" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="C97" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>73</v>
@@ -10082,17 +10072,17 @@
       <c r="A98" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B98" s="12" t="s">
-        <v>230</v>
+      <c r="B98" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E98" s="12" t="s">
-        <v>232</v>
+      <c r="E98" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
@@ -10149,10 +10139,10 @@
         <v>96</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -10211,15 +10201,15 @@
         <v>13</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
@@ -10243,13 +10233,13 @@
     </row>
     <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -10276,18 +10266,18 @@
     </row>
     <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
@@ -10311,13 +10301,13 @@
     </row>
     <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -10344,18 +10334,18 @@
     </row>
     <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
@@ -10379,13 +10369,13 @@
     </row>
     <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>248</v>
+        <v>210</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>249</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -10412,20 +10402,20 @@
     </row>
     <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C108" s="15" t="s">
         <v>251</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>252</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
@@ -10449,20 +10439,20 @@
     </row>
     <row r="109" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C109" s="15" t="s">
         <v>255</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>256</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -10486,20 +10476,20 @@
     </row>
     <row r="110" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C110" s="15" t="s">
         <v>258</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>259</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -10523,13 +10513,13 @@
     </row>
     <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -10556,20 +10546,20 @@
     </row>
     <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="C112" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B112" s="13" t="s">
         <v>263</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>264</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
@@ -10593,20 +10583,20 @@
     </row>
     <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="C113" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B113" s="13" t="s">
         <v>266</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>267</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -10630,20 +10620,20 @@
     </row>
     <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="C114" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B114" s="13" t="s">
         <v>269</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>270</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
@@ -10667,20 +10657,20 @@
     </row>
     <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="C115" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B115" s="13" t="s">
         <v>272</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>273</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -10704,20 +10694,20 @@
     </row>
     <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B116" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="C116" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B116" s="13" t="s">
         <v>275</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>276</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -10741,20 +10731,20 @@
     </row>
     <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B117" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="C117" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B117" s="13" t="s">
         <v>278</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>279</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
@@ -10778,20 +10768,20 @@
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B118" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="C118" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B118" s="13" t="s">
         <v>281</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>282</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -10815,20 +10805,20 @@
     </row>
     <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="C119" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B119" s="13" t="s">
         <v>284</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>285</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -10852,13 +10842,13 @@
     </row>
     <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -10885,20 +10875,20 @@
     </row>
     <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B121" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C121" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B121" s="13" t="s">
         <v>289</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>290</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -10922,20 +10912,20 @@
     </row>
     <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B122" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="C122" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B122" s="13" t="s">
         <v>292</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>293</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
@@ -10959,20 +10949,20 @@
     </row>
     <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B123" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="C123" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B123" s="13" t="s">
         <v>295</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>296</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -10996,20 +10986,20 @@
     </row>
     <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B124" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="C124" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B124" s="13" t="s">
         <v>298</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>299</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
@@ -11033,20 +11023,20 @@
     </row>
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B125" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="C125" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B125" s="13" t="s">
         <v>301</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>302</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
@@ -11070,20 +11060,20 @@
     </row>
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B126" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="C126" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B126" s="13" t="s">
         <v>304</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>305</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -11107,20 +11097,20 @@
     </row>
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B127" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="C127" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B127" s="13" t="s">
         <v>307</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>308</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
@@ -11144,20 +11134,20 @@
     </row>
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B128" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="C128" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B128" s="13" t="s">
         <v>310</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>311</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -11181,20 +11171,20 @@
     </row>
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B129" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="C129" s="15" t="s">
-        <v>275</v>
+        <v>210</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>276</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
@@ -11218,20 +11208,20 @@
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B130" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="C130" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B130" s="13" t="s">
         <v>315</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>316</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
@@ -11255,20 +11245,20 @@
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B131" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="C131" s="15" t="s">
-        <v>284</v>
+        <v>210</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>285</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
@@ -11292,13 +11282,13 @@
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="4"/>
@@ -11325,20 +11315,20 @@
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
@@ -11362,20 +11352,20 @@
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
@@ -11399,20 +11389,20 @@
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
@@ -11436,13 +11426,13 @@
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="4"/>
@@ -11469,20 +11459,20 @@
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
@@ -11506,20 +11496,20 @@
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
@@ -11543,20 +11533,20 @@
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
@@ -11580,13 +11570,13 @@
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="4"/>
@@ -11613,20 +11603,20 @@
     </row>
     <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
@@ -11650,20 +11640,20 @@
     </row>
     <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G142" s="8"/>
       <c r="H142" s="8"/>
@@ -11687,20 +11677,20 @@
     </row>
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
@@ -11724,17 +11714,17 @@
     </row>
     <row r="144" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
@@ -11758,125 +11748,125 @@
       <c r="Y144" s="8"/>
     </row>
     <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="B145" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C145" s="15" t="s">
+      <c r="A145" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B145" s="13" t="s">
         <v>351</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>352</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="G145" s="17"/>
-      <c r="H145" s="17"/>
-      <c r="I145" s="17"/>
-      <c r="J145" s="17"/>
-      <c r="K145" s="17"/>
-      <c r="L145" s="17"/>
-      <c r="M145" s="17"/>
-      <c r="N145" s="17"/>
-      <c r="O145" s="17"/>
-      <c r="P145" s="17"/>
-      <c r="Q145" s="17"/>
-      <c r="R145" s="17"/>
-      <c r="S145" s="17"/>
-      <c r="T145" s="17"/>
-      <c r="U145" s="17"/>
-      <c r="V145" s="17"/>
-      <c r="W145" s="17"/>
-      <c r="X145" s="17"/>
-      <c r="Y145" s="17"/>
+        <v>254</v>
+      </c>
+      <c r="G145" s="15"/>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="15"/>
+      <c r="K145" s="15"/>
+      <c r="L145" s="15"/>
+      <c r="M145" s="15"/>
+      <c r="N145" s="15"/>
+      <c r="O145" s="15"/>
+      <c r="P145" s="15"/>
+      <c r="Q145" s="15"/>
+      <c r="R145" s="15"/>
+      <c r="S145" s="15"/>
+      <c r="T145" s="15"/>
+      <c r="U145" s="15"/>
+      <c r="V145" s="15"/>
+      <c r="W145" s="15"/>
+      <c r="X145" s="15"/>
+      <c r="Y145" s="15"/>
     </row>
     <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="B146" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="C146" s="15" t="s">
+      <c r="A146" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B146" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="D146" s="17"/>
+      <c r="C146" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="D146" s="15"/>
       <c r="E146" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="G146" s="17"/>
-      <c r="H146" s="17"/>
-      <c r="I146" s="17"/>
-      <c r="J146" s="17"/>
-      <c r="K146" s="17"/>
-      <c r="L146" s="17"/>
-      <c r="M146" s="17"/>
-      <c r="N146" s="17"/>
-      <c r="O146" s="17"/>
-      <c r="P146" s="17"/>
-      <c r="Q146" s="17"/>
-      <c r="R146" s="17"/>
-      <c r="S146" s="17"/>
-      <c r="T146" s="17"/>
-      <c r="U146" s="17"/>
-      <c r="V146" s="17"/>
-      <c r="W146" s="17"/>
-      <c r="X146" s="17"/>
-      <c r="Y146" s="17"/>
+        <v>254</v>
+      </c>
+      <c r="G146" s="15"/>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="15"/>
+      <c r="K146" s="15"/>
+      <c r="L146" s="15"/>
+      <c r="M146" s="15"/>
+      <c r="N146" s="15"/>
+      <c r="O146" s="15"/>
+      <c r="P146" s="15"/>
+      <c r="Q146" s="15"/>
+      <c r="R146" s="15"/>
+      <c r="S146" s="15"/>
+      <c r="T146" s="15"/>
+      <c r="U146" s="15"/>
+      <c r="V146" s="15"/>
+      <c r="W146" s="15"/>
+      <c r="X146" s="15"/>
+      <c r="Y146" s="15"/>
     </row>
     <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="B147" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="C147" s="15" t="s">
+      <c r="A147" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B147" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="D147" s="17"/>
+      <c r="C147" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D147" s="15"/>
       <c r="E147" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="G147" s="17"/>
-      <c r="H147" s="17"/>
-      <c r="I147" s="17"/>
-      <c r="J147" s="17"/>
-      <c r="K147" s="17"/>
-      <c r="L147" s="17"/>
-      <c r="M147" s="17"/>
-      <c r="N147" s="17"/>
-      <c r="O147" s="17"/>
-      <c r="P147" s="17"/>
-      <c r="Q147" s="17"/>
-      <c r="R147" s="17"/>
-      <c r="S147" s="17"/>
-      <c r="T147" s="17"/>
-      <c r="U147" s="17"/>
-      <c r="V147" s="17"/>
-      <c r="W147" s="17"/>
-      <c r="X147" s="17"/>
-      <c r="Y147" s="17"/>
+        <v>254</v>
+      </c>
+      <c r="G147" s="15"/>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="15"/>
+      <c r="K147" s="15"/>
+      <c r="L147" s="15"/>
+      <c r="M147" s="15"/>
+      <c r="N147" s="15"/>
+      <c r="O147" s="15"/>
+      <c r="P147" s="15"/>
+      <c r="Q147" s="15"/>
+      <c r="R147" s="15"/>
+      <c r="S147" s="15"/>
+      <c r="T147" s="15"/>
+      <c r="U147" s="15"/>
+      <c r="V147" s="15"/>
+      <c r="W147" s="15"/>
+      <c r="X147" s="15"/>
+      <c r="Y147" s="15"/>
     </row>
     <row r="148" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
@@ -11902,132 +11892,132 @@
       <c r="Y148" s="8"/>
     </row>
     <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="B149" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="C149" s="15" t="s">
+      <c r="A149" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B149" s="13" t="s">
         <v>362</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>363</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="G149" s="17"/>
-      <c r="H149" s="17"/>
-      <c r="I149" s="17"/>
-      <c r="J149" s="17"/>
-      <c r="K149" s="17"/>
-      <c r="L149" s="17"/>
-      <c r="M149" s="17"/>
-      <c r="N149" s="17"/>
-      <c r="O149" s="17"/>
-      <c r="P149" s="17"/>
-      <c r="Q149" s="17"/>
-      <c r="R149" s="17"/>
-      <c r="S149" s="17"/>
-      <c r="T149" s="17"/>
-      <c r="U149" s="17"/>
-      <c r="V149" s="17"/>
-      <c r="W149" s="17"/>
-      <c r="X149" s="17"/>
-      <c r="Y149" s="17"/>
+        <v>254</v>
+      </c>
+      <c r="G149" s="15"/>
+      <c r="H149" s="15"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="15"/>
+      <c r="K149" s="15"/>
+      <c r="L149" s="15"/>
+      <c r="M149" s="15"/>
+      <c r="N149" s="15"/>
+      <c r="O149" s="15"/>
+      <c r="P149" s="15"/>
+      <c r="Q149" s="15"/>
+      <c r="R149" s="15"/>
+      <c r="S149" s="15"/>
+      <c r="T149" s="15"/>
+      <c r="U149" s="15"/>
+      <c r="V149" s="15"/>
+      <c r="W149" s="15"/>
+      <c r="X149" s="15"/>
+      <c r="Y149" s="15"/>
     </row>
     <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="B150" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="C150" s="15" t="s">
+      <c r="A150" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B150" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="D150" s="17"/>
+      <c r="C150" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="D150" s="15"/>
       <c r="E150" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="G150" s="17"/>
-      <c r="H150" s="17"/>
-      <c r="I150" s="17"/>
-      <c r="J150" s="17"/>
-      <c r="K150" s="17"/>
-      <c r="L150" s="17"/>
-      <c r="M150" s="17"/>
-      <c r="N150" s="17"/>
-      <c r="O150" s="17"/>
-      <c r="P150" s="17"/>
-      <c r="Q150" s="17"/>
-      <c r="R150" s="17"/>
-      <c r="S150" s="17"/>
-      <c r="T150" s="17"/>
-      <c r="U150" s="17"/>
-      <c r="V150" s="17"/>
-      <c r="W150" s="17"/>
-      <c r="X150" s="17"/>
-      <c r="Y150" s="17"/>
+        <v>254</v>
+      </c>
+      <c r="G150" s="15"/>
+      <c r="H150" s="15"/>
+      <c r="I150" s="15"/>
+      <c r="J150" s="15"/>
+      <c r="K150" s="15"/>
+      <c r="L150" s="15"/>
+      <c r="M150" s="15"/>
+      <c r="N150" s="15"/>
+      <c r="O150" s="15"/>
+      <c r="P150" s="15"/>
+      <c r="Q150" s="15"/>
+      <c r="R150" s="15"/>
+      <c r="S150" s="15"/>
+      <c r="T150" s="15"/>
+      <c r="U150" s="15"/>
+      <c r="V150" s="15"/>
+      <c r="W150" s="15"/>
+      <c r="X150" s="15"/>
+      <c r="Y150" s="15"/>
     </row>
     <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="B151" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="C151" s="15" t="s">
+      <c r="A151" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B151" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="D151" s="17"/>
+      <c r="C151" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="D151" s="15"/>
       <c r="E151" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="G151" s="17"/>
-      <c r="H151" s="17"/>
-      <c r="I151" s="17"/>
-      <c r="J151" s="17"/>
-      <c r="K151" s="17"/>
-      <c r="L151" s="17"/>
-      <c r="M151" s="17"/>
-      <c r="N151" s="17"/>
-      <c r="O151" s="17"/>
-      <c r="P151" s="17"/>
-      <c r="Q151" s="17"/>
-      <c r="R151" s="17"/>
-      <c r="S151" s="17"/>
-      <c r="T151" s="17"/>
-      <c r="U151" s="17"/>
-      <c r="V151" s="17"/>
-      <c r="W151" s="17"/>
-      <c r="X151" s="17"/>
-      <c r="Y151" s="17"/>
+        <v>254</v>
+      </c>
+      <c r="G151" s="15"/>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="15"/>
+      <c r="K151" s="15"/>
+      <c r="L151" s="15"/>
+      <c r="M151" s="15"/>
+      <c r="N151" s="15"/>
+      <c r="O151" s="15"/>
+      <c r="P151" s="15"/>
+      <c r="Q151" s="15"/>
+      <c r="R151" s="15"/>
+      <c r="S151" s="15"/>
+      <c r="T151" s="15"/>
+      <c r="U151" s="15"/>
+      <c r="V151" s="15"/>
+      <c r="W151" s="15"/>
+      <c r="X151" s="15"/>
+      <c r="Y151" s="15"/>
     </row>
     <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="B152" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="C152" s="15" t="s">
+      <c r="A152" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B152" s="13" t="s">
         <v>371</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>372</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
@@ -12050,220 +12040,220 @@
       <c r="Y152" s="4"/>
     </row>
     <row r="153" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="B153" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="C153" s="19" t="s">
+      <c r="A153" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B153" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="D153" s="18"/>
-      <c r="E153" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="F153" s="18" t="s">
+      <c r="C153" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="G153" s="18"/>
-      <c r="H153" s="18"/>
-      <c r="I153" s="18"/>
-      <c r="J153" s="18"/>
-      <c r="K153" s="18"/>
-      <c r="L153" s="18"/>
-      <c r="M153" s="18"/>
-      <c r="N153" s="18"/>
-      <c r="O153" s="18"/>
-      <c r="P153" s="18"/>
-      <c r="Q153" s="18"/>
-      <c r="R153" s="18"/>
-      <c r="S153" s="18"/>
-      <c r="T153" s="18"/>
-      <c r="U153" s="18"/>
-      <c r="V153" s="18"/>
-      <c r="W153" s="18"/>
-      <c r="X153" s="18"/>
-      <c r="Y153" s="18"/>
+      <c r="D153" s="16"/>
+      <c r="E153" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="F153" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="G153" s="16"/>
+      <c r="H153" s="16"/>
+      <c r="I153" s="16"/>
+      <c r="J153" s="16"/>
+      <c r="K153" s="16"/>
+      <c r="L153" s="16"/>
+      <c r="M153" s="16"/>
+      <c r="N153" s="16"/>
+      <c r="O153" s="16"/>
+      <c r="P153" s="16"/>
+      <c r="Q153" s="16"/>
+      <c r="R153" s="16"/>
+      <c r="S153" s="16"/>
+      <c r="T153" s="16"/>
+      <c r="U153" s="16"/>
+      <c r="V153" s="16"/>
+      <c r="W153" s="16"/>
+      <c r="X153" s="16"/>
+      <c r="Y153" s="16"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="B154" s="21" t="s">
+      <c r="A154" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B154" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="C154" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="D154" s="5"/>
+      <c r="E154" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="F154" s="19"/>
+      <c r="G154" s="19"/>
+      <c r="H154" s="19"/>
+      <c r="I154" s="19"/>
+      <c r="J154" s="19"/>
+      <c r="K154" s="19"/>
+      <c r="L154" s="19"/>
+      <c r="M154" s="19"/>
+      <c r="N154" s="19"/>
+      <c r="O154" s="19"/>
+      <c r="P154" s="19"/>
+      <c r="Q154" s="19"/>
+      <c r="R154" s="19"/>
+      <c r="S154" s="19"/>
+      <c r="T154" s="19"/>
+      <c r="U154" s="19"/>
+      <c r="V154" s="19"/>
+      <c r="W154" s="19"/>
+      <c r="X154" s="19"/>
+      <c r="Y154" s="19"/>
+    </row>
+    <row r="155" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B155" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="C155" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="D155" s="16"/>
+      <c r="E155" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F155" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="C154" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="D154" s="5"/>
-      <c r="E154" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="F154" s="21"/>
-      <c r="G154" s="21"/>
-      <c r="H154" s="21"/>
-      <c r="I154" s="21"/>
-      <c r="J154" s="21"/>
-      <c r="K154" s="21"/>
-      <c r="L154" s="21"/>
-      <c r="M154" s="21"/>
-      <c r="N154" s="21"/>
-      <c r="O154" s="21"/>
-      <c r="P154" s="21"/>
-      <c r="Q154" s="21"/>
-      <c r="R154" s="21"/>
-      <c r="S154" s="21"/>
-      <c r="T154" s="21"/>
-      <c r="U154" s="21"/>
-      <c r="V154" s="21"/>
-      <c r="W154" s="21"/>
-      <c r="X154" s="21"/>
-      <c r="Y154" s="21"/>
-    </row>
-    <row r="155" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="B155" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="C155" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="D155" s="18"/>
-      <c r="E155" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="F155" s="18" t="s">
+      <c r="G155" s="16"/>
+      <c r="H155" s="16"/>
+      <c r="I155" s="16"/>
+      <c r="J155" s="16"/>
+      <c r="K155" s="16"/>
+      <c r="L155" s="16"/>
+      <c r="M155" s="16"/>
+      <c r="N155" s="16"/>
+      <c r="O155" s="16"/>
+      <c r="P155" s="16"/>
+      <c r="Q155" s="16"/>
+      <c r="R155" s="16"/>
+      <c r="S155" s="16"/>
+      <c r="T155" s="16"/>
+      <c r="U155" s="16"/>
+      <c r="V155" s="16"/>
+      <c r="W155" s="16"/>
+      <c r="X155" s="16"/>
+      <c r="Y155" s="16"/>
+    </row>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B156" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="C156" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="D156" s="5"/>
+      <c r="E156" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="F156" s="19"/>
+      <c r="G156" s="19"/>
+      <c r="H156" s="19"/>
+      <c r="I156" s="19"/>
+      <c r="J156" s="19"/>
+      <c r="K156" s="19"/>
+      <c r="L156" s="19"/>
+      <c r="M156" s="19"/>
+      <c r="N156" s="19"/>
+      <c r="O156" s="19"/>
+      <c r="P156" s="19"/>
+      <c r="Q156" s="19"/>
+      <c r="R156" s="19"/>
+      <c r="S156" s="19"/>
+      <c r="T156" s="19"/>
+      <c r="U156" s="19"/>
+      <c r="V156" s="19"/>
+      <c r="W156" s="19"/>
+      <c r="X156" s="19"/>
+      <c r="Y156" s="19"/>
+    </row>
+    <row r="157" s="24" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B157" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="C157" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="G155" s="18"/>
-      <c r="H155" s="18"/>
-      <c r="I155" s="18"/>
-      <c r="J155" s="18"/>
-      <c r="K155" s="18"/>
-      <c r="L155" s="18"/>
-      <c r="M155" s="18"/>
-      <c r="N155" s="18"/>
-      <c r="O155" s="18"/>
-      <c r="P155" s="18"/>
-      <c r="Q155" s="18"/>
-      <c r="R155" s="18"/>
-      <c r="S155" s="18"/>
-      <c r="T155" s="18"/>
-      <c r="U155" s="18"/>
-      <c r="V155" s="18"/>
-      <c r="W155" s="18"/>
-      <c r="X155" s="18"/>
-      <c r="Y155" s="18"/>
-    </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="B156" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="C156" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="D156" s="5"/>
-      <c r="E156" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="F156" s="21"/>
-      <c r="G156" s="21"/>
-      <c r="H156" s="21"/>
-      <c r="I156" s="21"/>
-      <c r="J156" s="21"/>
-      <c r="K156" s="21"/>
-      <c r="L156" s="21"/>
-      <c r="M156" s="21"/>
-      <c r="N156" s="21"/>
-      <c r="O156" s="21"/>
-      <c r="P156" s="21"/>
-      <c r="Q156" s="21"/>
-      <c r="R156" s="21"/>
-      <c r="S156" s="21"/>
-      <c r="T156" s="21"/>
-      <c r="U156" s="21"/>
-      <c r="V156" s="21"/>
-      <c r="W156" s="21"/>
-      <c r="X156" s="21"/>
-      <c r="Y156" s="21"/>
-    </row>
-    <row r="157" s="26" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="B157" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="C157" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="D157" s="23"/>
-      <c r="E157" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="F157" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="G157" s="23"/>
-      <c r="H157" s="23"/>
-      <c r="I157" s="23"/>
-      <c r="J157" s="23"/>
-      <c r="K157" s="23"/>
-      <c r="L157" s="23"/>
-      <c r="M157" s="23"/>
-      <c r="N157" s="23"/>
-      <c r="O157" s="23"/>
-      <c r="P157" s="23"/>
-      <c r="Q157" s="23"/>
-      <c r="R157" s="23"/>
-      <c r="S157" s="23"/>
-      <c r="T157" s="23"/>
-      <c r="U157" s="23"/>
-      <c r="V157" s="23"/>
-      <c r="W157" s="23"/>
-      <c r="X157" s="23"/>
-      <c r="Y157" s="23"/>
+      <c r="D157" s="21"/>
+      <c r="E157" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="F157" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="G157" s="21"/>
+      <c r="H157" s="21"/>
+      <c r="I157" s="21"/>
+      <c r="J157" s="21"/>
+      <c r="K157" s="21"/>
+      <c r="L157" s="21"/>
+      <c r="M157" s="21"/>
+      <c r="N157" s="21"/>
+      <c r="O157" s="21"/>
+      <c r="P157" s="21"/>
+      <c r="Q157" s="21"/>
+      <c r="R157" s="21"/>
+      <c r="S157" s="21"/>
+      <c r="T157" s="21"/>
+      <c r="U157" s="21"/>
+      <c r="V157" s="21"/>
+      <c r="W157" s="21"/>
+      <c r="X157" s="21"/>
+      <c r="Y157" s="21"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="B158" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="C158" s="21" t="s">
+      <c r="A158" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B158" s="19" t="s">
         <v>384</v>
       </c>
+      <c r="C158" s="19" t="s">
+        <v>385</v>
+      </c>
       <c r="D158" s="5"/>
-      <c r="E158" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="F158" s="21"/>
-      <c r="G158" s="21"/>
-      <c r="H158" s="21"/>
-      <c r="I158" s="21"/>
-      <c r="J158" s="21"/>
-      <c r="K158" s="21"/>
-      <c r="L158" s="21"/>
-      <c r="M158" s="21"/>
-      <c r="N158" s="21"/>
-      <c r="O158" s="21"/>
-      <c r="P158" s="21"/>
-      <c r="Q158" s="21"/>
-      <c r="R158" s="21"/>
-      <c r="S158" s="21"/>
-      <c r="T158" s="21"/>
-      <c r="U158" s="21"/>
-      <c r="V158" s="21"/>
-      <c r="W158" s="21"/>
-      <c r="X158" s="21"/>
-      <c r="Y158" s="21"/>
+      <c r="E158" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="F158" s="19"/>
+      <c r="G158" s="19"/>
+      <c r="H158" s="19"/>
+      <c r="I158" s="19"/>
+      <c r="J158" s="19"/>
+      <c r="K158" s="19"/>
+      <c r="L158" s="19"/>
+      <c r="M158" s="19"/>
+      <c r="N158" s="19"/>
+      <c r="O158" s="19"/>
+      <c r="P158" s="19"/>
+      <c r="Q158" s="19"/>
+      <c r="R158" s="19"/>
+      <c r="S158" s="19"/>
+      <c r="T158" s="19"/>
+      <c r="U158" s="19"/>
+      <c r="V158" s="19"/>
+      <c r="W158" s="19"/>
+      <c r="X158" s="19"/>
+      <c r="Y158" s="19"/>
     </row>
     <row r="159" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="4" t="s">
@@ -12295,70 +12285,70 @@
       <c r="Y159" s="8"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="27" t="s">
+      <c r="A160" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B160" s="27" t="s">
-        <v>385</v>
-      </c>
-      <c r="C160" s="27" t="s">
+      <c r="B160" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="C160" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D160" s="28"/>
-      <c r="E160" s="28"/>
-      <c r="F160" s="27" t="s">
+      <c r="D160" s="26"/>
+      <c r="E160" s="26"/>
+      <c r="F160" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G160" s="28"/>
-      <c r="H160" s="28"/>
-      <c r="I160" s="28"/>
-      <c r="J160" s="28"/>
-      <c r="K160" s="28"/>
-      <c r="L160" s="28"/>
-      <c r="M160" s="28"/>
-      <c r="N160" s="28"/>
+      <c r="G160" s="26"/>
+      <c r="H160" s="26"/>
+      <c r="I160" s="26"/>
+      <c r="J160" s="26"/>
+      <c r="K160" s="26"/>
+      <c r="L160" s="26"/>
+      <c r="M160" s="26"/>
+      <c r="N160" s="26"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="29" t="s">
+      <c r="A161" s="27" t="s">
         <v>47</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D161" s="30"/>
-      <c r="E161" s="31"/>
-      <c r="F161" s="31"/>
-      <c r="G161" s="31"/>
-      <c r="H161" s="31"/>
+      <c r="D161" s="28"/>
+      <c r="E161" s="29"/>
+      <c r="F161" s="29"/>
+      <c r="G161" s="29"/>
+      <c r="H161" s="29"/>
       <c r="I161" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="J161" s="31"/>
-      <c r="K161" s="31"/>
-      <c r="L161" s="31"/>
-      <c r="M161" s="31"/>
-      <c r="N161" s="31"/>
+        <v>388</v>
+      </c>
+      <c r="J161" s="29"/>
+      <c r="K161" s="29"/>
+      <c r="L161" s="29"/>
+      <c r="M161" s="29"/>
+      <c r="N161" s="29"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="32" t="s">
+      <c r="A162" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B162" s="28"/>
-      <c r="C162" s="28"/>
-      <c r="D162" s="28"/>
-      <c r="E162" s="28"/>
-      <c r="F162" s="28"/>
-      <c r="G162" s="28"/>
-      <c r="H162" s="28"/>
-      <c r="I162" s="28"/>
-      <c r="J162" s="28"/>
-      <c r="K162" s="28"/>
-      <c r="L162" s="28"/>
-      <c r="M162" s="28"/>
-      <c r="N162" s="28"/>
+      <c r="B162" s="26"/>
+      <c r="C162" s="26"/>
+      <c r="D162" s="26"/>
+      <c r="E162" s="26"/>
+      <c r="F162" s="26"/>
+      <c r="G162" s="26"/>
+      <c r="H162" s="26"/>
+      <c r="I162" s="26"/>
+      <c r="J162" s="26"/>
+      <c r="K162" s="26"/>
+      <c r="L162" s="26"/>
+      <c r="M162" s="26"/>
+      <c r="N162" s="26"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
@@ -13365,1693 +13355,1625 @@
       <formula>AND($A93="end repeat", $B93 = "", $C93 = "", $D93 = "", $E93 = "", $F93 = "", $G93 = "", $H93 = "", $I93 = "", $J93 = "", $K93 = "", $L93 = "", $M93 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I100,I94">
-    <cfRule type="expression" priority="210" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="208">
-      <formula>AND($I94 = "", $A94 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C100,C94">
-    <cfRule type="expression" priority="211" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="209">
-      <formula>AND(AND(NOT($A94 = "end group"), NOT($A94 = "end repeat"), NOT($A94 = "")), $C94 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B100,B94">
-    <cfRule type="expression" priority="212" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="210">
-      <formula>AND(AND(NOT($A94 = "end group"), NOT($A94 = "end repeat"), NOT($A94 = "")), $B94 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A100,A94">
-    <cfRule type="cellIs" priority="213" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="211">
+  <conditionalFormatting sqref="E100">
+    <cfRule type="containsText" priority="210" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="213"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="expression" priority="211" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="214">
+      <formula>AND($A100="begin group", NOT($B100 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="expression" priority="212" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="215">
+      <formula>AND($A100="end group", $B100 = "", $C100 = "", $D100 = "", $E100 = "", $F100 = "", $G100 = "", $H100 = "", $I100 = "", $J100 = "", $K100 = "", $L100 = "", $M100 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" priority="213" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="216">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="expression" priority="214" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="217">
+      <formula>AND($A100="begin repeat", NOT($B100 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="expression" priority="215" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="218">
+      <formula>AND($A100="end repeat", $B100 = "", $C100 = "", $D100 = "", $E100 = "", $F100 = "", $G100 = "", $H100 = "", $I100 = "", $J100 = "", $K100 = "", $L100 = "", $M100 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A88">
+    <cfRule type="containsText" priority="216" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="219"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A88">
+    <cfRule type="expression" priority="217" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="220">
+      <formula>AND($A88="begin group", NOT($B88 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A88">
+    <cfRule type="expression" priority="218" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="221">
+      <formula>AND($A88="end group", $B88 = "", $C88 = "", $D88 = "", $E88 = "", $F88 = "", $G88 = "", $H88 = "", $I88 = "", $J88 = "", $K88 = "", $L88 = "", $M88 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A88">
+    <cfRule type="cellIs" priority="219" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="222">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A88">
+    <cfRule type="cellIs" priority="220" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="223">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H100,H94">
-    <cfRule type="expression" priority="214" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="212">
-      <formula>AND(NOT($G94 = ""), $H94 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="containsText" priority="215" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="213"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="expression" priority="216" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="214">
-      <formula>AND($A100="begin group", NOT($B100 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="expression" priority="217" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="215">
-      <formula>AND($A100="end group", $B100 = "", $C100 = "", $D100 = "", $E100 = "", $F100 = "", $G100 = "", $H100 = "", $I100 = "", $J100 = "", $K100 = "", $L100 = "", $M100 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" priority="218" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="216">
+  <conditionalFormatting sqref="A88">
+    <cfRule type="expression" priority="221" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="224">
+      <formula>AND($A88="begin repeat", NOT($B88 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A88">
+    <cfRule type="expression" priority="222" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="225">
+      <formula>AND($A88="end repeat", $B88 = "", $C88 = "", $D88 = "", $E88 = "", $F88 = "", $G88 = "", $H88 = "", $I88 = "", $J88 = "", $K88 = "", $L88 = "", $M88 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74:B75">
+    <cfRule type="expression" priority="223" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="226">
+      <formula>COUNTIF($B$2:$B$1091,B74)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B86:B87">
+    <cfRule type="expression" priority="224" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="228">
+      <formula>COUNTIF($B$2:$B$1082,B86)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121:E132">
+    <cfRule type="containsText" priority="225" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="229"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121:E132">
+    <cfRule type="expression" priority="226" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="230">
+      <formula>AND($A121="begin group", NOT($B121 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121:E132">
+    <cfRule type="expression" priority="227" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="231">
+      <formula>AND($A121="end group", $B121 = "", $C121 = "", $D121 = "", $E121 = "", $F121 = "", $G121 = "", $H121 = "", $I121 = "", $J121 = "", $K121 = "", $L121 = "", $M121 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121:E132">
+    <cfRule type="cellIs" priority="228" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="232">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="expression" priority="219" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="217">
-      <formula>AND($A100="begin repeat", NOT($B100 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="expression" priority="220" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="218">
-      <formula>AND($A100="end repeat", $B100 = "", $C100 = "", $D100 = "", $E100 = "", $F100 = "", $G100 = "", $H100 = "", $I100 = "", $J100 = "", $K100 = "", $L100 = "", $M100 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A88">
-    <cfRule type="containsText" priority="221" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="219"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A88">
-    <cfRule type="expression" priority="222" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="220">
-      <formula>AND($A88="begin group", NOT($B88 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A88">
-    <cfRule type="expression" priority="223" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="221">
-      <formula>AND($A88="end group", $B88 = "", $C88 = "", $D88 = "", $E88 = "", $F88 = "", $G88 = "", $H88 = "", $I88 = "", $J88 = "", $K88 = "", $L88 = "", $M88 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A88">
-    <cfRule type="cellIs" priority="224" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="222">
+  <conditionalFormatting sqref="E121:E132">
+    <cfRule type="expression" priority="229" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="233">
+      <formula>AND($A121="begin repeat", NOT($B121 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121:E132">
+    <cfRule type="expression" priority="230" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="234">
+      <formula>AND($A121="end repeat", $B121 = "", $C121 = "", $D121 = "", $E121 = "", $F121 = "", $G121 = "", $H121 = "", $I121 = "", $J121 = "", $K121 = "", $L121 = "", $M121 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="containsText" priority="231" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="235"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="expression" priority="232" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="236">
+      <formula>AND($A134="begin group", NOT($B134 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="expression" priority="233" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="237">
+      <formula>AND($A134="end group", $B134 = "", $C134 = "", $D134 = "", $E134 = "", $F134 = "", $G134 = "", $H134 = "", $I134 = "", $J134 = "", $K134 = "", $L134 = "", $M134 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" priority="234" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="238">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A88">
-    <cfRule type="cellIs" priority="225" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="223">
+  <conditionalFormatting sqref="E134">
+    <cfRule type="expression" priority="235" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="239">
+      <formula>AND($A134="begin repeat", NOT($B134 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="expression" priority="236" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="240">
+      <formula>AND($A134="end repeat", $B134 = "", $C134 = "", $D134 = "", $E134 = "", $F134 = "", $G134 = "", $H134 = "", $I134 = "", $J134 = "", $K134 = "", $L134 = "", $M134 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="containsText" priority="237" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="241"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="expression" priority="238" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="242">
+      <formula>AND($A135="begin group", NOT($B135 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="expression" priority="239" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="243">
+      <formula>AND($A135="end group", $B135 = "", $C135 = "", $D135 = "", $E135 = "", $F135 = "", $G135 = "", $H135 = "", $I135 = "", $J135 = "", $K135 = "", $L135 = "", $M135 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" priority="240" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="244">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="expression" priority="241" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="245">
+      <formula>AND($A135="begin repeat", NOT($B135 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="expression" priority="242" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="246">
+      <formula>AND($A135="end repeat", $B135 = "", $C135 = "", $D135 = "", $E135 = "", $F135 = "", $G135 = "", $H135 = "", $I135 = "", $J135 = "", $K135 = "", $L135 = "", $M135 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="containsText" priority="243" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="247"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="expression" priority="244" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="248">
+      <formula>AND($A141="begin group", NOT($B141 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="expression" priority="245" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="249">
+      <formula>AND($A141="end group", $B141 = "", $C141 = "", $D141 = "", $E141 = "", $F141 = "", $G141 = "", $H141 = "", $I141 = "", $J141 = "", $K141 = "", $L141 = "", $M141 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="cellIs" priority="246" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="250">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="expression" priority="247" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="251">
+      <formula>AND($A141="begin repeat", NOT($B141 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="expression" priority="248" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="252">
+      <formula>AND($A141="end repeat", $B141 = "", $C141 = "", $D141 = "", $E141 = "", $F141 = "", $G141 = "", $H141 = "", $I141 = "", $J141 = "", $K141 = "", $L141 = "", $M141 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="containsText" priority="249" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="253"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="expression" priority="250" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="254">
+      <formula>AND($A142="begin group", NOT($B142 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="expression" priority="251" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="255">
+      <formula>AND($A142="end group", $B142 = "", $C142 = "", $D142 = "", $E142 = "", $F142 = "", $G142 = "", $H142 = "", $I142 = "", $J142 = "", $K142 = "", $L142 = "", $M142 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="cellIs" priority="252" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="256">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="expression" priority="253" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="257">
+      <formula>AND($A142="begin repeat", NOT($B142 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="expression" priority="254" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="258">
+      <formula>AND($A142="end repeat", $B142 = "", $C142 = "", $D142 = "", $E142 = "", $F142 = "", $G142 = "", $H142 = "", $I142 = "", $J142 = "", $K142 = "", $L142 = "", $M142 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="containsText" priority="255" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="259"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="expression" priority="256" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="260">
+      <formula>AND($A143="begin group", NOT($B143 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="expression" priority="257" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="261">
+      <formula>AND($A143="end group", $B143 = "", $C143 = "", $D143 = "", $E143 = "", $F143 = "", $G143 = "", $H143 = "", $I143 = "", $J143 = "", $K143 = "", $L143 = "", $M143 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="cellIs" priority="258" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="262">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="expression" priority="259" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="263">
+      <formula>AND($A143="begin repeat", NOT($B143 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="expression" priority="260" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="264">
+      <formula>AND($A143="end repeat", $B143 = "", $C143 = "", $D143 = "", $E143 = "", $F143 = "", $G143 = "", $H143 = "", $I143 = "", $J143 = "", $K143 = "", $L143 = "", $M143 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E148">
+    <cfRule type="containsText" priority="261" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="265"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E148">
+    <cfRule type="expression" priority="262" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="266">
+      <formula>AND($A148="begin group", NOT($B148 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E148">
+    <cfRule type="expression" priority="263" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="267">
+      <formula>AND($A148="end group", $B148 = "", $C148 = "", $D148 = "", $E148 = "", $F148 = "", $G148 = "", $H148 = "", $I148 = "", $J148 = "", $K148 = "", $L148 = "", $M148 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E148">
+    <cfRule type="cellIs" priority="264" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="268">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E148">
+    <cfRule type="expression" priority="265" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="269">
+      <formula>AND($A148="begin repeat", NOT($B148 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E148">
+    <cfRule type="expression" priority="266" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="270">
+      <formula>AND($A148="end repeat", $B148 = "", $C148 = "", $D148 = "", $E148 = "", $F148 = "", $G148 = "", $H148 = "", $I148 = "", $J148 = "", $K148 = "", $L148 = "", $M148 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E144">
+    <cfRule type="containsText" priority="267" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="271"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E144">
+    <cfRule type="expression" priority="268" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="272">
+      <formula>AND($A144="begin group", NOT($B144 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E144">
+    <cfRule type="expression" priority="269" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="273">
+      <formula>AND($A144="end group", $B144 = "", $C144 = "", $D144 = "", $E144 = "", $F144 = "", $G144 = "", $H144 = "", $I144 = "", $J144 = "", $K144 = "", $L144 = "", $M144 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E144">
+    <cfRule type="cellIs" priority="270" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="274">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E144">
+    <cfRule type="expression" priority="271" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="275">
+      <formula>AND($A144="begin repeat", NOT($B144 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E144">
+    <cfRule type="expression" priority="272" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="276">
+      <formula>AND($A144="end repeat", $B144 = "", $C144 = "", $D144 = "", $E144 = "", $F144 = "", $G144 = "", $H144 = "", $I144 = "", $J144 = "", $K144 = "", $L144 = "", $M144 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="containsText" priority="273" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="277"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="expression" priority="274" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="278">
+      <formula>AND($A136="begin group", NOT($B136 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="expression" priority="275" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="279">
+      <formula>AND($A136="end group", $B136 = "", $C136 = "", $D136 = "", $E136 = "", $F136 = "", $G136 = "", $H136 = "", $I136 = "", $J136 = "", $K136 = "", $L136 = "", $M136 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" priority="276" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="280">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="expression" priority="277" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="281">
+      <formula>AND($A136="begin repeat", NOT($B136 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="expression" priority="278" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="282">
+      <formula>AND($A136="end repeat", $B136 = "", $C136 = "", $D136 = "", $E136 = "", $F136 = "", $G136 = "", $H136 = "", $I136 = "", $J136 = "", $K136 = "", $L136 = "", $M136 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="containsText" priority="279" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="283"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="expression" priority="280" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="284">
+      <formula>AND($A136="begin group", NOT($B136 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="expression" priority="281" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="285">
+      <formula>AND($A136="end group", $B136 = "", $C136 = "", $D136 = "", $E136 = "", $F136 = "", $G136 = "", $H136 = "", $I136 = "", $J136 = "", $K136 = "", $L136 = "", $M136 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" priority="282" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="286">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="expression" priority="283" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="287">
+      <formula>AND($A136="begin repeat", NOT($B136 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="expression" priority="284" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="288">
+      <formula>AND($A136="end repeat", $B136 = "", $C136 = "", $D136 = "", $E136 = "", $F136 = "", $G136 = "", $H136 = "", $I136 = "", $J136 = "", $K136 = "", $L136 = "", $M136 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="containsText" priority="285" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="289"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="expression" priority="286" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="290">
+      <formula>AND($A140="begin group", NOT($B140 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="expression" priority="287" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="291">
+      <formula>AND($A140="end group", $B140 = "", $C140 = "", $D140 = "", $E140 = "", $F140 = "", $G140 = "", $H140 = "", $I140 = "", $J140 = "", $K140 = "", $L140 = "", $M140 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="cellIs" priority="288" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="292">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="expression" priority="289" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="293">
+      <formula>AND($A140="begin repeat", NOT($B140 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="expression" priority="290" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="294">
+      <formula>AND($A140="end repeat", $B140 = "", $C140 = "", $D140 = "", $E140 = "", $F140 = "", $G140 = "", $H140 = "", $I140 = "", $J140 = "", $K140 = "", $L140 = "", $M140 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="containsText" priority="291" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="295"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="expression" priority="292" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="296">
+      <formula>AND($A140="begin group", NOT($B140 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="expression" priority="293" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="297">
+      <formula>AND($A140="end group", $B140 = "", $C140 = "", $D140 = "", $E140 = "", $F140 = "", $G140 = "", $H140 = "", $I140 = "", $J140 = "", $K140 = "", $L140 = "", $M140 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="cellIs" priority="294" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="298">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="expression" priority="295" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="299">
+      <formula>AND($A140="begin repeat", NOT($B140 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="expression" priority="296" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="300">
+      <formula>AND($A140="end repeat", $B140 = "", $C140 = "", $D140 = "", $E140 = "", $F140 = "", $G140 = "", $H140 = "", $I140 = "", $J140 = "", $K140 = "", $L140 = "", $M140 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50:I51">
+    <cfRule type="expression" priority="297" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="301">
+      <formula>AND($I50 = "", $A50 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" priority="298" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="302">
+      <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $C50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:B52">
+    <cfRule type="expression" priority="299" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="303">
+      <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $B50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="cellIs" priority="300" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="304">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A88">
-    <cfRule type="expression" priority="226" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="224">
-      <formula>AND($A88="begin repeat", NOT($B88 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A88">
-    <cfRule type="expression" priority="227" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="225">
-      <formula>AND($A88="end repeat", $B88 = "", $C88 = "", $D88 = "", $E88 = "", $F88 = "", $G88 = "", $H88 = "", $I88 = "", $J88 = "", $K88 = "", $L88 = "", $M88 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B74:B75">
-    <cfRule type="expression" priority="228" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="226">
-      <formula>COUNTIF($B$2:$B$1091,B74)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B100,B94">
-    <cfRule type="expression" priority="229" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="227">
-      <formula>COUNTIF($B$2:$B$1097,B94)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B86:B87">
-    <cfRule type="expression" priority="230" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="228">
-      <formula>COUNTIF($B$2:$B$1082,B86)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121:E132">
-    <cfRule type="containsText" priority="231" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="229"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121:E132">
-    <cfRule type="expression" priority="232" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="230">
-      <formula>AND($A121="begin group", NOT($B121 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121:E132">
-    <cfRule type="expression" priority="233" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="231">
-      <formula>AND($A121="end group", $B121 = "", $C121 = "", $D121 = "", $E121 = "", $F121 = "", $G121 = "", $H121 = "", $I121 = "", $J121 = "", $K121 = "", $L121 = "", $M121 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121:E132">
-    <cfRule type="cellIs" priority="234" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="232">
+  <conditionalFormatting sqref="H50:H52">
+    <cfRule type="expression" priority="301" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="305">
+      <formula>AND(NOT($G50 = ""), $H50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:B52">
+    <cfRule type="expression" priority="302" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="306">
+      <formula>COUNTIF($B$2:$B$1006,B50)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="containsText" priority="303" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="307"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="expression" priority="304" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="308">
+      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="expression" priority="305" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="309">
+      <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" priority="306" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="310">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E121:E132">
-    <cfRule type="expression" priority="235" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="233">
-      <formula>AND($A121="begin repeat", NOT($B121 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121:E132">
-    <cfRule type="expression" priority="236" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="234">
-      <formula>AND($A121="end repeat", $B121 = "", $C121 = "", $D121 = "", $E121 = "", $F121 = "", $G121 = "", $H121 = "", $I121 = "", $J121 = "", $K121 = "", $L121 = "", $M121 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="containsText" priority="237" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="235"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="expression" priority="238" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="236">
-      <formula>AND($A134="begin group", NOT($B134 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="expression" priority="239" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="237">
-      <formula>AND($A134="end group", $B134 = "", $C134 = "", $D134 = "", $E134 = "", $F134 = "", $G134 = "", $H134 = "", $I134 = "", $J134 = "", $K134 = "", $L134 = "", $M134 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" priority="240" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="238">
+  <conditionalFormatting sqref="E50">
+    <cfRule type="expression" priority="307" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="311">
+      <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="expression" priority="308" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="312">
+      <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60">
+    <cfRule type="expression" priority="309" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="313">
+      <formula>AND($I60 = "", $A60 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" priority="310" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="314">
+      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $C60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="expression" priority="311" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="315">
+      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $B60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="cellIs" priority="312" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="316">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60">
+    <cfRule type="expression" priority="313" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="317">
+      <formula>AND(NOT($G60 = ""), $H60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="expression" priority="314" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="318">
+      <formula>COUNTIF($B$2:$B$1004,B60)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="containsText" priority="315" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="319"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" priority="316" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="320">
+      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" priority="317" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="321">
+      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" priority="318" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="322">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="expression" priority="241" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="239">
-      <formula>AND($A134="begin repeat", NOT($B134 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="expression" priority="242" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="240">
-      <formula>AND($A134="end repeat", $B134 = "", $C134 = "", $D134 = "", $E134 = "", $F134 = "", $G134 = "", $H134 = "", $I134 = "", $J134 = "", $K134 = "", $L134 = "", $M134 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="containsText" priority="243" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="241"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="expression" priority="244" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="242">
-      <formula>AND($A135="begin group", NOT($B135 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="expression" priority="245" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="243">
-      <formula>AND($A135="end group", $B135 = "", $C135 = "", $D135 = "", $E135 = "", $F135 = "", $G135 = "", $H135 = "", $I135 = "", $J135 = "", $K135 = "", $L135 = "", $M135 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" priority="246" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="244">
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" priority="319" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="323">
+      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" priority="320" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="324">
+      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I68">
+    <cfRule type="expression" priority="321" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="325">
+      <formula>AND($I68 = "", $A68 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" priority="322" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="326">
+      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $C68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68">
+    <cfRule type="expression" priority="323" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="327">
+      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $B68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="cellIs" priority="324" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="328">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="expression" priority="325" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="329">
+      <formula>AND(NOT($G68 = ""), $H68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68">
+    <cfRule type="expression" priority="326" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="330">
+      <formula>COUNTIF($B$2:$B$1002,B68)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="containsText" priority="327" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="331"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="expression" priority="328" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="332">
+      <formula>AND($A68="begin group", NOT($B68 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="expression" priority="329" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="333">
+      <formula>AND($A68="end group", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" priority="330" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="334">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="expression" priority="247" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="245">
-      <formula>AND($A135="begin repeat", NOT($B135 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="expression" priority="248" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="246">
-      <formula>AND($A135="end repeat", $B135 = "", $C135 = "", $D135 = "", $E135 = "", $F135 = "", $G135 = "", $H135 = "", $I135 = "", $J135 = "", $K135 = "", $L135 = "", $M135 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="containsText" priority="249" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="247"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="expression" priority="250" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="248">
-      <formula>AND($A141="begin group", NOT($B141 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="expression" priority="251" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="249">
-      <formula>AND($A141="end group", $B141 = "", $C141 = "", $D141 = "", $E141 = "", $F141 = "", $G141 = "", $H141 = "", $I141 = "", $J141 = "", $K141 = "", $L141 = "", $M141 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" priority="252" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="250">
+  <conditionalFormatting sqref="E68">
+    <cfRule type="expression" priority="331" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="335">
+      <formula>AND($A68="begin repeat", NOT($B68 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="expression" priority="332" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="336">
+      <formula>AND($A68="end repeat", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I72">
+    <cfRule type="expression" priority="333" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="337">
+      <formula>AND($I72 = "", $A72 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="expression" priority="334" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="338">
+      <formula>AND(AND(NOT($A72 = "end group"), NOT($A72 = "end repeat"), NOT($A72 = "")), $C72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72">
+    <cfRule type="expression" priority="335" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="339">
+      <formula>AND(AND(NOT($A72 = "end group"), NOT($A72 = "end repeat"), NOT($A72 = "")), $B72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="cellIs" priority="336" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="340">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="expression" priority="337" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="341">
+      <formula>AND(NOT($G72 = ""), $H72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72">
+    <cfRule type="expression" priority="338" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="342">
+      <formula>COUNTIF($B$2:$B$1000,B72)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="containsText" priority="339" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="343"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="expression" priority="340" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="344">
+      <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="expression" priority="341" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="345">
+      <formula>AND($A72="end group", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" priority="342" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="346">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="expression" priority="253" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="251">
-      <formula>AND($A141="begin repeat", NOT($B141 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="expression" priority="254" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="252">
-      <formula>AND($A141="end repeat", $B141 = "", $C141 = "", $D141 = "", $E141 = "", $F141 = "", $G141 = "", $H141 = "", $I141 = "", $J141 = "", $K141 = "", $L141 = "", $M141 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="containsText" priority="255" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="253"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="expression" priority="256" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="254">
-      <formula>AND($A142="begin group", NOT($B142 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="expression" priority="257" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="255">
-      <formula>AND($A142="end group", $B142 = "", $C142 = "", $D142 = "", $E142 = "", $F142 = "", $G142 = "", $H142 = "", $I142 = "", $J142 = "", $K142 = "", $L142 = "", $M142 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" priority="258" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="256">
+  <conditionalFormatting sqref="E72">
+    <cfRule type="expression" priority="343" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="347">
+      <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="expression" priority="344" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="348">
+      <formula>AND($A72="end repeat", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="containsText" priority="345" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="349"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="expression" priority="346" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="350">
+      <formula>AND($A94="begin group", NOT($B94 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="expression" priority="347" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="351">
+      <formula>AND($A94="end group", $B94 = "", $C94 = "", $D94 = "", $E94 = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" priority="348" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="352">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="expression" priority="259" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="257">
-      <formula>AND($A142="begin repeat", NOT($B142 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="expression" priority="260" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="258">
-      <formula>AND($A142="end repeat", $B142 = "", $C142 = "", $D142 = "", $E142 = "", $F142 = "", $G142 = "", $H142 = "", $I142 = "", $J142 = "", $K142 = "", $L142 = "", $M142 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="containsText" priority="261" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="259"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="expression" priority="262" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="260">
-      <formula>AND($A143="begin group", NOT($B143 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="expression" priority="263" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="261">
-      <formula>AND($A143="end group", $B143 = "", $C143 = "", $D143 = "", $E143 = "", $F143 = "", $G143 = "", $H143 = "", $I143 = "", $J143 = "", $K143 = "", $L143 = "", $M143 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" priority="264" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="262">
+  <conditionalFormatting sqref="E94">
+    <cfRule type="expression" priority="349" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="353">
+      <formula>AND($A94="begin repeat", NOT($B94 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="expression" priority="350" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="354">
+      <formula>AND($A94="end repeat", $B94 = "", $C94 = "", $D94 = "", $E94 = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:Y41">
+    <cfRule type="containsText" priority="351" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="355"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:Y41">
+    <cfRule type="cellIs" priority="352" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="356">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="expression" priority="265" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="263">
-      <formula>AND($A143="begin repeat", NOT($B143 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="expression" priority="266" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="264">
-      <formula>AND($A143="end repeat", $B143 = "", $C143 = "", $D143 = "", $E143 = "", $F143 = "", $G143 = "", $H143 = "", $I143 = "", $J143 = "", $K143 = "", $L143 = "", $M143 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E148">
-    <cfRule type="containsText" priority="267" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="265"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E148">
-    <cfRule type="expression" priority="268" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="266">
-      <formula>AND($A148="begin group", NOT($B148 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E148">
-    <cfRule type="expression" priority="269" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="267">
-      <formula>AND($A148="end group", $B148 = "", $C148 = "", $D148 = "", $E148 = "", $F148 = "", $G148 = "", $H148 = "", $I148 = "", $J148 = "", $K148 = "", $L148 = "", $M148 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E148">
-    <cfRule type="cellIs" priority="270" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="268">
+  <conditionalFormatting sqref="A41">
+    <cfRule type="cellIs" priority="353" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="357">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" priority="354" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="358">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1107, "begin group") = COUNTIF($A$1:$A$1107, "end group"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" priority="355" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="359">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1098, "begin group") = COUNTIF($A$1:$A$1107, "end group")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="containsText" priority="356" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="360"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" priority="357" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="361">
+      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" priority="358" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="362">
+      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" priority="359" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="363">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E148">
-    <cfRule type="expression" priority="271" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="269">
-      <formula>AND($A148="begin repeat", NOT($B148 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E148">
-    <cfRule type="expression" priority="272" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="270">
-      <formula>AND($A148="end repeat", $B148 = "", $C148 = "", $D148 = "", $E148 = "", $F148 = "", $G148 = "", $H148 = "", $I148 = "", $J148 = "", $K148 = "", $L148 = "", $M148 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E144">
-    <cfRule type="containsText" priority="273" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="271"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E144">
-    <cfRule type="expression" priority="274" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="272">
-      <formula>AND($A144="begin group", NOT($B144 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E144">
-    <cfRule type="expression" priority="275" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="273">
-      <formula>AND($A144="end group", $B144 = "", $C144 = "", $D144 = "", $E144 = "", $F144 = "", $G144 = "", $H144 = "", $I144 = "", $J144 = "", $K144 = "", $L144 = "", $M144 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E144">
-    <cfRule type="cellIs" priority="276" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="274">
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" priority="360" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="364">
+      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" priority="361" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="365">
+      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" priority="362" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="366">
+      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $C55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="containsText" priority="363" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="367"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" priority="364" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="368">
+      <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" priority="365" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="369">
+      <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $I58 = "", $M58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" priority="366" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="370">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E144">
-    <cfRule type="expression" priority="277" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="275">
-      <formula>AND($A144="begin repeat", NOT($B144 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E144">
-    <cfRule type="expression" priority="278" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="276">
-      <formula>AND($A144="end repeat", $B144 = "", $C144 = "", $D144 = "", $E144 = "", $F144 = "", $G144 = "", $H144 = "", $I144 = "", $J144 = "", $K144 = "", $L144 = "", $M144 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="containsText" priority="279" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="277"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="expression" priority="280" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="278">
-      <formula>AND($A136="begin group", NOT($B136 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="expression" priority="281" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="279">
-      <formula>AND($A136="end group", $B136 = "", $C136 = "", $D136 = "", $E136 = "", $F136 = "", $G136 = "", $H136 = "", $I136 = "", $J136 = "", $K136 = "", $L136 = "", $M136 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" priority="282" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="280">
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" priority="367" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="371">
+      <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" priority="368" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="372">
+      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $I58 = "", $M58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58">
+    <cfRule type="expression" priority="369" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="373">
+      <formula>AND($I58 = "", $A58 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56">
+    <cfRule type="cellIs" priority="370" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="374">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="expression" priority="371" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="375">
+      <formula>AND(NOT($G56 = ""), $H56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56">
+    <cfRule type="expression" priority="372" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="376">
+      <formula>AND($I56 = "", $A56 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" priority="373" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="377">
+      <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $C56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I59">
+    <cfRule type="expression" priority="374" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="378">
+      <formula>AND($I59 = "", $A59 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="containsText" priority="375" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="379"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" priority="376" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="380">
+      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" priority="377" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="381">
+      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $I57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" priority="378" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="382">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="expression" priority="283" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="281">
-      <formula>AND($A136="begin repeat", NOT($B136 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="expression" priority="284" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="282">
-      <formula>AND($A136="end repeat", $B136 = "", $C136 = "", $D136 = "", $E136 = "", $F136 = "", $G136 = "", $H136 = "", $I136 = "", $J136 = "", $K136 = "", $L136 = "", $M136 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="containsText" priority="285" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="283"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="expression" priority="286" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="284">
-      <formula>AND($A136="begin group", NOT($B136 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="expression" priority="287" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="285">
-      <formula>AND($A136="end group", $B136 = "", $C136 = "", $D136 = "", $E136 = "", $F136 = "", $G136 = "", $H136 = "", $I136 = "", $J136 = "", $K136 = "", $L136 = "", $M136 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" priority="288" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="286">
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" priority="379" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="383">
+      <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" priority="380" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="384">
+      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $I57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="containsText" priority="381" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="385"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" priority="382" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="386">
+      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" priority="383" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="387">
+      <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" priority="384" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="388">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="expression" priority="289" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="287">
-      <formula>AND($A136="begin repeat", NOT($B136 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="expression" priority="290" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="288">
-      <formula>AND($A136="end repeat", $B136 = "", $C136 = "", $D136 = "", $E136 = "", $F136 = "", $G136 = "", $H136 = "", $I136 = "", $J136 = "", $K136 = "", $L136 = "", $M136 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="containsText" priority="291" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="289"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="expression" priority="292" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="290">
-      <formula>AND($A140="begin group", NOT($B140 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="expression" priority="293" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="291">
-      <formula>AND($A140="end group", $B140 = "", $C140 = "", $D140 = "", $E140 = "", $F140 = "", $G140 = "", $H140 = "", $I140 = "", $J140 = "", $K140 = "", $L140 = "", $M140 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" priority="294" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="292">
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" priority="385" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="389">
+      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" priority="386" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="390">
+      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="containsText" priority="387" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="391"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" priority="388" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="392">
+      <formula>AND($A45="begin group", NOT($B45 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" priority="389" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="393">
+      <formula>AND($A45="end group", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" priority="390" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="394">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="expression" priority="295" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="293">
-      <formula>AND($A140="begin repeat", NOT($B140 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="expression" priority="296" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="294">
-      <formula>AND($A140="end repeat", $B140 = "", $C140 = "", $D140 = "", $E140 = "", $F140 = "", $G140 = "", $H140 = "", $I140 = "", $J140 = "", $K140 = "", $L140 = "", $M140 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="containsText" priority="297" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="295"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="expression" priority="298" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="296">
-      <formula>AND($A140="begin group", NOT($B140 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="expression" priority="299" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="297">
-      <formula>AND($A140="end group", $B140 = "", $C140 = "", $D140 = "", $E140 = "", $F140 = "", $G140 = "", $H140 = "", $I140 = "", $J140 = "", $K140 = "", $L140 = "", $M140 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" priority="300" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="298">
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" priority="391" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="395">
+      <formula>AND($A45="begin repeat", NOT($B45 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" priority="392" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="396">
+      <formula>AND($A45="end repeat", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45">
+    <cfRule type="expression" priority="393" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="397">
+      <formula>AND($I45 = "", $A45 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:I47">
+    <cfRule type="expression" priority="394" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="398">
+      <formula>AND($I46 = "", $A46 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48">
+    <cfRule type="expression" priority="395" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="399">
+      <formula>AND($I48 = "", $A48 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
+    <cfRule type="expression" priority="396" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="400">
+      <formula>AND($I49 = "", $A49 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="containsText" priority="397" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="401"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" priority="398" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="402">
+      <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" priority="399" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="403">
+      <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" priority="400" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="404">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="expression" priority="301" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="299">
-      <formula>AND($A140="begin repeat", NOT($B140 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="expression" priority="302" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="300">
-      <formula>AND($A140="end repeat", $B140 = "", $C140 = "", $D140 = "", $E140 = "", $F140 = "", $G140 = "", $H140 = "", $I140 = "", $J140 = "", $K140 = "", $L140 = "", $M140 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I50:I51">
-    <cfRule type="expression" priority="303" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="301">
-      <formula>AND($I50 = "", $A50 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="expression" priority="304" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="302">
-      <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $C50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B52">
-    <cfRule type="expression" priority="305" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="303">
-      <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $B50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="cellIs" priority="306" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="304">
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" priority="401" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="405">
+      <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" priority="402" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="406">
+      <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="containsText" priority="403" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="407"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="expression" priority="404" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="408">
+      <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="expression" priority="405" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="409">
+      <formula>AND($A47="end group", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" priority="406" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="410">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="expression" priority="407" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="411">
+      <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="expression" priority="408" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="412">
+      <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="containsText" priority="409" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="413"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" priority="410" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="414">
+      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" priority="411" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="415">
+      <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" priority="412" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="416">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" priority="413" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="417">
+      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" priority="414" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="418">
+      <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="cellIs" priority="415" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="419">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50:H52">
-    <cfRule type="expression" priority="307" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="305">
-      <formula>AND(NOT($G50 = ""), $H50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B52">
-    <cfRule type="expression" priority="308" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="306">
-      <formula>COUNTIF($B$2:$B$1006,B50)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="containsText" priority="309" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="307"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" priority="310" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="308">
-      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" priority="311" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="309">
-      <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" priority="312" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="310">
+  <conditionalFormatting sqref="A52">
+    <cfRule type="cellIs" priority="416" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="420">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51:C52">
+    <cfRule type="expression" priority="417" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="421">
+      <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $C51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="containsText" priority="418" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="422"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="expression" priority="419" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="423">
+      <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="expression" priority="420" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="424">
+      <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" priority="421" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="425">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" priority="313" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="311">
-      <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" priority="314" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="312">
-      <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
-    <cfRule type="expression" priority="315" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="313">
+  <conditionalFormatting sqref="E51">
+    <cfRule type="expression" priority="422" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="426">
+      <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="expression" priority="423" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="427">
+      <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="containsText" priority="424" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="428"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" priority="425" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="429">
+      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" priority="426" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="430">
+      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" priority="427" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="431">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" priority="428" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="432">
+      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" priority="429" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="433">
+      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52">
+    <cfRule type="expression" priority="430" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="434">
+      <formula>AND($I52 = "", $A52 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53">
+    <cfRule type="expression" priority="431" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="435">
+      <formula>AND($I53 = "", $A53 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="containsText" priority="432" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="436"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="expression" priority="433" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="437">
+      <formula>AND($A91="begin group", NOT($B91 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="expression" priority="434" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="438">
+      <formula>AND($A91="end group", $B91 = "", $C91 = "", $D91 = "", $E91 = "", $F91 = "", $G91 = "", $H91 = "", $I91 = "", $J91 = "", $K91 = "", $L91 = "", $M91 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" priority="435" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="439">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="expression" priority="436" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="440">
+      <formula>AND($A91="begin repeat", NOT($B91 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="expression" priority="437" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="441">
+      <formula>AND($A91="end repeat", $B91 = "", $C91 = "", $D91 = "", $E91 = "", $F91 = "", $G91 = "", $H91 = "", $I91 = "", $J91 = "", $K91 = "", $L91 = "", $M91 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90">
+    <cfRule type="containsText" priority="438" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="442"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90">
+    <cfRule type="expression" priority="439" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="443">
+      <formula>AND($A90="begin group", NOT($B90 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90">
+    <cfRule type="expression" priority="440" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="444">
+      <formula>AND($A90="end group", $B90 = "", $C90 = "", $D90 = "", $E90 = "", $F90 = "", $G90 = "", $H90 = "", $I90 = "", $J90 = "", $K90 = "", $L90 = "", $M90 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90">
+    <cfRule type="cellIs" priority="441" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="445">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90">
+    <cfRule type="expression" priority="442" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="446">
+      <formula>AND(AND(NOT($A90 = "end group"), NOT($A90 = "end repeat"), NOT($A90 = "")), $B90 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90">
+    <cfRule type="expression" priority="443" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="447">
+      <formula>AND($A90="begin repeat", NOT($B90 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90">
+    <cfRule type="expression" priority="444" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="448">
+      <formula>AND($A90="end repeat", $B90 = "", $C90 = "", $D90 = "", $E90 = "", $F90 = "", $G90 = "", $H90 = "", $I90 = "", $J90 = "", $K90 = "", $L90 = "", $M90 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90">
+    <cfRule type="expression" priority="445" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="449">
+      <formula>COUNTIF($B$2:$B$1089,B90)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A89">
+    <cfRule type="containsText" priority="446" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="450"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A89">
+    <cfRule type="expression" priority="447" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="451">
+      <formula>AND($A89="begin group", NOT($B89 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A89">
+    <cfRule type="expression" priority="448" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="452">
+      <formula>AND($A89="end group", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A89">
+    <cfRule type="cellIs" priority="449" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="453">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A89">
+    <cfRule type="cellIs" priority="450" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="454">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A89">
+    <cfRule type="expression" priority="451" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="455">
+      <formula>AND($A89="begin repeat", NOT($B89 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A89">
+    <cfRule type="expression" priority="452" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="456">
+      <formula>AND($A89="end repeat", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B89">
+    <cfRule type="containsText" priority="453" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="457"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B89">
+    <cfRule type="expression" priority="454" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="458">
+      <formula>AND($A89="begin group", NOT($B89 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B89">
+    <cfRule type="expression" priority="455" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="459">
+      <formula>AND($A89="end group", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B89">
+    <cfRule type="cellIs" priority="456" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="460">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B89">
+    <cfRule type="expression" priority="457" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="461">
+      <formula>AND(AND(NOT($A89 = "end group"), NOT($A89 = "end repeat"), NOT($A89 = "")), $B89 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B89">
+    <cfRule type="expression" priority="458" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="462">
+      <formula>AND($A89="begin repeat", NOT($B89 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B89">
+    <cfRule type="expression" priority="459" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="463">
+      <formula>AND($A89="end repeat", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B89">
+    <cfRule type="expression" priority="460" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="464">
+      <formula>COUNTIF($B$2:$B$1089,B89)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I81">
+    <cfRule type="expression" priority="461" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="465">
       <formula>AND($I60 = "", $A60 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" priority="316" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="314">
+  <conditionalFormatting sqref="C81">
+    <cfRule type="expression" priority="462" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="466">
       <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $C60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
-    <cfRule type="expression" priority="317" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="315">
+  <conditionalFormatting sqref="B81">
+    <cfRule type="expression" priority="463" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="467">
       <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $B60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
-    <cfRule type="cellIs" priority="318" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="316">
+  <conditionalFormatting sqref="A81">
+    <cfRule type="cellIs" priority="464" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="468">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="expression" priority="319" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="317">
+  <conditionalFormatting sqref="H81">
+    <cfRule type="expression" priority="465" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="469">
       <formula>AND(NOT($G60 = ""), $H60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
-    <cfRule type="expression" priority="320" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="318">
-      <formula>COUNTIF($B$2:$B$1004,B60)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="containsText" priority="321" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="319"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" priority="322" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="320">
+  <conditionalFormatting sqref="E59">
+    <cfRule type="containsText" priority="466" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="470"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" priority="467" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="471">
       <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" priority="323" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="321">
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" priority="468" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="472">
       <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" priority="324" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="322">
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" priority="469" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="473">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" priority="325" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="323">
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" priority="470" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="474">
       <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" priority="326" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="324">
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" priority="471" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="475">
       <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I68">
-    <cfRule type="expression" priority="327" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="325">
-      <formula>AND($I68 = "", $A68 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="expression" priority="328" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="326">
-      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $C68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
-    <cfRule type="expression" priority="329" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="327">
-      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $B68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
-    <cfRule type="cellIs" priority="330" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="328">
+  <conditionalFormatting sqref="I92">
+    <cfRule type="expression" priority="472" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="476">
+      <formula>AND($I76 = "", $A76 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C92">
+    <cfRule type="expression" priority="473" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="477">
+      <formula>AND(AND(NOT($A76 = "end group"), NOT($A76 = "end repeat"), NOT($A76 = "")), $C76 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92">
+    <cfRule type="cellIs" priority="474" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="478">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="expression" priority="331" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="329">
-      <formula>AND(NOT($G68 = ""), $H68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
-    <cfRule type="expression" priority="332" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="330">
-      <formula>COUNTIF($B$2:$B$1002,B68)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="containsText" priority="333" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="331"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="expression" priority="334" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="332">
-      <formula>AND($A68="begin group", NOT($B68 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="expression" priority="335" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="333">
-      <formula>AND($A68="end group", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" priority="336" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="334">
+  <conditionalFormatting sqref="H92">
+    <cfRule type="expression" priority="475" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="479">
+      <formula>AND(NOT($G76 = ""), $H76 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="containsText" priority="476" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="480"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="expression" priority="477" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="481">
+      <formula>AND($A76="begin group", NOT($B76 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="expression" priority="478" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="482">
+      <formula>AND($A76="end group", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" priority="479" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="483">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="expression" priority="337" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="335">
-      <formula>AND($A68="begin repeat", NOT($B68 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="expression" priority="338" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="336">
-      <formula>AND($A68="end repeat", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I72">
-    <cfRule type="expression" priority="339" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="337">
-      <formula>AND($I72 = "", $A72 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="expression" priority="340" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="338">
-      <formula>AND(AND(NOT($A72 = "end group"), NOT($A72 = "end repeat"), NOT($A72 = "")), $C72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
-    <cfRule type="expression" priority="341" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="339">
-      <formula>AND(AND(NOT($A72 = "end group"), NOT($A72 = "end repeat"), NOT($A72 = "")), $B72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
-    <cfRule type="cellIs" priority="342" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="340">
+  <conditionalFormatting sqref="E92">
+    <cfRule type="expression" priority="480" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="484">
+      <formula>AND($A76="begin repeat", NOT($B76 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="expression" priority="481" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="485">
+      <formula>AND($A76="end repeat", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="containsText" priority="482" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="486"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="expression" priority="483" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="487">
+      <formula>AND($A137="begin group", NOT($B137 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="expression" priority="484" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="488">
+      <formula>AND($A137="end group", $B137 = "", $C137 = "", $D137 = "", $E137 = "", $F137 = "", $G137 = "", $H137 = "", $I137 = "", $J137 = "", $K137 = "", $L137 = "", $M137 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="cellIs" priority="485" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="489">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="expression" priority="486" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="490">
+      <formula>AND($A137="begin repeat", NOT($B137 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="expression" priority="487" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="491">
+      <formula>AND($A137="end repeat", $B137 = "", $C137 = "", $D137 = "", $E137 = "", $F137 = "", $G137 = "", $H137 = "", $I137 = "", $J137 = "", $K137 = "", $L137 = "", $M137 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E138">
+    <cfRule type="containsText" priority="488" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="492"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E138">
+    <cfRule type="expression" priority="489" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="493">
+      <formula>AND($A138="begin group", NOT($B138 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E138">
+    <cfRule type="expression" priority="490" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="494">
+      <formula>AND($A138="end group", $B138 = "", $C138 = "", $D138 = "", $E138 = "", $F138 = "", $G138 = "", $H138 = "", $I138 = "", $J138 = "", $K138 = "", $L138 = "", $M138 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E138">
+    <cfRule type="cellIs" priority="491" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="495">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E138">
+    <cfRule type="expression" priority="492" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="496">
+      <formula>AND($A138="begin repeat", NOT($B138 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E138">
+    <cfRule type="expression" priority="493" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="497">
+      <formula>AND($A138="end repeat", $B138 = "", $C138 = "", $D138 = "", $E138 = "", $F138 = "", $G138 = "", $H138 = "", $I138 = "", $J138 = "", $K138 = "", $L138 = "", $M138 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E139">
+    <cfRule type="containsText" priority="494" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="498"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E139">
+    <cfRule type="expression" priority="495" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="499">
+      <formula>AND($A139="begin group", NOT($B139 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E139">
+    <cfRule type="expression" priority="496" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="500">
+      <formula>AND($A139="end group", $B139 = "", $C139 = "", $D139 = "", $E139 = "", $F139 = "", $G139 = "", $H139 = "", $I139 = "", $J139 = "", $K139 = "", $L139 = "", $M139 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E139">
+    <cfRule type="cellIs" priority="497" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="501">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E139">
+    <cfRule type="expression" priority="498" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="502">
+      <formula>AND($A139="begin repeat", NOT($B139 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E139">
+    <cfRule type="expression" priority="499" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="503">
+      <formula>AND($A139="end repeat", $B139 = "", $C139 = "", $D139 = "", $E139 = "", $F139 = "", $G139 = "", $H139 = "", $I139 = "", $J139 = "", $K139 = "", $L139 = "", $M139 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I64:I66">
+    <cfRule type="expression" priority="500" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="184">
+      <formula>AND($I64 = "", $A64 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64:C66">
+    <cfRule type="expression" priority="501" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="185">
+      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $C64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:A66">
+    <cfRule type="cellIs" priority="502" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="186">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="expression" priority="343" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="341">
-      <formula>AND(NOT($G72 = ""), $H72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
-    <cfRule type="expression" priority="344" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="342">
-      <formula>COUNTIF($B$2:$B$1000,B72)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="containsText" priority="345" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="343"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="expression" priority="346" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="344">
-      <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="expression" priority="347" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="345">
-      <formula>AND($A72="end group", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" priority="348" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="346">
+  <conditionalFormatting sqref="H64:H66">
+    <cfRule type="expression" priority="503" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="187">
+      <formula>AND(NOT($G64 = ""), $H64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64:E66">
+    <cfRule type="containsText" priority="504" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="188"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64:E66">
+    <cfRule type="expression" priority="505" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="189">
+      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64:E66">
+    <cfRule type="expression" priority="506" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="190">
+      <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64:E66">
+    <cfRule type="cellIs" priority="507" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="191">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="expression" priority="349" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="347">
-      <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="expression" priority="350" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="348">
-      <formula>AND($A72="end repeat", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="containsText" priority="351" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="349"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="expression" priority="352" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="350">
-      <formula>AND($A94="begin group", NOT($B94 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="expression" priority="353" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="351">
-      <formula>AND($A94="end group", $B94 = "", $C94 = "", $D94 = "", $E94 = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" priority="354" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="352">
+  <conditionalFormatting sqref="E64:E66">
+    <cfRule type="expression" priority="508" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="192">
+      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64:E66">
+    <cfRule type="expression" priority="509" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="193">
+      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I67">
+    <cfRule type="expression" priority="510" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="194">
+      <formula>AND($I67 = "", $A67 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="expression" priority="511" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="195">
+      <formula>AND(AND(NOT($A67 = "end group"), NOT($A67 = "end repeat"), NOT($A67 = "")), $C67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67">
+    <cfRule type="cellIs" priority="512" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="196">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="expression" priority="513" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="197">
+      <formula>AND(NOT($G67 = ""), $H67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="containsText" priority="514" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="198"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="expression" priority="515" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="199">
+      <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="expression" priority="516" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="200">
+      <formula>AND($A67="end group", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" priority="517" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="201">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="expression" priority="355" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="353">
-      <formula>AND($A94="begin repeat", NOT($B94 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="expression" priority="356" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="354">
-      <formula>AND($A94="end repeat", $B94 = "", $C94 = "", $D94 = "", $E94 = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:Y41">
-    <cfRule type="containsText" priority="357" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="355"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:Y41">
-    <cfRule type="cellIs" priority="358" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="356">
+  <conditionalFormatting sqref="E67">
+    <cfRule type="expression" priority="518" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="202">
+      <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="expression" priority="519" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="203">
+      <formula>AND($A67="end repeat", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I71">
+    <cfRule type="expression" priority="520" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="225">
+      <formula>AND($I71 = "", $A71 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="expression" priority="521" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="226">
+      <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $C71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:A71">
+    <cfRule type="cellIs" priority="522" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="227">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="expression" priority="523" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="228">
+      <formula>AND(NOT($G71 = ""), $H71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="containsText" priority="524" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="229"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="expression" priority="525" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="230">
+      <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="expression" priority="526" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="231">
+      <formula>AND($A71="end group", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" priority="527" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="232">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41">
-    <cfRule type="cellIs" priority="359" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="357">
+  <conditionalFormatting sqref="E71">
+    <cfRule type="expression" priority="528" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="233">
+      <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="expression" priority="529" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="234">
+      <formula>AND($A71="end repeat", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I69:I70">
+    <cfRule type="expression" priority="530" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="317">
+      <formula>AND($I69 = "", $A69 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69:C70">
+    <cfRule type="expression" priority="531" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="318">
+      <formula>AND(AND(NOT($A69 = "end group"), NOT($A69 = "end repeat"), NOT($A69 = "")), $C69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69:B70">
+    <cfRule type="expression" priority="532" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="319">
+      <formula>AND(AND(NOT($A69 = "end group"), NOT($A69 = "end repeat"), NOT($A69 = "")), $B69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69:H70">
+    <cfRule type="expression" priority="533" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="321">
+      <formula>AND(NOT($G69 = ""), $H69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69:B70">
+    <cfRule type="expression" priority="534" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="411">
+      <formula>COUNTIF($B$2:$B$982,B69)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:A70">
+    <cfRule type="cellIs" priority="535" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="227">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="360" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="358">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1107, "begin group") = COUNTIF($A$1:$A$1107, "end group"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="361" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="359">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1098, "begin group") = COUNTIF($A$1:$A$1107, "end group")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="containsText" priority="362" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="360"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" priority="363" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="361">
-      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" priority="364" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="362">
-      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" priority="365" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="363">
+  <conditionalFormatting sqref="E69:E70">
+    <cfRule type="containsText" priority="536" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="188"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69:E70">
+    <cfRule type="expression" priority="537" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="189">
+      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69:E70">
+    <cfRule type="expression" priority="538" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="190">
+      <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69:E70">
+    <cfRule type="cellIs" priority="539" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="191">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" priority="366" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="364">
-      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" priority="367" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="365">
-      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" priority="368" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="366">
-      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $C55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="containsText" priority="369" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="367"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" priority="370" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="368">
-      <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" priority="371" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="369">
-      <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $I58 = "", $M58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" priority="372" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="370">
+  <conditionalFormatting sqref="E69:E70">
+    <cfRule type="expression" priority="540" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="192">
+      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69:E70">
+    <cfRule type="expression" priority="541" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="193">
+      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I95:I99">
+    <cfRule type="expression" priority="542" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="277">
+      <formula>AND($I95 = "", $A95 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C95:C99">
+    <cfRule type="expression" priority="543" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="278">
+      <formula>AND(AND(NOT($A95 = "end group"), NOT($A95 = "end repeat"), NOT($A95 = "")), $C95 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:A99">
+    <cfRule type="cellIs" priority="544" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="280">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H95:H99">
+    <cfRule type="expression" priority="545" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="281">
+      <formula>AND(NOT($G95 = ""), $H95 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="containsText" priority="546" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="282"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="expression" priority="547" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="283">
+      <formula>AND($A98="begin group", NOT($B98 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="expression" priority="548" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="284">
+      <formula>AND($A98="end group", $B98 = "", $C98 = "", $D98 = "", $E98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" priority="549" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="285">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" priority="373" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="371">
-      <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" priority="374" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="372">
-      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $I58 = "", $M58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I58">
-    <cfRule type="expression" priority="375" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="373">
-      <formula>AND($I58 = "", $A58 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56">
-    <cfRule type="cellIs" priority="376" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="374">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="expression" priority="377" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="375">
-      <formula>AND(NOT($G56 = ""), $H56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I56">
-    <cfRule type="expression" priority="378" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="376">
-      <formula>AND($I56 = "", $A56 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" priority="379" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="377">
-      <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $C56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I59">
-    <cfRule type="expression" priority="380" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="378">
-      <formula>AND($I59 = "", $A59 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="containsText" priority="381" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="379"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" priority="382" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="380">
-      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" priority="383" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="381">
-      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $I57 = "", $M57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" priority="384" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="382">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" priority="385" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="383">
-      <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" priority="386" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="384">
-      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $I57 = "", $M57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="containsText" priority="387" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="385"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="388" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="386">
-      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="389" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="387">
-      <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" priority="390" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="388">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="391" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="389">
-      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="392" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="390">
-      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="containsText" priority="393" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="391"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="expression" priority="394" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="392">
-      <formula>AND($A45="begin group", NOT($B45 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="expression" priority="395" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="393">
-      <formula>AND($A45="end group", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" priority="396" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="394">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="expression" priority="397" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="395">
-      <formula>AND($A45="begin repeat", NOT($B45 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="expression" priority="398" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="396">
-      <formula>AND($A45="end repeat", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
-    <cfRule type="expression" priority="399" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="397">
-      <formula>AND($I45 = "", $A45 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46:I47">
-    <cfRule type="expression" priority="400" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="398">
-      <formula>AND($I46 = "", $A46 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
-    <cfRule type="expression" priority="401" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="399">
-      <formula>AND($I48 = "", $A48 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
-    <cfRule type="expression" priority="402" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="400">
-      <formula>AND($I49 = "", $A49 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="containsText" priority="403" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="401"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" priority="404" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="402">
-      <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" priority="405" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="403">
-      <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" priority="406" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="404">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" priority="407" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="405">
-      <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" priority="408" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="406">
-      <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="containsText" priority="409" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="407"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="expression" priority="410" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="408">
-      <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="expression" priority="411" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="409">
-      <formula>AND($A47="end group", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" priority="412" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="410">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="expression" priority="413" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="411">
-      <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="expression" priority="414" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="412">
-      <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="containsText" priority="415" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="413"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" priority="416" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="414">
-      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" priority="417" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="415">
-      <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" priority="418" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="416">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" priority="419" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="417">
-      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" priority="420" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="418">
-      <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
-    <cfRule type="cellIs" priority="421" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="419">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="cellIs" priority="422" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="420">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51:C52">
-    <cfRule type="expression" priority="423" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="421">
-      <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $C51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="containsText" priority="424" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="422"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" priority="425" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="423">
-      <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" priority="426" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="424">
-      <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" priority="427" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="425">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" priority="428" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="426">
-      <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" priority="429" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="427">
-      <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="containsText" priority="430" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="428"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" priority="431" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="429">
-      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" priority="432" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="430">
-      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" priority="433" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="431">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" priority="434" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="432">
-      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" priority="435" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="433">
-      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52">
-    <cfRule type="expression" priority="436" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="434">
-      <formula>AND($I52 = "", $A52 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I53">
-    <cfRule type="expression" priority="437" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="435">
-      <formula>AND($I53 = "", $A53 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="containsText" priority="438" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="436"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="expression" priority="439" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="437">
-      <formula>AND($A91="begin group", NOT($B91 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="expression" priority="440" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="438">
-      <formula>AND($A91="end group", $B91 = "", $C91 = "", $D91 = "", $E91 = "", $F91 = "", $G91 = "", $H91 = "", $I91 = "", $J91 = "", $K91 = "", $L91 = "", $M91 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" priority="441" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="439">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="expression" priority="442" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="440">
-      <formula>AND($A91="begin repeat", NOT($B91 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="expression" priority="443" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="441">
-      <formula>AND($A91="end repeat", $B91 = "", $C91 = "", $D91 = "", $E91 = "", $F91 = "", $G91 = "", $H91 = "", $I91 = "", $J91 = "", $K91 = "", $L91 = "", $M91 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
-    <cfRule type="containsText" priority="444" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="442"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
-    <cfRule type="expression" priority="445" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="443">
-      <formula>AND($A90="begin group", NOT($B90 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
-    <cfRule type="expression" priority="446" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="444">
-      <formula>AND($A90="end group", $B90 = "", $C90 = "", $D90 = "", $E90 = "", $F90 = "", $G90 = "", $H90 = "", $I90 = "", $J90 = "", $K90 = "", $L90 = "", $M90 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
-    <cfRule type="cellIs" priority="447" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="445">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
-    <cfRule type="expression" priority="448" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="446">
-      <formula>AND(AND(NOT($A90 = "end group"), NOT($A90 = "end repeat"), NOT($A90 = "")), $B90 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
-    <cfRule type="expression" priority="449" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="447">
-      <formula>AND($A90="begin repeat", NOT($B90 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
-    <cfRule type="expression" priority="450" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="448">
-      <formula>AND($A90="end repeat", $B90 = "", $C90 = "", $D90 = "", $E90 = "", $F90 = "", $G90 = "", $H90 = "", $I90 = "", $J90 = "", $K90 = "", $L90 = "", $M90 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
-    <cfRule type="expression" priority="451" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="449">
-      <formula>COUNTIF($B$2:$B$1089,B90)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A89">
-    <cfRule type="containsText" priority="452" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="450"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A89">
-    <cfRule type="expression" priority="453" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="451">
-      <formula>AND($A89="begin group", NOT($B89 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A89">
-    <cfRule type="expression" priority="454" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="452">
-      <formula>AND($A89="end group", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A89">
-    <cfRule type="cellIs" priority="455" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="453">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A89">
-    <cfRule type="cellIs" priority="456" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="454">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A89">
-    <cfRule type="expression" priority="457" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="455">
-      <formula>AND($A89="begin repeat", NOT($B89 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A89">
-    <cfRule type="expression" priority="458" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="456">
-      <formula>AND($A89="end repeat", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B89">
-    <cfRule type="containsText" priority="459" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="457"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B89">
-    <cfRule type="expression" priority="460" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="458">
-      <formula>AND($A89="begin group", NOT($B89 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B89">
-    <cfRule type="expression" priority="461" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="459">
-      <formula>AND($A89="end group", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B89">
-    <cfRule type="cellIs" priority="462" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="460">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B89">
-    <cfRule type="expression" priority="463" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="461">
-      <formula>AND(AND(NOT($A89 = "end group"), NOT($A89 = "end repeat"), NOT($A89 = "")), $B89 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B89">
-    <cfRule type="expression" priority="464" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="462">
-      <formula>AND($A89="begin repeat", NOT($B89 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B89">
-    <cfRule type="expression" priority="465" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="463">
-      <formula>AND($A89="end repeat", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B89">
-    <cfRule type="expression" priority="466" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="464">
-      <formula>COUNTIF($B$2:$B$1089,B89)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I81">
-    <cfRule type="expression" priority="467" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="465">
-      <formula>AND($I60 = "", $A60 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C81">
-    <cfRule type="expression" priority="468" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="466">
-      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $C60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81">
-    <cfRule type="expression" priority="469" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="467">
-      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $B60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A81">
-    <cfRule type="cellIs" priority="470" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="468">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
-    <cfRule type="expression" priority="471" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="469">
-      <formula>AND(NOT($G60 = ""), $H60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="containsText" priority="472" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="470"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" priority="473" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="471">
-      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" priority="474" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="472">
-      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" priority="475" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="473">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" priority="476" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="474">
-      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" priority="477" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="475">
-      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I92">
-    <cfRule type="expression" priority="478" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="476">
-      <formula>AND($I76 = "", $A76 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C92">
-    <cfRule type="expression" priority="479" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="477">
-      <formula>AND(AND(NOT($A76 = "end group"), NOT($A76 = "end repeat"), NOT($A76 = "")), $C76 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92">
-    <cfRule type="cellIs" priority="480" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="478">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H92">
-    <cfRule type="expression" priority="481" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="479">
-      <formula>AND(NOT($G76 = ""), $H76 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="containsText" priority="482" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="480"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="expression" priority="483" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="481">
-      <formula>AND($A76="begin group", NOT($B76 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="expression" priority="484" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="482">
-      <formula>AND($A76="end group", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" priority="485" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="483">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="expression" priority="486" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="484">
-      <formula>AND($A76="begin repeat", NOT($B76 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="expression" priority="487" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="485">
-      <formula>AND($A76="end repeat", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="containsText" priority="488" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="486"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="expression" priority="489" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="487">
-      <formula>AND($A137="begin group", NOT($B137 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="expression" priority="490" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="488">
-      <formula>AND($A137="end group", $B137 = "", $C137 = "", $D137 = "", $E137 = "", $F137 = "", $G137 = "", $H137 = "", $I137 = "", $J137 = "", $K137 = "", $L137 = "", $M137 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" priority="491" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="489">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="expression" priority="492" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="490">
-      <formula>AND($A137="begin repeat", NOT($B137 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="expression" priority="493" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="491">
-      <formula>AND($A137="end repeat", $B137 = "", $C137 = "", $D137 = "", $E137 = "", $F137 = "", $G137 = "", $H137 = "", $I137 = "", $J137 = "", $K137 = "", $L137 = "", $M137 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E138">
-    <cfRule type="containsText" priority="494" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="492"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E138">
-    <cfRule type="expression" priority="495" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="493">
-      <formula>AND($A138="begin group", NOT($B138 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E138">
-    <cfRule type="expression" priority="496" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="494">
-      <formula>AND($A138="end group", $B138 = "", $C138 = "", $D138 = "", $E138 = "", $F138 = "", $G138 = "", $H138 = "", $I138 = "", $J138 = "", $K138 = "", $L138 = "", $M138 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E138">
-    <cfRule type="cellIs" priority="497" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="495">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E138">
-    <cfRule type="expression" priority="498" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="496">
-      <formula>AND($A138="begin repeat", NOT($B138 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E138">
-    <cfRule type="expression" priority="499" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="497">
-      <formula>AND($A138="end repeat", $B138 = "", $C138 = "", $D138 = "", $E138 = "", $F138 = "", $G138 = "", $H138 = "", $I138 = "", $J138 = "", $K138 = "", $L138 = "", $M138 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E139">
-    <cfRule type="containsText" priority="500" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="498"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E139">
-    <cfRule type="expression" priority="501" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="499">
-      <formula>AND($A139="begin group", NOT($B139 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E139">
-    <cfRule type="expression" priority="502" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="500">
-      <formula>AND($A139="end group", $B139 = "", $C139 = "", $D139 = "", $E139 = "", $F139 = "", $G139 = "", $H139 = "", $I139 = "", $J139 = "", $K139 = "", $L139 = "", $M139 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" priority="503" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="501">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E139">
-    <cfRule type="expression" priority="504" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="502">
-      <formula>AND($A139="begin repeat", NOT($B139 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E139">
-    <cfRule type="expression" priority="505" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="503">
-      <formula>AND($A139="end repeat", $B139 = "", $C139 = "", $D139 = "", $E139 = "", $F139 = "", $G139 = "", $H139 = "", $I139 = "", $J139 = "", $K139 = "", $L139 = "", $M139 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I64:I66">
-    <cfRule type="expression" priority="506" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="184">
-      <formula>AND($I64 = "", $A64 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64:C66">
-    <cfRule type="expression" priority="507" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="185">
-      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $C64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:A66">
-    <cfRule type="cellIs" priority="508" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="186">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64:H66">
-    <cfRule type="expression" priority="509" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="187">
-      <formula>AND(NOT($G64 = ""), $H64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:E66">
-    <cfRule type="containsText" priority="510" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="188"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:E66">
-    <cfRule type="expression" priority="511" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="189">
-      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:E66">
-    <cfRule type="expression" priority="512" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="190">
-      <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:E66">
-    <cfRule type="cellIs" priority="513" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="191">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:E66">
-    <cfRule type="expression" priority="514" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="192">
-      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:E66">
-    <cfRule type="expression" priority="515" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="193">
-      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I67">
-    <cfRule type="expression" priority="516" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="194">
-      <formula>AND($I67 = "", $A67 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" priority="517" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="195">
-      <formula>AND(AND(NOT($A67 = "end group"), NOT($A67 = "end repeat"), NOT($A67 = "")), $C67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
-    <cfRule type="cellIs" priority="518" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="196">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="expression" priority="519" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="197">
-      <formula>AND(NOT($G67 = ""), $H67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="containsText" priority="520" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="198"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="expression" priority="521" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="199">
-      <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="expression" priority="522" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="200">
-      <formula>AND($A67="end group", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" priority="523" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="201">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="expression" priority="524" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="202">
-      <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="expression" priority="525" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="203">
-      <formula>AND($A67="end repeat", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
-    <cfRule type="expression" priority="526" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="225">
-      <formula>AND($I71 = "", $A71 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="expression" priority="527" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="226">
-      <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $C71 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:A71">
-    <cfRule type="cellIs" priority="528" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="227">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="expression" priority="529" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="228">
-      <formula>AND(NOT($G71 = ""), $H71 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="containsText" priority="530" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="229"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="expression" priority="531" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="230">
-      <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="expression" priority="532" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="231">
-      <formula>AND($A71="end group", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" priority="533" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="232">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="expression" priority="534" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="233">
-      <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="expression" priority="535" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="234">
-      <formula>AND($A71="end repeat", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I69:I70">
-    <cfRule type="expression" priority="536" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="317">
-      <formula>AND($I69 = "", $A69 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C69:C70">
-    <cfRule type="expression" priority="537" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="318">
-      <formula>AND(AND(NOT($A69 = "end group"), NOT($A69 = "end repeat"), NOT($A69 = "")), $C69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B69:B70">
-    <cfRule type="expression" priority="538" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="319">
-      <formula>AND(AND(NOT($A69 = "end group"), NOT($A69 = "end repeat"), NOT($A69 = "")), $B69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69:H70">
-    <cfRule type="expression" priority="539" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="321">
-      <formula>AND(NOT($G69 = ""), $H69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B69:B70">
-    <cfRule type="expression" priority="540" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="411">
-      <formula>COUNTIF($B$2:$B$982,B69)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69:A70">
-    <cfRule type="cellIs" priority="541" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="227">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69:E70">
-    <cfRule type="containsText" priority="542" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="188"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69:E70">
-    <cfRule type="expression" priority="543" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="189">
-      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69:E70">
-    <cfRule type="expression" priority="544" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="190">
-      <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69:E70">
-    <cfRule type="cellIs" priority="545" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="191">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69:E70">
-    <cfRule type="expression" priority="546" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="192">
-      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69:E70">
-    <cfRule type="expression" priority="547" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="193">
-      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I95:I99">
-    <cfRule type="expression" priority="548" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="277">
-      <formula>AND($I95 = "", $A95 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C95:C99">
-    <cfRule type="expression" priority="549" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="278">
-      <formula>AND(AND(NOT($A95 = "end group"), NOT($A95 = "end repeat"), NOT($A95 = "")), $C95 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B97:B99,B95">
-    <cfRule type="expression" priority="550" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="279">
-      <formula>AND(AND(NOT($A95 = "end group"), NOT($A95 = "end repeat"), NOT($A95 = "")), $B95 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95:A99">
-    <cfRule type="cellIs" priority="551" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="280">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H95:H99">
-    <cfRule type="expression" priority="552" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="281">
-      <formula>AND(NOT($G95 = ""), $H95 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99,E95:E97">
-    <cfRule type="containsText" priority="553" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="282"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99,E95:E97">
-    <cfRule type="expression" priority="554" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="283">
-      <formula>AND($A95="begin group", NOT($B95 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99,E95:E97">
-    <cfRule type="expression" priority="555" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="284">
-      <formula>AND($A95="end group", $B95 = "", $C95 = "", $D95 = "", $E95 = "", $F95 = "", $G95 = "", $H95 = "", $I95 = "", $J95 = "", $K95 = "", $L95 = "", $M95 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99,E95:E97">
-    <cfRule type="cellIs" priority="556" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="285">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99,E95:E97">
-    <cfRule type="expression" priority="557" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="286">
-      <formula>AND($A95="begin repeat", NOT($B95 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99,E95:E97">
-    <cfRule type="expression" priority="558" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="287">
-      <formula>AND($A95="end repeat", $B95 = "", $C95 = "", $D95 = "", $E95 = "", $F95 = "", $G95 = "", $H95 = "", $I95 = "", $J95 = "", $K95 = "", $L95 = "", $M95 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B97:B99,B95">
-    <cfRule type="expression" priority="559" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="409">
-      <formula>COUNTIF($B$2:$B$1078,B95)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsText" priority="560" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="282"/>
+    <cfRule type="expression" priority="550" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="286">
+      <formula>AND($A98="begin repeat", NOT($B98 = ""))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="expression" priority="561" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="283">
-      <formula>AND($A98="begin group", NOT($B98 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="expression" priority="562" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="284">
-      <formula>AND($A98="end group", $B98 = "", $C98 = "", $D98 = "", $E98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" priority="563" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="285">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="expression" priority="564" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="286">
-      <formula>AND($A98="begin repeat", NOT($B98 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="expression" priority="565" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="287">
+    <cfRule type="expression" priority="551" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="287">
       <formula>AND($A98="end repeat", $B98 = "", $C98 = "", $D98 = "", $E98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15082,1393 +15004,1416 @@
   </sheetPr>
   <dimension ref="A1:F65523"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A110" activeCellId="0" sqref="A110"/>
+      <selection pane="bottomLeft" activeCell="A118" activeCellId="0" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.9948979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="80.0051020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.7244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="65.2448979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="82.8826530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="B1" s="33" t="s">
+      <c r="A1" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="A3" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="B5" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="B8" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="B9" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="B10" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="C12" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="C13" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="C14" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="B15" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="C17" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="C18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="C18" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="C19" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="C20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="C20" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="C21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="C21" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="C23" s="15" t="s">
+      <c r="B23" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="C23" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="C24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="C24" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="C25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="C25" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="C26" s="15" t="s">
+      <c r="B26" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="C26" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="B27" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="B29" s="15" t="s">
+      <c r="A29" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="B29" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="B79" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="B31" s="15" t="s">
+      <c r="C79" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="B80" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="B32" s="15" t="s">
+      <c r="C80" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="B81" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="B33" s="15" t="s">
+      <c r="C81" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="13"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="B86" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="B34" s="15" t="s">
+      <c r="C86" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="B87" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="B35" s="15" t="s">
+      <c r="C87" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="B88" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="B36" s="15" t="s">
+      <c r="C88" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="B89" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15" t="s">
+      <c r="C89" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="B90" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="B38" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="B39" s="15" t="s">
+      <c r="C90" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="B93" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="B40" s="15" t="s">
+      <c r="C93" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="B94" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="B41" s="15" t="s">
+      <c r="C94" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="B95" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="B42" s="15" t="s">
+      <c r="C95" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="B96" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="B43" s="15" t="s">
+      <c r="C96" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="B97" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="B44" s="15" t="s">
+      <c r="C97" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="B98" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="B45" s="15" t="s">
+      <c r="C98" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="B99" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="B48" s="15" t="s">
+      <c r="C99" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="B100" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="C48" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="15" t="s">
+      <c r="C100" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="B101" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="B50" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>453</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>454</v>
-      </c>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-    </row>
-    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="15" t="s">
-        <v>455</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="15" t="s">
-        <v>455</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="15" t="s">
-        <v>455</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>458</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="15" t="s">
-        <v>459</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="15" t="s">
-        <v>459</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-    </row>
-    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="15" t="s">
-        <v>459</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>458</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-    </row>
-    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-    </row>
-    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="15" t="s">
-        <v>460</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>461</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-    </row>
-    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="15" t="s">
-        <v>460</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-    </row>
-    <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="15" t="s">
-        <v>460</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-    </row>
-    <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-    </row>
-    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-    </row>
-    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-    </row>
-    <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-    </row>
-    <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-    </row>
-    <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-    </row>
-    <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-    </row>
-    <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="15"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="15"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="15" t="s">
-        <v>470</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>427</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="15" t="s">
-        <v>470</v>
-      </c>
-      <c r="B87" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="15" t="s">
-        <v>470</v>
-      </c>
-      <c r="B88" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="15" t="s">
-        <v>470</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="15" t="s">
-        <v>470</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="B94" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="B95" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="B96" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="B98" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="B99" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
+      <c r="C101" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="B103" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
+      <c r="A103" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
+      <c r="A104" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
+      <c r="A105" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="B110" s="35" t="s">
         <v>479</v>
       </c>
+      <c r="B110" s="33" t="s">
+        <v>480</v>
+      </c>
       <c r="C110" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="B111" s="35" t="s">
-        <v>481</v>
+        <v>479</v>
+      </c>
+      <c r="B111" s="33" t="s">
+        <v>482</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="B112" s="35" t="s">
-        <v>483</v>
+        <v>479</v>
+      </c>
+      <c r="B112" s="33" t="s">
+        <v>484</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="B114" s="35" t="s">
         <v>486</v>
       </c>
+      <c r="B114" s="33" t="s">
+        <v>487</v>
+      </c>
       <c r="C114" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="B115" s="35" t="s">
-        <v>488</v>
+        <v>486</v>
+      </c>
+      <c r="B115" s="33" t="s">
+        <v>489</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="1048563" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -16491,7 +16436,7 @@
   </sheetPr>
   <dimension ref="A1:F65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -16499,47 +16444,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.1683673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.7857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
-        <v>490</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>491</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>492</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="B1" s="31" t="s">
         <v>493</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="C1" s="31" t="s">
         <v>494</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="D1" s="31" t="s">
         <v>495</v>
       </c>
+      <c r="E1" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="C2" s="36" t="n">
+      <c r="A2" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="C2" s="34" t="n">
         <f aca="true">NOW()</f>
-        <v>44084.6499320266</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>498</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>499</v>
-      </c>
-      <c r="F2" s="15"/>
+        <v>44098.5371079749</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="F2" s="13"/>
     </row>
     <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/config/default/forms/app/hts_retest_test.xlsx
+++ b/config/default/forms/app/hts_retest_test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="502">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -1883,7 +1883,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="504">
+  <dxfs count="499">
     <dxf>
       <font>
         <strike val="1"/>
@@ -3792,25 +3792,31 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3820,34 +3826,87 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFF2CC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF76A5AF"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFD9D2E9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3857,114 +3916,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6637,6 +6589,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6717,20 +6676,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="58.6785714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="71.0969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="103.045918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="127.612244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.9081632653061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="81.7142857142857"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="68.7551020408163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="156.5"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="52.4642857142857"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="50.219387755102"/>
-    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="62.7244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.7448979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="106.734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="132.204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="84.6836734693878"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="71.1836734693878"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="162.081632653061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="54.3571428571429"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="51.9285714285714"/>
+    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="64.9744897959184"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9559,7 +9515,9 @@
       <c r="C83" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D83" s="8"/>
+      <c r="D83" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="E83" s="8" t="s">
         <v>195</v>
       </c>
@@ -9584,7 +9542,7 @@
       <c r="X83" s="8"/>
       <c r="Y83" s="8"/>
     </row>
-    <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="8" t="s">
         <v>196</v>
       </c>
@@ -9594,7 +9552,9 @@
       <c r="C84" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D84" s="8"/>
+      <c r="D84" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
@@ -9617,7 +9577,7 @@
       <c r="X84" s="8"/>
       <c r="Y84" s="8"/>
     </row>
-    <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="8" t="s">
         <v>96</v>
       </c>
@@ -9627,7 +9587,9 @@
       <c r="C85" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D85" s="8"/>
+      <c r="D85" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
@@ -9650,7 +9612,7 @@
       <c r="X85" s="8"/>
       <c r="Y85" s="8"/>
     </row>
-    <row r="86" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="8" t="s">
         <v>70</v>
       </c>
@@ -9660,7 +9622,9 @@
       <c r="C86" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D86" s="8"/>
+      <c r="D86" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8" t="s">
@@ -13356,1374 +13320,1374 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="containsText" priority="210" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="213"/>
+    <cfRule type="containsText" priority="210" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="expression" priority="211" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="214">
+    <cfRule type="expression" priority="211" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="209">
       <formula>AND($A100="begin group", NOT($B100 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="expression" priority="212" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="215">
+    <cfRule type="expression" priority="212" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="210">
       <formula>AND($A100="end group", $B100 = "", $C100 = "", $D100 = "", $E100 = "", $F100 = "", $G100 = "", $H100 = "", $I100 = "", $J100 = "", $K100 = "", $L100 = "", $M100 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" priority="213" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="216">
+    <cfRule type="cellIs" priority="213" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="211">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="expression" priority="214" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="217">
+    <cfRule type="expression" priority="214" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="212">
       <formula>AND($A100="begin repeat", NOT($B100 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="expression" priority="215" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="218">
+    <cfRule type="expression" priority="215" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="213">
       <formula>AND($A100="end repeat", $B100 = "", $C100 = "", $D100 = "", $E100 = "", $F100 = "", $G100 = "", $H100 = "", $I100 = "", $J100 = "", $K100 = "", $L100 = "", $M100 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="containsText" priority="216" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="219"/>
+    <cfRule type="containsText" priority="216" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="expression" priority="217" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="220">
+    <cfRule type="expression" priority="217" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="215">
       <formula>AND($A88="begin group", NOT($B88 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="expression" priority="218" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="221">
+    <cfRule type="expression" priority="218" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="216">
       <formula>AND($A88="end group", $B88 = "", $C88 = "", $D88 = "", $E88 = "", $F88 = "", $G88 = "", $H88 = "", $I88 = "", $J88 = "", $K88 = "", $L88 = "", $M88 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="cellIs" priority="219" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="222">
+    <cfRule type="cellIs" priority="219" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="217">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="cellIs" priority="220" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="223">
+    <cfRule type="cellIs" priority="220" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="218">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="expression" priority="221" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="224">
+    <cfRule type="expression" priority="221" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="219">
       <formula>AND($A88="begin repeat", NOT($B88 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="expression" priority="222" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="225">
+    <cfRule type="expression" priority="222" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="220">
       <formula>AND($A88="end repeat", $B88 = "", $C88 = "", $D88 = "", $E88 = "", $F88 = "", $G88 = "", $H88 = "", $I88 = "", $J88 = "", $K88 = "", $L88 = "", $M88 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B75">
-    <cfRule type="expression" priority="223" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="226">
+    <cfRule type="expression" priority="223" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="221">
       <formula>COUNTIF($B$2:$B$1091,B74)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="expression" priority="224" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="228">
+    <cfRule type="expression" priority="224" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="222">
       <formula>COUNTIF($B$2:$B$1082,B86)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E121:E132">
-    <cfRule type="containsText" priority="225" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="229"/>
+    <cfRule type="containsText" priority="225" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E121:E132">
-    <cfRule type="expression" priority="226" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="230">
+    <cfRule type="expression" priority="226" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="224">
       <formula>AND($A121="begin group", NOT($B121 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E121:E132">
-    <cfRule type="expression" priority="227" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="231">
+    <cfRule type="expression" priority="227" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="225">
       <formula>AND($A121="end group", $B121 = "", $C121 = "", $D121 = "", $E121 = "", $F121 = "", $G121 = "", $H121 = "", $I121 = "", $J121 = "", $K121 = "", $L121 = "", $M121 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E121:E132">
-    <cfRule type="cellIs" priority="228" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="232">
+    <cfRule type="cellIs" priority="228" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="226">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E121:E132">
-    <cfRule type="expression" priority="229" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="233">
+    <cfRule type="expression" priority="229" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="227">
       <formula>AND($A121="begin repeat", NOT($B121 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E121:E132">
-    <cfRule type="expression" priority="230" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="234">
+    <cfRule type="expression" priority="230" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="228">
       <formula>AND($A121="end repeat", $B121 = "", $C121 = "", $D121 = "", $E121 = "", $F121 = "", $G121 = "", $H121 = "", $I121 = "", $J121 = "", $K121 = "", $L121 = "", $M121 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="containsText" priority="231" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="235"/>
+    <cfRule type="containsText" priority="231" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="expression" priority="232" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="236">
+    <cfRule type="expression" priority="232" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="230">
       <formula>AND($A134="begin group", NOT($B134 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="expression" priority="233" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="237">
+    <cfRule type="expression" priority="233" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="231">
       <formula>AND($A134="end group", $B134 = "", $C134 = "", $D134 = "", $E134 = "", $F134 = "", $G134 = "", $H134 = "", $I134 = "", $J134 = "", $K134 = "", $L134 = "", $M134 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" priority="234" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="238">
+    <cfRule type="cellIs" priority="234" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="232">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="expression" priority="235" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="239">
+    <cfRule type="expression" priority="235" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="233">
       <formula>AND($A134="begin repeat", NOT($B134 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="expression" priority="236" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="240">
+    <cfRule type="expression" priority="236" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="234">
       <formula>AND($A134="end repeat", $B134 = "", $C134 = "", $D134 = "", $E134 = "", $F134 = "", $G134 = "", $H134 = "", $I134 = "", $J134 = "", $K134 = "", $L134 = "", $M134 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="containsText" priority="237" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="241"/>
+    <cfRule type="containsText" priority="237" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="expression" priority="238" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="242">
+    <cfRule type="expression" priority="238" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="236">
       <formula>AND($A135="begin group", NOT($B135 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="expression" priority="239" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="243">
+    <cfRule type="expression" priority="239" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="237">
       <formula>AND($A135="end group", $B135 = "", $C135 = "", $D135 = "", $E135 = "", $F135 = "", $G135 = "", $H135 = "", $I135 = "", $J135 = "", $K135 = "", $L135 = "", $M135 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" priority="240" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="244">
+    <cfRule type="cellIs" priority="240" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="238">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="expression" priority="241" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="245">
+    <cfRule type="expression" priority="241" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="239">
       <formula>AND($A135="begin repeat", NOT($B135 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="expression" priority="242" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="246">
+    <cfRule type="expression" priority="242" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="240">
       <formula>AND($A135="end repeat", $B135 = "", $C135 = "", $D135 = "", $E135 = "", $F135 = "", $G135 = "", $H135 = "", $I135 = "", $J135 = "", $K135 = "", $L135 = "", $M135 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="containsText" priority="243" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="247"/>
+    <cfRule type="containsText" priority="243" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="241"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="expression" priority="244" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="248">
+    <cfRule type="expression" priority="244" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="242">
       <formula>AND($A141="begin group", NOT($B141 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="expression" priority="245" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="249">
+    <cfRule type="expression" priority="245" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="243">
       <formula>AND($A141="end group", $B141 = "", $C141 = "", $D141 = "", $E141 = "", $F141 = "", $G141 = "", $H141 = "", $I141 = "", $J141 = "", $K141 = "", $L141 = "", $M141 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" priority="246" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="250">
+    <cfRule type="cellIs" priority="246" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="244">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="expression" priority="247" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="251">
+    <cfRule type="expression" priority="247" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="245">
       <formula>AND($A141="begin repeat", NOT($B141 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="expression" priority="248" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="252">
+    <cfRule type="expression" priority="248" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="246">
       <formula>AND($A141="end repeat", $B141 = "", $C141 = "", $D141 = "", $E141 = "", $F141 = "", $G141 = "", $H141 = "", $I141 = "", $J141 = "", $K141 = "", $L141 = "", $M141 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142">
-    <cfRule type="containsText" priority="249" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="253"/>
+    <cfRule type="containsText" priority="249" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="247"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142">
-    <cfRule type="expression" priority="250" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="254">
+    <cfRule type="expression" priority="250" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="248">
       <formula>AND($A142="begin group", NOT($B142 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142">
-    <cfRule type="expression" priority="251" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="255">
+    <cfRule type="expression" priority="251" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="249">
       <formula>AND($A142="end group", $B142 = "", $C142 = "", $D142 = "", $E142 = "", $F142 = "", $G142 = "", $H142 = "", $I142 = "", $J142 = "", $K142 = "", $L142 = "", $M142 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" priority="252" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="256">
+    <cfRule type="cellIs" priority="252" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="250">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142">
-    <cfRule type="expression" priority="253" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="257">
+    <cfRule type="expression" priority="253" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="251">
       <formula>AND($A142="begin repeat", NOT($B142 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142">
-    <cfRule type="expression" priority="254" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="258">
+    <cfRule type="expression" priority="254" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="252">
       <formula>AND($A142="end repeat", $B142 = "", $C142 = "", $D142 = "", $E142 = "", $F142 = "", $G142 = "", $H142 = "", $I142 = "", $J142 = "", $K142 = "", $L142 = "", $M142 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="containsText" priority="255" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="259"/>
+    <cfRule type="containsText" priority="255" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="253"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="expression" priority="256" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="260">
+    <cfRule type="expression" priority="256" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="254">
       <formula>AND($A143="begin group", NOT($B143 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="expression" priority="257" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="261">
+    <cfRule type="expression" priority="257" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="255">
       <formula>AND($A143="end group", $B143 = "", $C143 = "", $D143 = "", $E143 = "", $F143 = "", $G143 = "", $H143 = "", $I143 = "", $J143 = "", $K143 = "", $L143 = "", $M143 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" priority="258" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="262">
+    <cfRule type="cellIs" priority="258" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="256">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="expression" priority="259" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="263">
+    <cfRule type="expression" priority="259" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="257">
       <formula>AND($A143="begin repeat", NOT($B143 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="expression" priority="260" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="264">
+    <cfRule type="expression" priority="260" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="258">
       <formula>AND($A143="end repeat", $B143 = "", $C143 = "", $D143 = "", $E143 = "", $F143 = "", $G143 = "", $H143 = "", $I143 = "", $J143 = "", $K143 = "", $L143 = "", $M143 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E148">
-    <cfRule type="containsText" priority="261" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="265"/>
+    <cfRule type="containsText" priority="261" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E148">
-    <cfRule type="expression" priority="262" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="266">
+    <cfRule type="expression" priority="262" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="260">
       <formula>AND($A148="begin group", NOT($B148 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E148">
-    <cfRule type="expression" priority="263" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="267">
+    <cfRule type="expression" priority="263" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="261">
       <formula>AND($A148="end group", $B148 = "", $C148 = "", $D148 = "", $E148 = "", $F148 = "", $G148 = "", $H148 = "", $I148 = "", $J148 = "", $K148 = "", $L148 = "", $M148 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E148">
-    <cfRule type="cellIs" priority="264" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="268">
+    <cfRule type="cellIs" priority="264" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="262">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E148">
-    <cfRule type="expression" priority="265" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="269">
+    <cfRule type="expression" priority="265" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="263">
       <formula>AND($A148="begin repeat", NOT($B148 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E148">
-    <cfRule type="expression" priority="266" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="270">
+    <cfRule type="expression" priority="266" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="264">
       <formula>AND($A148="end repeat", $B148 = "", $C148 = "", $D148 = "", $E148 = "", $F148 = "", $G148 = "", $H148 = "", $I148 = "", $J148 = "", $K148 = "", $L148 = "", $M148 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144">
-    <cfRule type="containsText" priority="267" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="271"/>
+    <cfRule type="containsText" priority="267" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144">
-    <cfRule type="expression" priority="268" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="272">
+    <cfRule type="expression" priority="268" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="266">
       <formula>AND($A144="begin group", NOT($B144 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144">
-    <cfRule type="expression" priority="269" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="273">
+    <cfRule type="expression" priority="269" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="267">
       <formula>AND($A144="end group", $B144 = "", $C144 = "", $D144 = "", $E144 = "", $F144 = "", $G144 = "", $H144 = "", $I144 = "", $J144 = "", $K144 = "", $L144 = "", $M144 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144">
-    <cfRule type="cellIs" priority="270" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="274">
+    <cfRule type="cellIs" priority="270" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="268">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144">
-    <cfRule type="expression" priority="271" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="275">
+    <cfRule type="expression" priority="271" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="269">
       <formula>AND($A144="begin repeat", NOT($B144 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144">
-    <cfRule type="expression" priority="272" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="276">
+    <cfRule type="expression" priority="272" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="270">
       <formula>AND($A144="end repeat", $B144 = "", $C144 = "", $D144 = "", $E144 = "", $F144 = "", $G144 = "", $H144 = "", $I144 = "", $J144 = "", $K144 = "", $L144 = "", $M144 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="containsText" priority="273" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="277"/>
+    <cfRule type="containsText" priority="273" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="expression" priority="274" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="278">
+    <cfRule type="expression" priority="274" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="272">
       <formula>AND($A136="begin group", NOT($B136 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="expression" priority="275" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="279">
+    <cfRule type="expression" priority="275" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="273">
       <formula>AND($A136="end group", $B136 = "", $C136 = "", $D136 = "", $E136 = "", $F136 = "", $G136 = "", $H136 = "", $I136 = "", $J136 = "", $K136 = "", $L136 = "", $M136 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" priority="276" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="280">
+    <cfRule type="cellIs" priority="276" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="274">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="expression" priority="277" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="281">
+    <cfRule type="expression" priority="277" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="275">
       <formula>AND($A136="begin repeat", NOT($B136 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="expression" priority="278" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="282">
+    <cfRule type="expression" priority="278" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="276">
       <formula>AND($A136="end repeat", $B136 = "", $C136 = "", $D136 = "", $E136 = "", $F136 = "", $G136 = "", $H136 = "", $I136 = "", $J136 = "", $K136 = "", $L136 = "", $M136 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="containsText" priority="279" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="283"/>
+    <cfRule type="containsText" priority="279" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="277"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="expression" priority="280" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="284">
+    <cfRule type="expression" priority="280" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="278">
       <formula>AND($A136="begin group", NOT($B136 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="expression" priority="281" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="285">
+    <cfRule type="expression" priority="281" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="279">
       <formula>AND($A136="end group", $B136 = "", $C136 = "", $D136 = "", $E136 = "", $F136 = "", $G136 = "", $H136 = "", $I136 = "", $J136 = "", $K136 = "", $L136 = "", $M136 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" priority="282" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="286">
+    <cfRule type="cellIs" priority="282" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="280">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="expression" priority="283" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="287">
+    <cfRule type="expression" priority="283" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="281">
       <formula>AND($A136="begin repeat", NOT($B136 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="expression" priority="284" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="288">
+    <cfRule type="expression" priority="284" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="282">
       <formula>AND($A136="end repeat", $B136 = "", $C136 = "", $D136 = "", $E136 = "", $F136 = "", $G136 = "", $H136 = "", $I136 = "", $J136 = "", $K136 = "", $L136 = "", $M136 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="containsText" priority="285" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="289"/>
+    <cfRule type="containsText" priority="285" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="expression" priority="286" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="290">
+    <cfRule type="expression" priority="286" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="284">
       <formula>AND($A140="begin group", NOT($B140 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="expression" priority="287" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="291">
+    <cfRule type="expression" priority="287" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="285">
       <formula>AND($A140="end group", $B140 = "", $C140 = "", $D140 = "", $E140 = "", $F140 = "", $G140 = "", $H140 = "", $I140 = "", $J140 = "", $K140 = "", $L140 = "", $M140 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" priority="288" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="292">
+    <cfRule type="cellIs" priority="288" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="286">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="expression" priority="289" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="293">
+    <cfRule type="expression" priority="289" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="287">
       <formula>AND($A140="begin repeat", NOT($B140 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="expression" priority="290" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="294">
+    <cfRule type="expression" priority="290" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="288">
       <formula>AND($A140="end repeat", $B140 = "", $C140 = "", $D140 = "", $E140 = "", $F140 = "", $G140 = "", $H140 = "", $I140 = "", $J140 = "", $K140 = "", $L140 = "", $M140 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="containsText" priority="291" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="295"/>
+    <cfRule type="containsText" priority="291" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="289"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="expression" priority="292" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="296">
+    <cfRule type="expression" priority="292" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="290">
       <formula>AND($A140="begin group", NOT($B140 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="expression" priority="293" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="297">
+    <cfRule type="expression" priority="293" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="291">
       <formula>AND($A140="end group", $B140 = "", $C140 = "", $D140 = "", $E140 = "", $F140 = "", $G140 = "", $H140 = "", $I140 = "", $J140 = "", $K140 = "", $L140 = "", $M140 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" priority="294" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="298">
+    <cfRule type="cellIs" priority="294" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="292">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="expression" priority="295" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="299">
+    <cfRule type="expression" priority="295" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="293">
       <formula>AND($A140="begin repeat", NOT($B140 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="expression" priority="296" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="300">
+    <cfRule type="expression" priority="296" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="294">
       <formula>AND($A140="end repeat", $B140 = "", $C140 = "", $D140 = "", $E140 = "", $F140 = "", $G140 = "", $H140 = "", $I140 = "", $J140 = "", $K140 = "", $L140 = "", $M140 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50:I51">
-    <cfRule type="expression" priority="297" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="301">
+    <cfRule type="expression" priority="297" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="295">
       <formula>AND($I50 = "", $A50 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="expression" priority="298" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="302">
+    <cfRule type="expression" priority="298" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="296">
       <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $C50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B52">
-    <cfRule type="expression" priority="299" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="303">
+    <cfRule type="expression" priority="299" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="297">
       <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $B50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="cellIs" priority="300" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="304">
+    <cfRule type="cellIs" priority="300" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="298">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50:H52">
-    <cfRule type="expression" priority="301" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="305">
+    <cfRule type="expression" priority="301" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="299">
       <formula>AND(NOT($G50 = ""), $H50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B52">
-    <cfRule type="expression" priority="302" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="306">
+    <cfRule type="expression" priority="302" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="300">
       <formula>COUNTIF($B$2:$B$1006,B50)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="containsText" priority="303" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="307"/>
+    <cfRule type="containsText" priority="303" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="301"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="expression" priority="304" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="308">
+    <cfRule type="expression" priority="304" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="302">
       <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="expression" priority="305" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="309">
+    <cfRule type="expression" priority="305" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="303">
       <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" priority="306" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="310">
+    <cfRule type="cellIs" priority="306" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="304">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="expression" priority="307" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="311">
+    <cfRule type="expression" priority="307" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="305">
       <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="expression" priority="308" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="312">
+    <cfRule type="expression" priority="308" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="306">
       <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60">
-    <cfRule type="expression" priority="309" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="313">
+    <cfRule type="expression" priority="309" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="307">
       <formula>AND($I60 = "", $A60 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" priority="310" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="314">
+    <cfRule type="expression" priority="310" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="308">
       <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $C60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="expression" priority="311" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="315">
+    <cfRule type="expression" priority="311" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="309">
       <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $B60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="cellIs" priority="312" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="316">
+    <cfRule type="cellIs" priority="312" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="310">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="expression" priority="313" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="317">
+    <cfRule type="expression" priority="313" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="311">
       <formula>AND(NOT($G60 = ""), $H60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="expression" priority="314" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="318">
+    <cfRule type="expression" priority="314" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="312">
       <formula>COUNTIF($B$2:$B$1004,B60)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="containsText" priority="315" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="319"/>
+    <cfRule type="containsText" priority="315" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="313"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="expression" priority="316" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="320">
+    <cfRule type="expression" priority="316" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="314">
       <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="expression" priority="317" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="321">
+    <cfRule type="expression" priority="317" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="315">
       <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" priority="318" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="322">
+    <cfRule type="cellIs" priority="318" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="316">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="expression" priority="319" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="323">
+    <cfRule type="expression" priority="319" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="317">
       <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="expression" priority="320" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="324">
+    <cfRule type="expression" priority="320" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="318">
       <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I68">
-    <cfRule type="expression" priority="321" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="325">
+    <cfRule type="expression" priority="321" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="319">
       <formula>AND($I68 = "", $A68 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="expression" priority="322" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="326">
+    <cfRule type="expression" priority="322" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="320">
       <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $C68 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="expression" priority="323" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="327">
+    <cfRule type="expression" priority="323" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="321">
       <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $B68 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="cellIs" priority="324" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="328">
+    <cfRule type="cellIs" priority="324" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="322">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="expression" priority="325" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="329">
+    <cfRule type="expression" priority="325" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="323">
       <formula>AND(NOT($G68 = ""), $H68 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="expression" priority="326" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="330">
+    <cfRule type="expression" priority="326" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="324">
       <formula>COUNTIF($B$2:$B$1002,B68)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="containsText" priority="327" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="331"/>
+    <cfRule type="containsText" priority="327" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="325"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="expression" priority="328" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="332">
+    <cfRule type="expression" priority="328" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="326">
       <formula>AND($A68="begin group", NOT($B68 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="expression" priority="329" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="333">
+    <cfRule type="expression" priority="329" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="327">
       <formula>AND($A68="end group", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" priority="330" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="334">
+    <cfRule type="cellIs" priority="330" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="328">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="expression" priority="331" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="335">
+    <cfRule type="expression" priority="331" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="329">
       <formula>AND($A68="begin repeat", NOT($B68 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="expression" priority="332" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="336">
+    <cfRule type="expression" priority="332" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="330">
       <formula>AND($A68="end repeat", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72">
-    <cfRule type="expression" priority="333" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="337">
+    <cfRule type="expression" priority="333" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="331">
       <formula>AND($I72 = "", $A72 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="expression" priority="334" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="338">
+    <cfRule type="expression" priority="334" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="332">
       <formula>AND(AND(NOT($A72 = "end group"), NOT($A72 = "end repeat"), NOT($A72 = "")), $C72 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="expression" priority="335" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="339">
+    <cfRule type="expression" priority="335" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="333">
       <formula>AND(AND(NOT($A72 = "end group"), NOT($A72 = "end repeat"), NOT($A72 = "")), $B72 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="cellIs" priority="336" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="340">
+    <cfRule type="cellIs" priority="336" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="334">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="expression" priority="337" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="341">
+    <cfRule type="expression" priority="337" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="335">
       <formula>AND(NOT($G72 = ""), $H72 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="expression" priority="338" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="342">
+    <cfRule type="expression" priority="338" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="336">
       <formula>COUNTIF($B$2:$B$1000,B72)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="containsText" priority="339" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="343"/>
+    <cfRule type="containsText" priority="339" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="337"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="expression" priority="340" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="344">
+    <cfRule type="expression" priority="340" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="338">
       <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="expression" priority="341" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="345">
+    <cfRule type="expression" priority="341" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="339">
       <formula>AND($A72="end group", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" priority="342" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="346">
+    <cfRule type="cellIs" priority="342" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="340">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="expression" priority="343" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="347">
+    <cfRule type="expression" priority="343" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="341">
       <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="expression" priority="344" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="348">
+    <cfRule type="expression" priority="344" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="342">
       <formula>AND($A72="end repeat", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="containsText" priority="345" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="349"/>
+    <cfRule type="containsText" priority="345" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="343"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="expression" priority="346" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="350">
+    <cfRule type="expression" priority="346" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="344">
       <formula>AND($A94="begin group", NOT($B94 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="expression" priority="347" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="351">
+    <cfRule type="expression" priority="347" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="345">
       <formula>AND($A94="end group", $B94 = "", $C94 = "", $D94 = "", $E94 = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" priority="348" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="352">
+    <cfRule type="cellIs" priority="348" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="346">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="expression" priority="349" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="353">
+    <cfRule type="expression" priority="349" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="347">
       <formula>AND($A94="begin repeat", NOT($B94 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="expression" priority="350" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="354">
+    <cfRule type="expression" priority="350" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="348">
       <formula>AND($A94="end repeat", $B94 = "", $C94 = "", $D94 = "", $E94 = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:Y41">
-    <cfRule type="containsText" priority="351" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="355"/>
+    <cfRule type="containsText" priority="351" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="349"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:Y41">
-    <cfRule type="cellIs" priority="352" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="356">
+    <cfRule type="cellIs" priority="352" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="350">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="cellIs" priority="353" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="357">
+    <cfRule type="cellIs" priority="353" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="351">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="354" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="358">
+    <cfRule type="expression" priority="354" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="352">
       <formula>AND(A1 = "type", COUNTIF($A$1:$A$1107, "begin group") = COUNTIF($A$1:$A$1107, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="355" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="359">
+    <cfRule type="expression" priority="355" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="353">
       <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1098, "begin group") = COUNTIF($A$1:$A$1107, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="containsText" priority="356" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="360"/>
+    <cfRule type="containsText" priority="356" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="354"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="expression" priority="357" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="361">
+    <cfRule type="expression" priority="357" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="355">
       <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="expression" priority="358" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="362">
+    <cfRule type="expression" priority="358" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="356">
       <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" priority="359" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="363">
+    <cfRule type="cellIs" priority="359" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="357">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="expression" priority="360" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="364">
+    <cfRule type="expression" priority="360" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="358">
       <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="expression" priority="361" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="365">
+    <cfRule type="expression" priority="361" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="359">
       <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" priority="362" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="366">
+    <cfRule type="expression" priority="362" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="360">
       <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $C55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="containsText" priority="363" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="367"/>
+    <cfRule type="containsText" priority="363" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="expression" priority="364" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="368">
+    <cfRule type="expression" priority="364" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="362">
       <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="expression" priority="365" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="369">
+    <cfRule type="expression" priority="365" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="363">
       <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $I58 = "", $M58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" priority="366" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="370">
+    <cfRule type="cellIs" priority="366" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="364">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="expression" priority="367" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="371">
+    <cfRule type="expression" priority="367" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="365">
       <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="expression" priority="368" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="372">
+    <cfRule type="expression" priority="368" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="366">
       <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $I58 = "", $M58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58">
-    <cfRule type="expression" priority="369" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="373">
+    <cfRule type="expression" priority="369" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="367">
       <formula>AND($I58 = "", $A58 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="cellIs" priority="370" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="374">
+    <cfRule type="cellIs" priority="370" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="368">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="expression" priority="371" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="375">
+    <cfRule type="expression" priority="371" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="369">
       <formula>AND(NOT($G56 = ""), $H56 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56">
-    <cfRule type="expression" priority="372" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="376">
+    <cfRule type="expression" priority="372" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="370">
       <formula>AND($I56 = "", $A56 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="expression" priority="373" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="377">
+    <cfRule type="expression" priority="373" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="371">
       <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $C56 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="expression" priority="374" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="378">
+    <cfRule type="expression" priority="374" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="372">
       <formula>AND($I59 = "", $A59 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="containsText" priority="375" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="379"/>
+    <cfRule type="containsText" priority="375" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="373"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="expression" priority="376" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="380">
+    <cfRule type="expression" priority="376" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="374">
       <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="expression" priority="377" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="381">
+    <cfRule type="expression" priority="377" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="375">
       <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $I57 = "", $M57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" priority="378" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="382">
+    <cfRule type="cellIs" priority="378" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="376">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="expression" priority="379" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="383">
+    <cfRule type="expression" priority="379" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="377">
       <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="expression" priority="380" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="384">
+    <cfRule type="expression" priority="380" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="378">
       <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $I57 = "", $M57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="containsText" priority="381" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="385"/>
+    <cfRule type="containsText" priority="381" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="379"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="382" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="386">
+    <cfRule type="expression" priority="382" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="380">
       <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="383" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="387">
+    <cfRule type="expression" priority="383" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="381">
       <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" priority="384" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="388">
+    <cfRule type="cellIs" priority="384" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="382">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="385" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="389">
+    <cfRule type="expression" priority="385" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="383">
       <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="386" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="390">
+    <cfRule type="expression" priority="386" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="384">
       <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="containsText" priority="387" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="391"/>
+    <cfRule type="containsText" priority="387" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="385"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="expression" priority="388" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="392">
+    <cfRule type="expression" priority="388" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="386">
       <formula>AND($A45="begin group", NOT($B45 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="expression" priority="389" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="393">
+    <cfRule type="expression" priority="389" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="387">
       <formula>AND($A45="end group", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" priority="390" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="394">
+    <cfRule type="cellIs" priority="390" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="388">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="expression" priority="391" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="395">
+    <cfRule type="expression" priority="391" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="389">
       <formula>AND($A45="begin repeat", NOT($B45 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="expression" priority="392" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="396">
+    <cfRule type="expression" priority="392" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="390">
       <formula>AND($A45="end repeat", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="expression" priority="393" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="397">
+    <cfRule type="expression" priority="393" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="391">
       <formula>AND($I45 = "", $A45 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:I47">
-    <cfRule type="expression" priority="394" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="398">
+    <cfRule type="expression" priority="394" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="392">
       <formula>AND($I46 = "", $A46 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="expression" priority="395" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="399">
+    <cfRule type="expression" priority="395" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="393">
       <formula>AND($I48 = "", $A48 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="expression" priority="396" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="400">
+    <cfRule type="expression" priority="396" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="394">
       <formula>AND($I49 = "", $A49 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="containsText" priority="397" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="401"/>
+    <cfRule type="containsText" priority="397" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="395"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="expression" priority="398" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="402">
+    <cfRule type="expression" priority="398" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="396">
       <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="expression" priority="399" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="403">
+    <cfRule type="expression" priority="399" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="397">
       <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" priority="400" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="404">
+    <cfRule type="cellIs" priority="400" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="398">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="expression" priority="401" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="405">
+    <cfRule type="expression" priority="401" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="399">
       <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="expression" priority="402" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="406">
+    <cfRule type="expression" priority="402" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="400">
       <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="containsText" priority="403" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="407"/>
+    <cfRule type="containsText" priority="403" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="401"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" priority="404" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="408">
+    <cfRule type="expression" priority="404" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="402">
       <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" priority="405" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="409">
+    <cfRule type="expression" priority="405" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="403">
       <formula>AND($A47="end group", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" priority="406" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="410">
+    <cfRule type="cellIs" priority="406" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="404">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" priority="407" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="411">
+    <cfRule type="expression" priority="407" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="405">
       <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" priority="408" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="412">
+    <cfRule type="expression" priority="408" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="406">
       <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="containsText" priority="409" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="413"/>
+    <cfRule type="containsText" priority="409" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="407"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="expression" priority="410" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="414">
+    <cfRule type="expression" priority="410" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="408">
       <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="expression" priority="411" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="415">
+    <cfRule type="expression" priority="411" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="409">
       <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" priority="412" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="416">
+    <cfRule type="cellIs" priority="412" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="410">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="expression" priority="413" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="417">
+    <cfRule type="expression" priority="413" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="411">
       <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="expression" priority="414" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="418">
+    <cfRule type="expression" priority="414" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="412">
       <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="cellIs" priority="415" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="419">
+    <cfRule type="cellIs" priority="415" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="413">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="cellIs" priority="416" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="420">
+    <cfRule type="cellIs" priority="416" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="414">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:C52">
-    <cfRule type="expression" priority="417" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="421">
+    <cfRule type="expression" priority="417" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="415">
       <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $C51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="containsText" priority="418" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="422"/>
+    <cfRule type="containsText" priority="418" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="416"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="expression" priority="419" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="423">
+    <cfRule type="expression" priority="419" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="417">
       <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="expression" priority="420" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="424">
+    <cfRule type="expression" priority="420" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="418">
       <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" priority="421" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="425">
+    <cfRule type="cellIs" priority="421" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="419">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="expression" priority="422" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="426">
+    <cfRule type="expression" priority="422" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="420">
       <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="expression" priority="423" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="427">
+    <cfRule type="expression" priority="423" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="421">
       <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="containsText" priority="424" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="428"/>
+    <cfRule type="containsText" priority="424" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="422"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="expression" priority="425" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="429">
+    <cfRule type="expression" priority="425" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="423">
       <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="expression" priority="426" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="430">
+    <cfRule type="expression" priority="426" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="424">
       <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" priority="427" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="431">
+    <cfRule type="cellIs" priority="427" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="425">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="expression" priority="428" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="432">
+    <cfRule type="expression" priority="428" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="426">
       <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="expression" priority="429" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="433">
+    <cfRule type="expression" priority="429" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="427">
       <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="expression" priority="430" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="434">
+    <cfRule type="expression" priority="430" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="428">
       <formula>AND($I52 = "", $A52 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="expression" priority="431" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="435">
+    <cfRule type="expression" priority="431" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="429">
       <formula>AND($I53 = "", $A53 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="containsText" priority="432" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="436"/>
+    <cfRule type="containsText" priority="432" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="430"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="expression" priority="433" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="437">
+    <cfRule type="expression" priority="433" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="431">
       <formula>AND($A91="begin group", NOT($B91 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="expression" priority="434" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="438">
+    <cfRule type="expression" priority="434" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="432">
       <formula>AND($A91="end group", $B91 = "", $C91 = "", $D91 = "", $E91 = "", $F91 = "", $G91 = "", $H91 = "", $I91 = "", $J91 = "", $K91 = "", $L91 = "", $M91 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" priority="435" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="439">
+    <cfRule type="cellIs" priority="435" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="433">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="expression" priority="436" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="440">
+    <cfRule type="expression" priority="436" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="434">
       <formula>AND($A91="begin repeat", NOT($B91 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="expression" priority="437" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="441">
+    <cfRule type="expression" priority="437" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="435">
       <formula>AND($A91="end repeat", $B91 = "", $C91 = "", $D91 = "", $E91 = "", $F91 = "", $G91 = "", $H91 = "", $I91 = "", $J91 = "", $K91 = "", $L91 = "", $M91 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="containsText" priority="438" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="442"/>
+    <cfRule type="containsText" priority="438" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="436"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="expression" priority="439" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="443">
+    <cfRule type="expression" priority="439" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="437">
       <formula>AND($A90="begin group", NOT($B90 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="expression" priority="440" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="444">
+    <cfRule type="expression" priority="440" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="438">
       <formula>AND($A90="end group", $B90 = "", $C90 = "", $D90 = "", $E90 = "", $F90 = "", $G90 = "", $H90 = "", $I90 = "", $J90 = "", $K90 = "", $L90 = "", $M90 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="cellIs" priority="441" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="445">
+    <cfRule type="cellIs" priority="441" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="439">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="expression" priority="442" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="446">
+    <cfRule type="expression" priority="442" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="440">
       <formula>AND(AND(NOT($A90 = "end group"), NOT($A90 = "end repeat"), NOT($A90 = "")), $B90 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="expression" priority="443" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="447">
+    <cfRule type="expression" priority="443" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="441">
       <formula>AND($A90="begin repeat", NOT($B90 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="expression" priority="444" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="448">
+    <cfRule type="expression" priority="444" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="442">
       <formula>AND($A90="end repeat", $B90 = "", $C90 = "", $D90 = "", $E90 = "", $F90 = "", $G90 = "", $H90 = "", $I90 = "", $J90 = "", $K90 = "", $L90 = "", $M90 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="expression" priority="445" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="449">
+    <cfRule type="expression" priority="445" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="443">
       <formula>COUNTIF($B$2:$B$1089,B90)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="containsText" priority="446" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="450"/>
+    <cfRule type="containsText" priority="446" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="444"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="expression" priority="447" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="451">
+    <cfRule type="expression" priority="447" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="445">
       <formula>AND($A89="begin group", NOT($B89 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="expression" priority="448" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="452">
+    <cfRule type="expression" priority="448" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="446">
       <formula>AND($A89="end group", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="cellIs" priority="449" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="453">
+    <cfRule type="cellIs" priority="449" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="447">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="cellIs" priority="450" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="454">
+    <cfRule type="cellIs" priority="450" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="448">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="expression" priority="451" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="455">
+    <cfRule type="expression" priority="451" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="449">
       <formula>AND($A89="begin repeat", NOT($B89 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="expression" priority="452" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="456">
+    <cfRule type="expression" priority="452" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="450">
       <formula>AND($A89="end repeat", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="containsText" priority="453" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="457"/>
+    <cfRule type="containsText" priority="453" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="451"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="expression" priority="454" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="458">
+    <cfRule type="expression" priority="454" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="452">
       <formula>AND($A89="begin group", NOT($B89 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="expression" priority="455" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="459">
+    <cfRule type="expression" priority="455" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="453">
       <formula>AND($A89="end group", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="cellIs" priority="456" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="460">
+    <cfRule type="cellIs" priority="456" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="454">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="expression" priority="457" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="461">
+    <cfRule type="expression" priority="457" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="455">
       <formula>AND(AND(NOT($A89 = "end group"), NOT($A89 = "end repeat"), NOT($A89 = "")), $B89 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="expression" priority="458" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="462">
+    <cfRule type="expression" priority="458" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="456">
       <formula>AND($A89="begin repeat", NOT($B89 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="expression" priority="459" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="463">
+    <cfRule type="expression" priority="459" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="457">
       <formula>AND($A89="end repeat", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="expression" priority="460" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="464">
+    <cfRule type="expression" priority="460" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="458">
       <formula>COUNTIF($B$2:$B$1089,B89)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="expression" priority="461" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="465">
+    <cfRule type="expression" priority="461" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="459">
       <formula>AND($I60 = "", $A60 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="expression" priority="462" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="466">
+    <cfRule type="expression" priority="462" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="460">
       <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $C60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="expression" priority="463" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="467">
+    <cfRule type="expression" priority="463" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="461">
       <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $B60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="cellIs" priority="464" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="468">
+    <cfRule type="cellIs" priority="464" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="462">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81">
-    <cfRule type="expression" priority="465" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="469">
+    <cfRule type="expression" priority="465" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="463">
       <formula>AND(NOT($G60 = ""), $H60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="containsText" priority="466" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="470"/>
+    <cfRule type="containsText" priority="466" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="464"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="expression" priority="467" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="471">
+    <cfRule type="expression" priority="467" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="465">
       <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="expression" priority="468" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="472">
+    <cfRule type="expression" priority="468" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="466">
       <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" priority="469" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="473">
+    <cfRule type="cellIs" priority="469" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="467">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="expression" priority="470" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="474">
+    <cfRule type="expression" priority="470" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="468">
       <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="expression" priority="471" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="475">
+    <cfRule type="expression" priority="471" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="469">
       <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I92">
-    <cfRule type="expression" priority="472" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="476">
+    <cfRule type="expression" priority="472" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="470">
       <formula>AND($I76 = "", $A76 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92">
-    <cfRule type="expression" priority="473" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="477">
+    <cfRule type="expression" priority="473" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="471">
       <formula>AND(AND(NOT($A76 = "end group"), NOT($A76 = "end repeat"), NOT($A76 = "")), $C76 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="cellIs" priority="474" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="478">
+    <cfRule type="cellIs" priority="474" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="472">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="expression" priority="475" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="479">
+    <cfRule type="expression" priority="475" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="473">
       <formula>AND(NOT($G76 = ""), $H76 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="containsText" priority="476" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="480"/>
+    <cfRule type="containsText" priority="476" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="474"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="expression" priority="477" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="481">
+    <cfRule type="expression" priority="477" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="475">
       <formula>AND($A76="begin group", NOT($B76 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="expression" priority="478" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="482">
+    <cfRule type="expression" priority="478" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="476">
       <formula>AND($A76="end group", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" priority="479" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="483">
+    <cfRule type="cellIs" priority="479" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="477">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="expression" priority="480" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="484">
+    <cfRule type="expression" priority="480" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="478">
       <formula>AND($A76="begin repeat", NOT($B76 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="expression" priority="481" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="485">
+    <cfRule type="expression" priority="481" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="479">
       <formula>AND($A76="end repeat", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="containsText" priority="482" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="486"/>
+    <cfRule type="containsText" priority="482" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="480"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="expression" priority="483" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="487">
+    <cfRule type="expression" priority="483" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="481">
       <formula>AND($A137="begin group", NOT($B137 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="expression" priority="484" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="488">
+    <cfRule type="expression" priority="484" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="482">
       <formula>AND($A137="end group", $B137 = "", $C137 = "", $D137 = "", $E137 = "", $F137 = "", $G137 = "", $H137 = "", $I137 = "", $J137 = "", $K137 = "", $L137 = "", $M137 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" priority="485" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="489">
+    <cfRule type="cellIs" priority="485" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="483">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="expression" priority="486" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="490">
+    <cfRule type="expression" priority="486" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="484">
       <formula>AND($A137="begin repeat", NOT($B137 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="expression" priority="487" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="491">
+    <cfRule type="expression" priority="487" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="485">
       <formula>AND($A137="end repeat", $B137 = "", $C137 = "", $D137 = "", $E137 = "", $F137 = "", $G137 = "", $H137 = "", $I137 = "", $J137 = "", $K137 = "", $L137 = "", $M137 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E138">
-    <cfRule type="containsText" priority="488" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="492"/>
+    <cfRule type="containsText" priority="488" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="486"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E138">
-    <cfRule type="expression" priority="489" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="493">
+    <cfRule type="expression" priority="489" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="487">
       <formula>AND($A138="begin group", NOT($B138 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E138">
-    <cfRule type="expression" priority="490" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="494">
+    <cfRule type="expression" priority="490" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="488">
       <formula>AND($A138="end group", $B138 = "", $C138 = "", $D138 = "", $E138 = "", $F138 = "", $G138 = "", $H138 = "", $I138 = "", $J138 = "", $K138 = "", $L138 = "", $M138 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E138">
-    <cfRule type="cellIs" priority="491" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="495">
+    <cfRule type="cellIs" priority="491" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="489">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E138">
-    <cfRule type="expression" priority="492" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="496">
+    <cfRule type="expression" priority="492" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="490">
       <formula>AND($A138="begin repeat", NOT($B138 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E138">
-    <cfRule type="expression" priority="493" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="497">
+    <cfRule type="expression" priority="493" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="491">
       <formula>AND($A138="end repeat", $B138 = "", $C138 = "", $D138 = "", $E138 = "", $F138 = "", $G138 = "", $H138 = "", $I138 = "", $J138 = "", $K138 = "", $L138 = "", $M138 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="containsText" priority="494" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="498"/>
+    <cfRule type="containsText" priority="494" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="492"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="expression" priority="495" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="499">
+    <cfRule type="expression" priority="495" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="493">
       <formula>AND($A139="begin group", NOT($B139 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="expression" priority="496" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="500">
+    <cfRule type="expression" priority="496" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="494">
       <formula>AND($A139="end group", $B139 = "", $C139 = "", $D139 = "", $E139 = "", $F139 = "", $G139 = "", $H139 = "", $I139 = "", $J139 = "", $K139 = "", $L139 = "", $M139 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" priority="497" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="501">
+    <cfRule type="cellIs" priority="497" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="495">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="expression" priority="498" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="502">
+    <cfRule type="expression" priority="498" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="496">
       <formula>AND($A139="begin repeat", NOT($B139 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="expression" priority="499" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="503">
+    <cfRule type="expression" priority="499" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="497">
       <formula>AND($A139="end repeat", $B139 = "", $C139 = "", $D139 = "", $E139 = "", $F139 = "", $G139 = "", $H139 = "", $I139 = "", $J139 = "", $K139 = "", $L139 = "", $M139 = "")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14824,80 +14788,80 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I71">
-    <cfRule type="expression" priority="520" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="225">
+    <cfRule type="expression" priority="520" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="220">
       <formula>AND($I71 = "", $A71 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="expression" priority="521" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="226">
+    <cfRule type="expression" priority="521" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="221">
       <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $C71 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:A71">
-    <cfRule type="cellIs" priority="522" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="227">
+    <cfRule type="cellIs" priority="522" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="498">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="expression" priority="523" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="228">
+    <cfRule type="expression" priority="523" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="222">
       <formula>AND(NOT($G71 = ""), $H71 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="containsText" priority="524" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="229"/>
+    <cfRule type="containsText" priority="524" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="expression" priority="525" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="230">
+    <cfRule type="expression" priority="525" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="224">
       <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="expression" priority="526" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="231">
+    <cfRule type="expression" priority="526" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="225">
       <formula>AND($A71="end group", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" priority="527" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="232">
+    <cfRule type="cellIs" priority="527" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="226">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="expression" priority="528" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="233">
+    <cfRule type="expression" priority="528" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="227">
       <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="expression" priority="529" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="234">
+    <cfRule type="expression" priority="529" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="228">
       <formula>AND($A71="end repeat", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69:I70">
-    <cfRule type="expression" priority="530" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="317">
+    <cfRule type="expression" priority="530" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="311">
       <formula>AND($I69 = "", $A69 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:C70">
-    <cfRule type="expression" priority="531" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="318">
+    <cfRule type="expression" priority="531" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="312">
       <formula>AND(AND(NOT($A69 = "end group"), NOT($A69 = "end repeat"), NOT($A69 = "")), $C69 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69:B70">
-    <cfRule type="expression" priority="532" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="319">
+    <cfRule type="expression" priority="532" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="313">
       <formula>AND(AND(NOT($A69 = "end group"), NOT($A69 = "end repeat"), NOT($A69 = "")), $B69 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69:H70">
-    <cfRule type="expression" priority="533" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="321">
+    <cfRule type="expression" priority="533" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="315">
       <formula>AND(NOT($G69 = ""), $H69 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69:B70">
-    <cfRule type="expression" priority="534" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="411">
+    <cfRule type="expression" priority="534" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="405">
       <formula>COUNTIF($B$2:$B$982,B69)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:A70">
-    <cfRule type="cellIs" priority="535" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="227">
+    <cfRule type="cellIs" priority="535" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="498">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14930,50 +14894,50 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I95:I99">
-    <cfRule type="expression" priority="542" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="277">
+    <cfRule type="expression" priority="542" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="271">
       <formula>AND($I95 = "", $A95 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C95:C99">
-    <cfRule type="expression" priority="543" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="278">
+    <cfRule type="expression" priority="543" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="272">
       <formula>AND(AND(NOT($A95 = "end group"), NOT($A95 = "end repeat"), NOT($A95 = "")), $C95 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:A99">
-    <cfRule type="cellIs" priority="544" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="280">
+    <cfRule type="cellIs" priority="544" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="274">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95:H99">
-    <cfRule type="expression" priority="545" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="281">
+    <cfRule type="expression" priority="545" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="275">
       <formula>AND(NOT($G95 = ""), $H95 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsText" priority="546" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="282"/>
+    <cfRule type="containsText" priority="546" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="276"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="expression" priority="547" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="283">
+    <cfRule type="expression" priority="547" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="277">
       <formula>AND($A98="begin group", NOT($B98 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="expression" priority="548" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="284">
+    <cfRule type="expression" priority="548" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="278">
       <formula>AND($A98="end group", $B98 = "", $C98 = "", $D98 = "", $E98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" priority="549" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="285">
+    <cfRule type="cellIs" priority="549" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="279">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="expression" priority="550" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="286">
+    <cfRule type="expression" priority="550" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="280">
       <formula>AND($A98="begin repeat", NOT($B98 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="expression" priority="551" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="287">
+    <cfRule type="expression" priority="551" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="281">
       <formula>AND($A98="end repeat", $B98 = "", $C98 = "", $D98 = "", $E98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15012,10 +14976,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.7244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="65.2448979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="82.8826530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.6173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="67.5867346938775"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="85.8571428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16444,9 +16407,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.7857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.4948979591837"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16478,7 +16439,7 @@
       </c>
       <c r="C2" s="34" t="n">
         <f aca="true">NOW()</f>
-        <v>44098.5371079749</v>
+        <v>44104.610397876</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>500</v>

--- a/config/default/forms/app/hts_retest_test.xlsx
+++ b/config/default/forms/app/hts_retest_test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="563">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -597,7 +597,7 @@
     <t xml:space="preserve">select_one setting</t>
   </si>
   <si>
-    <t xml:space="preserve">test_setting</t>
+    <t xml:space="preserve">_165215_htsSetting_99DCT</t>
   </si>
   <si>
     <t xml:space="preserve">Setting</t>
@@ -621,7 +621,7 @@
     <t xml:space="preserve">Indicate HTS strategy used?</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(${test_setting},'facility')</t>
+    <t xml:space="preserve">selected(${_165215_htsSetting_99DCT},'_1537_facility_99DCT')</t>
   </si>
   <si>
     <t xml:space="preserve">select_one hts_strategy_community</t>
@@ -630,7 +630,7 @@
     <t xml:space="preserve">community_testing</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(${test_setting},'community')</t>
+    <t xml:space="preserve">selected(${_165215_htsSetting_99DCT},'_163488_community_99DCT')</t>
   </si>
   <si>
     <t xml:space="preserve">_164956_htsStrategyUsed_99DCT</t>
@@ -1352,12 +1352,6 @@
     <t xml:space="preserve">_1066_no_99DCT</t>
   </si>
   <si>
-    <t xml:space="preserve">roof_material</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other</t>
-  </si>
-  <si>
     <t xml:space="preserve">_164928_general_99DCT</t>
   </si>
   <si>
@@ -1616,13 +1610,13 @@
     <t xml:space="preserve">setting</t>
   </si>
   <si>
-    <t xml:space="preserve">community</t>
+    <t xml:space="preserve">_163488_community_99DCT</t>
   </si>
   <si>
     <t xml:space="preserve">Community</t>
   </si>
   <si>
-    <t xml:space="preserve">facility</t>
+    <t xml:space="preserve">_1537_facility_99DCT</t>
   </si>
   <si>
     <t xml:space="preserve">Facility</t>
@@ -2076,223 +2070,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="59">
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
+  <dxfs count="35">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -2680,25 +2458,23 @@
   <dimension ref="A1:AL186"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.1887755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.9489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.0969387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="147.051020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.219387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.7397959183673"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="79.1071428571429"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="180.260204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="60.4744897959184"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="57.5969387755102"/>
-    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="72.1734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.0867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.3877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.8367346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="152.448979591837"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.9081632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="81.8928571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="186.826530612245"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="62.6377551020408"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="59.6683673469388"/>
+    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="74.7857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5646,7 +5422,7 @@
       <c r="X86" s="8"/>
       <c r="Y86" s="8"/>
     </row>
-    <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="8" t="s">
         <v>190</v>
       </c>
@@ -5716,7 +5492,7 @@
       <c r="X88" s="8"/>
       <c r="Y88" s="8"/>
     </row>
-    <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="8" t="s">
         <v>196</v>
       </c>
@@ -5753,7 +5529,7 @@
       <c r="X89" s="8"/>
       <c r="Y89" s="8"/>
     </row>
-    <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="8" t="s">
         <v>200</v>
       </c>
@@ -5864,7 +5640,7 @@
       <c r="X92" s="8"/>
       <c r="Y92" s="8"/>
     </row>
-    <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="8" t="s">
         <v>208</v>
       </c>
@@ -5901,7 +5677,7 @@
       <c r="X93" s="8"/>
       <c r="Y93" s="8"/>
     </row>
-    <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="8" t="s">
         <v>211</v>
       </c>
@@ -9600,2934 +9376,2962 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I160">
-    <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($I160 = "", $A160 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C160">
-    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(AND(NOT($A160 = "end group"), NOT($A160 = "end repeat"), NOT($A160 = "")), $C160 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160">
-    <cfRule type="expression" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(AND(NOT($A160 = "end group"), NOT($A160 = "end repeat"), NOT($A160 = "")), $B160 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A160">
-    <cfRule type="cellIs" priority="94" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="94" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H160">
-    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(NOT($G160 = ""), $H160 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I164">
-    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($I164 = "", $A164 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C164">
-    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(AND(NOT($A164 = "end group"), NOT($A164 = "end repeat"), NOT($A164 = "")), $C164 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(AND(NOT($A164 = "end group"), NOT($A164 = "end repeat"), NOT($A164 = "")), $B164 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A164">
-    <cfRule type="cellIs" priority="99" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="99" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H164">
-    <cfRule type="expression" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(NOT($G164 = ""), $H164 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="containsText" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
+    <cfRule type="containsText" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A59="end group", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" priority="104" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="104" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="expression" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62:C64">
-    <cfRule type="expression" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(AND(NOT($A62 = "end group"), NOT($A62 = "end repeat"), NOT($A62 = "")), $C62 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A65">
-    <cfRule type="cellIs" priority="108" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="108" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63:H65">
-    <cfRule type="expression" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(NOT($G63 = ""), $H63 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="containsText" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="3"/>
+    <cfRule type="containsText" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A63="begin group", NOT($B63 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="expression" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A63="end group", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" priority="113" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="113" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="expression" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A63="begin repeat", NOT($B63 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="expression" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A63="end repeat", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73">
-    <cfRule type="expression" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(AND(NOT($A73 = "end group"), NOT($A73 = "end repeat"), NOT($A73 = "")), $C73 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73">
-    <cfRule type="cellIs" priority="117" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="117" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73">
-    <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(NOT($G73 = ""), $H73 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="containsText" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="5"/>
+    <cfRule type="containsText" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A73="begin group", NOT($B73 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="expression" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A73="end group", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $I73 = "", $M73 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" priority="122" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="122" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="expression" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A73="begin repeat", NOT($B73 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="expression" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A73="end repeat", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $I73 = "", $M73 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86">
-    <cfRule type="expression" priority="125" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="125" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($I86 = "", $A86 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C86">
-    <cfRule type="expression" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(AND(NOT($A86 = "end group"), NOT($A86 = "end repeat"), NOT($A86 = "")), $C86 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86">
-    <cfRule type="cellIs" priority="127" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="127" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="expression" priority="128" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="128" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(NOT($G86 = ""), $H86 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="containsText" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="5"/>
+    <cfRule type="containsText" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="expression" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A86="begin group", NOT($B86 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A86="end group", $B86 = "", $C86 = "", $D86 = "", $E86 = "", $F86 = "", $G86 = "", $H86 = "", $I86 = "", $J86 = "", $K86 = "", $L86 = "", $M86 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" priority="132" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="cellIs" priority="132" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="expression" priority="133" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="133" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A86="begin repeat", NOT($B86 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="expression" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A86="end repeat", $B86 = "", $C86 = "", $D86 = "", $E86 = "", $F86 = "", $G86 = "", $H86 = "", $I86 = "", $J86 = "", $K86 = "", $L86 = "", $M86 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97">
-    <cfRule type="expression" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($I97 = "", $A97 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C97">
-    <cfRule type="expression" priority="136" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="136" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(AND(NOT($A97 = "end group"), NOT($A97 = "end repeat"), NOT($A97 = "")), $C97 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="cellIs" priority="137" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" priority="137" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H97">
-    <cfRule type="expression" priority="138" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="138" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(NOT($G97 = ""), $H97 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="containsText" priority="139" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+    <cfRule type="containsText" priority="139" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="expression" priority="140" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="140" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A97="begin group", NOT($B97 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="expression" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A97="end group", $B97 = "", $C97 = "", $D97 = "", $E97 = "", $F97 = "", $G97 = "", $H97 = "", $I97 = "", $J97 = "", $K97 = "", $L97 = "", $M97 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" priority="142" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" priority="142" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="expression" priority="143" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="143" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A97="begin repeat", NOT($B97 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="expression" priority="144" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="144" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A97="end repeat", $B97 = "", $C97 = "", $D97 = "", $E97 = "", $F97 = "", $G97 = "", $H97 = "", $I97 = "", $J97 = "", $K97 = "", $L97 = "", $M97 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98:I99">
-    <cfRule type="expression" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($I98 = "", $A98 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:C99">
-    <cfRule type="expression" priority="146" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="expression" priority="146" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND(AND(NOT($A98 = "end group"), NOT($A98 = "end repeat"), NOT($A98 = "")), $C98 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98:B99">
-    <cfRule type="expression" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(AND(NOT($A98 = "end group"), NOT($A98 = "end repeat"), NOT($A98 = "")), $B98 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:A99">
-    <cfRule type="cellIs" priority="148" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="cellIs" priority="148" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98:H99">
-    <cfRule type="expression" priority="149" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="149" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(NOT($G98 = ""), $H98 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98:E99">
-    <cfRule type="containsText" priority="150" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="10"/>
+    <cfRule type="containsText" priority="150" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98:E99">
-    <cfRule type="expression" priority="151" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="151" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A98="begin group", NOT($B98 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98:E99">
-    <cfRule type="expression" priority="152" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="152" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A98="end group", $B98 = "", $C98 = "", $D98 = "", $E98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98:E99">
-    <cfRule type="cellIs" priority="153" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="cellIs" priority="153" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98:E99">
-    <cfRule type="expression" priority="154" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="154" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A98="begin repeat", NOT($B98 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98:E99">
-    <cfRule type="expression" priority="155" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="155" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A98="end repeat", $B98 = "", $C98 = "", $D98 = "", $E98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="cellIs" priority="156" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="cellIs" priority="156" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:Y104">
-    <cfRule type="containsText" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="10"/>
+    <cfRule type="containsText" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:Y104">
-    <cfRule type="expression" priority="158" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="158" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A102="begin group", NOT($B102 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:Y104">
-    <cfRule type="expression" priority="159" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="159" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A102="end group", $B102 = "", $C102 = "", $D102 = "", $E102 = "", $F102 = "", $G102 = "", $H102 = "", $I102 = "", $J102 = "", $K102 = "", $L102 = "", $M102 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:Y104">
-    <cfRule type="cellIs" priority="160" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="cellIs" priority="160" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I102:I104">
-    <cfRule type="expression" priority="161" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="161" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($I102 = "", $A102 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102:C104">
-    <cfRule type="expression" priority="162" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="162" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(AND(NOT($A102 = "end group"), NOT($A102 = "end repeat"), NOT($A102 = "")), $C102 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102:B104">
-    <cfRule type="expression" priority="163" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="163" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(AND(NOT($A102 = "end group"), NOT($A102 = "end repeat"), NOT($A102 = "")), $B102 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:A104">
-    <cfRule type="cellIs" priority="164" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="cellIs" priority="164" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102:H104">
-    <cfRule type="expression" priority="165" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="165" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(NOT($G102 = ""), $H102 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:Y104">
-    <cfRule type="expression" priority="166" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="166" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A102="begin repeat", NOT($B102 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:Y104">
-    <cfRule type="expression" priority="167" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="167" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A102="end repeat", $B102 = "", $C102 = "", $D102 = "", $E102 = "", $F102 = "", $G102 = "", $H102 = "", $I102 = "", $J102 = "", $K102 = "", $L102 = "", $M102 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="containsText" priority="168" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="10"/>
+    <cfRule type="containsText" priority="168" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="expression" priority="169" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="169" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A107="begin group", NOT($B107 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="expression" priority="170" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="170" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A107="end group", $B107 = "", $C107 = "", $D107 = "", $E107 = "", $F107 = "", $G107 = "", $H107 = "", $I107 = "", $J107 = "", $K107 = "", $L107 = "", $M107 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="cellIs" priority="171" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="cellIs" priority="171" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="cellIs" priority="172" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="cellIs" priority="172" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="expression" priority="173" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="173" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A107="begin repeat", NOT($B107 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="expression" priority="174" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="174" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A107="end repeat", $B107 = "", $C107 = "", $D107 = "", $E107 = "", $F107 = "", $G107 = "", $H107 = "", $I107 = "", $J107 = "", $K107 = "", $L107 = "", $M107 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="containsText" priority="175" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="10"/>
+    <cfRule type="containsText" priority="175" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="expression" priority="176" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="176" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A107="begin group", NOT($B107 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="expression" priority="177" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="177" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A107="end group", $B107 = "", $C107 = "", $D107 = "", $E107 = "", $F107 = "", $G107 = "", $H107 = "", $I107 = "", $J107 = "", $K107 = "", $L107 = "", $M107 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" priority="178" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="cellIs" priority="178" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="expression" priority="179" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="179" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A107="begin repeat", NOT($B107 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="expression" priority="180" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="180" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A107="end repeat", $B107 = "", $C107 = "", $D107 = "", $E107 = "", $F107 = "", $G107 = "", $H107 = "", $I107 = "", $J107 = "", $K107 = "", $L107 = "", $M107 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108">
-    <cfRule type="cellIs" priority="181" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="cellIs" priority="181" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I109:I111">
-    <cfRule type="expression" priority="182" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="182" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($I109 = "", $A109 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C109:C111">
-    <cfRule type="expression" priority="183" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="183" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(AND(NOT($A109 = "end group"), NOT($A109 = "end repeat"), NOT($A109 = "")), $C109 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B111">
-    <cfRule type="expression" priority="184" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="184" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(AND(NOT($A110 = "end group"), NOT($A110 = "end repeat"), NOT($A110 = "")), $B110 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109:A111">
-    <cfRule type="cellIs" priority="185" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="cellIs" priority="185" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109:H111">
-    <cfRule type="expression" priority="186" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="186" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(NOT($G109 = ""), $H109 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I117">
-    <cfRule type="expression" priority="187" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="187" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($I117 = "", $A117 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C117">
-    <cfRule type="expression" priority="188" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="188" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(AND(NOT($A117 = "end group"), NOT($A117 = "end repeat"), NOT($A117 = "")), $C117 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="expression" priority="189" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="189" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(AND(NOT($A117 = "end group"), NOT($A117 = "end repeat"), NOT($A117 = "")), $B117 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117">
-    <cfRule type="cellIs" priority="190" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="cellIs" priority="190" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H117">
-    <cfRule type="expression" priority="191" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="191" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(NOT($G117 = ""), $H117 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="containsText" priority="192" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="10"/>
+    <cfRule type="containsText" priority="192" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="expression" priority="193" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="193" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A117="begin group", NOT($B117 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="expression" priority="194" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="194" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A117="end group", $B117 = "", $C117 = "", $D117 = "", $E117 = "", $F117 = "", $G117 = "", $H117 = "", $I117 = "", $J117 = "", $K117 = "", $L117 = "", $M117 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" priority="195" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="cellIs" priority="195" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="expression" priority="196" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="196" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A117="begin repeat", NOT($B117 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="expression" priority="197" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="197" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A117="end repeat", $B117 = "", $C117 = "", $D117 = "", $E117 = "", $F117 = "", $G117 = "", $H117 = "", $I117 = "", $J117 = "", $K117 = "", $L117 = "", $M117 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="containsText" priority="198" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="10"/>
+    <cfRule type="containsText" priority="198" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="expression" priority="199" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="199" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A124="begin group", NOT($B124 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="expression" priority="200" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="200" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A124="end group", $B124 = "", $C124 = "", $D124 = "", $E124 = "", $F124 = "", $G124 = "", $H124 = "", $I124 = "", $J124 = "", $K124 = "", $L124 = "", $M124 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" priority="201" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="cellIs" priority="201" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="expression" priority="202" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="202" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A124="begin repeat", NOT($B124 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="expression" priority="203" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="203" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A124="end repeat", $B124 = "", $C124 = "", $D124 = "", $E124 = "", $F124 = "", $G124 = "", $H124 = "", $I124 = "", $J124 = "", $K124 = "", $L124 = "", $M124 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="containsText" priority="204" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="10"/>
+    <cfRule type="containsText" priority="204" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="expression" priority="205" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="205" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A112="begin group", NOT($B112 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="expression" priority="206" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="206" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A112="end group", $B112 = "", $C112 = "", $D112 = "", $E112 = "", $F112 = "", $G112 = "", $H112 = "", $I112 = "", $J112 = "", $K112 = "", $L112 = "", $M112 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="cellIs" priority="207" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="cellIs" priority="207" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="cellIs" priority="208" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="cellIs" priority="208" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="expression" priority="209" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="209" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A112="begin repeat", NOT($B112 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="expression" priority="210" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="210" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A112="end repeat", $B112 = "", $C112 = "", $D112 = "", $E112 = "", $F112 = "", $G112 = "", $H112 = "", $I112 = "", $J112 = "", $K112 = "", $L112 = "", $M112 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98:B99">
-    <cfRule type="expression" priority="211" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="211" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>COUNTIF($B$2:$B$1115,B98)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B111">
-    <cfRule type="expression" priority="212" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="212" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>COUNTIF($B$2:$B$1106,B110)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145:E156">
-    <cfRule type="containsText" priority="213" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="10"/>
+    <cfRule type="containsText" priority="213" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145:E156">
-    <cfRule type="expression" priority="214" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="214" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A145="begin group", NOT($B145 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145:E156">
-    <cfRule type="expression" priority="215" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="215" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A145="end group", $B145 = "", $C145 = "", $D145 = "", $E145 = "", $F145 = "", $G145 = "", $H145 = "", $I145 = "", $J145 = "", $K145 = "", $L145 = "", $M145 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145:E156">
-    <cfRule type="cellIs" priority="216" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="cellIs" priority="216" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145:E156">
-    <cfRule type="expression" priority="217" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="217" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A145="begin repeat", NOT($B145 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145:E156">
-    <cfRule type="expression" priority="218" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="218" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A145="end repeat", $B145 = "", $C145 = "", $D145 = "", $E145 = "", $F145 = "", $G145 = "", $H145 = "", $I145 = "", $J145 = "", $K145 = "", $L145 = "", $M145 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="containsText" priority="219" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="11"/>
+    <cfRule type="containsText" priority="219" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="expression" priority="220" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="220" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A158="begin group", NOT($B158 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="expression" priority="221" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="221" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A158="end group", $B158 = "", $C158 = "", $D158 = "", $E158 = "", $F158 = "", $G158 = "", $H158 = "", $I158 = "", $J158 = "", $K158 = "", $L158 = "", $M158 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" priority="222" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="cellIs" priority="222" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="expression" priority="223" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="223" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A158="begin repeat", NOT($B158 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="expression" priority="224" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="224" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A158="end repeat", $B158 = "", $C158 = "", $D158 = "", $E158 = "", $F158 = "", $G158 = "", $H158 = "", $I158 = "", $J158 = "", $K158 = "", $L158 = "", $M158 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="containsText" priority="225" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="12"/>
+    <cfRule type="containsText" priority="225" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="expression" priority="226" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="226" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>AND($A159="begin group", NOT($B159 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="expression" priority="227" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="227" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>AND($A159="end group", $B159 = "", $C159 = "", $D159 = "", $E159 = "", $F159 = "", $G159 = "", $H159 = "", $I159 = "", $J159 = "", $K159 = "", $L159 = "", $M159 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" priority="228" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="cellIs" priority="228" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="expression" priority="229" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="229" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>AND($A159="begin repeat", NOT($B159 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="expression" priority="230" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="230" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>AND($A159="end repeat", $B159 = "", $C159 = "", $D159 = "", $E159 = "", $F159 = "", $G159 = "", $H159 = "", $I159 = "", $J159 = "", $K159 = "", $L159 = "", $M159 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E165">
-    <cfRule type="containsText" priority="231" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="12"/>
+    <cfRule type="containsText" priority="231" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E165">
-    <cfRule type="expression" priority="232" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="232" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>AND($A165="begin group", NOT($B165 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E165">
-    <cfRule type="expression" priority="233" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="233" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>AND($A165="end group", $B165 = "", $C165 = "", $D165 = "", $E165 = "", $F165 = "", $G165 = "", $H165 = "", $I165 = "", $J165 = "", $K165 = "", $L165 = "", $M165 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E165">
-    <cfRule type="cellIs" priority="234" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="cellIs" priority="234" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E165">
-    <cfRule type="expression" priority="235" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="235" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>AND($A165="begin repeat", NOT($B165 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E165">
-    <cfRule type="expression" priority="236" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="236" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>AND($A165="end repeat", $B165 = "", $C165 = "", $D165 = "", $E165 = "", $F165 = "", $G165 = "", $H165 = "", $I165 = "", $J165 = "", $K165 = "", $L165 = "", $M165 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E166">
-    <cfRule type="containsText" priority="237" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="12"/>
+    <cfRule type="containsText" priority="237" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E166">
-    <cfRule type="expression" priority="238" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="238" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>AND($A166="begin group", NOT($B166 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E166">
-    <cfRule type="expression" priority="239" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="239" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>AND($A166="end group", $B166 = "", $C166 = "", $D166 = "", $E166 = "", $F166 = "", $G166 = "", $H166 = "", $I166 = "", $J166 = "", $K166 = "", $L166 = "", $M166 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E166">
-    <cfRule type="cellIs" priority="240" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="cellIs" priority="240" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E166">
-    <cfRule type="expression" priority="241" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="241" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>AND($A166="begin repeat", NOT($B166 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E166">
-    <cfRule type="expression" priority="242" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="242" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>AND($A166="end repeat", $B166 = "", $C166 = "", $D166 = "", $E166 = "", $F166 = "", $G166 = "", $H166 = "", $I166 = "", $J166 = "", $K166 = "", $L166 = "", $M166 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E167">
-    <cfRule type="containsText" priority="243" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="12"/>
+    <cfRule type="containsText" priority="243" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E167">
-    <cfRule type="expression" priority="244" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="244" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>AND($A167="begin group", NOT($B167 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E167">
-    <cfRule type="expression" priority="245" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="245" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>AND($A167="end group", $B167 = "", $C167 = "", $D167 = "", $E167 = "", $F167 = "", $G167 = "", $H167 = "", $I167 = "", $J167 = "", $K167 = "", $L167 = "", $M167 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E167">
-    <cfRule type="cellIs" priority="246" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="246" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E167">
-    <cfRule type="expression" priority="247" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="247" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A167="begin repeat", NOT($B167 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E167">
-    <cfRule type="expression" priority="248" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="248" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A167="end repeat", $B167 = "", $C167 = "", $D167 = "", $E167 = "", $F167 = "", $G167 = "", $H167 = "", $I167 = "", $J167 = "", $K167 = "", $L167 = "", $M167 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E172">
-    <cfRule type="containsText" priority="249" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="249" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E172">
-    <cfRule type="expression" priority="250" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="250" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A172="begin group", NOT($B172 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E172">
-    <cfRule type="expression" priority="251" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="251" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A172="end group", $B172 = "", $C172 = "", $D172 = "", $E172 = "", $F172 = "", $G172 = "", $H172 = "", $I172 = "", $J172 = "", $K172 = "", $L172 = "", $M172 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E172">
-    <cfRule type="cellIs" priority="252" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="252" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E172">
-    <cfRule type="expression" priority="253" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="253" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A172="begin repeat", NOT($B172 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E172">
-    <cfRule type="expression" priority="254" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="254" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A172="end repeat", $B172 = "", $C172 = "", $D172 = "", $E172 = "", $F172 = "", $G172 = "", $H172 = "", $I172 = "", $J172 = "", $K172 = "", $L172 = "", $M172 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168">
-    <cfRule type="containsText" priority="255" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="255" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168">
-    <cfRule type="expression" priority="256" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="256" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A168="begin group", NOT($B168 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168">
-    <cfRule type="expression" priority="257" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="257" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A168="end group", $B168 = "", $C168 = "", $D168 = "", $E168 = "", $F168 = "", $G168 = "", $H168 = "", $I168 = "", $J168 = "", $K168 = "", $L168 = "", $M168 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168">
-    <cfRule type="cellIs" priority="258" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="258" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168">
-    <cfRule type="expression" priority="259" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="259" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A168="begin repeat", NOT($B168 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168">
-    <cfRule type="expression" priority="260" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="260" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A168="end repeat", $B168 = "", $C168 = "", $D168 = "", $E168 = "", $F168 = "", $G168 = "", $H168 = "", $I168 = "", $J168 = "", $K168 = "", $L168 = "", $M168 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="containsText" priority="261" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="261" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="expression" priority="262" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="262" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A160="begin group", NOT($B160 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="expression" priority="263" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="263" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A160="end group", $B160 = "", $C160 = "", $D160 = "", $E160 = "", $F160 = "", $G160 = "", $H160 = "", $I160 = "", $J160 = "", $K160 = "", $L160 = "", $M160 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" priority="264" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="264" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="expression" priority="265" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="265" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A160="begin repeat", NOT($B160 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="expression" priority="266" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="266" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A160="end repeat", $B160 = "", $C160 = "", $D160 = "", $E160 = "", $F160 = "", $G160 = "", $H160 = "", $I160 = "", $J160 = "", $K160 = "", $L160 = "", $M160 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="containsText" priority="267" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="267" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="expression" priority="268" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="268" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A160="begin group", NOT($B160 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="expression" priority="269" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="269" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A160="end group", $B160 = "", $C160 = "", $D160 = "", $E160 = "", $F160 = "", $G160 = "", $H160 = "", $I160 = "", $J160 = "", $K160 = "", $L160 = "", $M160 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" priority="270" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="270" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="expression" priority="271" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="271" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A160="begin repeat", NOT($B160 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="expression" priority="272" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="272" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A160="end repeat", $B160 = "", $C160 = "", $D160 = "", $E160 = "", $F160 = "", $G160 = "", $H160 = "", $I160 = "", $J160 = "", $K160 = "", $L160 = "", $M160 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E164">
-    <cfRule type="containsText" priority="273" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="273" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E164">
-    <cfRule type="expression" priority="274" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="274" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A164="begin group", NOT($B164 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E164">
-    <cfRule type="expression" priority="275" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="275" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A164="end group", $B164 = "", $C164 = "", $D164 = "", $E164 = "", $F164 = "", $G164 = "", $H164 = "", $I164 = "", $J164 = "", $K164 = "", $L164 = "", $M164 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E164">
-    <cfRule type="cellIs" priority="276" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="276" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E164">
-    <cfRule type="expression" priority="277" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="277" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A164="begin repeat", NOT($B164 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E164">
-    <cfRule type="expression" priority="278" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="278" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A164="end repeat", $B164 = "", $C164 = "", $D164 = "", $E164 = "", $F164 = "", $G164 = "", $H164 = "", $I164 = "", $J164 = "", $K164 = "", $L164 = "", $M164 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E164">
-    <cfRule type="containsText" priority="279" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="279" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E164">
-    <cfRule type="expression" priority="280" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="280" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A164="begin group", NOT($B164 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E164">
-    <cfRule type="expression" priority="281" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="281" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A164="end group", $B164 = "", $C164 = "", $D164 = "", $E164 = "", $F164 = "", $G164 = "", $H164 = "", $I164 = "", $J164 = "", $K164 = "", $L164 = "", $M164 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E164">
-    <cfRule type="cellIs" priority="282" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="282" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E164">
-    <cfRule type="expression" priority="283" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="283" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A164="begin repeat", NOT($B164 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E164">
-    <cfRule type="expression" priority="284" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="284" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A164="end repeat", $B164 = "", $C164 = "", $D164 = "", $E164 = "", $F164 = "", $G164 = "", $H164 = "", $I164 = "", $J164 = "", $K164 = "", $L164 = "", $M164 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60:I61">
-    <cfRule type="expression" priority="285" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="285" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($I60 = "", $A60 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" priority="286" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="286" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $C60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B62">
-    <cfRule type="expression" priority="287" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="287" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $B60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="cellIs" priority="288" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="288" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60:H62">
-    <cfRule type="expression" priority="289" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="289" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(NOT($G60 = ""), $H60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="containsText" priority="290" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="290" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="expression" priority="291" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="291" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="expression" priority="292" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="292" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" priority="293" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="293" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="expression" priority="294" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="294" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="expression" priority="295" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="295" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I70">
-    <cfRule type="expression" priority="296" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="296" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($I70 = "", $A70 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="expression" priority="297" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="297" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(AND(NOT($A70 = "end group"), NOT($A70 = "end repeat"), NOT($A70 = "")), $C70 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="expression" priority="298" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="298" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(AND(NOT($A70 = "end group"), NOT($A70 = "end repeat"), NOT($A70 = "")), $B70 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="cellIs" priority="299" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="299" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="expression" priority="300" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="300" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(NOT($G70 = ""), $H70 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="containsText" priority="301" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="301" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="expression" priority="302" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="302" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="expression" priority="303" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="303" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A70="end group", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" priority="304" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="304" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="expression" priority="305" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="305" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="expression" priority="306" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="306" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I92">
-    <cfRule type="expression" priority="307" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="307" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($I92 = "", $A92 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92">
-    <cfRule type="expression" priority="308" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="308" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(AND(NOT($A92 = "end group"), NOT($A92 = "end repeat"), NOT($A92 = "")), $C92 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="expression" priority="309" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="309" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(AND(NOT($A92 = "end group"), NOT($A92 = "end repeat"), NOT($A92 = "")), $B92 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="cellIs" priority="310" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="310" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="expression" priority="311" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="311" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(NOT($G92 = ""), $H92 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="expression" priority="312" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="312" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>COUNTIF($B$2:$B$1026,B92)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="containsText" priority="313" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="313" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="expression" priority="314" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="314" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A92="begin group", NOT($B92 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="expression" priority="315" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="315" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A92="end group", $B92 = "", $C92 = "", $D92 = "", $E92 = "", $F92 = "", $G92 = "", $H92 = "", $I92 = "", $J92 = "", $K92 = "", $L92 = "", $M92 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" priority="316" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="316" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="expression" priority="317" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="317" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A92="begin repeat", NOT($B92 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="expression" priority="318" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="318" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A92="end repeat", $B92 = "", $C92 = "", $D92 = "", $E92 = "", $F92 = "", $G92 = "", $H92 = "", $I92 = "", $J92 = "", $K92 = "", $L92 = "", $M92 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96">
-    <cfRule type="expression" priority="319" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="319" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($I96 = "", $A96 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C96">
-    <cfRule type="expression" priority="320" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="320" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(AND(NOT($A96 = "end group"), NOT($A96 = "end repeat"), NOT($A96 = "")), $C96 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96">
-    <cfRule type="expression" priority="321" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="321" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(AND(NOT($A96 = "end group"), NOT($A96 = "end repeat"), NOT($A96 = "")), $B96 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="cellIs" priority="322" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="322" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="expression" priority="323" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="323" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(NOT($G96 = ""), $H96 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96">
-    <cfRule type="expression" priority="324" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="324" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>COUNTIF($B$2:$B$1024,B96)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="containsText" priority="325" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="325" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="expression" priority="326" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="326" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A96="begin group", NOT($B96 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="expression" priority="327" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="327" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A96="end group", $B96 = "", $C96 = "", $D96 = "", $E96 = "", $F96 = "", $G96 = "", $H96 = "", $I96 = "", $J96 = "", $K96 = "", $L96 = "", $M96 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" priority="328" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="328" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="expression" priority="329" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="329" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A96="begin repeat", NOT($B96 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="expression" priority="330" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="330" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A96="end repeat", $B96 = "", $C96 = "", $D96 = "", $E96 = "", $F96 = "", $G96 = "", $H96 = "", $I96 = "", $J96 = "", $K96 = "", $L96 = "", $M96 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="containsText" priority="331" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="331" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="expression" priority="332" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="332" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A118="begin group", NOT($B118 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="expression" priority="333" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="333" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A118="end group", $B118 = "", $C118 = "", $D118 = "", $E118 = "", $F118 = "", $G118 = "", $H118 = "", $I118 = "", $J118 = "", $K118 = "", $L118 = "", $M118 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" priority="334" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="334" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="expression" priority="335" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="335" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A118="begin repeat", NOT($B118 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="expression" priority="336" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="336" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A118="end repeat", $B118 = "", $C118 = "", $D118 = "", $E118 = "", $F118 = "", $G118 = "", $H118 = "", $I118 = "", $J118 = "", $K118 = "", $L118 = "", $M118 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:Y48">
-    <cfRule type="containsText" priority="337" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="337" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:Y48">
-    <cfRule type="cellIs" priority="338" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="338" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="cellIs" priority="339" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="339" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="containsText" priority="340" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="340" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="expression" priority="341" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="341" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="expression" priority="342" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="342" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" priority="343" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="343" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="expression" priority="344" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="344" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="expression" priority="345" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="345" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="expression" priority="346" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="346" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $C65 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="containsText" priority="347" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="347" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="expression" priority="348" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="348" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A68="begin group", NOT($B68 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="expression" priority="349" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="349" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A68="end group", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $I68 = "", $M68 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" priority="350" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="350" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="expression" priority="351" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="351" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A68="begin repeat", NOT($B68 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="expression" priority="352" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="352" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A68="end repeat", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $I68 = "", $M68 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="cellIs" priority="353" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="353" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="expression" priority="354" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="354" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(NOT($G66 = ""), $H66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66">
-    <cfRule type="expression" priority="355" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="355" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($I66 = "", $A66 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="expression" priority="356" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="356" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $C66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69">
-    <cfRule type="expression" priority="357" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="357" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($I69 = "", $A69 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="containsText" priority="358" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="358" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="expression" priority="359" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="359" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="expression" priority="360" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="360" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A67="end group", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $I67 = "", $M67 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" priority="361" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="361" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="expression" priority="362" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="362" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="expression" priority="363" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="363" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A67="end repeat", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $I67 = "", $M67 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="containsText" priority="364" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="364" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="expression" priority="365" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="365" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="expression" priority="366" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="366" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" priority="367" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="367" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="expression" priority="368" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="368" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="expression" priority="369" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="369" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="containsText" priority="370" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="370" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="expression" priority="371" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="371" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="expression" priority="372" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="372" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" priority="373" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="373" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="expression" priority="374" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="374" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="expression" priority="375" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="375" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="expression" priority="376" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="376" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($I52 = "", $A52 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="expression" priority="377" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="377" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($I53 = "", $A53 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58">
-    <cfRule type="expression" priority="378" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="378" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($I58 = "", $A58 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="expression" priority="379" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="379" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($I59 = "", $A59 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="containsText" priority="380" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="380" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="expression" priority="381" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="381" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="expression" priority="382" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="382" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" priority="383" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="383" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="expression" priority="384" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="384" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="expression" priority="385" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="385" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="containsText" priority="386" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="386" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="expression" priority="387" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="387" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="expression" priority="388" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="388" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" priority="389" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="389" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="expression" priority="390" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="390" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="expression" priority="391" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="391" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="cellIs" priority="392" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="392" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="cellIs" priority="393" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="393" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:C62">
-    <cfRule type="expression" priority="394" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="394" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(AND(NOT($A61 = "end group"), NOT($A61 = "end repeat"), NOT($A61 = "")), $C61 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="containsText" priority="395" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="395" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="expression" priority="396" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="396" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A61="begin group", NOT($B61 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="expression" priority="397" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="397" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A61="end group", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" priority="398" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="398" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="expression" priority="399" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="399" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A61="begin repeat", NOT($B61 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="expression" priority="400" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="400" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A61="end repeat", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="containsText" priority="401" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="401" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="expression" priority="402" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="402" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A62="begin group", NOT($B62 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="expression" priority="403" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="403" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A62="end group", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" priority="404" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="404" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="expression" priority="405" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="405" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A62="begin repeat", NOT($B62 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="expression" priority="406" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="406" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A62="end repeat", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I62">
-    <cfRule type="expression" priority="407" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="407" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($I62 = "", $A62 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63">
-    <cfRule type="expression" priority="408" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="408" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($I63 = "", $A63 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="containsText" priority="409" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="409" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="expression" priority="410" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="410" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A115="begin group", NOT($B115 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="expression" priority="411" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="411" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A115="end group", $B115 = "", $C115 = "", $D115 = "", $E115 = "", $F115 = "", $G115 = "", $H115 = "", $I115 = "", $J115 = "", $K115 = "", $L115 = "", $M115 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" priority="412" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="412" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="expression" priority="413" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="413" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A115="begin repeat", NOT($B115 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="expression" priority="414" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="414" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A115="end repeat", $B115 = "", $C115 = "", $D115 = "", $E115 = "", $F115 = "", $G115 = "", $H115 = "", $I115 = "", $J115 = "", $K115 = "", $L115 = "", $M115 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114">
-    <cfRule type="containsText" priority="415" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="415" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114">
-    <cfRule type="expression" priority="416" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="416" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A114="begin group", NOT($B114 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114">
-    <cfRule type="expression" priority="417" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="417" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A114="end group", $B114 = "", $C114 = "", $D114 = "", $E114 = "", $F114 = "", $G114 = "", $H114 = "", $I114 = "", $J114 = "", $K114 = "", $L114 = "", $M114 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114">
-    <cfRule type="cellIs" priority="418" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="418" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114">
-    <cfRule type="expression" priority="419" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="419" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(AND(NOT($A114 = "end group"), NOT($A114 = "end repeat"), NOT($A114 = "")), $B114 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114">
-    <cfRule type="expression" priority="420" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="420" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A114="begin repeat", NOT($B114 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114">
-    <cfRule type="expression" priority="421" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="421" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A114="end repeat", $B114 = "", $C114 = "", $D114 = "", $E114 = "", $F114 = "", $G114 = "", $H114 = "", $I114 = "", $J114 = "", $K114 = "", $L114 = "", $M114 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113:B114">
-    <cfRule type="expression" priority="422" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="422" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>COUNTIF($B$2:$B$1113,B113)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="containsText" priority="423" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="423" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="expression" priority="424" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="424" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A113="begin group", NOT($B113 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="expression" priority="425" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="425" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A113="end group", $B113 = "", $C113 = "", $D113 = "", $E113 = "", $F113 = "", $G113 = "", $H113 = "", $I113 = "", $J113 = "", $K113 = "", $L113 = "", $M113 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="cellIs" priority="426" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="426" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="cellIs" priority="427" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="427" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="expression" priority="428" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="428" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A113="begin repeat", NOT($B113 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="expression" priority="429" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="429" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A113="end repeat", $B113 = "", $C113 = "", $D113 = "", $E113 = "", $F113 = "", $G113 = "", $H113 = "", $I113 = "", $J113 = "", $K113 = "", $L113 = "", $M113 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113">
-    <cfRule type="containsText" priority="430" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="430" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113">
-    <cfRule type="expression" priority="431" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="431" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A113="begin group", NOT($B113 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113">
-    <cfRule type="expression" priority="432" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="432" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A113="end group", $B113 = "", $C113 = "", $D113 = "", $E113 = "", $F113 = "", $G113 = "", $H113 = "", $I113 = "", $J113 = "", $K113 = "", $L113 = "", $M113 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113">
-    <cfRule type="cellIs" priority="433" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="433" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113">
-    <cfRule type="expression" priority="434" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="434" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(AND(NOT($A113 = "end group"), NOT($A113 = "end repeat"), NOT($A113 = "")), $B113 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113">
-    <cfRule type="expression" priority="435" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="435" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A113="begin repeat", NOT($B113 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113">
-    <cfRule type="expression" priority="436" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="436" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A113="end repeat", $B113 = "", $C113 = "", $D113 = "", $E113 = "", $F113 = "", $G113 = "", $H113 = "", $I113 = "", $J113 = "", $K113 = "", $L113 = "", $M113 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I105">
-    <cfRule type="expression" priority="437" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="437" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($I70 = "", $A70 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105">
-    <cfRule type="expression" priority="438" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="438" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(AND(NOT($A70 = "end group"), NOT($A70 = "end repeat"), NOT($A70 = "")), $C70 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105">
-    <cfRule type="expression" priority="439" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="439" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(AND(NOT($A70 = "end group"), NOT($A70 = "end repeat"), NOT($A70 = "")), $B70 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105">
-    <cfRule type="cellIs" priority="440" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="440" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="expression" priority="441" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="441" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(NOT($G70 = ""), $H70 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="containsText" priority="442" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="442" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="expression" priority="443" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="443" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="expression" priority="444" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="444" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A70="end group", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" priority="445" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="445" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="expression" priority="446" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="446" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="expression" priority="447" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="447" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I116">
-    <cfRule type="expression" priority="448" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="448" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($I100 = "", $A100 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C116">
-    <cfRule type="expression" priority="449" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="449" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(AND(NOT($A100 = "end group"), NOT($A100 = "end repeat"), NOT($A100 = "")), $C100 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116">
-    <cfRule type="cellIs" priority="450" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="450" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="expression" priority="451" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="451" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(NOT($G100 = ""), $H100 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="containsText" priority="452" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="452" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="expression" priority="453" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="453" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A100="begin group", NOT($B100 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="expression" priority="454" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="454" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A100="end group", $B100 = "", $C100 = "", $D100 = "", $E100 = "", $F100 = "", $G100 = "", $H100 = "", $I100 = "", $J100 = "", $K100 = "", $L100 = "", $M100 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" priority="455" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="455" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="expression" priority="456" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="456" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A100="begin repeat", NOT($B100 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="expression" priority="457" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="457" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A100="end repeat", $B100 = "", $C100 = "", $D100 = "", $E100 = "", $F100 = "", $G100 = "", $H100 = "", $I100 = "", $J100 = "", $K100 = "", $L100 = "", $M100 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E161">
-    <cfRule type="containsText" priority="458" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="458" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E161">
-    <cfRule type="expression" priority="459" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="459" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A161="begin group", NOT($B161 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E161">
-    <cfRule type="expression" priority="460" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="460" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A161="end group", $B161 = "", $C161 = "", $D161 = "", $E161 = "", $F161 = "", $G161 = "", $H161 = "", $I161 = "", $J161 = "", $K161 = "", $L161 = "", $M161 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E161">
-    <cfRule type="cellIs" priority="461" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="461" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E161">
-    <cfRule type="expression" priority="462" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="462" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A161="begin repeat", NOT($B161 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E161">
-    <cfRule type="expression" priority="463" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="463" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A161="end repeat", $B161 = "", $C161 = "", $D161 = "", $E161 = "", $F161 = "", $G161 = "", $H161 = "", $I161 = "", $J161 = "", $K161 = "", $L161 = "", $M161 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E162">
-    <cfRule type="containsText" priority="464" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="464" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E162">
-    <cfRule type="expression" priority="465" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="465" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A162="begin group", NOT($B162 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E162">
-    <cfRule type="expression" priority="466" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="466" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A162="end group", $B162 = "", $C162 = "", $D162 = "", $E162 = "", $F162 = "", $G162 = "", $H162 = "", $I162 = "", $J162 = "", $K162 = "", $L162 = "", $M162 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E162">
-    <cfRule type="cellIs" priority="467" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="467" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E162">
-    <cfRule type="expression" priority="468" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="468" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A162="begin repeat", NOT($B162 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E162">
-    <cfRule type="expression" priority="469" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="469" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A162="end repeat", $B162 = "", $C162 = "", $D162 = "", $E162 = "", $F162 = "", $G162 = "", $H162 = "", $I162 = "", $J162 = "", $K162 = "", $L162 = "", $M162 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="containsText" priority="470" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="470" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="expression" priority="471" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="471" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A163="begin group", NOT($B163 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="expression" priority="472" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="472" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A163="end group", $B163 = "", $C163 = "", $D163 = "", $E163 = "", $F163 = "", $G163 = "", $H163 = "", $I163 = "", $J163 = "", $K163 = "", $L163 = "", $M163 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" priority="473" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="473" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="expression" priority="474" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="474" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A163="begin repeat", NOT($B163 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="expression" priority="475" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="475" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A163="end repeat", $B163 = "", $C163 = "", $D163 = "", $E163 = "", $F163 = "", $G163 = "", $H163 = "", $I163 = "", $J163 = "", $K163 = "", $L163 = "", $M163 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I89:I90">
-    <cfRule type="expression" priority="476" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="476" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($I89 = "", $A89 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89:C90">
-    <cfRule type="expression" priority="477" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="477" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(AND(NOT($A89 = "end group"), NOT($A89 = "end repeat"), NOT($A89 = "")), $C89 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89:A90">
-    <cfRule type="cellIs" priority="478" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="478" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89:H90">
-    <cfRule type="expression" priority="479" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="479" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(NOT($G89 = ""), $H89 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89:E90">
-    <cfRule type="containsText" priority="480" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="480" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89:E90">
-    <cfRule type="expression" priority="481" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="481" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A89="begin group", NOT($B89 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89:E90">
-    <cfRule type="expression" priority="482" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="482" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A89="end group", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89:E90">
-    <cfRule type="cellIs" priority="483" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="483" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89:E90">
-    <cfRule type="expression" priority="484" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="484" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A89="begin repeat", NOT($B89 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89:E90">
-    <cfRule type="expression" priority="485" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="485" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A89="end repeat", $B89 = "", $C89 = "", $D89 = "", $E89 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I91">
-    <cfRule type="expression" priority="486" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="486" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($I91 = "", $A91 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="expression" priority="487" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="487" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(AND(NOT($A91 = "end group"), NOT($A91 = "end repeat"), NOT($A91 = "")), $C91 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="cellIs" priority="488" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="488" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H91">
-    <cfRule type="expression" priority="489" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="489" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(NOT($G91 = ""), $H91 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="containsText" priority="490" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
+    <cfRule type="containsText" priority="490" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="expression" priority="491" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="491" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A91="begin group", NOT($B91 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="expression" priority="492" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="492" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A91="end group", $B91 = "", $C91 = "", $D91 = "", $E91 = "", $F91 = "", $G91 = "", $H91 = "", $I91 = "", $J91 = "", $K91 = "", $L91 = "", $M91 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" priority="493" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="cellIs" priority="493" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="expression" priority="494" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="494" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A91="begin repeat", NOT($B91 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="expression" priority="495" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="495" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A91="end repeat", $B91 = "", $C91 = "", $D91 = "", $E91 = "", $F91 = "", $G91 = "", $H91 = "", $I91 = "", $J91 = "", $K91 = "", $L91 = "", $M91 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I95">
-    <cfRule type="expression" priority="496" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="496" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($I95 = "", $A95 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C95">
-    <cfRule type="expression" priority="497" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="497" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(AND(NOT($A95 = "end group"), NOT($A95 = "end repeat"), NOT($A95 = "")), $C95 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:A95">
-    <cfRule type="cellIs" priority="498" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="cellIs" priority="498" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="expression" priority="499" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="499" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(NOT($G95 = ""), $H95 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="containsText" priority="500" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="15"/>
+    <cfRule type="containsText" priority="500" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="expression" priority="501" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="501" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A95="begin group", NOT($B95 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="expression" priority="502" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="502" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A95="end group", $B95 = "", $C95 = "", $D95 = "", $E95 = "", $F95 = "", $G95 = "", $H95 = "", $I95 = "", $J95 = "", $K95 = "", $L95 = "", $M95 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" priority="503" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="cellIs" priority="503" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="expression" priority="504" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="504" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A95="begin repeat", NOT($B95 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="expression" priority="505" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="505" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A95="end repeat", $B95 = "", $C95 = "", $D95 = "", $E95 = "", $F95 = "", $G95 = "", $H95 = "", $I95 = "", $J95 = "", $K95 = "", $L95 = "", $M95 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93:I94">
-    <cfRule type="expression" priority="506" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="506" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($I93 = "", $A93 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93:C94">
-    <cfRule type="expression" priority="507" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="507" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(AND(NOT($A93 = "end group"), NOT($A93 = "end repeat"), NOT($A93 = "")), $C93 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93:B94">
-    <cfRule type="expression" priority="508" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="508" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(AND(NOT($A93 = "end group"), NOT($A93 = "end repeat"), NOT($A93 = "")), $B93 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H93:H94">
-    <cfRule type="expression" priority="509" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="509" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(NOT($G93 = ""), $H93 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93:B94">
-    <cfRule type="expression" priority="510" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="510" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>COUNTIF($B$2:$B$1006,B93)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:A94">
-    <cfRule type="cellIs" priority="511" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="cellIs" priority="511" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E93:E94">
-    <cfRule type="containsText" priority="512" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93:E94">
-    <cfRule type="expression" priority="513" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+  <conditionalFormatting sqref="I119:I123">
+    <cfRule type="expression" priority="512" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($I119 = "", $A119 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119:C123">
+    <cfRule type="expression" priority="513" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A119 = "end group"), NOT($A119 = "end repeat"), NOT($A119 = "")), $C119 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A119:A123">
+    <cfRule type="cellIs" priority="514" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H119:H123">
+    <cfRule type="expression" priority="515" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(NOT($G119 = ""), $H119 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="containsText" priority="516" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="expression" priority="517" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A122="begin group", NOT($B122 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="expression" priority="518" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A122="end group", $B122 = "", $C122 = "", $D122 = "", $E122 = "", $F122 = "", $G122 = "", $H122 = "", $I122 = "", $J122 = "", $K122 = "", $L122 = "", $M122 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" priority="519" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="expression" priority="520" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A122="begin repeat", NOT($B122 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="expression" priority="521" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A122="end repeat", $B122 = "", $C122 = "", $D122 = "", $E122 = "", $F122 = "", $G122 = "", $H122 = "", $I122 = "", $J122 = "", $K122 = "", $L122 = "", $M122 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55">
+    <cfRule type="expression" priority="522" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($I55 = "", $A55 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="containsText" priority="523" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" priority="524" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" priority="525" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" priority="526" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" priority="527" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" priority="528" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54">
+    <cfRule type="expression" priority="529" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($I54 = "", $A54 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="containsText" priority="530" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" priority="531" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" priority="532" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" priority="533" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" priority="534" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" priority="535" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:Y20">
+    <cfRule type="containsText" priority="536" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:Y20">
+    <cfRule type="expression" priority="537" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A20="begin group", NOT($B20 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:Y20">
+    <cfRule type="expression" priority="538" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A20="end group", $B20 = "", $C20 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:Y20">
+    <cfRule type="cellIs" priority="539" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" priority="540" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($I20 = "", $A20 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" priority="541" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A20 = "end group"), NOT($A20 = "end repeat"), NOT($A20 = "")), $C20 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="expression" priority="542" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A20 = "end group"), NOT($A20 = "end repeat"), NOT($A20 = "")), $B20 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="cellIs" priority="543" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="expression" priority="544" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(NOT($G20 = ""), $H20 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:Y20">
+    <cfRule type="expression" priority="545" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A20="begin repeat", NOT($B20 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:Y20">
+    <cfRule type="expression" priority="546" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A20="end repeat", $B20 = "", $C20 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="expression" priority="547" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>COUNTIF($B$2:$B$988,#ref!)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:Y47">
+    <cfRule type="containsText" priority="548" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:Y47">
+    <cfRule type="expression" priority="549" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:Y47">
+    <cfRule type="expression" priority="550" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A47="end group", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:Y47">
+    <cfRule type="cellIs" priority="551" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47">
+    <cfRule type="expression" priority="552" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($I47 = "", $A47 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" priority="553" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A47 = "end group"), NOT($A47 = "end repeat"), NOT($A47 = "")), $C47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="expression" priority="554" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A47 = "end group"), NOT($A47 = "end repeat"), NOT($A47 = "")), $B47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="cellIs" priority="555" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="expression" priority="556" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(NOT($G47 = ""), $H47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:Y47">
+    <cfRule type="expression" priority="557" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:Y47">
+    <cfRule type="expression" priority="558" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="expression" priority="559" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>COUNTIF($B$2:$B$987,#ref!)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56">
+    <cfRule type="expression" priority="560" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($I56 = "", $A56 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="expression" priority="561" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $C56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56">
+    <cfRule type="expression" priority="562" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $B56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56">
+    <cfRule type="cellIs" priority="563" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="expression" priority="564" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(NOT($G56 = ""), $H56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="containsText" priority="565" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" priority="566" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" priority="567" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A56="end group", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" priority="568" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" priority="569" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A56="begin repeat", NOT($B56 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" priority="570" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57">
+    <cfRule type="expression" priority="571" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($I57 = "", $A57 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" priority="572" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $C57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57">
+    <cfRule type="expression" priority="573" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $B57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="cellIs" priority="574" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="expression" priority="575" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(NOT($G57 = ""), $H57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="containsText" priority="576" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" priority="577" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" priority="578" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" priority="579" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" priority="580" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" priority="581" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="expression" priority="582" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A72 = "end group"), NOT($A72 = "end repeat"), NOT($A72 = "")), $C72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="cellIs" priority="583" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="expression" priority="584" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(NOT($G72 = ""), $H72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="expression" priority="585" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $C71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="cellIs" priority="586" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="expression" priority="587" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(NOT($G71 = ""), $H71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="containsText" priority="588" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="expression" priority="589" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A76="begin group", NOT($B76 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="expression" priority="590" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A76="end group", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" priority="591" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="expression" priority="592" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A76="begin repeat", NOT($B76 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="expression" priority="593" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A76="end repeat", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I76">
+    <cfRule type="expression" priority="594" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($I76 = "", $A76 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I77:I78">
+    <cfRule type="expression" priority="595" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($I77 = "", $A77 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="containsText" priority="596" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" priority="597" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A75="begin group", NOT($B75 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" priority="598" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A75="end group", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" priority="599" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" priority="600" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A75="begin repeat", NOT($B75 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" priority="601" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A75="end repeat", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="containsText" priority="602" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="expression" priority="603" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="expression" priority="604" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A72="end group", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" priority="605" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="expression" priority="606" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="expression" priority="607" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A72="end repeat", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="containsText" priority="608" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="expression" priority="609" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="expression" priority="610" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A71="end group", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" priority="611" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="expression" priority="612" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="expression" priority="613" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A71="end repeat", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="expression" priority="614" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A85 = "end group"), NOT($A85 = "end repeat"), NOT($A85 = "")), $C85 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85">
+    <cfRule type="cellIs" priority="615" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H85">
+    <cfRule type="expression" priority="616" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(NOT($G85 = ""), $H85 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="containsText" priority="617" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="expression" priority="618" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A85="begin group", NOT($B85 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="expression" priority="619" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A85="end group", $B85 = "", $C85 = "", $D85 = "", $E85 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $I85 = "", $M85 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" priority="620" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="expression" priority="621" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A85="begin repeat", NOT($B85 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="expression" priority="622" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A85="end repeat", $B85 = "", $C85 = "", $D85 = "", $E85 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $I85 = "", $M85 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81">
+    <cfRule type="expression" priority="623" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A81 = "end group"), NOT($A81 = "end repeat"), NOT($A81 = "")), $C81 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="cellIs" priority="624" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="expression" priority="625" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(NOT($G81 = ""), $H81 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80">
+    <cfRule type="expression" priority="626" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A80 = "end group"), NOT($A80 = "end repeat"), NOT($A80 = "")), $C80 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80">
+    <cfRule type="cellIs" priority="627" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="expression" priority="628" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(NOT($G80 = ""), $H80 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="containsText" priority="629" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="expression" priority="630" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A81="begin group", NOT($B81 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="expression" priority="631" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A81="end group", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G81 = "", $H81 = "", $I81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" priority="632" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="expression" priority="633" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A81="begin repeat", NOT($B81 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="expression" priority="634" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A81="end repeat", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G81 = "", $H81 = "", $I81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="containsText" priority="635" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="expression" priority="636" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A80="begin group", NOT($B80 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="expression" priority="637" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A80="end group", $B80 = "", $C80 = "", $D80 = "", $E80 = "", $F80 = "", $G80 = "", $H80 = "", $I80 = "", $J80 = "", $K80 = "", $L80 = "", $M80 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" priority="638" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="expression" priority="639" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A80="begin repeat", NOT($B80 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="expression" priority="640" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A80="end repeat", $B80 = "", $C80 = "", $D80 = "", $E80 = "", $F80 = "", $G80 = "", $H80 = "", $I80 = "", $J80 = "", $K80 = "", $L80 = "", $M80 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I82">
+    <cfRule type="expression" priority="641" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($I82 = "", $A82 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82">
+    <cfRule type="expression" priority="642" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A82 = "end group"), NOT($A82 = "end repeat"), NOT($A82 = "")), $C82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="cellIs" priority="643" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="expression" priority="644" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(NOT($G82 = ""), $H82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="containsText" priority="645" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="expression" priority="646" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND($A82="begin group", NOT($B82 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="expression" priority="647" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND($A82="end group", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" priority="648" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="expression" priority="649" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND($A82="begin repeat", NOT($B82 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="expression" priority="650" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND($A82="end repeat", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I83">
+    <cfRule type="expression" priority="651" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND($I83 = "", $A83 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C83">
+    <cfRule type="expression" priority="652" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>AND(AND(NOT($A83 = "end group"), NOT($A83 = "end repeat"), NOT($A83 = "")), $C83 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83">
+    <cfRule type="cellIs" priority="653" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
+    <cfRule type="expression" priority="654" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND(NOT($G83 = ""), $H83 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="containsText" priority="655" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="expression" priority="656" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+      <formula>AND($A83="begin group", NOT($B83 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="expression" priority="657" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+      <formula>AND($A83="end group", $B83 = "", $C83 = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" priority="658" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="expression" priority="659" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+      <formula>AND($A83="begin repeat", NOT($B83 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="expression" priority="660" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+      <formula>AND($A83="end repeat", $B83 = "", $C83 = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I87">
+    <cfRule type="expression" priority="661" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+      <formula>AND($I87 = "", $A87 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87">
+    <cfRule type="expression" priority="662" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+      <formula>AND(AND(NOT($A87 = "end group"), NOT($A87 = "end repeat"), NOT($A87 = "")), $C87 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87">
+    <cfRule type="cellIs" priority="663" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87">
+    <cfRule type="expression" priority="664" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+      <formula>AND(NOT($G87 = ""), $H87 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="containsText" priority="665" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="expression" priority="666" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+      <formula>AND($A87="begin group", NOT($B87 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="expression" priority="667" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+      <formula>AND($A87="end group", $B87 = "", $C87 = "", $D87 = "", $E87 = "", $F87 = "", $G87 = "", $H87 = "", $I87 = "", $J87 = "", $K87 = "", $L87 = "", $M87 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" priority="668" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="expression" priority="669" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+      <formula>AND($A87="begin repeat", NOT($B87 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="expression" priority="670" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+      <formula>AND($A87="end repeat", $B87 = "", $C87 = "", $D87 = "", $E87 = "", $F87 = "", $G87 = "", $H87 = "", $I87 = "", $J87 = "", $K87 = "", $L87 = "", $M87 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B62">
+    <cfRule type="expression" priority="671" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
+      <formula>COUNTIF($B$2:$B$1030,B60)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
+    <cfRule type="expression" priority="672" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
+      <formula>COUNTIF($B$2:$B$1028,B70)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" priority="673" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1131, "begin group") = COUNTIF($A$1:$A$1131, "end group"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" priority="674" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1122, "begin group") = COUNTIF($A$1:$A$1131, "end group")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56:B57">
+    <cfRule type="expression" priority="675" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
+      <formula>COUNTIF($B$2:$B$1007,B56)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84:Y84">
+    <cfRule type="expression" priority="676" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
+      <formula>AND($A84="begin group", NOT($B84 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84:Y84">
+    <cfRule type="expression" priority="677" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
+      <formula>AND($A84="end group", $B84 = "", $C84 = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $I84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84:Y84">
+    <cfRule type="expression" priority="678" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
+      <formula>AND($A84="begin repeat", NOT($B84 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84:Y84">
+    <cfRule type="expression" priority="679" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
+      <formula>AND($A84="end repeat", $B84 = "", $C84 = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $I84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I84">
+    <cfRule type="expression" priority="680" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
+      <formula>AND($I84 = "", $A84 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84">
+    <cfRule type="expression" priority="681" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
+      <formula>AND(AND(NOT($A84 = "end group"), NOT($A84 = "end repeat"), NOT($A84 = "")), $C84 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84">
+    <cfRule type="expression" priority="682" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+      <formula>AND(AND(NOT($A84 = "end group"), NOT($A84 = "end repeat"), NOT($A84 = "")), $B84 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84">
+    <cfRule type="expression" priority="683" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
+      <formula>AND(NOT($G84 = ""), $H84 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="cellIs" priority="684" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="containsText" priority="685" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" priority="686" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84:Y84">
+    <cfRule type="containsText" priority="687" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84:Y84">
+    <cfRule type="cellIs" priority="688" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="cellIs" priority="689" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I88">
+    <cfRule type="expression" priority="690" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($I88 = "", $A88 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C88">
+    <cfRule type="expression" priority="691" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A88 = "end group"), NOT($A88 = "end repeat"), NOT($A88 = "")), $C88 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A88">
+    <cfRule type="cellIs" priority="692" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88">
+    <cfRule type="expression" priority="693" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(NOT($G88 = ""), $H88 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="containsText" priority="694" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="expression" priority="695" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A88="begin group", NOT($B88 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="expression" priority="696" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A88="end group", $B88 = "", $C88 = "", $D88 = "", $E88 = "", $F88 = "", $G88 = "", $H88 = "", $I88 = "", $J88 = "", $K88 = "", $L88 = "", $M88 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" priority="697" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="expression" priority="698" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A88="begin repeat", NOT($B88 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="expression" priority="699" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A88="end repeat", $B88 = "", $C88 = "", $D88 = "", $E88 = "", $F88 = "", $G88 = "", $H88 = "", $I88 = "", $J88 = "", $K88 = "", $L88 = "", $M88 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="containsText" priority="700" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="expression" priority="701" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A93="begin group", NOT($B93 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E93:E94">
-    <cfRule type="expression" priority="514" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+  <conditionalFormatting sqref="E93">
+    <cfRule type="expression" priority="702" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A93="end group", $B93 = "", $C93 = "", $D93 = "", $E93 = "", $F93 = "", $G93 = "", $H93 = "", $I93 = "", $J93 = "", $K93 = "", $L93 = "", $M93 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E93:E94">
-    <cfRule type="cellIs" priority="515" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" priority="703" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E93:E94">
-    <cfRule type="expression" priority="516" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+  <conditionalFormatting sqref="E93">
+    <cfRule type="expression" priority="704" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A93="begin repeat", NOT($B93 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E93:E94">
-    <cfRule type="expression" priority="517" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+  <conditionalFormatting sqref="E93">
+    <cfRule type="expression" priority="705" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A93="end repeat", $B93 = "", $C93 = "", $D93 = "", $E93 = "", $F93 = "", $G93 = "", $H93 = "", $I93 = "", $J93 = "", $K93 = "", $L93 = "", $M93 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I119:I123">
-    <cfRule type="expression" priority="518" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>AND($I119 = "", $A119 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119:C123">
-    <cfRule type="expression" priority="519" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>AND(AND(NOT($A119 = "end group"), NOT($A119 = "end repeat"), NOT($A119 = "")), $C119 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A119:A123">
-    <cfRule type="cellIs" priority="520" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H119:H123">
-    <cfRule type="expression" priority="521" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>AND(NOT($G119 = ""), $H119 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="containsText" priority="522" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="expression" priority="523" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>AND($A122="begin group", NOT($B122 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="expression" priority="524" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>AND($A122="end group", $B122 = "", $C122 = "", $D122 = "", $E122 = "", $F122 = "", $G122 = "", $H122 = "", $I122 = "", $J122 = "", $K122 = "", $L122 = "", $M122 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" priority="525" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+  <conditionalFormatting sqref="E94">
+    <cfRule type="containsText" priority="706" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="expression" priority="707" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A94="begin group", NOT($B94 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="expression" priority="708" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A94="end group", $B94 = "", $C94 = "", $D94 = "", $E94 = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" priority="709" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="expression" priority="526" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>AND($A122="begin repeat", NOT($B122 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="expression" priority="527" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>AND($A122="end repeat", $B122 = "", $C122 = "", $D122 = "", $E122 = "", $F122 = "", $G122 = "", $H122 = "", $I122 = "", $J122 = "", $K122 = "", $L122 = "", $M122 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55">
-    <cfRule type="expression" priority="528" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>AND($I55 = "", $A55 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="containsText" priority="529" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="530" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="531" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" priority="532" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="533" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="534" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54">
-    <cfRule type="expression" priority="535" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>AND($I54 = "", $A54 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="containsText" priority="536" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" priority="537" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" priority="538" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" priority="539" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" priority="540" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" priority="541" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:Y20">
-    <cfRule type="containsText" priority="542" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:Y20">
-    <cfRule type="expression" priority="543" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>AND($A20="begin group", NOT($B20 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:Y20">
-    <cfRule type="expression" priority="544" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>AND($A20="end group", $B20 = "", $C20 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:Y20">
-    <cfRule type="cellIs" priority="545" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="expression" priority="546" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>AND($I20 = "", $A20 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" priority="547" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>AND(AND(NOT($A20 = "end group"), NOT($A20 = "end repeat"), NOT($A20 = "")), $C20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="expression" priority="548" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
-      <formula>AND(AND(NOT($A20 = "end group"), NOT($A20 = "end repeat"), NOT($A20 = "")), $B20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
-    <cfRule type="cellIs" priority="549" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="expression" priority="550" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND(NOT($G20 = ""), $H20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:Y20">
-    <cfRule type="expression" priority="551" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A20="begin repeat", NOT($B20 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:Y20">
-    <cfRule type="expression" priority="552" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A20="end repeat", $B20 = "", $C20 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="expression" priority="553" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>COUNTIF($B$2:$B$988,#ref!)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:Y47">
-    <cfRule type="containsText" priority="554" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:Y47">
-    <cfRule type="expression" priority="555" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:Y47">
-    <cfRule type="expression" priority="556" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A47="end group", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:Y47">
-    <cfRule type="cellIs" priority="557" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47">
-    <cfRule type="expression" priority="558" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($I47 = "", $A47 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="expression" priority="559" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND(AND(NOT($A47 = "end group"), NOT($A47 = "end repeat"), NOT($A47 = "")), $C47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
-    <cfRule type="expression" priority="560" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND(AND(NOT($A47 = "end group"), NOT($A47 = "end repeat"), NOT($A47 = "")), $B47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="cellIs" priority="561" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="expression" priority="562" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND(NOT($G47 = ""), $H47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:Y47">
-    <cfRule type="expression" priority="563" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:Y47">
-    <cfRule type="expression" priority="564" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
-    <cfRule type="expression" priority="565" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>COUNTIF($B$2:$B$987,#ref!)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I56">
-    <cfRule type="expression" priority="566" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($I56 = "", $A56 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" priority="567" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $C56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B56">
-    <cfRule type="expression" priority="568" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND(AND(NOT($A56 = "end group"), NOT($A56 = "end repeat"), NOT($A56 = "")), $B56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56">
-    <cfRule type="cellIs" priority="569" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="expression" priority="570" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND(NOT($G56 = ""), $H56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="containsText" priority="571" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" priority="572" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" priority="573" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A56="end group", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" priority="574" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" priority="575" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A56="begin repeat", NOT($B56 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" priority="576" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I57">
-    <cfRule type="expression" priority="577" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($I57 = "", $A57 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="expression" priority="578" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $C57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B57">
-    <cfRule type="expression" priority="579" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $B57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57">
-    <cfRule type="cellIs" priority="580" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="expression" priority="581" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND(NOT($G57 = ""), $H57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="containsText" priority="582" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" priority="583" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" priority="584" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" priority="585" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" priority="586" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" priority="587" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="expression" priority="588" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND(AND(NOT($A72 = "end group"), NOT($A72 = "end repeat"), NOT($A72 = "")), $C72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
-    <cfRule type="cellIs" priority="589" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="expression" priority="590" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND(NOT($G72 = ""), $H72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="expression" priority="591" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $C71 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="cellIs" priority="592" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="expression" priority="593" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND(NOT($G71 = ""), $H71 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="containsText" priority="594" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="expression" priority="595" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A76="begin group", NOT($B76 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="expression" priority="596" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A76="end group", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" priority="597" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="expression" priority="598" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A76="begin repeat", NOT($B76 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="expression" priority="599" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A76="end repeat", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I76">
-    <cfRule type="expression" priority="600" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($I76 = "", $A76 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I77:I78">
-    <cfRule type="expression" priority="601" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($I77 = "", $A77 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="containsText" priority="602" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" priority="603" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A75="begin group", NOT($B75 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" priority="604" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A75="end group", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" priority="605" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" priority="606" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A75="begin repeat", NOT($B75 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" priority="607" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A75="end repeat", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="containsText" priority="608" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="expression" priority="609" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="expression" priority="610" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A72="end group", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" priority="611" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="expression" priority="612" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="expression" priority="613" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A72="end repeat", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="containsText" priority="614" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="expression" priority="615" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="expression" priority="616" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A71="end group", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" priority="617" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="expression" priority="618" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="expression" priority="619" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A71="end repeat", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85">
-    <cfRule type="expression" priority="620" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND(AND(NOT($A85 = "end group"), NOT($A85 = "end repeat"), NOT($A85 = "")), $C85 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A85">
-    <cfRule type="cellIs" priority="621" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="expression" priority="622" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
-      <formula>AND(NOT($G85 = ""), $H85 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="containsText" priority="623" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="expression" priority="624" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
-      <formula>AND($A85="begin group", NOT($B85 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="expression" priority="625" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
-      <formula>AND($A85="end group", $B85 = "", $C85 = "", $D85 = "", $E85 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $I85 = "", $M85 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" priority="626" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="expression" priority="627" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
-      <formula>AND($A85="begin repeat", NOT($B85 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="expression" priority="628" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
-      <formula>AND($A85="end repeat", $B85 = "", $C85 = "", $D85 = "", $E85 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $I85 = "", $M85 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C81">
-    <cfRule type="expression" priority="629" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
-      <formula>AND(AND(NOT($A81 = "end group"), NOT($A81 = "end repeat"), NOT($A81 = "")), $C81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A81">
-    <cfRule type="cellIs" priority="630" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
-    <cfRule type="expression" priority="631" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
-      <formula>AND(NOT($G81 = ""), $H81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C80">
-    <cfRule type="expression" priority="632" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
-      <formula>AND(AND(NOT($A80 = "end group"), NOT($A80 = "end repeat"), NOT($A80 = "")), $C80 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
-    <cfRule type="cellIs" priority="633" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="expression" priority="634" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
-      <formula>AND(NOT($G80 = ""), $H80 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="containsText" priority="635" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="expression" priority="636" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
-      <formula>AND($A81="begin group", NOT($B81 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="expression" priority="637" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
-      <formula>AND($A81="end group", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G81 = "", $H81 = "", $I81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" priority="638" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="expression" priority="639" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
-      <formula>AND($A81="begin repeat", NOT($B81 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="expression" priority="640" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
-      <formula>AND($A81="end repeat", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G81 = "", $H81 = "", $I81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="containsText" priority="641" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="expression" priority="642" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
-      <formula>AND($A80="begin group", NOT($B80 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="expression" priority="643" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
-      <formula>AND($A80="end group", $B80 = "", $C80 = "", $D80 = "", $E80 = "", $F80 = "", $G80 = "", $H80 = "", $I80 = "", $J80 = "", $K80 = "", $L80 = "", $M80 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" priority="644" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="expression" priority="645" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
-      <formula>AND($A80="begin repeat", NOT($B80 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="expression" priority="646" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
-      <formula>AND($A80="end repeat", $B80 = "", $C80 = "", $D80 = "", $E80 = "", $F80 = "", $G80 = "", $H80 = "", $I80 = "", $J80 = "", $K80 = "", $L80 = "", $M80 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I82">
-    <cfRule type="expression" priority="647" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
-      <formula>AND($I82 = "", $A82 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82">
-    <cfRule type="expression" priority="648" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
-      <formula>AND(AND(NOT($A82 = "end group"), NOT($A82 = "end repeat"), NOT($A82 = "")), $C82 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
-    <cfRule type="cellIs" priority="649" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="expression" priority="650" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
-      <formula>AND(NOT($G82 = ""), $H82 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="containsText" priority="651" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="expression" priority="652" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
-      <formula>AND($A82="begin group", NOT($B82 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="expression" priority="653" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
-      <formula>AND($A82="end group", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" priority="654" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="expression" priority="655" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
-      <formula>AND($A82="begin repeat", NOT($B82 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="expression" priority="656" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
-      <formula>AND($A82="end repeat", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I83">
-    <cfRule type="expression" priority="657" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
-      <formula>AND($I83 = "", $A83 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C83">
-    <cfRule type="expression" priority="658" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
-      <formula>AND(AND(NOT($A83 = "end group"), NOT($A83 = "end repeat"), NOT($A83 = "")), $C83 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A83">
-    <cfRule type="cellIs" priority="659" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
-    <cfRule type="expression" priority="660" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
-      <formula>AND(NOT($G83 = ""), $H83 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="containsText" priority="661" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="expression" priority="662" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
-      <formula>AND($A83="begin group", NOT($B83 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="expression" priority="663" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
-      <formula>AND($A83="end group", $B83 = "", $C83 = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" priority="664" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="expression" priority="665" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
-      <formula>AND($A83="begin repeat", NOT($B83 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="expression" priority="666" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
-      <formula>AND($A83="end repeat", $B83 = "", $C83 = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I87">
-    <cfRule type="expression" priority="667" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
-      <formula>AND($I87 = "", $A87 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
-    <cfRule type="expression" priority="668" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
-      <formula>AND(AND(NOT($A87 = "end group"), NOT($A87 = "end repeat"), NOT($A87 = "")), $C87 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A87">
-    <cfRule type="cellIs" priority="669" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
-    <cfRule type="expression" priority="670" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
-      <formula>AND(NOT($G87 = ""), $H87 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="containsText" priority="671" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="expression" priority="672" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
-      <formula>AND($A87="begin group", NOT($B87 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="expression" priority="673" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
-      <formula>AND($A87="end group", $B87 = "", $C87 = "", $D87 = "", $E87 = "", $F87 = "", $G87 = "", $H87 = "", $I87 = "", $J87 = "", $K87 = "", $L87 = "", $M87 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" priority="674" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="expression" priority="675" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
-      <formula>AND($A87="begin repeat", NOT($B87 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="expression" priority="676" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
-      <formula>AND($A87="end repeat", $B87 = "", $C87 = "", $D87 = "", $E87 = "", $F87 = "", $G87 = "", $H87 = "", $I87 = "", $J87 = "", $K87 = "", $L87 = "", $M87 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B62">
-    <cfRule type="expression" priority="677" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
-      <formula>COUNTIF($B$2:$B$1030,B60)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
-    <cfRule type="expression" priority="678" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
-      <formula>COUNTIF($B$2:$B$1028,B70)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="679" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1131, "begin group") = COUNTIF($A$1:$A$1131, "end group"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="680" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1122, "begin group") = COUNTIF($A$1:$A$1131, "end group")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B56:B57">
-    <cfRule type="expression" priority="681" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
-      <formula>COUNTIF($B$2:$B$1007,B56)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84:Y84">
-    <cfRule type="expression" priority="682" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
-      <formula>AND($A84="begin group", NOT($B84 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84:Y84">
-    <cfRule type="expression" priority="683" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
-      <formula>AND($A84="end group", $B84 = "", $C84 = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $I84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84:Y84">
-    <cfRule type="expression" priority="684" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
-      <formula>AND($A84="begin repeat", NOT($B84 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84:Y84">
-    <cfRule type="expression" priority="685" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
-      <formula>AND($A84="end repeat", $B84 = "", $C84 = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $I84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I84">
-    <cfRule type="expression" priority="686" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
-      <formula>AND($I84 = "", $A84 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C84">
-    <cfRule type="expression" priority="687" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
-      <formula>AND(AND(NOT($A84 = "end group"), NOT($A84 = "end repeat"), NOT($A84 = "")), $C84 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84">
-    <cfRule type="expression" priority="688" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="51">
-      <formula>AND(AND(NOT($A84 = "end group"), NOT($A84 = "end repeat"), NOT($A84 = "")), $B84 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
-    <cfRule type="expression" priority="689" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52">
-      <formula>AND(NOT($G84 = ""), $H84 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" priority="690" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="53">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="containsText" priority="691" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" priority="692" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84:Y84">
-    <cfRule type="containsText" priority="693" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84:Y84">
-    <cfRule type="cellIs" priority="694" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="57">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" priority="695" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="58">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I88">
-    <cfRule type="expression" priority="696" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
-      <formula>AND($I88 = "", $A88 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C88">
-    <cfRule type="expression" priority="697" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
-      <formula>AND(AND(NOT($A88 = "end group"), NOT($A88 = "end repeat"), NOT($A88 = "")), $C88 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A88">
-    <cfRule type="cellIs" priority="698" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
-    <cfRule type="expression" priority="699" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
-      <formula>AND(NOT($G88 = ""), $H88 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="containsText" priority="700" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="expression" priority="701" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
-      <formula>AND($A88="begin group", NOT($B88 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="expression" priority="702" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
-      <formula>AND($A88="end group", $B88 = "", $C88 = "", $D88 = "", $E88 = "", $F88 = "", $G88 = "", $H88 = "", $I88 = "", $J88 = "", $K88 = "", $L88 = "", $M88 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" priority="703" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="expression" priority="704" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
-      <formula>AND($A88="begin repeat", NOT($B88 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="expression" priority="705" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
-      <formula>AND($A88="end repeat", $B88 = "", $C88 = "", $D88 = "", $E88 = "", $F88 = "", $G88 = "", $H88 = "", $I88 = "", $J88 = "", $K88 = "", $L88 = "", $M88 = "")</formula>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="expression" priority="710" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A94="begin repeat", NOT($B94 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="expression" priority="711" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND($A94="end repeat", $B94 = "", $C94 = "", $D94 = "", $E94 = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -12563,15 +12367,14 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.1428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="95.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="63.8979591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.8469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="98.8163265306122"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12625,15 +12428,9 @@
       <c r="F4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>334</v>
-      </c>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -12647,9 +12444,15 @@
       <c r="F6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="A7" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>301</v>
+      </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -12659,10 +12462,10 @@
         <v>91</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -12673,33 +12476,33 @@
         <v>91</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>308</v>
-      </c>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="A11" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>446</v>
+      </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -12726,30 +12529,30 @@
         <v>449</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>450</v>
+        <v>334</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>334</v>
-      </c>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+      <c r="A15" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>446</v>
+      </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -12759,10 +12562,10 @@
         <v>104</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -12773,38 +12576,38 @@
         <v>104</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>453</v>
+        <v>334</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>334</v>
-      </c>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="A19" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>453</v>
+      </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
         <v>123</v>
       </c>
@@ -12818,7 +12621,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
         <v>123</v>
       </c>
@@ -12832,21 +12635,15 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>459</v>
-      </c>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -12855,9 +12652,15 @@
       <c r="F23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="A24" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>459</v>
+      </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -12912,43 +12715,43 @@
         <v>466</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>467</v>
+        <v>334</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>334</v>
-      </c>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+      <c r="A30" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>313</v>
+      </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>469</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>470</v>
-      </c>
       <c r="C31" s="13" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
@@ -12956,13 +12759,13 @@
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
@@ -12970,13 +12773,13 @@
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
@@ -12984,13 +12787,13 @@
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
@@ -12998,13 +12801,13 @@
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
@@ -13012,13 +12815,13 @@
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
@@ -13026,49 +12829,49 @@
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>477</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>334</v>
-      </c>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
+      <c r="A39" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>339</v>
+      </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>479</v>
-      </c>
       <c r="C40" s="13" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -13076,13 +12879,13 @@
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
@@ -13090,13 +12893,13 @@
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
@@ -13104,13 +12907,13 @@
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
@@ -13118,13 +12921,13 @@
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
@@ -13132,13 +12935,13 @@
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="13" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
@@ -13146,13 +12949,13 @@
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
@@ -13160,13 +12963,13 @@
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="13" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
@@ -13174,13 +12977,13 @@
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="13" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
@@ -13188,43 +12991,43 @@
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="13" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="s">
-        <v>478</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>334</v>
-      </c>
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
+      <c r="A51" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>488</v>
+      </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>489</v>
@@ -13237,30 +13040,30 @@
       <c r="F52" s="13"/>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>492</v>
-      </c>
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
+      <c r="A54" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>493</v>
+      </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="13" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>494</v>
@@ -13273,58 +13076,58 @@
       <c r="F55" s="13"/>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="13" t="s">
-        <v>493</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>496</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>497</v>
-      </c>
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
+      <c r="A57" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>498</v>
+      </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>500</v>
-      </c>
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
+      <c r="A59" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>372</v>
+      </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="B60" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="B60" s="13" t="s">
-        <v>502</v>
-      </c>
       <c r="C60" s="13" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13"/>
@@ -13332,48 +13135,48 @@
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="13" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>378</v>
-      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
+      <c r="A63" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>372</v>
+      </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13"/>
@@ -13381,49 +13184,49 @@
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="13" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>378</v>
-      </c>
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
+      <c r="A67" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>401</v>
+      </c>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
     </row>
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="B68" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="B68" s="13" t="s">
-        <v>507</v>
-      </c>
       <c r="C68" s="13" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
@@ -13431,49 +13234,49 @@
     </row>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="13" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>509</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>407</v>
-      </c>
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
+      <c r="A71" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>412</v>
+      </c>
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
     </row>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="B72" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="B72" s="13" t="s">
-        <v>511</v>
-      </c>
       <c r="C72" s="13" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
@@ -13481,13 +13284,13 @@
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="13" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
@@ -13495,41 +13298,41 @@
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="13" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
     </row>
-    <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="13" t="s">
-        <v>510</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>514</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
+    <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
     </row>
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="13" t="s">
         <v>255</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
@@ -13540,52 +13343,52 @@
         <v>255</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
     </row>
-    <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="B79" s="13" t="s">
+    <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="C81" s="13" t="s">
         <v>515</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-    </row>
-    <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>313</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="13" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>517</v>
+        <v>319</v>
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
@@ -13593,56 +13396,50 @@
     </row>
     <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="13" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
     </row>
-    <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="13" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
     </row>
-    <row r="85" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="13" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>475</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
       <c r="F85" s="13"/>
     </row>
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>477</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>334</v>
-      </c>
+      <c r="A86" s="13"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
@@ -13656,22 +13453,28 @@
       <c r="F87" s="13"/>
     </row>
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
+      <c r="A88" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>322</v>
+      </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
     </row>
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
@@ -13679,13 +13482,13 @@
     </row>
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
@@ -13693,13 +13496,13 @@
     </row>
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
@@ -13707,41 +13510,41 @@
     </row>
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13"/>
       <c r="F92" s="13"/>
     </row>
-    <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="B93" s="13" t="s">
+    <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="B95" s="13" t="s">
         <v>477</v>
       </c>
-      <c r="C93" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
+      <c r="C95" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
     </row>
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
@@ -13749,13 +13552,13 @@
     </row>
     <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
@@ -13763,13 +13566,13 @@
     </row>
     <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
@@ -13777,13 +13580,13 @@
     </row>
     <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
@@ -13791,13 +13594,13 @@
     </row>
     <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13"/>
@@ -13805,13 +13608,13 @@
     </row>
     <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
@@ -13819,27 +13622,27 @@
     </row>
     <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
     </row>
-    <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="C103" s="13" t="s">
         <v>519</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>360</v>
       </c>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
@@ -13847,7 +13650,7 @@
     </row>
     <row r="104" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B104" s="13" t="s">
         <v>520</v>
@@ -13861,7 +13664,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B105" s="13" t="s">
         <v>522</v>
@@ -13873,115 +13676,112 @@
       <c r="E105" s="13"/>
       <c r="F105" s="13"/>
     </row>
-    <row r="106" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>524</v>
+        <v>485</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>525</v>
+        <v>334</v>
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="13"/>
       <c r="F106" s="13"/>
     </row>
-    <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
+    <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
     </row>
     <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="13" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
     </row>
-    <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="C110" s="13" t="s">
         <v>526</v>
-      </c>
-      <c r="B110" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>365</v>
       </c>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
     </row>
-    <row r="111" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="13" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>527</v>
+        <v>485</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>528</v>
+        <v>334</v>
       </c>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
     </row>
-    <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="13" t="s">
-        <v>526</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-    </row>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="B113" s="33" t="s">
+        <v>528</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="B114" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="B114" s="33" t="s">
         <v>530</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="B115" s="0" t="s">
+    <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
         <v>532</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="B116" s="33" t="s">
         <v>533</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B117" s="33" t="s">
         <v>535</v>
@@ -13992,7 +13792,7 @@
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B118" s="33" t="s">
         <v>537</v>
@@ -14001,20 +13801,20 @@
         <v>538</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
-        <v>534</v>
-      </c>
-      <c r="B119" s="33" t="s">
+    <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
         <v>539</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="B120" s="33" t="s">
         <v>540</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B121" s="33" t="s">
         <v>542</v>
@@ -14023,38 +13823,41 @@
         <v>543</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="B122" s="33" t="s">
+    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
         <v>544</v>
       </c>
-      <c r="C122" s="0" t="s">
-        <v>545</v>
+      <c r="B123" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="C127" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="B124" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>546</v>
-      </c>
-      <c r="B125" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>404</v>
-      </c>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
     </row>
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="13" t="s">
@@ -14070,50 +13873,37 @@
       <c r="E128" s="13"/>
       <c r="F128" s="13"/>
     </row>
-    <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="B129" s="13" t="s">
+    <row r="130" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="34" t="s">
         <v>549</v>
       </c>
-      <c r="C129" s="13" t="s">
+      <c r="B130" s="13" t="s">
         <v>550</v>
       </c>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
+      <c r="C130" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
     </row>
     <row r="131" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="34" t="s">
+        <v>549</v>
+      </c>
+      <c r="B131" s="13" t="s">
         <v>551</v>
       </c>
-      <c r="B131" s="13" t="s">
+      <c r="C131" s="13" t="s">
         <v>552</v>
-      </c>
-      <c r="C131" s="13" t="s">
-        <v>313</v>
       </c>
       <c r="D131" s="13"/>
       <c r="E131" s="13"/>
       <c r="F131" s="13"/>
     </row>
-    <row r="132" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="34" t="s">
-        <v>551</v>
-      </c>
-      <c r="B132" s="13" t="s">
-        <v>553</v>
-      </c>
-      <c r="C132" s="13" t="s">
-        <v>554</v>
-      </c>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
-    </row>
+    <row r="1048571" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14141,47 +13931,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.8979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.8775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
+        <v>553</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>555</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="D1" s="31" t="s">
         <v>556</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="E1" s="31" t="s">
         <v>557</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>558</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>559</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C2" s="35" t="n">
         <f aca="true">NOW()</f>
-        <v>44279.9144304533</v>
+        <v>44281.3982156391</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F2" s="13"/>
     </row>

--- a/config/default/forms/app/hts_retest_test.xlsx
+++ b/config/default/forms/app/hts_retest_test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="585">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -845,24 +845,18 @@
     <t xml:space="preserve">TB screening result</t>
   </si>
   <si>
-    <t xml:space="preserve">client_referral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client referral</t>
+    <t xml:space="preserve">select_one referral_reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_1887_referralReason_99DCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Referred for</t>
   </si>
   <si>
     <t xml:space="preserve">selected(${_1040_testOneResults_99DCT},'_703_positive_99DCT') and selected(${_1326_testTwoResults_99DCT},'_703_positive_99DCT') </t>
   </si>
   <si>
-    <t xml:space="preserve">select_one referral_reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_1887_referralReason_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Referred for</t>
-  </si>
-  <si>
     <t xml:space="preserve">select_one referral_facility</t>
   </si>
   <si>
@@ -878,7 +872,7 @@
     <t xml:space="preserve">Facility name</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(${_160481_referralFacility_99DCT},'_163266_thisFacility_99DCT')</t>
+    <t xml:space="preserve">selected(${_1040_testOneResults_99DCT},'_703_positive_99DCT') and selected(${_1326_testTwoResults_99DCT},'_703_positive_99DCT')  and selected(${_160481_referralFacility_99DCT},'_163266_thisFacility_99DCT')</t>
   </si>
   <si>
     <t xml:space="preserve">if(${this_facility_name} !=’’, ${this_facility_name},’’)</t>
@@ -887,7 +881,7 @@
     <t xml:space="preserve">other_facility_referral</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(${_160481_referralFacility_99DCT},'_164407_otherFacility_99DCT')</t>
+    <t xml:space="preserve">selected(${_1040_testOneResults_99DCT},'_703_positive_99DCT') and selected(${_1326_testTwoResults_99DCT},'_703_positive_99DCT')  and selected(${_160481_referralFacility_99DCT},'_164407_otherFacility_99DCT')</t>
   </si>
   <si>
     <t xml:space="preserve">_162724_facilityReferred_99DCT</t>
@@ -1796,7 +1790,7 @@
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="166" formatCode="DD\-MM\-YYYY\ HH\-MM\-SS"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1861,12 +1855,6 @@
       <name val="Ubuntu"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1994,7 +1982,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2043,23 +2031,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2099,27 +2083,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2127,11 +2111,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2139,7 +2123,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2152,7 +2136,16 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
@@ -2249,26 +2242,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AL193"/>
+  <dimension ref="A1:AL65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.6887755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="69.9234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.9591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="175.668367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.0459183673469"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="41.3061224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="94.3163265306123"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="215.448979591837"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="71.9948979591837"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="68.6632653061225"/>
-    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="86.2142857142857"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.3061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.484693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="72.4438775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="181.969387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.7551020408163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.7448979591837"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="97.6428571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="223.275510204082"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="74.6071428571429"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="71.0969387755102"/>
+    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="89.2755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6382,21 +6377,21 @@
       <c r="X119" s="8"/>
       <c r="Y119" s="8"/>
     </row>
-    <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="8" t="s">
-        <v>13</v>
+        <v>273</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
@@ -6419,20 +6414,22 @@
       <c r="X120" s="8"/>
       <c r="Y120" s="8"/>
     </row>
-    <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E121" s="8"/>
+      <c r="E121" s="8" t="s">
+        <v>276</v>
+      </c>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c r="H121" s="8"/>
@@ -6454,9 +6451,9 @@
       <c r="X121" s="8"/>
       <c r="Y121" s="8"/>
     </row>
-    <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="8" t="s">
-        <v>279</v>
+        <v>108</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>280</v>
@@ -6467,11 +6464,15 @@
       <c r="D122" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E122" s="8"/>
+      <c r="E122" s="8" t="s">
+        <v>282</v>
+      </c>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c r="H122" s="8"/>
-      <c r="I122" s="8"/>
+      <c r="I122" s="8" t="s">
+        <v>283</v>
+      </c>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="8"/>
@@ -6489,28 +6490,26 @@
       <c r="X122" s="8"/>
       <c r="Y122" s="8"/>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
-      <c r="I123" s="12" t="s">
-        <v>285</v>
-      </c>
+      <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="8"/>
@@ -6530,24 +6529,26 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="8" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>286</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
-      <c r="I124" s="8"/>
+      <c r="I124" s="8" t="s">
+        <v>287</v>
+      </c>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="8"/>
@@ -6567,24 +6568,24 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="8" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C125" s="10" t="s">
-        <v>283</v>
+      <c r="C125" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E125" s="8"/>
+      <c r="E125" s="8" t="s">
+        <v>290</v>
+      </c>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
-      <c r="I125" s="12" t="s">
-        <v>289</v>
-      </c>
+      <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="8"/>
@@ -6604,10 +6605,14 @@
     </row>
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B126" s="8"/>
-      <c r="C126" s="10"/>
+        <v>108</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>292</v>
+      </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
@@ -6631,22 +6636,14 @@
       <c r="X126" s="8"/>
       <c r="Y126" s="8"/>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>292</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
@@ -6669,18 +6666,20 @@
       <c r="Y127" s="8"/>
     </row>
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="8" t="s">
-        <v>108</v>
+      <c r="A128" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="C128" s="8" t="s">
         <v>294</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
+      <c r="F128" s="8" t="s">
+        <v>295</v>
+      </c>
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
       <c r="I128" s="8"/>
@@ -6702,11 +6701,15 @@
       <c r="Y128" s="8"/>
     </row>
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
+      <c r="A129" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>297</v>
+      </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
@@ -6732,18 +6735,18 @@
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>13</v>
+        <v>261</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>296</v>
+        <v>298</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>299</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
@@ -6770,10 +6773,10 @@
         <v>261</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>299</v>
+        <v>301</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>302</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -6803,15 +6806,15 @@
         <v>261</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>304</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G132" s="8"/>
       <c r="H132" s="8"/>
@@ -6837,83 +6840,89 @@
       <c r="A133" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B133" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
-      <c r="I133" s="8"/>
-      <c r="J133" s="8"/>
-      <c r="K133" s="8"/>
-      <c r="L133" s="8"/>
-      <c r="M133" s="8"/>
-      <c r="N133" s="8"/>
-      <c r="O133" s="8"/>
-      <c r="P133" s="8"/>
-      <c r="Q133" s="8"/>
-      <c r="R133" s="8"/>
-      <c r="S133" s="8"/>
-      <c r="T133" s="8"/>
-      <c r="U133" s="8"/>
-      <c r="V133" s="8"/>
-      <c r="W133" s="8"/>
-      <c r="X133" s="8"/>
-      <c r="Y133" s="8"/>
+      <c r="B133" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4"/>
+      <c r="O133" s="4"/>
+      <c r="P133" s="4"/>
+      <c r="Q133" s="4"/>
+      <c r="R133" s="4"/>
+      <c r="S133" s="4"/>
+      <c r="T133" s="4"/>
+      <c r="U133" s="4"/>
+      <c r="V133" s="4"/>
+      <c r="W133" s="4"/>
+      <c r="X133" s="4"/>
+      <c r="Y133" s="4"/>
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B134" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="8"/>
-      <c r="J134" s="8"/>
-      <c r="K134" s="8"/>
-      <c r="L134" s="8"/>
-      <c r="M134" s="8"/>
-      <c r="N134" s="8"/>
-      <c r="O134" s="8"/>
-      <c r="P134" s="8"/>
-      <c r="Q134" s="8"/>
-      <c r="R134" s="8"/>
-      <c r="S134" s="8"/>
-      <c r="T134" s="8"/>
-      <c r="U134" s="8"/>
-      <c r="V134" s="8"/>
-      <c r="W134" s="8"/>
-      <c r="X134" s="8"/>
-      <c r="Y134" s="8"/>
-    </row>
-    <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
+      <c r="M134" s="4"/>
+      <c r="N134" s="4"/>
+      <c r="O134" s="4"/>
+      <c r="P134" s="4"/>
+      <c r="Q134" s="4"/>
+      <c r="R134" s="4"/>
+      <c r="S134" s="4"/>
+      <c r="T134" s="4"/>
+      <c r="U134" s="4"/>
+      <c r="V134" s="4"/>
+      <c r="W134" s="4"/>
+      <c r="X134" s="4"/>
+      <c r="Y134" s="4"/>
+    </row>
+    <row r="135" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B135" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>309</v>
+      <c r="B135" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>313</v>
       </c>
       <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
+      <c r="E135" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>311</v>
+      </c>
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
@@ -6934,22 +6943,22 @@
       <c r="X135" s="4"/>
       <c r="Y135" s="4"/>
     </row>
-    <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
         <v>261</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C136" s="14" t="s">
-        <v>311</v>
+        <v>315</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>316</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
@@ -6971,59 +6980,55 @@
       <c r="X136" s="4"/>
       <c r="Y136" s="4"/>
     </row>
-    <row r="137" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="4" t="s">
+    <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B137" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C137" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
-      <c r="I137" s="4"/>
-      <c r="J137" s="4"/>
-      <c r="K137" s="4"/>
-      <c r="L137" s="4"/>
-      <c r="M137" s="4"/>
-      <c r="N137" s="4"/>
-      <c r="O137" s="4"/>
-      <c r="P137" s="4"/>
-      <c r="Q137" s="4"/>
-      <c r="R137" s="4"/>
-      <c r="S137" s="4"/>
-      <c r="T137" s="4"/>
-      <c r="U137" s="4"/>
-      <c r="V137" s="4"/>
-      <c r="W137" s="4"/>
-      <c r="X137" s="4"/>
-      <c r="Y137" s="4"/>
-    </row>
-    <row r="138" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B137" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
+      <c r="K137" s="8"/>
+      <c r="L137" s="8"/>
+      <c r="M137" s="8"/>
+      <c r="N137" s="8"/>
+      <c r="O137" s="8"/>
+      <c r="P137" s="8"/>
+      <c r="Q137" s="8"/>
+      <c r="R137" s="8"/>
+      <c r="S137" s="8"/>
+      <c r="T137" s="8"/>
+      <c r="U137" s="8"/>
+      <c r="V137" s="8"/>
+      <c r="W137" s="8"/>
+      <c r="X137" s="8"/>
+      <c r="Y137" s="8"/>
+    </row>
+    <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B138" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C138" s="14" t="s">
-        <v>318</v>
+      <c r="B138" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>321</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
@@ -7046,54 +7051,58 @@
       <c r="Y138" s="4"/>
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="8" t="s">
+      <c r="A139" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B139" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="8"/>
-      <c r="J139" s="8"/>
-      <c r="K139" s="8"/>
-      <c r="L139" s="8"/>
-      <c r="M139" s="8"/>
-      <c r="N139" s="8"/>
-      <c r="O139" s="8"/>
-      <c r="P139" s="8"/>
-      <c r="Q139" s="8"/>
-      <c r="R139" s="8"/>
-      <c r="S139" s="8"/>
-      <c r="T139" s="8"/>
-      <c r="U139" s="8"/>
-      <c r="V139" s="8"/>
-      <c r="W139" s="8"/>
-      <c r="X139" s="8"/>
-      <c r="Y139" s="8"/>
+      <c r="B139" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
+      <c r="K139" s="4"/>
+      <c r="L139" s="4"/>
+      <c r="M139" s="4"/>
+      <c r="N139" s="4"/>
+      <c r="O139" s="4"/>
+      <c r="P139" s="4"/>
+      <c r="Q139" s="4"/>
+      <c r="R139" s="4"/>
+      <c r="S139" s="4"/>
+      <c r="T139" s="4"/>
+      <c r="U139" s="4"/>
+      <c r="V139" s="4"/>
+      <c r="W139" s="4"/>
+      <c r="X139" s="4"/>
+      <c r="Y139" s="4"/>
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B140" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="C140" s="14" t="s">
-        <v>323</v>
+      <c r="B140" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>327</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="4" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
@@ -7119,18 +7128,18 @@
       <c r="A141" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B141" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="C141" s="14" t="s">
-        <v>326</v>
+      <c r="B141" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>330</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
@@ -7156,18 +7165,18 @@
       <c r="A142" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B142" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="C142" s="14" t="s">
-        <v>329</v>
+      <c r="B142" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>333</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="4" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
@@ -7193,18 +7202,18 @@
       <c r="A143" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B143" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="C143" s="14" t="s">
-        <v>332</v>
+      <c r="B143" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>336</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="4" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
@@ -7230,18 +7239,18 @@
       <c r="A144" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B144" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="C144" s="14" t="s">
-        <v>335</v>
+      <c r="B144" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>339</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="4" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
@@ -7267,18 +7276,18 @@
       <c r="A145" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B145" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="C145" s="14" t="s">
-        <v>338</v>
+      <c r="B145" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>342</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="4" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
@@ -7301,58 +7310,54 @@
       <c r="Y145" s="4"/>
     </row>
     <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="4" t="s">
+      <c r="A146" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B146" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="C146" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
-      <c r="I146" s="4"/>
-      <c r="J146" s="4"/>
-      <c r="K146" s="4"/>
-      <c r="L146" s="4"/>
-      <c r="M146" s="4"/>
-      <c r="N146" s="4"/>
-      <c r="O146" s="4"/>
-      <c r="P146" s="4"/>
-      <c r="Q146" s="4"/>
-      <c r="R146" s="4"/>
-      <c r="S146" s="4"/>
-      <c r="T146" s="4"/>
-      <c r="U146" s="4"/>
-      <c r="V146" s="4"/>
-      <c r="W146" s="4"/>
-      <c r="X146" s="4"/>
-      <c r="Y146" s="4"/>
+      <c r="B146" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="8"/>
+      <c r="J146" s="8"/>
+      <c r="K146" s="8"/>
+      <c r="L146" s="8"/>
+      <c r="M146" s="8"/>
+      <c r="N146" s="8"/>
+      <c r="O146" s="8"/>
+      <c r="P146" s="8"/>
+      <c r="Q146" s="8"/>
+      <c r="R146" s="8"/>
+      <c r="S146" s="8"/>
+      <c r="T146" s="8"/>
+      <c r="U146" s="8"/>
+      <c r="V146" s="8"/>
+      <c r="W146" s="8"/>
+      <c r="X146" s="8"/>
+      <c r="Y146" s="8"/>
     </row>
     <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="4" t="s">
+      <c r="A147" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B147" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="C147" s="14" t="s">
-        <v>344</v>
+      <c r="B147" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>347</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
@@ -7378,51 +7383,55 @@
       <c r="A148" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B148" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
-      <c r="H148" s="8"/>
-      <c r="I148" s="8"/>
-      <c r="J148" s="8"/>
-      <c r="K148" s="8"/>
-      <c r="L148" s="8"/>
-      <c r="M148" s="8"/>
-      <c r="N148" s="8"/>
-      <c r="O148" s="8"/>
-      <c r="P148" s="8"/>
-      <c r="Q148" s="8"/>
-      <c r="R148" s="8"/>
-      <c r="S148" s="8"/>
-      <c r="T148" s="8"/>
-      <c r="U148" s="8"/>
-      <c r="V148" s="8"/>
-      <c r="W148" s="8"/>
-      <c r="X148" s="8"/>
-      <c r="Y148" s="8"/>
+      <c r="B148" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="C148" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+      <c r="K148" s="4"/>
+      <c r="L148" s="4"/>
+      <c r="M148" s="4"/>
+      <c r="N148" s="4"/>
+      <c r="O148" s="4"/>
+      <c r="P148" s="4"/>
+      <c r="Q148" s="4"/>
+      <c r="R148" s="4"/>
+      <c r="S148" s="4"/>
+      <c r="T148" s="4"/>
+      <c r="U148" s="4"/>
+      <c r="V148" s="4"/>
+      <c r="W148" s="4"/>
+      <c r="X148" s="4"/>
+      <c r="Y148" s="4"/>
     </row>
     <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B149" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="C149" s="14" t="s">
-        <v>349</v>
+      <c r="B149" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>353</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
@@ -7448,18 +7457,18 @@
       <c r="A150" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B150" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="C150" s="14" t="s">
-        <v>352</v>
+      <c r="B150" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
@@ -7485,18 +7494,18 @@
       <c r="A151" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B151" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="C151" s="14" t="s">
-        <v>355</v>
+      <c r="B151" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>359</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="4" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
@@ -7522,18 +7531,18 @@
       <c r="A152" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B152" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="C152" s="14" t="s">
-        <v>358</v>
+      <c r="B152" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>362</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
@@ -7559,18 +7568,18 @@
       <c r="A153" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B153" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="C153" s="14" t="s">
-        <v>361</v>
+      <c r="B153" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>365</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="4" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
@@ -7596,18 +7605,18 @@
       <c r="A154" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B154" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="C154" s="14" t="s">
-        <v>364</v>
+      <c r="B154" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>368</v>
       </c>
       <c r="D154" s="4"/>
       <c r="E154" s="4" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
@@ -7633,18 +7642,18 @@
       <c r="A155" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B155" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="C155" s="14" t="s">
-        <v>367</v>
+      <c r="B155" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>333</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="4" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
@@ -7670,18 +7679,18 @@
       <c r="A156" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B156" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="C156" s="14" t="s">
-        <v>370</v>
+      <c r="B156" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>373</v>
       </c>
       <c r="D156" s="4"/>
       <c r="E156" s="4" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
@@ -7707,18 +7716,18 @@
       <c r="A157" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B157" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="C157" s="14" t="s">
-        <v>335</v>
+      <c r="B157" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>342</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="4" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
@@ -7744,89 +7753,89 @@
       <c r="A158" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B158" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="C158" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="D158" s="4"/>
-      <c r="E158" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G158" s="4"/>
-      <c r="H158" s="4"/>
-      <c r="I158" s="4"/>
-      <c r="J158" s="4"/>
-      <c r="K158" s="4"/>
-      <c r="L158" s="4"/>
-      <c r="M158" s="4"/>
-      <c r="N158" s="4"/>
-      <c r="O158" s="4"/>
-      <c r="P158" s="4"/>
-      <c r="Q158" s="4"/>
-      <c r="R158" s="4"/>
-      <c r="S158" s="4"/>
-      <c r="T158" s="4"/>
-      <c r="U158" s="4"/>
-      <c r="V158" s="4"/>
-      <c r="W158" s="4"/>
-      <c r="X158" s="4"/>
-      <c r="Y158" s="4"/>
+      <c r="B158" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D158" s="8"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+      <c r="H158" s="8"/>
+      <c r="I158" s="8"/>
+      <c r="J158" s="8"/>
+      <c r="K158" s="8"/>
+      <c r="L158" s="8"/>
+      <c r="M158" s="8"/>
+      <c r="N158" s="8"/>
+      <c r="O158" s="8"/>
+      <c r="P158" s="8"/>
+      <c r="Q158" s="8"/>
+      <c r="R158" s="8"/>
+      <c r="S158" s="8"/>
+      <c r="T158" s="8"/>
+      <c r="U158" s="8"/>
+      <c r="V158" s="8"/>
+      <c r="W158" s="8"/>
+      <c r="X158" s="8"/>
+      <c r="Y158" s="8"/>
     </row>
     <row r="159" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="8" t="s">
+      <c r="A159" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B159" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="C159" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="D159" s="4"/>
+      <c r="B159" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D159" s="8"/>
       <c r="E159" s="4" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G159" s="4"/>
-      <c r="H159" s="4"/>
-      <c r="I159" s="4"/>
-      <c r="J159" s="4"/>
-      <c r="K159" s="4"/>
-      <c r="L159" s="4"/>
-      <c r="M159" s="4"/>
-      <c r="N159" s="4"/>
-      <c r="O159" s="4"/>
-      <c r="P159" s="4"/>
-      <c r="Q159" s="4"/>
-      <c r="R159" s="4"/>
-      <c r="S159" s="4"/>
-      <c r="T159" s="4"/>
-      <c r="U159" s="4"/>
-      <c r="V159" s="4"/>
-      <c r="W159" s="4"/>
-      <c r="X159" s="4"/>
-      <c r="Y159" s="4"/>
+        <v>311</v>
+      </c>
+      <c r="G159" s="8"/>
+      <c r="H159" s="8"/>
+      <c r="I159" s="8"/>
+      <c r="J159" s="8"/>
+      <c r="K159" s="8"/>
+      <c r="L159" s="8"/>
+      <c r="M159" s="8"/>
+      <c r="N159" s="8"/>
+      <c r="O159" s="8"/>
+      <c r="P159" s="8"/>
+      <c r="Q159" s="8"/>
+      <c r="R159" s="8"/>
+      <c r="S159" s="8"/>
+      <c r="T159" s="8"/>
+      <c r="U159" s="8"/>
+      <c r="V159" s="8"/>
+      <c r="W159" s="8"/>
+      <c r="X159" s="8"/>
+      <c r="Y159" s="8"/>
     </row>
     <row r="160" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="8" t="s">
+      <c r="A160" s="4" t="s">
         <v>261</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D160" s="8"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="8"/>
+      <c r="E160" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>311</v>
+      </c>
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
       <c r="I160" s="8"/>
@@ -7852,17 +7861,17 @@
         <v>261</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D161" s="8"/>
       <c r="E161" s="4" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
@@ -7885,22 +7894,18 @@
       <c r="Y161" s="8"/>
     </row>
     <row r="162" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="4" t="s">
+      <c r="A162" s="8" t="s">
         <v>261</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D162" s="8"/>
-      <c r="E162" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="F162" s="4" t="s">
-        <v>313</v>
-      </c>
+      <c r="E162" s="4"/>
+      <c r="F162" s="8"/>
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
       <c r="I162" s="8"/>
@@ -7926,17 +7931,17 @@
         <v>261</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D163" s="8"/>
       <c r="E163" s="4" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
@@ -7959,18 +7964,22 @@
       <c r="Y163" s="8"/>
     </row>
     <row r="164" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="8" t="s">
+      <c r="A164" s="4" t="s">
         <v>261</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D164" s="8"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="8"/>
+      <c r="E164" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>311</v>
+      </c>
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
       <c r="I164" s="8"/>
@@ -7996,17 +8005,17 @@
         <v>261</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="D165" s="8"/>
       <c r="E165" s="4" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G165" s="8"/>
       <c r="H165" s="8"/>
@@ -8029,22 +8038,18 @@
       <c r="Y165" s="8"/>
     </row>
     <row r="166" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="4" t="s">
+      <c r="A166" s="8" t="s">
         <v>261</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="D166" s="8"/>
-      <c r="E166" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="F166" s="4" t="s">
-        <v>313</v>
-      </c>
+      <c r="E166" s="4"/>
+      <c r="F166" s="8"/>
       <c r="G166" s="8"/>
       <c r="H166" s="8"/>
       <c r="I166" s="8"/>
@@ -8070,17 +8075,17 @@
         <v>261</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="D167" s="8"/>
       <c r="E167" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
@@ -8103,18 +8108,22 @@
       <c r="Y167" s="8"/>
     </row>
     <row r="168" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="8" t="s">
+      <c r="A168" s="4" t="s">
         <v>261</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="D168" s="8"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="8"/>
+      <c r="E168" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>311</v>
+      </c>
       <c r="G168" s="8"/>
       <c r="H168" s="8"/>
       <c r="I168" s="8"/>
@@ -8140,17 +8149,17 @@
         <v>261</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="D169" s="8"/>
       <c r="E169" s="4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G169" s="8"/>
       <c r="H169" s="8"/>
@@ -8172,23 +8181,21 @@
       <c r="X169" s="8"/>
       <c r="Y169" s="8"/>
     </row>
-    <row r="170" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="4" t="s">
+    <row r="170" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="8" t="s">
         <v>261</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="D170" s="8"/>
       <c r="E170" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="F170" s="4" t="s">
-        <v>313</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="F170" s="8"/>
       <c r="G170" s="8"/>
       <c r="H170" s="8"/>
       <c r="I170" s="8"/>
@@ -8210,418 +8217,420 @@
       <c r="Y170" s="8"/>
     </row>
     <row r="171" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="4" t="s">
+      <c r="A171" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="B171" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="D171" s="8"/>
+      <c r="B171" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="C171" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D171" s="4"/>
       <c r="E171" s="4" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G171" s="8"/>
-      <c r="H171" s="8"/>
-      <c r="I171" s="8"/>
-      <c r="J171" s="8"/>
-      <c r="K171" s="8"/>
-      <c r="L171" s="8"/>
-      <c r="M171" s="8"/>
-      <c r="N171" s="8"/>
-      <c r="O171" s="8"/>
-      <c r="P171" s="8"/>
-      <c r="Q171" s="8"/>
-      <c r="R171" s="8"/>
-      <c r="S171" s="8"/>
-      <c r="T171" s="8"/>
-      <c r="U171" s="8"/>
-      <c r="V171" s="8"/>
-      <c r="W171" s="8"/>
-      <c r="X171" s="8"/>
-      <c r="Y171" s="8"/>
-    </row>
-    <row r="172" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="G171" s="15"/>
+      <c r="H171" s="15"/>
+      <c r="I171" s="15"/>
+      <c r="J171" s="15"/>
+      <c r="K171" s="15"/>
+      <c r="L171" s="15"/>
+      <c r="M171" s="15"/>
+      <c r="N171" s="15"/>
+      <c r="O171" s="15"/>
+      <c r="P171" s="15"/>
+      <c r="Q171" s="15"/>
+      <c r="R171" s="15"/>
+      <c r="S171" s="15"/>
+      <c r="T171" s="15"/>
+      <c r="U171" s="15"/>
+      <c r="V171" s="15"/>
+      <c r="W171" s="15"/>
+      <c r="X171" s="15"/>
+      <c r="Y171" s="15"/>
+    </row>
+    <row r="172" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="B172" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="D172" s="8"/>
+      <c r="B172" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="D172" s="15"/>
       <c r="E172" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G172" s="15"/>
+      <c r="H172" s="15"/>
+      <c r="I172" s="15"/>
+      <c r="J172" s="15"/>
+      <c r="K172" s="15"/>
+      <c r="L172" s="15"/>
+      <c r="M172" s="15"/>
+      <c r="N172" s="15"/>
+      <c r="O172" s="15"/>
+      <c r="P172" s="15"/>
+      <c r="Q172" s="15"/>
+      <c r="R172" s="15"/>
+      <c r="S172" s="15"/>
+      <c r="T172" s="15"/>
+      <c r="U172" s="15"/>
+      <c r="V172" s="15"/>
+      <c r="W172" s="15"/>
+      <c r="X172" s="15"/>
+      <c r="Y172" s="15"/>
+    </row>
+    <row r="173" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B173" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="D173" s="15"/>
+      <c r="E173" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G173" s="15"/>
+      <c r="H173" s="15"/>
+      <c r="I173" s="15"/>
+      <c r="J173" s="15"/>
+      <c r="K173" s="15"/>
+      <c r="L173" s="15"/>
+      <c r="M173" s="15"/>
+      <c r="N173" s="15"/>
+      <c r="O173" s="15"/>
+      <c r="P173" s="15"/>
+      <c r="Q173" s="15"/>
+      <c r="R173" s="15"/>
+      <c r="S173" s="15"/>
+      <c r="T173" s="15"/>
+      <c r="U173" s="15"/>
+      <c r="V173" s="15"/>
+      <c r="W173" s="15"/>
+      <c r="X173" s="15"/>
+      <c r="Y173" s="15"/>
+    </row>
+    <row r="174" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="D174" s="8"/>
+      <c r="E174" s="8"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="8"/>
+      <c r="H174" s="8"/>
+      <c r="I174" s="8"/>
+      <c r="J174" s="8"/>
+      <c r="K174" s="8"/>
+      <c r="L174" s="8"/>
+      <c r="M174" s="8"/>
+      <c r="N174" s="8"/>
+      <c r="O174" s="8"/>
+      <c r="P174" s="8"/>
+      <c r="Q174" s="8"/>
+      <c r="R174" s="8"/>
+      <c r="S174" s="8"/>
+      <c r="T174" s="8"/>
+      <c r="U174" s="8"/>
+      <c r="V174" s="8"/>
+      <c r="W174" s="8"/>
+      <c r="X174" s="8"/>
+      <c r="Y174" s="8"/>
+    </row>
+    <row r="175" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B175" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="C175" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G175" s="15"/>
+      <c r="H175" s="15"/>
+      <c r="I175" s="15"/>
+      <c r="J175" s="15"/>
+      <c r="K175" s="15"/>
+      <c r="L175" s="15"/>
+      <c r="M175" s="15"/>
+      <c r="N175" s="15"/>
+      <c r="O175" s="15"/>
+      <c r="P175" s="15"/>
+      <c r="Q175" s="15"/>
+      <c r="R175" s="15"/>
+      <c r="S175" s="15"/>
+      <c r="T175" s="15"/>
+      <c r="U175" s="15"/>
+      <c r="V175" s="15"/>
+      <c r="W175" s="15"/>
+      <c r="X175" s="15"/>
+      <c r="Y175" s="15"/>
+    </row>
+    <row r="176" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="D176" s="15"/>
+      <c r="E176" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G176" s="15"/>
+      <c r="H176" s="15"/>
+      <c r="I176" s="15"/>
+      <c r="J176" s="15"/>
+      <c r="K176" s="15"/>
+      <c r="L176" s="15"/>
+      <c r="M176" s="15"/>
+      <c r="N176" s="15"/>
+      <c r="O176" s="15"/>
+      <c r="P176" s="15"/>
+      <c r="Q176" s="15"/>
+      <c r="R176" s="15"/>
+      <c r="S176" s="15"/>
+      <c r="T176" s="15"/>
+      <c r="U176" s="15"/>
+      <c r="V176" s="15"/>
+      <c r="W176" s="15"/>
+      <c r="X176" s="15"/>
+      <c r="Y176" s="15"/>
+    </row>
+    <row r="177" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B177" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="D177" s="15"/>
+      <c r="E177" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G177" s="15"/>
+      <c r="H177" s="15"/>
+      <c r="I177" s="15"/>
+      <c r="J177" s="15"/>
+      <c r="K177" s="15"/>
+      <c r="L177" s="15"/>
+      <c r="M177" s="15"/>
+      <c r="N177" s="15"/>
+      <c r="O177" s="15"/>
+      <c r="P177" s="15"/>
+      <c r="Q177" s="15"/>
+      <c r="R177" s="15"/>
+      <c r="S177" s="15"/>
+      <c r="T177" s="15"/>
+      <c r="U177" s="15"/>
+      <c r="V177" s="15"/>
+      <c r="W177" s="15"/>
+      <c r="X177" s="15"/>
+      <c r="Y177" s="15"/>
+    </row>
+    <row r="178" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B178" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="C178" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+      <c r="L178" s="4"/>
+      <c r="M178" s="4"/>
+      <c r="N178" s="4"/>
+      <c r="O178" s="4"/>
+      <c r="P178" s="4"/>
+      <c r="Q178" s="4"/>
+      <c r="R178" s="4"/>
+      <c r="S178" s="4"/>
+      <c r="T178" s="4"/>
+      <c r="U178" s="4"/>
+      <c r="V178" s="4"/>
+      <c r="W178" s="4"/>
+      <c r="X178" s="4"/>
+      <c r="Y178" s="4"/>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="D179" s="8"/>
+      <c r="E179" s="8"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="8"/>
+      <c r="H179" s="8"/>
+      <c r="I179" s="8"/>
+      <c r="J179" s="8"/>
+      <c r="K179" s="8"/>
+      <c r="L179" s="8"/>
+      <c r="M179" s="8"/>
+      <c r="N179" s="8"/>
+      <c r="O179" s="8"/>
+      <c r="P179" s="8"/>
+      <c r="Q179" s="8"/>
+      <c r="R179" s="8"/>
+      <c r="S179" s="8"/>
+      <c r="T179" s="8"/>
+      <c r="U179" s="8"/>
+      <c r="V179" s="8"/>
+      <c r="W179" s="8"/>
+      <c r="X179" s="8"/>
+      <c r="Y179" s="8"/>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B180" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="C180" s="13" t="s">
         <v>409</v>
-      </c>
-      <c r="F172" s="8"/>
-      <c r="G172" s="8"/>
-      <c r="H172" s="8"/>
-      <c r="I172" s="8"/>
-      <c r="J172" s="8"/>
-      <c r="K172" s="8"/>
-      <c r="L172" s="8"/>
-      <c r="M172" s="8"/>
-      <c r="N172" s="8"/>
-      <c r="O172" s="8"/>
-      <c r="P172" s="8"/>
-      <c r="Q172" s="8"/>
-      <c r="R172" s="8"/>
-      <c r="S172" s="8"/>
-      <c r="T172" s="8"/>
-      <c r="U172" s="8"/>
-      <c r="V172" s="8"/>
-      <c r="W172" s="8"/>
-      <c r="X172" s="8"/>
-      <c r="Y172" s="8"/>
-    </row>
-    <row r="173" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="B173" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="C173" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="D173" s="4"/>
-      <c r="E173" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G173" s="16"/>
-      <c r="H173" s="16"/>
-      <c r="I173" s="16"/>
-      <c r="J173" s="16"/>
-      <c r="K173" s="16"/>
-      <c r="L173" s="16"/>
-      <c r="M173" s="16"/>
-      <c r="N173" s="16"/>
-      <c r="O173" s="16"/>
-      <c r="P173" s="16"/>
-      <c r="Q173" s="16"/>
-      <c r="R173" s="16"/>
-      <c r="S173" s="16"/>
-      <c r="T173" s="16"/>
-      <c r="U173" s="16"/>
-      <c r="V173" s="16"/>
-      <c r="W173" s="16"/>
-      <c r="X173" s="16"/>
-      <c r="Y173" s="16"/>
-    </row>
-    <row r="174" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="B174" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="C174" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="D174" s="16"/>
-      <c r="E174" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="F174" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G174" s="16"/>
-      <c r="H174" s="16"/>
-      <c r="I174" s="16"/>
-      <c r="J174" s="16"/>
-      <c r="K174" s="16"/>
-      <c r="L174" s="16"/>
-      <c r="M174" s="16"/>
-      <c r="N174" s="16"/>
-      <c r="O174" s="16"/>
-      <c r="P174" s="16"/>
-      <c r="Q174" s="16"/>
-      <c r="R174" s="16"/>
-      <c r="S174" s="16"/>
-      <c r="T174" s="16"/>
-      <c r="U174" s="16"/>
-      <c r="V174" s="16"/>
-      <c r="W174" s="16"/>
-      <c r="X174" s="16"/>
-      <c r="Y174" s="16"/>
-    </row>
-    <row r="175" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="B175" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="C175" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="D175" s="16"/>
-      <c r="E175" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="F175" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G175" s="16"/>
-      <c r="H175" s="16"/>
-      <c r="I175" s="16"/>
-      <c r="J175" s="16"/>
-      <c r="K175" s="16"/>
-      <c r="L175" s="16"/>
-      <c r="M175" s="16"/>
-      <c r="N175" s="16"/>
-      <c r="O175" s="16"/>
-      <c r="P175" s="16"/>
-      <c r="Q175" s="16"/>
-      <c r="R175" s="16"/>
-      <c r="S175" s="16"/>
-      <c r="T175" s="16"/>
-      <c r="U175" s="16"/>
-      <c r="V175" s="16"/>
-      <c r="W175" s="16"/>
-      <c r="X175" s="16"/>
-      <c r="Y175" s="16"/>
-    </row>
-    <row r="176" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="D176" s="8"/>
-      <c r="E176" s="8"/>
-      <c r="F176" s="8"/>
-      <c r="G176" s="8"/>
-      <c r="H176" s="8"/>
-      <c r="I176" s="8"/>
-      <c r="J176" s="8"/>
-      <c r="K176" s="8"/>
-      <c r="L176" s="8"/>
-      <c r="M176" s="8"/>
-      <c r="N176" s="8"/>
-      <c r="O176" s="8"/>
-      <c r="P176" s="8"/>
-      <c r="Q176" s="8"/>
-      <c r="R176" s="8"/>
-      <c r="S176" s="8"/>
-      <c r="T176" s="8"/>
-      <c r="U176" s="8"/>
-      <c r="V176" s="8"/>
-      <c r="W176" s="8"/>
-      <c r="X176" s="8"/>
-      <c r="Y176" s="8"/>
-    </row>
-    <row r="177" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="B177" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="C177" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="D177" s="4"/>
-      <c r="E177" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="F177" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G177" s="16"/>
-      <c r="H177" s="16"/>
-      <c r="I177" s="16"/>
-      <c r="J177" s="16"/>
-      <c r="K177" s="16"/>
-      <c r="L177" s="16"/>
-      <c r="M177" s="16"/>
-      <c r="N177" s="16"/>
-      <c r="O177" s="16"/>
-      <c r="P177" s="16"/>
-      <c r="Q177" s="16"/>
-      <c r="R177" s="16"/>
-      <c r="S177" s="16"/>
-      <c r="T177" s="16"/>
-      <c r="U177" s="16"/>
-      <c r="V177" s="16"/>
-      <c r="W177" s="16"/>
-      <c r="X177" s="16"/>
-      <c r="Y177" s="16"/>
-    </row>
-    <row r="178" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="B178" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="C178" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="D178" s="16"/>
-      <c r="E178" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="F178" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G178" s="16"/>
-      <c r="H178" s="16"/>
-      <c r="I178" s="16"/>
-      <c r="J178" s="16"/>
-      <c r="K178" s="16"/>
-      <c r="L178" s="16"/>
-      <c r="M178" s="16"/>
-      <c r="N178" s="16"/>
-      <c r="O178" s="16"/>
-      <c r="P178" s="16"/>
-      <c r="Q178" s="16"/>
-      <c r="R178" s="16"/>
-      <c r="S178" s="16"/>
-      <c r="T178" s="16"/>
-      <c r="U178" s="16"/>
-      <c r="V178" s="16"/>
-      <c r="W178" s="16"/>
-      <c r="X178" s="16"/>
-      <c r="Y178" s="16"/>
-    </row>
-    <row r="179" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="B179" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="C179" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="D179" s="16"/>
-      <c r="E179" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="F179" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G179" s="16"/>
-      <c r="H179" s="16"/>
-      <c r="I179" s="16"/>
-      <c r="J179" s="16"/>
-      <c r="K179" s="16"/>
-      <c r="L179" s="16"/>
-      <c r="M179" s="16"/>
-      <c r="N179" s="16"/>
-      <c r="O179" s="16"/>
-      <c r="P179" s="16"/>
-      <c r="Q179" s="16"/>
-      <c r="R179" s="16"/>
-      <c r="S179" s="16"/>
-      <c r="T179" s="16"/>
-      <c r="U179" s="16"/>
-      <c r="V179" s="16"/>
-      <c r="W179" s="16"/>
-      <c r="X179" s="16"/>
-      <c r="Y179" s="16"/>
-    </row>
-    <row r="180" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="B180" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="C180" s="14" t="s">
-        <v>431</v>
       </c>
       <c r="D180" s="4"/>
       <c r="E180" s="4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G180" s="4"/>
-      <c r="H180" s="4"/>
-      <c r="I180" s="4"/>
-      <c r="J180" s="4"/>
-      <c r="K180" s="4"/>
-      <c r="L180" s="4"/>
-      <c r="M180" s="4"/>
-      <c r="N180" s="4"/>
-      <c r="O180" s="4"/>
-      <c r="P180" s="4"/>
-      <c r="Q180" s="4"/>
-      <c r="R180" s="4"/>
-      <c r="S180" s="4"/>
-      <c r="T180" s="4"/>
-      <c r="U180" s="4"/>
-      <c r="V180" s="4"/>
-      <c r="W180" s="4"/>
-      <c r="X180" s="4"/>
-      <c r="Y180" s="4"/>
+        <v>311</v>
+      </c>
+      <c r="G180" s="15"/>
+      <c r="H180" s="15"/>
+      <c r="I180" s="15"/>
+      <c r="J180" s="15"/>
+      <c r="K180" s="15"/>
+      <c r="L180" s="15"/>
+      <c r="M180" s="15"/>
+      <c r="N180" s="15"/>
+      <c r="O180" s="15"/>
+      <c r="P180" s="15"/>
+      <c r="Q180" s="15"/>
+      <c r="R180" s="15"/>
+      <c r="S180" s="15"/>
+      <c r="T180" s="15"/>
+      <c r="U180" s="15"/>
+      <c r="V180" s="15"/>
+      <c r="W180" s="15"/>
+      <c r="X180" s="15"/>
+      <c r="Y180" s="15"/>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="8" t="s">
+      <c r="A181" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="B181" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="D181" s="8"/>
-      <c r="E181" s="8"/>
-      <c r="F181" s="8"/>
-      <c r="G181" s="8"/>
-      <c r="H181" s="8"/>
-      <c r="I181" s="8"/>
-      <c r="J181" s="8"/>
-      <c r="K181" s="8"/>
-      <c r="L181" s="8"/>
-      <c r="M181" s="8"/>
-      <c r="N181" s="8"/>
-      <c r="O181" s="8"/>
-      <c r="P181" s="8"/>
-      <c r="Q181" s="8"/>
-      <c r="R181" s="8"/>
-      <c r="S181" s="8"/>
-      <c r="T181" s="8"/>
-      <c r="U181" s="8"/>
-      <c r="V181" s="8"/>
-      <c r="W181" s="8"/>
-      <c r="X181" s="8"/>
-      <c r="Y181" s="8"/>
-    </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="15" t="s">
+      <c r="B181" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="C181" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="D181" s="15"/>
+      <c r="E181" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G181" s="15"/>
+      <c r="H181" s="15"/>
+      <c r="I181" s="15"/>
+      <c r="J181" s="15"/>
+      <c r="K181" s="15"/>
+      <c r="L181" s="15"/>
+      <c r="M181" s="15"/>
+      <c r="N181" s="15"/>
+      <c r="O181" s="15"/>
+      <c r="P181" s="15"/>
+      <c r="Q181" s="15"/>
+      <c r="R181" s="15"/>
+      <c r="S181" s="15"/>
+      <c r="T181" s="15"/>
+      <c r="U181" s="15"/>
+      <c r="V181" s="15"/>
+      <c r="W181" s="15"/>
+      <c r="X181" s="15"/>
+      <c r="Y181" s="15"/>
+    </row>
+    <row r="182" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A182" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="B182" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="C182" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="D182" s="4"/>
-      <c r="E182" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="F182" s="4" t="s">
-        <v>313</v>
+      <c r="B182" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="C182" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="D182" s="16"/>
+      <c r="E182" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="F182" s="16" t="s">
+        <v>439</v>
       </c>
       <c r="G182" s="16"/>
       <c r="H182" s="16"/>
@@ -8643,354 +8652,282 @@
       <c r="X182" s="16"/>
       <c r="Y182" s="16"/>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="15" t="s">
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A183" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="B183" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="C183" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="D183" s="16"/>
-      <c r="E183" s="4" t="s">
+      <c r="B183" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="C183" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="D183" s="5"/>
+      <c r="E183" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="F183" s="19"/>
+      <c r="G183" s="19"/>
+      <c r="H183" s="19"/>
+      <c r="I183" s="19"/>
+      <c r="J183" s="19"/>
+      <c r="K183" s="19"/>
+      <c r="L183" s="19"/>
+      <c r="M183" s="19"/>
+      <c r="N183" s="19"/>
+      <c r="O183" s="19"/>
+      <c r="P183" s="19"/>
+      <c r="Q183" s="19"/>
+      <c r="R183" s="19"/>
+      <c r="S183" s="19"/>
+      <c r="T183" s="19"/>
+      <c r="U183" s="19"/>
+      <c r="V183" s="19"/>
+      <c r="W183" s="19"/>
+      <c r="X183" s="19"/>
+      <c r="Y183" s="19"/>
+    </row>
+    <row r="184" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A184" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B184" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="C184" s="17" t="s">
         <v>438</v>
       </c>
-      <c r="F183" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G183" s="16"/>
-      <c r="H183" s="16"/>
-      <c r="I183" s="16"/>
-      <c r="J183" s="16"/>
-      <c r="K183" s="16"/>
-      <c r="L183" s="16"/>
-      <c r="M183" s="16"/>
-      <c r="N183" s="16"/>
-      <c r="O183" s="16"/>
-      <c r="P183" s="16"/>
-      <c r="Q183" s="16"/>
-      <c r="R183" s="16"/>
-      <c r="S183" s="16"/>
-      <c r="T183" s="16"/>
-      <c r="U183" s="16"/>
-      <c r="V183" s="16"/>
-      <c r="W183" s="16"/>
-      <c r="X183" s="16"/>
-      <c r="Y183" s="16"/>
-    </row>
-    <row r="184" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="17" t="s">
+      <c r="D184" s="16"/>
+      <c r="E184" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="F184" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="G184" s="16"/>
+      <c r="H184" s="16"/>
+      <c r="I184" s="16"/>
+      <c r="J184" s="16"/>
+      <c r="K184" s="16"/>
+      <c r="L184" s="16"/>
+      <c r="M184" s="16"/>
+      <c r="N184" s="16"/>
+      <c r="O184" s="16"/>
+      <c r="P184" s="16"/>
+      <c r="Q184" s="16"/>
+      <c r="R184" s="16"/>
+      <c r="S184" s="16"/>
+      <c r="T184" s="16"/>
+      <c r="U184" s="16"/>
+      <c r="V184" s="16"/>
+      <c r="W184" s="16"/>
+      <c r="X184" s="16"/>
+      <c r="Y184" s="16"/>
+    </row>
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A185" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="B184" s="17" t="s">
+      <c r="B185" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="C185" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="D185" s="5"/>
+      <c r="E185" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="F185" s="19"/>
+      <c r="G185" s="19"/>
+      <c r="H185" s="19"/>
+      <c r="I185" s="19"/>
+      <c r="J185" s="19"/>
+      <c r="K185" s="19"/>
+      <c r="L185" s="19"/>
+      <c r="M185" s="19"/>
+      <c r="N185" s="19"/>
+      <c r="O185" s="19"/>
+      <c r="P185" s="19"/>
+      <c r="Q185" s="19"/>
+      <c r="R185" s="19"/>
+      <c r="S185" s="19"/>
+      <c r="T185" s="19"/>
+      <c r="U185" s="19"/>
+      <c r="V185" s="19"/>
+      <c r="W185" s="19"/>
+      <c r="X185" s="19"/>
+      <c r="Y185" s="19"/>
+    </row>
+    <row r="186" s="24" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A186" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="B186" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="C186" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="D186" s="21"/>
+      <c r="E186" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="F186" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="C184" s="18" t="s">
-        <v>440</v>
-      </c>
-      <c r="D184" s="17"/>
-      <c r="E184" s="19" t="s">
+      <c r="G186" s="21"/>
+      <c r="H186" s="21"/>
+      <c r="I186" s="21"/>
+      <c r="J186" s="21"/>
+      <c r="K186" s="21"/>
+      <c r="L186" s="21"/>
+      <c r="M186" s="21"/>
+      <c r="N186" s="21"/>
+      <c r="O186" s="21"/>
+      <c r="P186" s="21"/>
+      <c r="Q186" s="21"/>
+      <c r="R186" s="21"/>
+      <c r="S186" s="21"/>
+      <c r="T186" s="21"/>
+      <c r="U186" s="21"/>
+      <c r="V186" s="21"/>
+      <c r="W186" s="21"/>
+      <c r="X186" s="21"/>
+      <c r="Y186" s="21"/>
+    </row>
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A187" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="B187" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="C187" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="D187" s="5"/>
+      <c r="E187" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="F184" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="G184" s="17"/>
-      <c r="H184" s="17"/>
-      <c r="I184" s="17"/>
-      <c r="J184" s="17"/>
-      <c r="K184" s="17"/>
-      <c r="L184" s="17"/>
-      <c r="M184" s="17"/>
-      <c r="N184" s="17"/>
-      <c r="O184" s="17"/>
-      <c r="P184" s="17"/>
-      <c r="Q184" s="17"/>
-      <c r="R184" s="17"/>
-      <c r="S184" s="17"/>
-      <c r="T184" s="17"/>
-      <c r="U184" s="17"/>
-      <c r="V184" s="17"/>
-      <c r="W184" s="17"/>
-      <c r="X184" s="17"/>
-      <c r="Y184" s="17"/>
-    </row>
-    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="B185" s="20" t="s">
-        <v>442</v>
-      </c>
-      <c r="C185" s="20" t="s">
-        <v>443</v>
-      </c>
-      <c r="D185" s="5"/>
-      <c r="E185" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="F185" s="20"/>
-      <c r="G185" s="20"/>
-      <c r="H185" s="20"/>
-      <c r="I185" s="20"/>
-      <c r="J185" s="20"/>
-      <c r="K185" s="20"/>
-      <c r="L185" s="20"/>
-      <c r="M185" s="20"/>
-      <c r="N185" s="20"/>
-      <c r="O185" s="20"/>
-      <c r="P185" s="20"/>
-      <c r="Q185" s="20"/>
-      <c r="R185" s="20"/>
-      <c r="S185" s="20"/>
-      <c r="T185" s="20"/>
-      <c r="U185" s="20"/>
-      <c r="V185" s="20"/>
-      <c r="W185" s="20"/>
-      <c r="X185" s="20"/>
-      <c r="Y185" s="20"/>
-    </row>
-    <row r="186" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="B186" s="17" t="s">
-        <v>444</v>
-      </c>
-      <c r="C186" s="18" t="s">
-        <v>440</v>
-      </c>
-      <c r="D186" s="17"/>
-      <c r="E186" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="F186" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="G186" s="17"/>
-      <c r="H186" s="17"/>
-      <c r="I186" s="17"/>
-      <c r="J186" s="17"/>
-      <c r="K186" s="17"/>
-      <c r="L186" s="17"/>
-      <c r="M186" s="17"/>
-      <c r="N186" s="17"/>
-      <c r="O186" s="17"/>
-      <c r="P186" s="17"/>
-      <c r="Q186" s="17"/>
-      <c r="R186" s="17"/>
-      <c r="S186" s="17"/>
-      <c r="T186" s="17"/>
-      <c r="U186" s="17"/>
-      <c r="V186" s="17"/>
-      <c r="W186" s="17"/>
-      <c r="X186" s="17"/>
-      <c r="Y186" s="17"/>
-    </row>
-    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="B187" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="C187" s="20" t="s">
-        <v>447</v>
-      </c>
-      <c r="D187" s="5"/>
-      <c r="E187" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="F187" s="20"/>
-      <c r="G187" s="20"/>
-      <c r="H187" s="20"/>
-      <c r="I187" s="20"/>
-      <c r="J187" s="20"/>
-      <c r="K187" s="20"/>
-      <c r="L187" s="20"/>
-      <c r="M187" s="20"/>
-      <c r="N187" s="20"/>
-      <c r="O187" s="20"/>
-      <c r="P187" s="20"/>
-      <c r="Q187" s="20"/>
-      <c r="R187" s="20"/>
-      <c r="S187" s="20"/>
-      <c r="T187" s="20"/>
-      <c r="U187" s="20"/>
-      <c r="V187" s="20"/>
-      <c r="W187" s="20"/>
-      <c r="X187" s="20"/>
-      <c r="Y187" s="20"/>
-    </row>
-    <row r="188" s="25" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="B188" s="22" t="s">
-        <v>448</v>
-      </c>
-      <c r="C188" s="23" t="s">
-        <v>440</v>
-      </c>
-      <c r="D188" s="22"/>
-      <c r="E188" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="F188" s="22" t="s">
-        <v>441</v>
-      </c>
-      <c r="G188" s="22"/>
-      <c r="H188" s="22"/>
-      <c r="I188" s="22"/>
-      <c r="J188" s="22"/>
-      <c r="K188" s="22"/>
-      <c r="L188" s="22"/>
-      <c r="M188" s="22"/>
-      <c r="N188" s="22"/>
-      <c r="O188" s="22"/>
-      <c r="P188" s="22"/>
-      <c r="Q188" s="22"/>
-      <c r="R188" s="22"/>
-      <c r="S188" s="22"/>
-      <c r="T188" s="22"/>
-      <c r="U188" s="22"/>
-      <c r="V188" s="22"/>
-      <c r="W188" s="22"/>
-      <c r="X188" s="22"/>
-      <c r="Y188" s="22"/>
+      <c r="F187" s="19"/>
+      <c r="G187" s="19"/>
+      <c r="H187" s="19"/>
+      <c r="I187" s="19"/>
+      <c r="J187" s="19"/>
+      <c r="K187" s="19"/>
+      <c r="L187" s="19"/>
+      <c r="M187" s="19"/>
+      <c r="N187" s="19"/>
+      <c r="O187" s="19"/>
+      <c r="P187" s="19"/>
+      <c r="Q187" s="19"/>
+      <c r="R187" s="19"/>
+      <c r="S187" s="19"/>
+      <c r="T187" s="19"/>
+      <c r="U187" s="19"/>
+      <c r="V187" s="19"/>
+      <c r="W187" s="19"/>
+      <c r="X187" s="19"/>
+      <c r="Y187" s="19"/>
+    </row>
+    <row r="188" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B188" s="8"/>
+      <c r="C188" s="8"/>
+      <c r="D188" s="8"/>
+      <c r="E188" s="8"/>
+      <c r="F188" s="8"/>
+      <c r="G188" s="8"/>
+      <c r="H188" s="8"/>
+      <c r="I188" s="8"/>
+      <c r="J188" s="8"/>
+      <c r="K188" s="8"/>
+      <c r="L188" s="8"/>
+      <c r="M188" s="8"/>
+      <c r="N188" s="8"/>
+      <c r="O188" s="8"/>
+      <c r="P188" s="8"/>
+      <c r="Q188" s="8"/>
+      <c r="R188" s="8"/>
+      <c r="S188" s="8"/>
+      <c r="T188" s="8"/>
+      <c r="U188" s="8"/>
+      <c r="V188" s="8"/>
+      <c r="W188" s="8"/>
+      <c r="X188" s="8"/>
+      <c r="Y188" s="8"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="B189" s="20" t="s">
+      <c r="A189" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B189" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="C189" s="20" t="s">
+      <c r="C189" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D189" s="26"/>
+      <c r="E189" s="26"/>
+      <c r="F189" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G189" s="26"/>
+      <c r="H189" s="26"/>
+      <c r="I189" s="26"/>
+      <c r="J189" s="26"/>
+      <c r="K189" s="26"/>
+      <c r="L189" s="26"/>
+      <c r="M189" s="26"/>
+      <c r="N189" s="26"/>
+    </row>
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A190" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B190" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="D189" s="5"/>
-      <c r="E189" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="F189" s="20"/>
-      <c r="G189" s="20"/>
-      <c r="H189" s="20"/>
-      <c r="I189" s="20"/>
-      <c r="J189" s="20"/>
-      <c r="K189" s="20"/>
-      <c r="L189" s="20"/>
-      <c r="M189" s="20"/>
-      <c r="N189" s="20"/>
-      <c r="O189" s="20"/>
-      <c r="P189" s="20"/>
-      <c r="Q189" s="20"/>
-      <c r="R189" s="20"/>
-      <c r="S189" s="20"/>
-      <c r="T189" s="20"/>
-      <c r="U189" s="20"/>
-      <c r="V189" s="20"/>
-      <c r="W189" s="20"/>
-      <c r="X189" s="20"/>
-      <c r="Y189" s="20"/>
-    </row>
-    <row r="190" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="4" t="s">
+      <c r="C190" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D190" s="28"/>
+      <c r="E190" s="29"/>
+      <c r="F190" s="29"/>
+      <c r="G190" s="29"/>
+      <c r="H190" s="29"/>
+      <c r="I190" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="J190" s="29"/>
+      <c r="K190" s="29"/>
+      <c r="L190" s="29"/>
+      <c r="M190" s="29"/>
+      <c r="N190" s="29"/>
+    </row>
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A191" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B190" s="8"/>
-      <c r="C190" s="8"/>
-      <c r="D190" s="8"/>
-      <c r="E190" s="8"/>
-      <c r="F190" s="8"/>
-      <c r="G190" s="8"/>
-      <c r="H190" s="8"/>
-      <c r="I190" s="8"/>
-      <c r="J190" s="8"/>
-      <c r="K190" s="8"/>
-      <c r="L190" s="8"/>
-      <c r="M190" s="8"/>
-      <c r="N190" s="8"/>
-      <c r="O190" s="8"/>
-      <c r="P190" s="8"/>
-      <c r="Q190" s="8"/>
-      <c r="R190" s="8"/>
-      <c r="S190" s="8"/>
-      <c r="T190" s="8"/>
-      <c r="U190" s="8"/>
-      <c r="V190" s="8"/>
-      <c r="W190" s="8"/>
-      <c r="X190" s="8"/>
-      <c r="Y190" s="8"/>
-    </row>
-    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B191" s="26" t="s">
-        <v>451</v>
-      </c>
-      <c r="C191" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D191" s="27"/>
-      <c r="E191" s="27"/>
-      <c r="F191" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G191" s="27"/>
-      <c r="H191" s="27"/>
-      <c r="I191" s="27"/>
-      <c r="J191" s="27"/>
-      <c r="K191" s="27"/>
-      <c r="L191" s="27"/>
-      <c r="M191" s="27"/>
-      <c r="N191" s="27"/>
-    </row>
-    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D192" s="29"/>
-      <c r="E192" s="30"/>
-      <c r="F192" s="30"/>
-      <c r="G192" s="30"/>
-      <c r="H192" s="30"/>
-      <c r="I192" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="J192" s="30"/>
-      <c r="K192" s="30"/>
-      <c r="L192" s="30"/>
-      <c r="M192" s="30"/>
-      <c r="N192" s="30"/>
-    </row>
-    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B193" s="27"/>
-      <c r="C193" s="27"/>
-      <c r="D193" s="27"/>
-      <c r="E193" s="27"/>
-      <c r="F193" s="27"/>
-      <c r="G193" s="27"/>
-      <c r="H193" s="27"/>
-      <c r="I193" s="27"/>
-      <c r="J193" s="27"/>
-      <c r="K193" s="27"/>
-      <c r="L193" s="27"/>
-      <c r="M193" s="27"/>
-      <c r="N193" s="27"/>
-    </row>
+      <c r="B191" s="26"/>
+      <c r="C191" s="26"/>
+      <c r="D191" s="26"/>
+      <c r="E191" s="26"/>
+      <c r="F191" s="26"/>
+      <c r="G191" s="26"/>
+      <c r="H191" s="26"/>
+      <c r="I191" s="26"/>
+      <c r="J191" s="26"/>
+      <c r="K191" s="26"/>
+      <c r="L191" s="26"/>
+      <c r="M191" s="26"/>
+      <c r="N191" s="26"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="B1">
     <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -9097,382 +9034,382 @@
       <formula>AND($A115="end repeat", $B115 = "", $C115 = "", $D115 = "", $E115 = "", $F115 = "", $G115 = "", $H115 = "", $I115 = "", $J115 = "", $K115 = "", $L115 = "", $M115 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A160">
+  <conditionalFormatting sqref="A158">
     <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I162">
+  <conditionalFormatting sqref="I160">
     <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($I162 = "", $A162 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C162">
+      <formula>AND($I160 = "", $A160 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C160">
     <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A162 = "end group"), NOT($A162 = "end repeat"), NOT($A162 = "")), $C162 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B162">
+      <formula>AND(AND(NOT($A160 = "end group"), NOT($A160 = "end repeat"), NOT($A160 = "")), $C160 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B160">
     <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A162 = "end group"), NOT($A162 = "end repeat"), NOT($A162 = "")), $B162 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A162">
+      <formula>AND(AND(NOT($A160 = "end group"), NOT($A160 = "end repeat"), NOT($A160 = "")), $B160 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A160">
     <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H162">
+  <conditionalFormatting sqref="H160">
     <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(NOT($G162 = ""), $H162 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I163">
+      <formula>AND(NOT($G160 = ""), $H160 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I161">
     <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($I163 = "", $A163 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C163">
+      <formula>AND($I161 = "", $A161 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C161">
     <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A163 = "end group"), NOT($A163 = "end repeat"), NOT($A163 = "")), $C163 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163">
+      <formula>AND(AND(NOT($A161 = "end group"), NOT($A161 = "end repeat"), NOT($A161 = "")), $C161 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B161">
     <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A163 = "end group"), NOT($A163 = "end repeat"), NOT($A163 = "")), $B163 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A163">
+      <formula>AND(AND(NOT($A161 = "end group"), NOT($A161 = "end repeat"), NOT($A161 = "")), $B161 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A161">
     <cfRule type="cellIs" priority="34" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H163">
+  <conditionalFormatting sqref="H161">
     <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(NOT($G163 = ""), $H163 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I165">
+      <formula>AND(NOT($G161 = ""), $H161 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I163">
     <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($I165 = "", $A165 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C165">
+      <formula>AND($I163 = "", $A163 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C163">
     <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A165 = "end group"), NOT($A165 = "end repeat"), NOT($A165 = "")), $C165 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B165">
+      <formula>AND(AND(NOT($A163 = "end group"), NOT($A163 = "end repeat"), NOT($A163 = "")), $C163 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B163">
     <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A165 = "end group"), NOT($A165 = "end repeat"), NOT($A165 = "")), $B165 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A165">
+      <formula>AND(AND(NOT($A163 = "end group"), NOT($A163 = "end repeat"), NOT($A163 = "")), $B163 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A163">
     <cfRule type="cellIs" priority="39" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B165">
+  <conditionalFormatting sqref="B163">
     <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>COUNTIF($B$2:$B$1134,B165)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H165">
+      <formula>COUNTIF($B$2:$B$1132,B163)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H163">
     <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(NOT($G165 = ""), $H165 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I166">
+      <formula>AND(NOT($G163 = ""), $H163 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I164">
     <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($I166 = "", $A166 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C166">
+      <formula>AND($I164 = "", $A164 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C164">
     <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A166 = "end group"), NOT($A166 = "end repeat"), NOT($A166 = "")), $C166 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B166">
+      <formula>AND(AND(NOT($A164 = "end group"), NOT($A164 = "end repeat"), NOT($A164 = "")), $C164 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B164">
     <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A166 = "end group"), NOT($A166 = "end repeat"), NOT($A166 = "")), $B166 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166">
+      <formula>AND(AND(NOT($A164 = "end group"), NOT($A164 = "end repeat"), NOT($A164 = "")), $B164 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A164">
     <cfRule type="cellIs" priority="45" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B166">
+  <conditionalFormatting sqref="B164">
     <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>COUNTIF($B$2:$B$1133,B166)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H166">
+      <formula>COUNTIF($B$2:$B$1131,B164)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H164">
     <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(NOT($G166 = ""), $H166 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I167">
+      <formula>AND(NOT($G164 = ""), $H164 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I165">
     <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($I167 = "", $A167 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167">
+      <formula>AND($I165 = "", $A165 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C165">
     <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A167 = "end group"), NOT($A167 = "end repeat"), NOT($A167 = "")), $C167 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B167">
+      <formula>AND(AND(NOT($A165 = "end group"), NOT($A165 = "end repeat"), NOT($A165 = "")), $C165 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B165">
     <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A167 = "end group"), NOT($A167 = "end repeat"), NOT($A167 = "")), $B167 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A167">
+      <formula>AND(AND(NOT($A165 = "end group"), NOT($A165 = "end repeat"), NOT($A165 = "")), $B165 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A165">
     <cfRule type="cellIs" priority="51" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H167">
+  <conditionalFormatting sqref="H165">
     <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(NOT($G167 = ""), $H167 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I169">
+      <formula>AND(NOT($G165 = ""), $H165 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I167">
     <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($I169 = "", $A169 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C169">
+      <formula>AND($I167 = "", $A167 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167">
     <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A169 = "end group"), NOT($A169 = "end repeat"), NOT($A169 = "")), $C169 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B169">
+      <formula>AND(AND(NOT($A167 = "end group"), NOT($A167 = "end repeat"), NOT($A167 = "")), $C167 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167">
     <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A169 = "end group"), NOT($A169 = "end repeat"), NOT($A169 = "")), $B169 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A169">
+      <formula>AND(AND(NOT($A167 = "end group"), NOT($A167 = "end repeat"), NOT($A167 = "")), $B167 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A167">
     <cfRule type="cellIs" priority="56" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H169">
+  <conditionalFormatting sqref="H167">
     <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(NOT($G169 = ""), $H169 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I170">
+      <formula>AND(NOT($G167 = ""), $H167 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I168">
     <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($I170 = "", $A170 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C170">
+      <formula>AND($I168 = "", $A168 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C168">
     <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A170 = "end group"), NOT($A170 = "end repeat"), NOT($A170 = "")), $C170 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B170">
+      <formula>AND(AND(NOT($A168 = "end group"), NOT($A168 = "end repeat"), NOT($A168 = "")), $C168 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B168">
     <cfRule type="expression" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A170 = "end group"), NOT($A170 = "end repeat"), NOT($A170 = "")), $B170 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A170">
+      <formula>AND(AND(NOT($A168 = "end group"), NOT($A168 = "end repeat"), NOT($A168 = "")), $B168 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A168">
     <cfRule type="cellIs" priority="61" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B170">
+  <conditionalFormatting sqref="B168">
     <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>COUNTIF($B$2:$B$1130,B170)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H170">
+      <formula>COUNTIF($B$2:$B$1128,B168)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H168">
     <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(NOT($G170 = ""), $H170 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I171">
+      <formula>AND(NOT($G168 = ""), $H168 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I169">
     <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($I171 = "", $A171 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C171">
+      <formula>AND($I169 = "", $A169 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C169">
     <cfRule type="expression" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A171 = "end group"), NOT($A171 = "end repeat"), NOT($A171 = "")), $C171 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B171">
+      <formula>AND(AND(NOT($A169 = "end group"), NOT($A169 = "end repeat"), NOT($A169 = "")), $C169 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B169">
     <cfRule type="expression" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A171 = "end group"), NOT($A171 = "end repeat"), NOT($A171 = "")), $B171 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A171">
+      <formula>AND(AND(NOT($A169 = "end group"), NOT($A169 = "end repeat"), NOT($A169 = "")), $B169 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A169">
     <cfRule type="cellIs" priority="67" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H171">
+  <conditionalFormatting sqref="H169">
     <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(NOT($G171 = ""), $H171 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I176">
+      <formula>AND(NOT($G169 = ""), $H169 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I174">
     <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($I176 = "", $A176 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C176">
+      <formula>AND($I174 = "", $A174 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C174">
     <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A176 = "end group"), NOT($A176 = "end repeat"), NOT($A176 = "")), $C176 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B176">
+      <formula>AND(AND(NOT($A174 = "end group"), NOT($A174 = "end repeat"), NOT($A174 = "")), $C174 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B174">
     <cfRule type="expression" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A176 = "end group"), NOT($A176 = "end repeat"), NOT($A176 = "")), $B176 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A176">
+      <formula>AND(AND(NOT($A174 = "end group"), NOT($A174 = "end repeat"), NOT($A174 = "")), $B174 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A174">
     <cfRule type="cellIs" priority="72" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H176">
+  <conditionalFormatting sqref="H174">
     <cfRule type="expression" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(NOT($G176 = ""), $H176 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A190">
+      <formula>AND(NOT($G174 = ""), $H174 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A188">
     <cfRule type="containsText" priority="74" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A190">
+  <conditionalFormatting sqref="A188">
     <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A190="begin group", NOT($B190 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A190">
+      <formula>AND($A188="begin group", NOT($B188 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A188">
     <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A190="end group", $B190 = "", $C190 = "", $D190 = "", $E190 = "", $F190 = "", $G190 = "", $H190 = "", $I190 = "", $J190 = "", $K190 = "", $L190 = "", $M190 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A190">
+      <formula>AND($A188="end group", $B188 = "", $C188 = "", $D188 = "", $E188 = "", $F188 = "", $G188 = "", $H188 = "", $I188 = "", $J188 = "", $K188 = "", $L188 = "", $M188 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A188">
     <cfRule type="cellIs" priority="77" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A190">
+  <conditionalFormatting sqref="A188">
     <cfRule type="cellIs" priority="78" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A190">
+  <conditionalFormatting sqref="A188">
     <cfRule type="expression" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A190="begin repeat", NOT($B190 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A190">
+      <formula>AND($A188="begin repeat", NOT($B188 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A188">
     <cfRule type="expression" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A190="end repeat", $B190 = "", $C190 = "", $D190 = "", $E190 = "", $F190 = "", $G190 = "", $H190 = "", $I190 = "", $J190 = "", $K190 = "", $L190 = "", $M190 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I173:I175">
+      <formula>AND($A188="end repeat", $B188 = "", $C188 = "", $D188 = "", $E188 = "", $F188 = "", $G188 = "", $H188 = "", $I188 = "", $J188 = "", $K188 = "", $L188 = "", $M188 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I171:I173">
     <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($I173 = "", $A173 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C174:C175">
+      <formula>AND($I171 = "", $A171 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C172:C173">
     <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A174 = "end group"), NOT($A174 = "end repeat"), NOT($A174 = "")), $C174 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B174:B175">
+      <formula>AND(AND(NOT($A172 = "end group"), NOT($A172 = "end repeat"), NOT($A172 = "")), $C172 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B172:B173">
     <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A174 = "end group"), NOT($A174 = "end repeat"), NOT($A174 = "")), $B174 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A173:A175">
+      <formula>AND(AND(NOT($A172 = "end group"), NOT($A172 = "end repeat"), NOT($A172 = "")), $B172 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A171:A173">
     <cfRule type="cellIs" priority="84" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H173:H175">
+  <conditionalFormatting sqref="H171:H173">
     <cfRule type="expression" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(NOT($G173 = ""), $H173 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I172">
+      <formula>AND(NOT($G171 = ""), $H171 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I170">
     <cfRule type="expression" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($I172 = "", $A172 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C172">
+      <formula>AND($I170 = "", $A170 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C170">
     <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A172 = "end group"), NOT($A172 = "end repeat"), NOT($A172 = "")), $C172 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B172">
+      <formula>AND(AND(NOT($A170 = "end group"), NOT($A170 = "end repeat"), NOT($A170 = "")), $C170 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B170">
     <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A172 = "end group"), NOT($A172 = "end repeat"), NOT($A172 = "")), $B172 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A172">
+      <formula>AND(AND(NOT($A170 = "end group"), NOT($A170 = "end repeat"), NOT($A170 = "")), $B170 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A170">
     <cfRule type="cellIs" priority="89" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H172">
+  <conditionalFormatting sqref="H170">
     <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(NOT($G172 = ""), $H172 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I164">
+      <formula>AND(NOT($G170 = ""), $H170 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I162">
     <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($I164 = "", $A164 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C164">
+      <formula>AND($I162 = "", $A162 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C162">
     <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A164 = "end group"), NOT($A164 = "end repeat"), NOT($A164 = "")), $C164 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B164">
+      <formula>AND(AND(NOT($A162 = "end group"), NOT($A162 = "end repeat"), NOT($A162 = "")), $C162 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B162">
     <cfRule type="expression" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A164 = "end group"), NOT($A164 = "end repeat"), NOT($A164 = "")), $B164 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A164">
+      <formula>AND(AND(NOT($A162 = "end group"), NOT($A162 = "end repeat"), NOT($A162 = "")), $B162 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162">
     <cfRule type="cellIs" priority="94" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H164">
+  <conditionalFormatting sqref="H162">
     <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(NOT($G164 = ""), $H164 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I168">
+      <formula>AND(NOT($G162 = ""), $H162 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I166">
     <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($I168 = "", $A168 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C168">
+      <formula>AND($I166 = "", $A166 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C166">
     <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A168 = "end group"), NOT($A168 = "end repeat"), NOT($A168 = "")), $C168 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B168">
+      <formula>AND(AND(NOT($A166 = "end group"), NOT($A166 = "end repeat"), NOT($A166 = "")), $C166 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B166">
     <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A168 = "end group"), NOT($A168 = "end repeat"), NOT($A168 = "")), $B168 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A168">
+      <formula>AND(AND(NOT($A166 = "end group"), NOT($A166 = "end repeat"), NOT($A166 = "")), $B166 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166">
     <cfRule type="cellIs" priority="99" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H168">
+  <conditionalFormatting sqref="H166">
     <cfRule type="expression" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(NOT($G168 = ""), $H168 = "")</formula>
+      <formula>AND(NOT($G166 = ""), $H166 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
@@ -9940,32 +9877,32 @@
       <formula>AND($A118="end repeat", $B118 = "", $C118 = "", $D118 = "", $E118 = "", $F118 = "", $G118 = "", $H118 = "", $I118 = "", $J118 = "", $K118 = "", $L118 = "", $M118 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
+  <conditionalFormatting sqref="E126">
     <cfRule type="containsText" priority="198" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
+  <conditionalFormatting sqref="E126">
     <cfRule type="expression" priority="199" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A128="begin group", NOT($B128 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
+      <formula>AND($A126="begin group", NOT($B126 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E126">
     <cfRule type="expression" priority="200" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A128="end group", $B128 = "", $C128 = "", $D128 = "", $E128 = "", $F128 = "", $G128 = "", $H128 = "", $I128 = "", $J128 = "", $K128 = "", $L128 = "", $M128 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
+      <formula>AND($A126="end group", $B126 = "", $C126 = "", $D126 = "", $E126 = "", $F126 = "", $G126 = "", $H126 = "", $I126 = "", $J126 = "", $K126 = "", $L126 = "", $M126 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E126">
     <cfRule type="cellIs" priority="201" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
+  <conditionalFormatting sqref="E126">
     <cfRule type="expression" priority="202" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A128="begin repeat", NOT($B128 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
+      <formula>AND($A126="begin repeat", NOT($B126 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E126">
     <cfRule type="expression" priority="203" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A128="end repeat", $B128 = "", $C128 = "", $D128 = "", $E128 = "", $F128 = "", $G128 = "", $H128 = "", $I128 = "", $J128 = "", $K128 = "", $L128 = "", $M128 = "")</formula>
+      <formula>AND($A126="end repeat", $B126 = "", $C126 = "", $D126 = "", $E126 = "", $F126 = "", $G126 = "", $H126 = "", $I126 = "", $J126 = "", $K126 = "", $L126 = "", $M126 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
@@ -10003,348 +9940,348 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B100">
     <cfRule type="expression" priority="211" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>COUNTIF($B$2:$B$1122,B99)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1120,B99)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111:B112">
     <cfRule type="expression" priority="212" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>COUNTIF($B$2:$B$1113,B111)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E149:E160">
+      <formula>COUNTIF($B$2:$B$1111,B111)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E147:E158">
     <cfRule type="containsText" priority="213" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E149:E160">
+  <conditionalFormatting sqref="E147:E158">
     <cfRule type="expression" priority="214" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A149="begin group", NOT($B149 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E149:E160">
+      <formula>AND($A147="begin group", NOT($B147 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E147:E158">
     <cfRule type="expression" priority="215" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A149="end group", $B149 = "", $C149 = "", $D149 = "", $E149 = "", $F149 = "", $G149 = "", $H149 = "", $I149 = "", $J149 = "", $K149 = "", $L149 = "", $M149 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E149:E160">
+      <formula>AND($A147="end group", $B147 = "", $C147 = "", $D147 = "", $E147 = "", $F147 = "", $G147 = "", $H147 = "", $I147 = "", $J147 = "", $K147 = "", $L147 = "", $M147 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E147:E158">
     <cfRule type="cellIs" priority="216" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E149:E160">
+  <conditionalFormatting sqref="E147:E158">
     <cfRule type="expression" priority="217" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A149="begin repeat", NOT($B149 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E149:E160">
+      <formula>AND($A147="begin repeat", NOT($B147 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E147:E158">
     <cfRule type="expression" priority="218" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A149="end repeat", $B149 = "", $C149 = "", $D149 = "", $E149 = "", $F149 = "", $G149 = "", $H149 = "", $I149 = "", $J149 = "", $K149 = "", $L149 = "", $M149 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E162">
+      <formula>AND($A147="end repeat", $B147 = "", $C147 = "", $D147 = "", $E147 = "", $F147 = "", $G147 = "", $H147 = "", $I147 = "", $J147 = "", $K147 = "", $L147 = "", $M147 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
     <cfRule type="containsText" priority="219" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E162">
+  <conditionalFormatting sqref="E160">
     <cfRule type="expression" priority="220" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A162="begin group", NOT($B162 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E162">
+      <formula>AND($A160="begin group", NOT($B160 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
     <cfRule type="expression" priority="221" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A162="end group", $B162 = "", $C162 = "", $D162 = "", $E162 = "", $F162 = "", $G162 = "", $H162 = "", $I162 = "", $J162 = "", $K162 = "", $L162 = "", $M162 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E162">
+      <formula>AND($A160="end group", $B160 = "", $C160 = "", $D160 = "", $E160 = "", $F160 = "", $G160 = "", $H160 = "", $I160 = "", $J160 = "", $K160 = "", $L160 = "", $M160 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
     <cfRule type="cellIs" priority="222" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E162">
+  <conditionalFormatting sqref="E160">
     <cfRule type="expression" priority="223" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A162="begin repeat", NOT($B162 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E162">
+      <formula>AND($A160="begin repeat", NOT($B160 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
     <cfRule type="expression" priority="224" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A162="end repeat", $B162 = "", $C162 = "", $D162 = "", $E162 = "", $F162 = "", $G162 = "", $H162 = "", $I162 = "", $J162 = "", $K162 = "", $L162 = "", $M162 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E163">
+      <formula>AND($A160="end repeat", $B160 = "", $C160 = "", $D160 = "", $E160 = "", $F160 = "", $G160 = "", $H160 = "", $I160 = "", $J160 = "", $K160 = "", $L160 = "", $M160 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E161">
     <cfRule type="containsText" priority="225" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E163">
+  <conditionalFormatting sqref="E161">
     <cfRule type="expression" priority="226" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A163="begin group", NOT($B163 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E163">
+      <formula>AND($A161="begin group", NOT($B161 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E161">
     <cfRule type="expression" priority="227" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A163="end group", $B163 = "", $C163 = "", $D163 = "", $E163 = "", $F163 = "", $G163 = "", $H163 = "", $I163 = "", $J163 = "", $K163 = "", $L163 = "", $M163 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E163">
+      <formula>AND($A161="end group", $B161 = "", $C161 = "", $D161 = "", $E161 = "", $F161 = "", $G161 = "", $H161 = "", $I161 = "", $J161 = "", $K161 = "", $L161 = "", $M161 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E161">
     <cfRule type="cellIs" priority="228" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E163">
+  <conditionalFormatting sqref="E161">
     <cfRule type="expression" priority="229" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A163="begin repeat", NOT($B163 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E163">
+      <formula>AND($A161="begin repeat", NOT($B161 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E161">
     <cfRule type="expression" priority="230" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A163="end repeat", $B163 = "", $C163 = "", $D163 = "", $E163 = "", $F163 = "", $G163 = "", $H163 = "", $I163 = "", $J163 = "", $K163 = "", $L163 = "", $M163 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E169">
+      <formula>AND($A161="end repeat", $B161 = "", $C161 = "", $D161 = "", $E161 = "", $F161 = "", $G161 = "", $H161 = "", $I161 = "", $J161 = "", $K161 = "", $L161 = "", $M161 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E167">
     <cfRule type="containsText" priority="231" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E169">
+  <conditionalFormatting sqref="E167">
     <cfRule type="expression" priority="232" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A169="begin group", NOT($B169 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E169">
+      <formula>AND($A167="begin group", NOT($B167 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E167">
     <cfRule type="expression" priority="233" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A169="end group", $B169 = "", $C169 = "", $D169 = "", $E169 = "", $F169 = "", $G169 = "", $H169 = "", $I169 = "", $J169 = "", $K169 = "", $L169 = "", $M169 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E169">
+      <formula>AND($A167="end group", $B167 = "", $C167 = "", $D167 = "", $E167 = "", $F167 = "", $G167 = "", $H167 = "", $I167 = "", $J167 = "", $K167 = "", $L167 = "", $M167 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E167">
     <cfRule type="cellIs" priority="234" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E169">
+  <conditionalFormatting sqref="E167">
     <cfRule type="expression" priority="235" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A169="begin repeat", NOT($B169 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E169">
+      <formula>AND($A167="begin repeat", NOT($B167 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E167">
     <cfRule type="expression" priority="236" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A169="end repeat", $B169 = "", $C169 = "", $D169 = "", $E169 = "", $F169 = "", $G169 = "", $H169 = "", $I169 = "", $J169 = "", $K169 = "", $L169 = "", $M169 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E170">
+      <formula>AND($A167="end repeat", $B167 = "", $C167 = "", $D167 = "", $E167 = "", $F167 = "", $G167 = "", $H167 = "", $I167 = "", $J167 = "", $K167 = "", $L167 = "", $M167 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E168">
     <cfRule type="containsText" priority="237" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E170">
+  <conditionalFormatting sqref="E168">
     <cfRule type="expression" priority="238" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A170="begin group", NOT($B170 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E170">
+      <formula>AND($A168="begin group", NOT($B168 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E168">
     <cfRule type="expression" priority="239" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A170="end group", $B170 = "", $C170 = "", $D170 = "", $E170 = "", $F170 = "", $G170 = "", $H170 = "", $I170 = "", $J170 = "", $K170 = "", $L170 = "", $M170 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E170">
+      <formula>AND($A168="end group", $B168 = "", $C168 = "", $D168 = "", $E168 = "", $F168 = "", $G168 = "", $H168 = "", $I168 = "", $J168 = "", $K168 = "", $L168 = "", $M168 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E168">
     <cfRule type="cellIs" priority="240" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E170">
+  <conditionalFormatting sqref="E168">
     <cfRule type="expression" priority="241" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A170="begin repeat", NOT($B170 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E170">
+      <formula>AND($A168="begin repeat", NOT($B168 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E168">
     <cfRule type="expression" priority="242" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A170="end repeat", $B170 = "", $C170 = "", $D170 = "", $E170 = "", $F170 = "", $G170 = "", $H170 = "", $I170 = "", $J170 = "", $K170 = "", $L170 = "", $M170 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E171">
+      <formula>AND($A168="end repeat", $B168 = "", $C168 = "", $D168 = "", $E168 = "", $F168 = "", $G168 = "", $H168 = "", $I168 = "", $J168 = "", $K168 = "", $L168 = "", $M168 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E169">
     <cfRule type="containsText" priority="243" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E171">
+  <conditionalFormatting sqref="E169">
     <cfRule type="expression" priority="244" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A171="begin group", NOT($B171 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E171">
+      <formula>AND($A169="begin group", NOT($B169 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E169">
     <cfRule type="expression" priority="245" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A171="end group", $B171 = "", $C171 = "", $D171 = "", $E171 = "", $F171 = "", $G171 = "", $H171 = "", $I171 = "", $J171 = "", $K171 = "", $L171 = "", $M171 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E171">
+      <formula>AND($A169="end group", $B169 = "", $C169 = "", $D169 = "", $E169 = "", $F169 = "", $G169 = "", $H169 = "", $I169 = "", $J169 = "", $K169 = "", $L169 = "", $M169 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E169">
     <cfRule type="cellIs" priority="246" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E171">
+  <conditionalFormatting sqref="E169">
     <cfRule type="expression" priority="247" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A171="begin repeat", NOT($B171 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E171">
+      <formula>AND($A169="begin repeat", NOT($B169 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E169">
     <cfRule type="expression" priority="248" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A171="end repeat", $B171 = "", $C171 = "", $D171 = "", $E171 = "", $F171 = "", $G171 = "", $H171 = "", $I171 = "", $J171 = "", $K171 = "", $L171 = "", $M171 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E176">
+      <formula>AND($A169="end repeat", $B169 = "", $C169 = "", $D169 = "", $E169 = "", $F169 = "", $G169 = "", $H169 = "", $I169 = "", $J169 = "", $K169 = "", $L169 = "", $M169 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E174">
     <cfRule type="containsText" priority="249" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E176">
+  <conditionalFormatting sqref="E174">
     <cfRule type="expression" priority="250" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A176="begin group", NOT($B176 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E176">
+      <formula>AND($A174="begin group", NOT($B174 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E174">
     <cfRule type="expression" priority="251" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A176="end group", $B176 = "", $C176 = "", $D176 = "", $E176 = "", $F176 = "", $G176 = "", $H176 = "", $I176 = "", $J176 = "", $K176 = "", $L176 = "", $M176 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E176">
+      <formula>AND($A174="end group", $B174 = "", $C174 = "", $D174 = "", $E174 = "", $F174 = "", $G174 = "", $H174 = "", $I174 = "", $J174 = "", $K174 = "", $L174 = "", $M174 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E174">
     <cfRule type="cellIs" priority="252" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E176">
+  <conditionalFormatting sqref="E174">
     <cfRule type="expression" priority="253" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A176="begin repeat", NOT($B176 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E176">
+      <formula>AND($A174="begin repeat", NOT($B174 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E174">
     <cfRule type="expression" priority="254" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A176="end repeat", $B176 = "", $C176 = "", $D176 = "", $E176 = "", $F176 = "", $G176 = "", $H176 = "", $I176 = "", $J176 = "", $K176 = "", $L176 = "", $M176 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172">
+      <formula>AND($A174="end repeat", $B174 = "", $C174 = "", $D174 = "", $E174 = "", $F174 = "", $G174 = "", $H174 = "", $I174 = "", $J174 = "", $K174 = "", $L174 = "", $M174 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E170">
     <cfRule type="containsText" priority="255" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E172">
+  <conditionalFormatting sqref="E170">
     <cfRule type="expression" priority="256" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A172="begin group", NOT($B172 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172">
+      <formula>AND($A170="begin group", NOT($B170 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E170">
     <cfRule type="expression" priority="257" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A172="end group", $B172 = "", $C172 = "", $D172 = "", $E172 = "", $F172 = "", $G172 = "", $H172 = "", $I172 = "", $J172 = "", $K172 = "", $L172 = "", $M172 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172">
+      <formula>AND($A170="end group", $B170 = "", $C170 = "", $D170 = "", $E170 = "", $F170 = "", $G170 = "", $H170 = "", $I170 = "", $J170 = "", $K170 = "", $L170 = "", $M170 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E170">
     <cfRule type="cellIs" priority="258" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E172">
+  <conditionalFormatting sqref="E170">
     <cfRule type="expression" priority="259" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A172="begin repeat", NOT($B172 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172">
+      <formula>AND($A170="begin repeat", NOT($B170 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E170">
     <cfRule type="expression" priority="260" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A172="end repeat", $B172 = "", $C172 = "", $D172 = "", $E172 = "", $F172 = "", $G172 = "", $H172 = "", $I172 = "", $J172 = "", $K172 = "", $L172 = "", $M172 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
+      <formula>AND($A170="end repeat", $B170 = "", $C170 = "", $D170 = "", $E170 = "", $F170 = "", $G170 = "", $H170 = "", $I170 = "", $J170 = "", $K170 = "", $L170 = "", $M170 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E162">
     <cfRule type="containsText" priority="261" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
+  <conditionalFormatting sqref="E162">
     <cfRule type="expression" priority="262" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A164="begin group", NOT($B164 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
+      <formula>AND($A162="begin group", NOT($B162 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E162">
     <cfRule type="expression" priority="263" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A164="end group", $B164 = "", $C164 = "", $D164 = "", $E164 = "", $F164 = "", $G164 = "", $H164 = "", $I164 = "", $J164 = "", $K164 = "", $L164 = "", $M164 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
+      <formula>AND($A162="end group", $B162 = "", $C162 = "", $D162 = "", $E162 = "", $F162 = "", $G162 = "", $H162 = "", $I162 = "", $J162 = "", $K162 = "", $L162 = "", $M162 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E162">
     <cfRule type="cellIs" priority="264" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
+  <conditionalFormatting sqref="E162">
     <cfRule type="expression" priority="265" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A164="begin repeat", NOT($B164 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
+      <formula>AND($A162="begin repeat", NOT($B162 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E162">
     <cfRule type="expression" priority="266" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A164="end repeat", $B164 = "", $C164 = "", $D164 = "", $E164 = "", $F164 = "", $G164 = "", $H164 = "", $I164 = "", $J164 = "", $K164 = "", $L164 = "", $M164 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
+      <formula>AND($A162="end repeat", $B162 = "", $C162 = "", $D162 = "", $E162 = "", $F162 = "", $G162 = "", $H162 = "", $I162 = "", $J162 = "", $K162 = "", $L162 = "", $M162 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E162">
     <cfRule type="containsText" priority="267" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
+  <conditionalFormatting sqref="E162">
     <cfRule type="expression" priority="268" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A164="begin group", NOT($B164 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
+      <formula>AND($A162="begin group", NOT($B162 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E162">
     <cfRule type="expression" priority="269" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A164="end group", $B164 = "", $C164 = "", $D164 = "", $E164 = "", $F164 = "", $G164 = "", $H164 = "", $I164 = "", $J164 = "", $K164 = "", $L164 = "", $M164 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
+      <formula>AND($A162="end group", $B162 = "", $C162 = "", $D162 = "", $E162 = "", $F162 = "", $G162 = "", $H162 = "", $I162 = "", $J162 = "", $K162 = "", $L162 = "", $M162 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E162">
     <cfRule type="cellIs" priority="270" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
+  <conditionalFormatting sqref="E162">
     <cfRule type="expression" priority="271" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A164="begin repeat", NOT($B164 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
+      <formula>AND($A162="begin repeat", NOT($B162 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E162">
     <cfRule type="expression" priority="272" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A164="end repeat", $B164 = "", $C164 = "", $D164 = "", $E164 = "", $F164 = "", $G164 = "", $H164 = "", $I164 = "", $J164 = "", $K164 = "", $L164 = "", $M164 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E168">
+      <formula>AND($A162="end repeat", $B162 = "", $C162 = "", $D162 = "", $E162 = "", $F162 = "", $G162 = "", $H162 = "", $I162 = "", $J162 = "", $K162 = "", $L162 = "", $M162 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E166">
     <cfRule type="containsText" priority="273" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E168">
+  <conditionalFormatting sqref="E166">
     <cfRule type="expression" priority="274" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A168="begin group", NOT($B168 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E168">
+      <formula>AND($A166="begin group", NOT($B166 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E166">
     <cfRule type="expression" priority="275" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A168="end group", $B168 = "", $C168 = "", $D168 = "", $E168 = "", $F168 = "", $G168 = "", $H168 = "", $I168 = "", $J168 = "", $K168 = "", $L168 = "", $M168 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E168">
+      <formula>AND($A166="end group", $B166 = "", $C166 = "", $D166 = "", $E166 = "", $F166 = "", $G166 = "", $H166 = "", $I166 = "", $J166 = "", $K166 = "", $L166 = "", $M166 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E166">
     <cfRule type="cellIs" priority="276" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E168">
+  <conditionalFormatting sqref="E166">
     <cfRule type="expression" priority="277" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A168="begin repeat", NOT($B168 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E168">
+      <formula>AND($A166="begin repeat", NOT($B166 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E166">
     <cfRule type="expression" priority="278" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A168="end repeat", $B168 = "", $C168 = "", $D168 = "", $E168 = "", $F168 = "", $G168 = "", $H168 = "", $I168 = "", $J168 = "", $K168 = "", $L168 = "", $M168 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E168">
+      <formula>AND($A166="end repeat", $B166 = "", $C166 = "", $D166 = "", $E166 = "", $F166 = "", $G166 = "", $H166 = "", $I166 = "", $J166 = "", $K166 = "", $L166 = "", $M166 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E166">
     <cfRule type="containsText" priority="279" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E168">
+  <conditionalFormatting sqref="E166">
     <cfRule type="expression" priority="280" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A168="begin group", NOT($B168 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E168">
+      <formula>AND($A166="begin group", NOT($B166 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E166">
     <cfRule type="expression" priority="281" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A168="end group", $B168 = "", $C168 = "", $D168 = "", $E168 = "", $F168 = "", $G168 = "", $H168 = "", $I168 = "", $J168 = "", $K168 = "", $L168 = "", $M168 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E168">
+      <formula>AND($A166="end group", $B166 = "", $C166 = "", $D166 = "", $E166 = "", $F166 = "", $G166 = "", $H166 = "", $I166 = "", $J166 = "", $K166 = "", $L166 = "", $M166 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E166">
     <cfRule type="cellIs" priority="282" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E168">
+  <conditionalFormatting sqref="E166">
     <cfRule type="expression" priority="283" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A168="begin repeat", NOT($B168 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E168">
+      <formula>AND($A166="begin repeat", NOT($B166 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E166">
     <cfRule type="expression" priority="284" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A168="end repeat", $B168 = "", $C168 = "", $D168 = "", $E168 = "", $F168 = "", $G168 = "", $H168 = "", $I168 = "", $J168 = "", $K168 = "", $L168 = "", $M168 = "")</formula>
+      <formula>AND($A166="end repeat", $B166 = "", $C166 = "", $D166 = "", $E166 = "", $F166 = "", $G166 = "", $H166 = "", $I166 = "", $J166 = "", $K166 = "", $L166 = "", $M166 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61:I62">
@@ -10480,7 +10417,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
     <cfRule type="expression" priority="312" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>COUNTIF($B$2:$B$1033,B93)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1031,B93)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
@@ -10538,7 +10475,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
     <cfRule type="expression" priority="324" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>COUNTIF($B$2:$B$1031,B97)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1029,B97)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
@@ -11000,7 +10937,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B114:B115">
     <cfRule type="expression" priority="422" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>COUNTIF($B$2:$B$1120,B114)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1118,B114)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114">
@@ -11170,88 +11107,88 @@
       <formula>AND($A101="end repeat", $B101 = "", $C101 = "", $D101 = "", $E101 = "", $F101 = "", $G101 = "", $H101 = "", $I101 = "", $J101 = "", $K101 = "", $L101 = "", $M101 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E165">
+  <conditionalFormatting sqref="E163">
     <cfRule type="containsText" priority="458" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E165">
+  <conditionalFormatting sqref="E163">
     <cfRule type="expression" priority="459" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A165="begin group", NOT($B165 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E165">
+      <formula>AND($A163="begin group", NOT($B163 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E163">
     <cfRule type="expression" priority="460" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A165="end group", $B165 = "", $C165 = "", $D165 = "", $E165 = "", $F165 = "", $G165 = "", $H165 = "", $I165 = "", $J165 = "", $K165 = "", $L165 = "", $M165 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E165">
+      <formula>AND($A163="end group", $B163 = "", $C163 = "", $D163 = "", $E163 = "", $F163 = "", $G163 = "", $H163 = "", $I163 = "", $J163 = "", $K163 = "", $L163 = "", $M163 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E163">
     <cfRule type="cellIs" priority="461" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E165">
+  <conditionalFormatting sqref="E163">
     <cfRule type="expression" priority="462" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A165="begin repeat", NOT($B165 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E165">
+      <formula>AND($A163="begin repeat", NOT($B163 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E163">
     <cfRule type="expression" priority="463" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A165="end repeat", $B165 = "", $C165 = "", $D165 = "", $E165 = "", $F165 = "", $G165 = "", $H165 = "", $I165 = "", $J165 = "", $K165 = "", $L165 = "", $M165 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E166">
+      <formula>AND($A163="end repeat", $B163 = "", $C163 = "", $D163 = "", $E163 = "", $F163 = "", $G163 = "", $H163 = "", $I163 = "", $J163 = "", $K163 = "", $L163 = "", $M163 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E164">
     <cfRule type="containsText" priority="464" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E166">
+  <conditionalFormatting sqref="E164">
     <cfRule type="expression" priority="465" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A166="begin group", NOT($B166 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E166">
+      <formula>AND($A164="begin group", NOT($B164 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E164">
     <cfRule type="expression" priority="466" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A166="end group", $B166 = "", $C166 = "", $D166 = "", $E166 = "", $F166 = "", $G166 = "", $H166 = "", $I166 = "", $J166 = "", $K166 = "", $L166 = "", $M166 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E166">
+      <formula>AND($A164="end group", $B164 = "", $C164 = "", $D164 = "", $E164 = "", $F164 = "", $G164 = "", $H164 = "", $I164 = "", $J164 = "", $K164 = "", $L164 = "", $M164 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E164">
     <cfRule type="cellIs" priority="467" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E166">
+  <conditionalFormatting sqref="E164">
     <cfRule type="expression" priority="468" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A166="begin repeat", NOT($B166 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E166">
+      <formula>AND($A164="begin repeat", NOT($B164 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E164">
     <cfRule type="expression" priority="469" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A166="end repeat", $B166 = "", $C166 = "", $D166 = "", $E166 = "", $F166 = "", $G166 = "", $H166 = "", $I166 = "", $J166 = "", $K166 = "", $L166 = "", $M166 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E167">
+      <formula>AND($A164="end repeat", $B164 = "", $C164 = "", $D164 = "", $E164 = "", $F164 = "", $G164 = "", $H164 = "", $I164 = "", $J164 = "", $K164 = "", $L164 = "", $M164 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E165">
     <cfRule type="containsText" priority="470" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E167">
+  <conditionalFormatting sqref="E165">
     <cfRule type="expression" priority="471" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A167="begin group", NOT($B167 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E167">
+      <formula>AND($A165="begin group", NOT($B165 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E165">
     <cfRule type="expression" priority="472" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A167="end group", $B167 = "", $C167 = "", $D167 = "", $E167 = "", $F167 = "", $G167 = "", $H167 = "", $I167 = "", $J167 = "", $K167 = "", $L167 = "", $M167 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E167">
+      <formula>AND($A165="end group", $B165 = "", $C165 = "", $D165 = "", $E165 = "", $F165 = "", $G165 = "", $H165 = "", $I165 = "", $J165 = "", $K165 = "", $L165 = "", $M165 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E165">
     <cfRule type="cellIs" priority="473" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E167">
+  <conditionalFormatting sqref="E165">
     <cfRule type="expression" priority="474" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A167="begin repeat", NOT($B167 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E167">
+      <formula>AND($A165="begin repeat", NOT($B165 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E165">
     <cfRule type="expression" priority="475" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A167="end repeat", $B167 = "", $C167 = "", $D167 = "", $E167 = "", $F167 = "", $G167 = "", $H167 = "", $I167 = "", $J167 = "", $K167 = "", $L167 = "", $M167 = "")</formula>
+      <formula>AND($A165="end repeat", $B165 = "", $C165 = "", $D165 = "", $E165 = "", $F165 = "", $G165 = "", $H165 = "", $I165 = "", $J165 = "", $K165 = "", $L165 = "", $M165 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90:I91">
@@ -11420,7 +11357,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:B95">
     <cfRule type="expression" priority="510" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>COUNTIF($B$2:$B$1013,B94)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1011,B94)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:A95">
@@ -11428,52 +11365,52 @@
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I120:I126">
+  <conditionalFormatting sqref="I120:I124">
     <cfRule type="expression" priority="512" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($I120 = "", $A120 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C120:C126">
+      <formula>AND(#REF! = "", #REF! = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C120:C124">
     <cfRule type="expression" priority="513" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A120 = "end group"), NOT($A120 = "end repeat"), NOT($A120 = "")), $C120 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A120:A126">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A120:A124">
     <cfRule type="cellIs" priority="514" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H120:H126">
+  <conditionalFormatting sqref="H120:H124">
     <cfRule type="expression" priority="515" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(NOT($G120 = ""), $H120 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
+      <formula>AND(NOT(#REF! = ""), #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
     <cfRule type="containsText" priority="516" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
+  <conditionalFormatting sqref="E124">
     <cfRule type="expression" priority="517" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A125="begin group", NOT($B125 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
+      <formula>AND($A124="begin group", NOT($B124 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
     <cfRule type="expression" priority="518" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A125="end group", $B125 = "", $C125 = "", $D125 = "", $E125 = "", $F125 = "", $G125 = "", $H125 = "", $I125 = "", $J125 = "", $K125 = "", $L125 = "", $M125 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
+      <formula>AND($A124="end group", $B124 = "", $C124 = "", $D124 = "", $E124 = "", $F124 = "", $G124 = "", $H124 = "", $I124 = "", $J124 = "", $K124 = "", $L124 = "", $M124 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
     <cfRule type="cellIs" priority="519" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
+  <conditionalFormatting sqref="E124">
     <cfRule type="expression" priority="520" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A125="begin repeat", NOT($B125 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
+      <formula>AND($A124="begin repeat", NOT($B124 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
     <cfRule type="expression" priority="521" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A125="end repeat", $B125 = "", $C125 = "", $D125 = "", $E125 = "", $F125 = "", $G125 = "", $H125 = "", $I125 = "", $J125 = "", $K125 = "", $L125 = "", $M125 = "")</formula>
+      <formula>AND($A124="end repeat", $B124 = "", $C124 = "", $D124 = "", $E124 = "", $F124 = "", $G124 = "", $H124 = "", $I124 = "", $J124 = "", $K124 = "", $L124 = "", $M124 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56">
@@ -11597,7 +11534,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
     <cfRule type="expression" priority="547" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>COUNTIF($B$2:$B$995,#ref!)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$993,#ref!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:Y47">
@@ -11655,7 +11592,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
     <cfRule type="expression" priority="559" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>COUNTIF($B$2:$B$994,#ref!)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$992,#ref!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57">
@@ -12191,27 +12128,27 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B63">
     <cfRule type="expression" priority="671" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>COUNTIF($B$2:$B$1037,B61)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1035,B61)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
     <cfRule type="expression" priority="672" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>COUNTIF($B$2:$B$1035,B71)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1033,B71)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
     <cfRule type="expression" priority="673" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1138, "begin group") = COUNTIF($A$1:$A$1138, "end group"))</formula>
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1136, "begin group") = COUNTIF($A$1:$A$1136, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
     <cfRule type="expression" priority="674" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1129, "begin group") = COUNTIF($A$1:$A$1138, "end group")))</formula>
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1127, "begin group") = COUNTIF($A$1:$A$1136, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B58">
     <cfRule type="expression" priority="675" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>COUNTIF($B$2:$B$1014,B57)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1012,B57)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:Y85">
@@ -12384,110 +12321,110 @@
       <formula>AND($A95="end repeat", $B95 = "", $C95 = "", $D95 = "", $E95 = "", $F95 = "", $G95 = "", $H95 = "", $I95 = "", $J95 = "", $K95 = "", $L95 = "", $M95 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I127">
+  <conditionalFormatting sqref="I125">
     <cfRule type="expression" priority="712" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($I127 = "", $A127 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C127">
+      <formula>AND($I125 = "", $A125 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C125">
     <cfRule type="expression" priority="713" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A127 = "end group"), NOT($A127 = "end repeat"), NOT($A127 = "")), $C127 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B127">
+      <formula>AND(AND(NOT($A125 = "end group"), NOT($A125 = "end repeat"), NOT($A125 = "")), $C125 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
     <cfRule type="expression" priority="714" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A127 = "end group"), NOT($A127 = "end repeat"), NOT($A127 = "")), $B127 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A127">
+      <formula>AND(AND(NOT($A125 = "end group"), NOT($A125 = "end repeat"), NOT($A125 = "")), $B125 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A125">
     <cfRule type="cellIs" priority="715" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H127">
+  <conditionalFormatting sqref="H125">
     <cfRule type="expression" priority="716" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(NOT($G127 = ""), $H127 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
+      <formula>AND(NOT($G125 = ""), $H125 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
     <cfRule type="containsText" priority="717" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
+  <conditionalFormatting sqref="E125">
     <cfRule type="expression" priority="718" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A127="begin group", NOT($B127 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
+      <formula>AND($A125="begin group", NOT($B125 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
     <cfRule type="expression" priority="719" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A127="end group", $B127 = "", $C127 = "", $D127 = "", $E127 = "", $F127 = "", $G127 = "", $H127 = "", $I127 = "", $J127 = "", $K127 = "", $L127 = "", $M127 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
+      <formula>AND($A125="end group", $B125 = "", $C125 = "", $D125 = "", $E125 = "", $F125 = "", $G125 = "", $H125 = "", $I125 = "", $J125 = "", $K125 = "", $L125 = "", $M125 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
     <cfRule type="cellIs" priority="720" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
+  <conditionalFormatting sqref="E125">
     <cfRule type="expression" priority="721" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A127="begin repeat", NOT($B127 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
+      <formula>AND($A125="begin repeat", NOT($B125 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
     <cfRule type="expression" priority="722" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A127="end repeat", $B127 = "", $C127 = "", $D127 = "", $E127 = "", $F127 = "", $G127 = "", $H127 = "", $I127 = "", $J127 = "", $K127 = "", $L127 = "", $M127 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I181">
+      <formula>AND($A125="end repeat", $B125 = "", $C125 = "", $D125 = "", $E125 = "", $F125 = "", $G125 = "", $H125 = "", $I125 = "", $J125 = "", $K125 = "", $L125 = "", $M125 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I179">
     <cfRule type="expression" priority="723" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($I181 = "", $A181 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C181">
+      <formula>AND($I179 = "", $A179 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179">
     <cfRule type="expression" priority="724" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A181 = "end group"), NOT($A181 = "end repeat"), NOT($A181 = "")), $C181 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B181">
+      <formula>AND(AND(NOT($A179 = "end group"), NOT($A179 = "end repeat"), NOT($A179 = "")), $C179 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B179">
     <cfRule type="expression" priority="725" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(AND(NOT($A181 = "end group"), NOT($A181 = "end repeat"), NOT($A181 = "")), $B181 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A181">
+      <formula>AND(AND(NOT($A179 = "end group"), NOT($A179 = "end repeat"), NOT($A179 = "")), $B179 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A179">
     <cfRule type="cellIs" priority="726" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H181">
+  <conditionalFormatting sqref="H179">
     <cfRule type="expression" priority="727" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(NOT($G181 = ""), $H181 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E181">
+      <formula>AND(NOT($G179 = ""), $H179 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E179">
     <cfRule type="containsText" priority="728" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E181">
+  <conditionalFormatting sqref="E179">
     <cfRule type="expression" priority="729" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A181="begin group", NOT($B181 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E181">
+      <formula>AND($A179="begin group", NOT($B179 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E179">
     <cfRule type="expression" priority="730" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A181="end group", $B181 = "", $C181 = "", $D181 = "", $E181 = "", $F181 = "", $G181 = "", $H181 = "", $I181 = "", $J181 = "", $K181 = "", $L181 = "", $M181 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E181">
+      <formula>AND($A179="end group", $B179 = "", $C179 = "", $D179 = "", $E179 = "", $F179 = "", $G179 = "", $H179 = "", $I179 = "", $J179 = "", $K179 = "", $L179 = "", $M179 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E179">
     <cfRule type="cellIs" priority="731" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E181">
+  <conditionalFormatting sqref="E179">
     <cfRule type="expression" priority="732" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A181="begin repeat", NOT($B181 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E181">
+      <formula>AND($A179="begin repeat", NOT($B179 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E179">
     <cfRule type="expression" priority="733" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A181="end repeat", $B181 = "", $C181 = "", $D181 = "", $E181 = "", $F181 = "", $G181 = "", $H181 = "", $I181 = "", $J181 = "", $K181 = "", $L181 = "", $M181 = "")</formula>
+      <formula>AND($A179="end repeat", $B179 = "", $C179 = "", $D179 = "", $E179 = "", $F179 = "", $G179 = "", $H179 = "", $I179 = "", $J179 = "", $K179 = "", $L179 = "", $M179 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
@@ -12510,85 +12447,77 @@
       <formula>d_d($A45="end repeat", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48:Y48,A48:H48">
-    <cfRule type="containsText" priority="738" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48:Y48,A48:H48">
-    <cfRule type="cellIs" priority="739" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+  <conditionalFormatting sqref="A48">
+    <cfRule type="cellIs" priority="738" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="containsText" priority="739" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" priority="740" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
-    <cfRule type="cellIs" priority="740" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="containsText" priority="741" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" priority="742" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+  <conditionalFormatting sqref="E122">
+    <cfRule type="containsText" priority="741" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="expression" priority="742" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A124="begin group", NOT($B124 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="expression" priority="743" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A124="end group", $B124 = "", $C124 = "", $D124 = "", $E124 = "", $F124 = "", $G124 = "", $H124 = "", $I124 = "", $J124 = "", $K124 = "", $L124 = "", $M124 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" priority="744" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="expression" priority="745" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A124="begin repeat", NOT($B124 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="expression" priority="746" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A124="end repeat", $B124 = "", $C124 = "", $D124 = "", $E124 = "", $F124 = "", $G124 = "", $H124 = "", $I124 = "", $J124 = "", $K124 = "", $L124 = "", $M124 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="containsText" priority="743" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="expression" priority="744" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A125="begin group", NOT($B125 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="expression" priority="745" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A125="end group", $B125 = "", $C125 = "", $D125 = "", $E125 = "", $F125 = "", $G125 = "", $H125 = "", $I125 = "", $J125 = "", $K125 = "", $L125 = "", $M125 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" priority="746" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="expression" priority="747" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A125="begin repeat", NOT($B125 = ""))</formula>
-    </cfRule>
+    <cfRule type="containsText" priority="747" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
     <cfRule type="expression" priority="748" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A125="end repeat", $B125 = "", $C125 = "", $D125 = "", $E125 = "", $F125 = "", $G125 = "", $H125 = "", $I125 = "", $J125 = "", $K125 = "", $L125 = "", $M125 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="containsText" priority="749" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="expression" priority="750" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A125="begin group", NOT($B125 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
+      <formula>AND($A124="begin group", NOT($B124 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="expression" priority="749" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A124="end group", $B124 = "", $C124 = "", $D124 = "", $E124 = "", $F124 = "", $G124 = "", $H124 = "", $I124 = "", $J124 = "", $K124 = "", $L124 = "", $M124 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" priority="750" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
     <cfRule type="expression" priority="751" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A125="end group", $B125 = "", $C125 = "", $D125 = "", $E125 = "", $F125 = "", $G125 = "", $H125 = "", $I125 = "", $J125 = "", $K125 = "", $L125 = "", $M125 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" priority="752" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="expression" priority="753" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A125="begin repeat", NOT($B125 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="expression" priority="754" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND($A125="end repeat", $B125 = "", $C125 = "", $D125 = "", $E125 = "", $F125 = "", $G125 = "", $H125 = "", $I125 = "", $J125 = "", $K125 = "", $L125 = "", $M125 = "")</formula>
+      <formula>AND($A124="begin repeat", NOT($B124 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="expression" priority="752" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($A124="end repeat", $B124 = "", $C124 = "", $D124 = "", $E124 = "", $F124 = "", $G124 = "", $H124 = "", $I124 = "", $J124 = "", $K124 = "", $L124 = "", $M124 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2:D12 D14:D18 D20:D88 D90:D183 D190:D193" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2:D12 D14:D18 D20:D88 D90:D181 D188:D191" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -12625,1564 +12554,1565 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="73.6173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="89.6326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="113.841836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.3163265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="92.8724489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="117.892857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="C2" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C3" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="C7" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
+      <c r="C8" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="14" t="s">
+      <c r="C9" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>463</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="14" t="s">
+      <c r="B17" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>465</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>469</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="14" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>473</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="s">
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>476</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>477</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="s">
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14" t="s">
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C28" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B28" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="s">
+      <c r="C30" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="C31" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14" t="s">
+      <c r="C32" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="B81" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="C81" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+    </row>
+    <row r="84" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="13"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="13"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="B88" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="B32" s="14" t="s">
+      <c r="C88" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="B89" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="B33" s="14" t="s">
+      <c r="C89" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="B90" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="B34" s="14" t="s">
+      <c r="C90" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="B91" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="B35" s="14" t="s">
+      <c r="C91" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="B92" s="13" t="s">
         <v>489</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>490</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="B37" s="14" t="s">
+      <c r="C92" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+    </row>
+    <row r="94" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="B94" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14" t="s">
+      <c r="C94" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+    </row>
+    <row r="95" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="B95" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="C95" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+    </row>
+    <row r="96" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="B96" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14" t="s">
-        <v>492</v>
-      </c>
-      <c r="B40" s="14" t="s">
+      <c r="C96" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+    </row>
+    <row r="97" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="B97" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14" t="s">
-        <v>492</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>495</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14" t="s">
-        <v>492</v>
-      </c>
-      <c r="B42" s="14" t="s">
+      <c r="C97" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+    </row>
+    <row r="99" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+    </row>
+    <row r="100" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+    </row>
+    <row r="101" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="B101" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="C42" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14" t="s">
-        <v>492</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>497</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14" t="s">
-        <v>492</v>
-      </c>
-      <c r="B44" s="14" t="s">
+      <c r="C101" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+    </row>
+    <row r="102" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="B102" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="C44" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="14" t="s">
-        <v>492</v>
-      </c>
-      <c r="B45" s="14" t="s">
+      <c r="C102" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+    </row>
+    <row r="103" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+    </row>
+    <row r="104" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+    </row>
+    <row r="105" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+    </row>
+    <row r="106" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="B106" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="C45" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="14" t="s">
-        <v>492</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>500</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14" t="s">
-        <v>492</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14" t="s">
-        <v>492</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>489</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14" t="s">
-        <v>492</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>501</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14" t="s">
-        <v>502</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>503</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>504</v>
-      </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14" t="s">
-        <v>502</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>505</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>506</v>
-      </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14" t="s">
-        <v>507</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>508</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>509</v>
-      </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="14" t="s">
-        <v>507</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>510</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>511</v>
-      </c>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-    </row>
-    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="14" t="s">
-        <v>515</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="14" t="s">
-        <v>515</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>517</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="14" t="s">
-        <v>515</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>518</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="14" t="s">
-        <v>519</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-    </row>
-    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="14" t="s">
-        <v>519</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>517</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-    </row>
-    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="14" t="s">
-        <v>519</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>518</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-    </row>
-    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-    </row>
-    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>521</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-    </row>
-    <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>522</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-    </row>
-    <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>523</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-    </row>
-    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-    </row>
-    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="14" t="s">
-        <v>524</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>525</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-    </row>
-    <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="14" t="s">
-        <v>524</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>526</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-    </row>
-    <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="14" t="s">
-        <v>524</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>527</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-    </row>
-    <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="14" t="s">
-        <v>524</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>528</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-    </row>
-    <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-    </row>
-    <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>517</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-    </row>
-    <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="14" t="s">
-        <v>530</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>484</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>531</v>
-      </c>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="14" t="s">
-        <v>530</v>
-      </c>
-      <c r="B81" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>532</v>
-      </c>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-    </row>
-    <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="14" t="s">
-        <v>530</v>
-      </c>
-      <c r="B82" s="14" t="s">
+      <c r="C106" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="13"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="13"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="B110" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="C82" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="14" t="s">
-        <v>530</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>490</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>533</v>
-      </c>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-    </row>
-    <row r="84" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="14" t="s">
-        <v>530</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>489</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-    </row>
-    <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="14" t="s">
-        <v>530</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>491</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-    </row>
-    <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-    </row>
-    <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="14"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-    </row>
-    <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="14" t="s">
-        <v>534</v>
-      </c>
-      <c r="B88" s="14" t="s">
+      <c r="C110" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+    </row>
+    <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="B111" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="C88" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-    </row>
-    <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="14" t="s">
-        <v>534</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-    </row>
-    <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="14" t="s">
-        <v>534</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>489</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="14" t="s">
-        <v>534</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>490</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>533</v>
-      </c>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-    </row>
-    <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="14" t="s">
-        <v>534</v>
-      </c>
-      <c r="B92" s="14" t="s">
-        <v>491</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-    </row>
-    <row r="94" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-    </row>
-    <row r="95" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="B95" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-    </row>
-    <row r="96" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="B96" s="14" t="s">
-        <v>495</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-    </row>
-    <row r="97" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>496</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>537</v>
-      </c>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-    </row>
-    <row r="99" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>538</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-    </row>
-    <row r="100" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>540</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>541</v>
-      </c>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-    </row>
-    <row r="101" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>498</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-    </row>
-    <row r="102" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>500</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-    </row>
-    <row r="103" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>542</v>
-      </c>
-      <c r="C103" s="14" t="s">
-        <v>543</v>
-      </c>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-    </row>
-    <row r="104" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>544</v>
-      </c>
-      <c r="C104" s="14" t="s">
-        <v>545</v>
-      </c>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-    </row>
-    <row r="105" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="B105" s="14" t="s">
+      <c r="C111" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+    </row>
+    <row r="112" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="C105" s="14" t="s">
+      <c r="B112" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-    </row>
-    <row r="106" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>501</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="14"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="14"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-    </row>
-    <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="14" t="s">
+      <c r="C112" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="B110" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-    </row>
-    <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="14" t="s">
-        <v>548</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>489</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-    </row>
-    <row r="112" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="14" t="s">
-        <v>548</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>549</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
     </row>
     <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="14" t="s">
-        <v>548</v>
-      </c>
-      <c r="B113" s="14" t="s">
-        <v>501</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
+      <c r="A113" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="B115" s="33" t="s">
+        <v>550</v>
+      </c>
+      <c r="C115" s="0" t="s">
         <v>551</v>
-      </c>
-      <c r="B115" s="34" t="s">
-        <v>552</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>551</v>
-      </c>
-      <c r="B116" s="34" t="s">
-        <v>554</v>
+        <v>549</v>
+      </c>
+      <c r="B116" s="33" t="s">
+        <v>552</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="B118" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="C118" s="0" t="s">
         <v>556</v>
-      </c>
-      <c r="B118" s="34" t="s">
-        <v>557</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>556</v>
-      </c>
-      <c r="B119" s="34" t="s">
-        <v>559</v>
+        <v>554</v>
+      </c>
+      <c r="B119" s="33" t="s">
+        <v>557</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>556</v>
-      </c>
-      <c r="B120" s="34" t="s">
-        <v>561</v>
+        <v>554</v>
+      </c>
+      <c r="B120" s="33" t="s">
+        <v>559</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="B122" s="33" t="s">
+        <v>562</v>
+      </c>
+      <c r="C122" s="0" t="s">
         <v>563</v>
-      </c>
-      <c r="B122" s="34" t="s">
-        <v>564</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>563</v>
-      </c>
-      <c r="B123" s="34" t="s">
-        <v>566</v>
+        <v>561</v>
+      </c>
+      <c r="B123" s="33" t="s">
+        <v>564</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+    </row>
+    <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B130" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="C129" s="14" t="s">
+      <c r="C130" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-    </row>
-    <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B130" s="14" t="s">
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
+    </row>
+    <row r="132" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="34" t="s">
         <v>571</v>
       </c>
-      <c r="C130" s="14" t="s">
+      <c r="B132" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-    </row>
-    <row r="132" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="35" t="s">
+      <c r="C132" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
+    </row>
+    <row r="133" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="B133" s="13" t="s">
         <v>573</v>
       </c>
-      <c r="B132" s="14" t="s">
+      <c r="C133" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="C132" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-    </row>
-    <row r="133" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="35" t="s">
-        <v>573</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>575</v>
-      </c>
-      <c r="C133" s="14" t="s">
-        <v>576</v>
-      </c>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
     </row>
     <row r="1048573" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -14212,47 +14142,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="65.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
+        <v>575</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>577</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>578</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>579</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="F1" s="31" t="s">
         <v>580</v>
       </c>
-      <c r="E1" s="32" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="B2" s="13" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="C2" s="35" t="n">
+        <f aca="true">NOW()</f>
+        <v>44320.4146430415</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="C2" s="36" t="n">
-        <f aca="true">NOW()</f>
-        <v>44308.6838521655</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>585</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>586</v>
-      </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/config/default/forms/app/hts_retest_test.xlsx
+++ b/config/default/forms/app/hts_retest_test.xlsx
@@ -1424,7 +1424,7 @@
     <t xml:space="preserve">_160579_msm_99DCT</t>
   </si>
   <si>
-    <t xml:space="preserve">Male who has sex with men</t>
+    <t xml:space="preserve">Men who have sex with men</t>
   </si>
   <si>
     <t xml:space="preserve">_159674_fisherfolk_99DCT</t>
@@ -1781,7 +1781,7 @@
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="166" formatCode="DD\-MM\-YYYY\ HH\-MM\-SS"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1846,12 +1846,6 @@
       <name val="Ubuntu"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1979,7 +1973,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2028,23 +2022,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2084,27 +2074,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2112,11 +2102,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2124,7 +2114,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2137,16 +2127,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -2251,18 +2232,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.7295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.1581632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="80.5459183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.5459183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="202.576530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.4285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.4285714285714"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="108.622448979592"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="248.382653061224"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="82.8826530612245"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="79.015306122449"/>
-    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="99.265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9897959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.2244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="83.4234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.8061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="209.867346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="58.4948979591837"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.1377551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="112.581632653061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="257.382653061225"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="85.8571428571429"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="81.8061224489796"/>
+    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="102.862244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6248,7 +6231,7 @@
       <c r="D116" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E116" s="12" t="s">
+      <c r="E116" s="8" t="s">
         <v>273</v>
       </c>
       <c r="F116" s="8"/>
@@ -6474,7 +6457,7 @@
       <c r="D122" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E122" s="12" t="s">
+      <c r="E122" s="8" t="s">
         <v>291</v>
       </c>
       <c r="F122" s="8"/>
@@ -6735,7 +6718,7 @@
       <c r="A130" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B130" s="13" t="s">
+      <c r="B130" s="12" t="s">
         <v>307</v>
       </c>
       <c r="C130" s="4" t="s">
@@ -6771,7 +6754,7 @@
       <c r="B131" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="C131" s="14" t="s">
+      <c r="C131" s="13" t="s">
         <v>310</v>
       </c>
       <c r="D131" s="4"/>
@@ -6808,7 +6791,7 @@
       <c r="B132" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C132" s="14" t="s">
+      <c r="C132" s="13" t="s">
         <v>314</v>
       </c>
       <c r="D132" s="4"/>
@@ -6845,7 +6828,7 @@
       <c r="B133" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C133" s="14" t="s">
+      <c r="C133" s="13" t="s">
         <v>317</v>
       </c>
       <c r="D133" s="4"/>
@@ -6912,10 +6895,10 @@
       <c r="A135" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B135" s="14" t="s">
+      <c r="B135" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="C135" s="14" t="s">
+      <c r="C135" s="13" t="s">
         <v>322</v>
       </c>
       <c r="D135" s="4"/>
@@ -6949,10 +6932,10 @@
       <c r="A136" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B136" s="14" t="s">
+      <c r="B136" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="C136" s="14" t="s">
+      <c r="C136" s="13" t="s">
         <v>325</v>
       </c>
       <c r="D136" s="4"/>
@@ -6986,10 +6969,10 @@
       <c r="A137" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B137" s="14" t="s">
+      <c r="B137" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="C137" s="14" t="s">
+      <c r="C137" s="13" t="s">
         <v>328</v>
       </c>
       <c r="D137" s="4"/>
@@ -7023,10 +7006,10 @@
       <c r="A138" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B138" s="14" t="s">
+      <c r="B138" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="C138" s="14" t="s">
+      <c r="C138" s="13" t="s">
         <v>331</v>
       </c>
       <c r="D138" s="4"/>
@@ -7060,10 +7043,10 @@
       <c r="A139" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="C139" s="14" t="s">
+      <c r="C139" s="13" t="s">
         <v>334</v>
       </c>
       <c r="D139" s="4"/>
@@ -7097,10 +7080,10 @@
       <c r="A140" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B140" s="14" t="s">
+      <c r="B140" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="C140" s="14" t="s">
+      <c r="C140" s="13" t="s">
         <v>337</v>
       </c>
       <c r="D140" s="4"/>
@@ -7134,10 +7117,10 @@
       <c r="A141" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B141" s="14" t="s">
+      <c r="B141" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="C141" s="14" t="s">
+      <c r="C141" s="13" t="s">
         <v>340</v>
       </c>
       <c r="D141" s="4"/>
@@ -7171,10 +7154,10 @@
       <c r="A142" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="B142" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="C142" s="14" t="s">
+      <c r="C142" s="13" t="s">
         <v>343</v>
       </c>
       <c r="D142" s="4"/>
@@ -7241,10 +7224,10 @@
       <c r="A144" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B144" s="14" t="s">
+      <c r="B144" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C144" s="14" t="s">
+      <c r="C144" s="13" t="s">
         <v>348</v>
       </c>
       <c r="D144" s="4"/>
@@ -7278,10 +7261,10 @@
       <c r="A145" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B145" s="14" t="s">
+      <c r="B145" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="C145" s="14" t="s">
+      <c r="C145" s="13" t="s">
         <v>351</v>
       </c>
       <c r="D145" s="4"/>
@@ -7315,10 +7298,10 @@
       <c r="A146" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B146" s="14" t="s">
+      <c r="B146" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="C146" s="14" t="s">
+      <c r="C146" s="13" t="s">
         <v>354</v>
       </c>
       <c r="D146" s="4"/>
@@ -7352,10 +7335,10 @@
       <c r="A147" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B147" s="14" t="s">
+      <c r="B147" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="C147" s="14" t="s">
+      <c r="C147" s="13" t="s">
         <v>357</v>
       </c>
       <c r="D147" s="4"/>
@@ -7389,10 +7372,10 @@
       <c r="A148" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B148" s="14" t="s">
+      <c r="B148" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="C148" s="14" t="s">
+      <c r="C148" s="13" t="s">
         <v>360</v>
       </c>
       <c r="D148" s="4"/>
@@ -7426,10 +7409,10 @@
       <c r="A149" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="C149" s="14" t="s">
+      <c r="C149" s="13" t="s">
         <v>363</v>
       </c>
       <c r="D149" s="4"/>
@@ -7463,10 +7446,10 @@
       <c r="A150" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B150" s="14" t="s">
+      <c r="B150" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="C150" s="14" t="s">
+      <c r="C150" s="13" t="s">
         <v>366</v>
       </c>
       <c r="D150" s="4"/>
@@ -7500,10 +7483,10 @@
       <c r="A151" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B151" s="14" t="s">
+      <c r="B151" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="C151" s="14" t="s">
+      <c r="C151" s="13" t="s">
         <v>369</v>
       </c>
       <c r="D151" s="4"/>
@@ -7537,10 +7520,10 @@
       <c r="A152" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B152" s="14" t="s">
+      <c r="B152" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="C152" s="14" t="s">
+      <c r="C152" s="13" t="s">
         <v>334</v>
       </c>
       <c r="D152" s="4"/>
@@ -7574,10 +7557,10 @@
       <c r="A153" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B153" s="14" t="s">
+      <c r="B153" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="C153" s="14" t="s">
+      <c r="C153" s="13" t="s">
         <v>374</v>
       </c>
       <c r="D153" s="4"/>
@@ -7611,10 +7594,10 @@
       <c r="A154" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B154" s="14" t="s">
+      <c r="B154" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="C154" s="14" t="s">
+      <c r="C154" s="13" t="s">
         <v>343</v>
       </c>
       <c r="D154" s="4"/>
@@ -8112,13 +8095,13 @@
       <c r="Y167" s="8"/>
     </row>
     <row r="168" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="15" t="s">
+      <c r="A168" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="B168" s="14" t="s">
+      <c r="B168" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="C168" s="14" t="s">
+      <c r="C168" s="13" t="s">
         <v>410</v>
       </c>
       <c r="D168" s="4"/>
@@ -8128,99 +8111,99 @@
       <c r="F168" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="G168" s="16"/>
-      <c r="H168" s="16"/>
-      <c r="I168" s="16"/>
-      <c r="J168" s="16"/>
-      <c r="K168" s="16"/>
-      <c r="L168" s="16"/>
-      <c r="M168" s="16"/>
-      <c r="N168" s="16"/>
-      <c r="O168" s="16"/>
-      <c r="P168" s="16"/>
-      <c r="Q168" s="16"/>
-      <c r="R168" s="16"/>
-      <c r="S168" s="16"/>
-      <c r="T168" s="16"/>
-      <c r="U168" s="16"/>
-      <c r="V168" s="16"/>
-      <c r="W168" s="16"/>
-      <c r="X168" s="16"/>
-      <c r="Y168" s="16"/>
+      <c r="G168" s="15"/>
+      <c r="H168" s="15"/>
+      <c r="I168" s="15"/>
+      <c r="J168" s="15"/>
+      <c r="K168" s="15"/>
+      <c r="L168" s="15"/>
+      <c r="M168" s="15"/>
+      <c r="N168" s="15"/>
+      <c r="O168" s="15"/>
+      <c r="P168" s="15"/>
+      <c r="Q168" s="15"/>
+      <c r="R168" s="15"/>
+      <c r="S168" s="15"/>
+      <c r="T168" s="15"/>
+      <c r="U168" s="15"/>
+      <c r="V168" s="15"/>
+      <c r="W168" s="15"/>
+      <c r="X168" s="15"/>
+      <c r="Y168" s="15"/>
     </row>
     <row r="169" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="15" t="s">
+      <c r="A169" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="B169" s="14" t="s">
+      <c r="B169" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="C169" s="14" t="s">
+      <c r="C169" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="D169" s="16"/>
+      <c r="D169" s="15"/>
       <c r="E169" s="4" t="s">
         <v>414</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="G169" s="16"/>
-      <c r="H169" s="16"/>
-      <c r="I169" s="16"/>
-      <c r="J169" s="16"/>
-      <c r="K169" s="16"/>
-      <c r="L169" s="16"/>
-      <c r="M169" s="16"/>
-      <c r="N169" s="16"/>
-      <c r="O169" s="16"/>
-      <c r="P169" s="16"/>
-      <c r="Q169" s="16"/>
-      <c r="R169" s="16"/>
-      <c r="S169" s="16"/>
-      <c r="T169" s="16"/>
-      <c r="U169" s="16"/>
-      <c r="V169" s="16"/>
-      <c r="W169" s="16"/>
-      <c r="X169" s="16"/>
-      <c r="Y169" s="16"/>
+      <c r="G169" s="15"/>
+      <c r="H169" s="15"/>
+      <c r="I169" s="15"/>
+      <c r="J169" s="15"/>
+      <c r="K169" s="15"/>
+      <c r="L169" s="15"/>
+      <c r="M169" s="15"/>
+      <c r="N169" s="15"/>
+      <c r="O169" s="15"/>
+      <c r="P169" s="15"/>
+      <c r="Q169" s="15"/>
+      <c r="R169" s="15"/>
+      <c r="S169" s="15"/>
+      <c r="T169" s="15"/>
+      <c r="U169" s="15"/>
+      <c r="V169" s="15"/>
+      <c r="W169" s="15"/>
+      <c r="X169" s="15"/>
+      <c r="Y169" s="15"/>
     </row>
     <row r="170" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="15" t="s">
+      <c r="A170" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="B170" s="14" t="s">
+      <c r="B170" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="C170" s="14" t="s">
+      <c r="C170" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="D170" s="16"/>
+      <c r="D170" s="15"/>
       <c r="E170" s="4" t="s">
         <v>417</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="G170" s="16"/>
-      <c r="H170" s="16"/>
-      <c r="I170" s="16"/>
-      <c r="J170" s="16"/>
-      <c r="K170" s="16"/>
-      <c r="L170" s="16"/>
-      <c r="M170" s="16"/>
-      <c r="N170" s="16"/>
-      <c r="O170" s="16"/>
-      <c r="P170" s="16"/>
-      <c r="Q170" s="16"/>
-      <c r="R170" s="16"/>
-      <c r="S170" s="16"/>
-      <c r="T170" s="16"/>
-      <c r="U170" s="16"/>
-      <c r="V170" s="16"/>
-      <c r="W170" s="16"/>
-      <c r="X170" s="16"/>
-      <c r="Y170" s="16"/>
+      <c r="G170" s="15"/>
+      <c r="H170" s="15"/>
+      <c r="I170" s="15"/>
+      <c r="J170" s="15"/>
+      <c r="K170" s="15"/>
+      <c r="L170" s="15"/>
+      <c r="M170" s="15"/>
+      <c r="N170" s="15"/>
+      <c r="O170" s="15"/>
+      <c r="P170" s="15"/>
+      <c r="Q170" s="15"/>
+      <c r="R170" s="15"/>
+      <c r="S170" s="15"/>
+      <c r="T170" s="15"/>
+      <c r="U170" s="15"/>
+      <c r="V170" s="15"/>
+      <c r="W170" s="15"/>
+      <c r="X170" s="15"/>
+      <c r="Y170" s="15"/>
     </row>
     <row r="171" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="8" t="s">
@@ -8256,13 +8239,13 @@
       <c r="Y171" s="8"/>
     </row>
     <row r="172" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="15" t="s">
+      <c r="A172" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="B172" s="14" t="s">
+      <c r="B172" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="C172" s="14" t="s">
+      <c r="C172" s="13" t="s">
         <v>421</v>
       </c>
       <c r="D172" s="4"/>
@@ -8272,108 +8255,108 @@
       <c r="F172" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="G172" s="16"/>
-      <c r="H172" s="16"/>
-      <c r="I172" s="16"/>
-      <c r="J172" s="16"/>
-      <c r="K172" s="16"/>
-      <c r="L172" s="16"/>
-      <c r="M172" s="16"/>
-      <c r="N172" s="16"/>
-      <c r="O172" s="16"/>
-      <c r="P172" s="16"/>
-      <c r="Q172" s="16"/>
-      <c r="R172" s="16"/>
-      <c r="S172" s="16"/>
-      <c r="T172" s="16"/>
-      <c r="U172" s="16"/>
-      <c r="V172" s="16"/>
-      <c r="W172" s="16"/>
-      <c r="X172" s="16"/>
-      <c r="Y172" s="16"/>
+      <c r="G172" s="15"/>
+      <c r="H172" s="15"/>
+      <c r="I172" s="15"/>
+      <c r="J172" s="15"/>
+      <c r="K172" s="15"/>
+      <c r="L172" s="15"/>
+      <c r="M172" s="15"/>
+      <c r="N172" s="15"/>
+      <c r="O172" s="15"/>
+      <c r="P172" s="15"/>
+      <c r="Q172" s="15"/>
+      <c r="R172" s="15"/>
+      <c r="S172" s="15"/>
+      <c r="T172" s="15"/>
+      <c r="U172" s="15"/>
+      <c r="V172" s="15"/>
+      <c r="W172" s="15"/>
+      <c r="X172" s="15"/>
+      <c r="Y172" s="15"/>
     </row>
     <row r="173" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="15" t="s">
+      <c r="A173" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="B173" s="14" t="s">
+      <c r="B173" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="C173" s="14" t="s">
+      <c r="C173" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="D173" s="16"/>
+      <c r="D173" s="15"/>
       <c r="E173" s="4" t="s">
         <v>425</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="G173" s="16"/>
-      <c r="H173" s="16"/>
-      <c r="I173" s="16"/>
-      <c r="J173" s="16"/>
-      <c r="K173" s="16"/>
-      <c r="L173" s="16"/>
-      <c r="M173" s="16"/>
-      <c r="N173" s="16"/>
-      <c r="O173" s="16"/>
-      <c r="P173" s="16"/>
-      <c r="Q173" s="16"/>
-      <c r="R173" s="16"/>
-      <c r="S173" s="16"/>
-      <c r="T173" s="16"/>
-      <c r="U173" s="16"/>
-      <c r="V173" s="16"/>
-      <c r="W173" s="16"/>
-      <c r="X173" s="16"/>
-      <c r="Y173" s="16"/>
+      <c r="G173" s="15"/>
+      <c r="H173" s="15"/>
+      <c r="I173" s="15"/>
+      <c r="J173" s="15"/>
+      <c r="K173" s="15"/>
+      <c r="L173" s="15"/>
+      <c r="M173" s="15"/>
+      <c r="N173" s="15"/>
+      <c r="O173" s="15"/>
+      <c r="P173" s="15"/>
+      <c r="Q173" s="15"/>
+      <c r="R173" s="15"/>
+      <c r="S173" s="15"/>
+      <c r="T173" s="15"/>
+      <c r="U173" s="15"/>
+      <c r="V173" s="15"/>
+      <c r="W173" s="15"/>
+      <c r="X173" s="15"/>
+      <c r="Y173" s="15"/>
     </row>
     <row r="174" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="15" t="s">
+      <c r="A174" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="B174" s="14" t="s">
+      <c r="B174" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="C174" s="14" t="s">
+      <c r="C174" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="D174" s="16"/>
+      <c r="D174" s="15"/>
       <c r="E174" s="4" t="s">
         <v>428</v>
       </c>
       <c r="F174" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="G174" s="16"/>
-      <c r="H174" s="16"/>
-      <c r="I174" s="16"/>
-      <c r="J174" s="16"/>
-      <c r="K174" s="16"/>
-      <c r="L174" s="16"/>
-      <c r="M174" s="16"/>
-      <c r="N174" s="16"/>
-      <c r="O174" s="16"/>
-      <c r="P174" s="16"/>
-      <c r="Q174" s="16"/>
-      <c r="R174" s="16"/>
-      <c r="S174" s="16"/>
-      <c r="T174" s="16"/>
-      <c r="U174" s="16"/>
-      <c r="V174" s="16"/>
-      <c r="W174" s="16"/>
-      <c r="X174" s="16"/>
-      <c r="Y174" s="16"/>
+      <c r="G174" s="15"/>
+      <c r="H174" s="15"/>
+      <c r="I174" s="15"/>
+      <c r="J174" s="15"/>
+      <c r="K174" s="15"/>
+      <c r="L174" s="15"/>
+      <c r="M174" s="15"/>
+      <c r="N174" s="15"/>
+      <c r="O174" s="15"/>
+      <c r="P174" s="15"/>
+      <c r="Q174" s="15"/>
+      <c r="R174" s="15"/>
+      <c r="S174" s="15"/>
+      <c r="T174" s="15"/>
+      <c r="U174" s="15"/>
+      <c r="V174" s="15"/>
+      <c r="W174" s="15"/>
+      <c r="X174" s="15"/>
+      <c r="Y174" s="15"/>
     </row>
     <row r="175" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="15" t="s">
+      <c r="A175" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="B175" s="14" t="s">
+      <c r="B175" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="C175" s="14" t="s">
+      <c r="C175" s="13" t="s">
         <v>430</v>
       </c>
       <c r="D175" s="4"/>
@@ -8437,13 +8420,13 @@
       <c r="Y176" s="8"/>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="15" t="s">
+      <c r="A177" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="B177" s="14" t="s">
+      <c r="B177" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="C177" s="14" t="s">
+      <c r="C177" s="13" t="s">
         <v>410</v>
       </c>
       <c r="D177" s="4"/>
@@ -8453,278 +8436,278 @@
       <c r="F177" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="G177" s="16"/>
-      <c r="H177" s="16"/>
-      <c r="I177" s="16"/>
-      <c r="J177" s="16"/>
-      <c r="K177" s="16"/>
-      <c r="L177" s="16"/>
-      <c r="M177" s="16"/>
-      <c r="N177" s="16"/>
-      <c r="O177" s="16"/>
-      <c r="P177" s="16"/>
-      <c r="Q177" s="16"/>
-      <c r="R177" s="16"/>
-      <c r="S177" s="16"/>
-      <c r="T177" s="16"/>
-      <c r="U177" s="16"/>
-      <c r="V177" s="16"/>
-      <c r="W177" s="16"/>
-      <c r="X177" s="16"/>
-      <c r="Y177" s="16"/>
+      <c r="G177" s="15"/>
+      <c r="H177" s="15"/>
+      <c r="I177" s="15"/>
+      <c r="J177" s="15"/>
+      <c r="K177" s="15"/>
+      <c r="L177" s="15"/>
+      <c r="M177" s="15"/>
+      <c r="N177" s="15"/>
+      <c r="O177" s="15"/>
+      <c r="P177" s="15"/>
+      <c r="Q177" s="15"/>
+      <c r="R177" s="15"/>
+      <c r="S177" s="15"/>
+      <c r="T177" s="15"/>
+      <c r="U177" s="15"/>
+      <c r="V177" s="15"/>
+      <c r="W177" s="15"/>
+      <c r="X177" s="15"/>
+      <c r="Y177" s="15"/>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="15" t="s">
+      <c r="A178" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="B178" s="14" t="s">
+      <c r="B178" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="C178" s="14" t="s">
+      <c r="C178" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="D178" s="16"/>
+      <c r="D178" s="15"/>
       <c r="E178" s="4" t="s">
         <v>437</v>
       </c>
       <c r="F178" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="G178" s="16"/>
-      <c r="H178" s="16"/>
-      <c r="I178" s="16"/>
-      <c r="J178" s="16"/>
-      <c r="K178" s="16"/>
-      <c r="L178" s="16"/>
-      <c r="M178" s="16"/>
-      <c r="N178" s="16"/>
-      <c r="O178" s="16"/>
-      <c r="P178" s="16"/>
-      <c r="Q178" s="16"/>
-      <c r="R178" s="16"/>
-      <c r="S178" s="16"/>
-      <c r="T178" s="16"/>
-      <c r="U178" s="16"/>
-      <c r="V178" s="16"/>
-      <c r="W178" s="16"/>
-      <c r="X178" s="16"/>
-      <c r="Y178" s="16"/>
+      <c r="G178" s="15"/>
+      <c r="H178" s="15"/>
+      <c r="I178" s="15"/>
+      <c r="J178" s="15"/>
+      <c r="K178" s="15"/>
+      <c r="L178" s="15"/>
+      <c r="M178" s="15"/>
+      <c r="N178" s="15"/>
+      <c r="O178" s="15"/>
+      <c r="P178" s="15"/>
+      <c r="Q178" s="15"/>
+      <c r="R178" s="15"/>
+      <c r="S178" s="15"/>
+      <c r="T178" s="15"/>
+      <c r="U178" s="15"/>
+      <c r="V178" s="15"/>
+      <c r="W178" s="15"/>
+      <c r="X178" s="15"/>
+      <c r="Y178" s="15"/>
     </row>
     <row r="179" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="17" t="s">
+      <c r="A179" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="B179" s="17" t="s">
+      <c r="B179" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="C179" s="18" t="s">
+      <c r="C179" s="17" t="s">
         <v>439</v>
       </c>
-      <c r="D179" s="17"/>
-      <c r="E179" s="19" t="s">
+      <c r="D179" s="16"/>
+      <c r="E179" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="F179" s="17" t="s">
+      <c r="F179" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="G179" s="17"/>
-      <c r="H179" s="17"/>
-      <c r="I179" s="17"/>
-      <c r="J179" s="17"/>
-      <c r="K179" s="17"/>
-      <c r="L179" s="17"/>
-      <c r="M179" s="17"/>
-      <c r="N179" s="17"/>
-      <c r="O179" s="17"/>
-      <c r="P179" s="17"/>
-      <c r="Q179" s="17"/>
-      <c r="R179" s="17"/>
-      <c r="S179" s="17"/>
-      <c r="T179" s="17"/>
-      <c r="U179" s="17"/>
-      <c r="V179" s="17"/>
-      <c r="W179" s="17"/>
-      <c r="X179" s="17"/>
-      <c r="Y179" s="17"/>
+      <c r="G179" s="16"/>
+      <c r="H179" s="16"/>
+      <c r="I179" s="16"/>
+      <c r="J179" s="16"/>
+      <c r="K179" s="16"/>
+      <c r="L179" s="16"/>
+      <c r="M179" s="16"/>
+      <c r="N179" s="16"/>
+      <c r="O179" s="16"/>
+      <c r="P179" s="16"/>
+      <c r="Q179" s="16"/>
+      <c r="R179" s="16"/>
+      <c r="S179" s="16"/>
+      <c r="T179" s="16"/>
+      <c r="U179" s="16"/>
+      <c r="V179" s="16"/>
+      <c r="W179" s="16"/>
+      <c r="X179" s="16"/>
+      <c r="Y179" s="16"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="20" t="s">
+      <c r="A180" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B180" s="20" t="s">
+      <c r="B180" s="19" t="s">
         <v>441</v>
       </c>
-      <c r="C180" s="20" t="s">
+      <c r="C180" s="19" t="s">
         <v>442</v>
       </c>
       <c r="D180" s="5"/>
-      <c r="E180" s="21" t="s">
+      <c r="E180" s="20" t="s">
         <v>401</v>
       </c>
-      <c r="F180" s="20"/>
-      <c r="G180" s="20"/>
-      <c r="H180" s="20"/>
-      <c r="I180" s="20"/>
-      <c r="J180" s="20"/>
-      <c r="K180" s="20"/>
-      <c r="L180" s="20"/>
-      <c r="M180" s="20"/>
-      <c r="N180" s="20"/>
-      <c r="O180" s="20"/>
-      <c r="P180" s="20"/>
-      <c r="Q180" s="20"/>
-      <c r="R180" s="20"/>
-      <c r="S180" s="20"/>
-      <c r="T180" s="20"/>
-      <c r="U180" s="20"/>
-      <c r="V180" s="20"/>
-      <c r="W180" s="20"/>
-      <c r="X180" s="20"/>
-      <c r="Y180" s="20"/>
+      <c r="F180" s="19"/>
+      <c r="G180" s="19"/>
+      <c r="H180" s="19"/>
+      <c r="I180" s="19"/>
+      <c r="J180" s="19"/>
+      <c r="K180" s="19"/>
+      <c r="L180" s="19"/>
+      <c r="M180" s="19"/>
+      <c r="N180" s="19"/>
+      <c r="O180" s="19"/>
+      <c r="P180" s="19"/>
+      <c r="Q180" s="19"/>
+      <c r="R180" s="19"/>
+      <c r="S180" s="19"/>
+      <c r="T180" s="19"/>
+      <c r="U180" s="19"/>
+      <c r="V180" s="19"/>
+      <c r="W180" s="19"/>
+      <c r="X180" s="19"/>
+      <c r="Y180" s="19"/>
     </row>
     <row r="181" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="17" t="s">
+      <c r="A181" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="B181" s="17" t="s">
+      <c r="B181" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="C181" s="18" t="s">
+      <c r="C181" s="17" t="s">
         <v>439</v>
       </c>
-      <c r="D181" s="17"/>
-      <c r="E181" s="19" t="s">
+      <c r="D181" s="16"/>
+      <c r="E181" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="F181" s="17" t="s">
+      <c r="F181" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="G181" s="17"/>
-      <c r="H181" s="17"/>
-      <c r="I181" s="17"/>
-      <c r="J181" s="17"/>
-      <c r="K181" s="17"/>
-      <c r="L181" s="17"/>
-      <c r="M181" s="17"/>
-      <c r="N181" s="17"/>
-      <c r="O181" s="17"/>
-      <c r="P181" s="17"/>
-      <c r="Q181" s="17"/>
-      <c r="R181" s="17"/>
-      <c r="S181" s="17"/>
-      <c r="T181" s="17"/>
-      <c r="U181" s="17"/>
-      <c r="V181" s="17"/>
-      <c r="W181" s="17"/>
-      <c r="X181" s="17"/>
-      <c r="Y181" s="17"/>
+      <c r="G181" s="16"/>
+      <c r="H181" s="16"/>
+      <c r="I181" s="16"/>
+      <c r="J181" s="16"/>
+      <c r="K181" s="16"/>
+      <c r="L181" s="16"/>
+      <c r="M181" s="16"/>
+      <c r="N181" s="16"/>
+      <c r="O181" s="16"/>
+      <c r="P181" s="16"/>
+      <c r="Q181" s="16"/>
+      <c r="R181" s="16"/>
+      <c r="S181" s="16"/>
+      <c r="T181" s="16"/>
+      <c r="U181" s="16"/>
+      <c r="V181" s="16"/>
+      <c r="W181" s="16"/>
+      <c r="X181" s="16"/>
+      <c r="Y181" s="16"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="20" t="s">
+      <c r="A182" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B182" s="20" t="s">
+      <c r="B182" s="19" t="s">
         <v>445</v>
       </c>
-      <c r="C182" s="20" t="s">
+      <c r="C182" s="19" t="s">
         <v>446</v>
       </c>
       <c r="D182" s="5"/>
-      <c r="E182" s="21" t="s">
+      <c r="E182" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="F182" s="20"/>
-      <c r="G182" s="20"/>
-      <c r="H182" s="20"/>
-      <c r="I182" s="20"/>
-      <c r="J182" s="20"/>
-      <c r="K182" s="20"/>
-      <c r="L182" s="20"/>
-      <c r="M182" s="20"/>
-      <c r="N182" s="20"/>
-      <c r="O182" s="20"/>
-      <c r="P182" s="20"/>
-      <c r="Q182" s="20"/>
-      <c r="R182" s="20"/>
-      <c r="S182" s="20"/>
-      <c r="T182" s="20"/>
-      <c r="U182" s="20"/>
-      <c r="V182" s="20"/>
-      <c r="W182" s="20"/>
-      <c r="X182" s="20"/>
-      <c r="Y182" s="20"/>
-    </row>
-    <row r="183" s="25" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="22" t="s">
+      <c r="F182" s="19"/>
+      <c r="G182" s="19"/>
+      <c r="H182" s="19"/>
+      <c r="I182" s="19"/>
+      <c r="J182" s="19"/>
+      <c r="K182" s="19"/>
+      <c r="L182" s="19"/>
+      <c r="M182" s="19"/>
+      <c r="N182" s="19"/>
+      <c r="O182" s="19"/>
+      <c r="P182" s="19"/>
+      <c r="Q182" s="19"/>
+      <c r="R182" s="19"/>
+      <c r="S182" s="19"/>
+      <c r="T182" s="19"/>
+      <c r="U182" s="19"/>
+      <c r="V182" s="19"/>
+      <c r="W182" s="19"/>
+      <c r="X182" s="19"/>
+      <c r="Y182" s="19"/>
+    </row>
+    <row r="183" s="24" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A183" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="B183" s="22" t="s">
+      <c r="B183" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="C183" s="23" t="s">
+      <c r="C183" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="D183" s="22"/>
-      <c r="E183" s="24" t="s">
+      <c r="D183" s="21"/>
+      <c r="E183" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="F183" s="22" t="s">
+      <c r="F183" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="G183" s="22"/>
-      <c r="H183" s="22"/>
-      <c r="I183" s="22"/>
-      <c r="J183" s="22"/>
-      <c r="K183" s="22"/>
-      <c r="L183" s="22"/>
-      <c r="M183" s="22"/>
-      <c r="N183" s="22"/>
-      <c r="O183" s="22"/>
-      <c r="P183" s="22"/>
-      <c r="Q183" s="22"/>
-      <c r="R183" s="22"/>
-      <c r="S183" s="22"/>
-      <c r="T183" s="22"/>
-      <c r="U183" s="22"/>
-      <c r="V183" s="22"/>
-      <c r="W183" s="22"/>
-      <c r="X183" s="22"/>
-      <c r="Y183" s="22"/>
+      <c r="G183" s="21"/>
+      <c r="H183" s="21"/>
+      <c r="I183" s="21"/>
+      <c r="J183" s="21"/>
+      <c r="K183" s="21"/>
+      <c r="L183" s="21"/>
+      <c r="M183" s="21"/>
+      <c r="N183" s="21"/>
+      <c r="O183" s="21"/>
+      <c r="P183" s="21"/>
+      <c r="Q183" s="21"/>
+      <c r="R183" s="21"/>
+      <c r="S183" s="21"/>
+      <c r="T183" s="21"/>
+      <c r="U183" s="21"/>
+      <c r="V183" s="21"/>
+      <c r="W183" s="21"/>
+      <c r="X183" s="21"/>
+      <c r="Y183" s="21"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="20" t="s">
+      <c r="A184" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B184" s="20" t="s">
+      <c r="B184" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="C184" s="20" t="s">
+      <c r="C184" s="19" t="s">
         <v>449</v>
       </c>
       <c r="D184" s="5"/>
-      <c r="E184" s="21" t="s">
+      <c r="E184" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="F184" s="20"/>
-      <c r="G184" s="20"/>
-      <c r="H184" s="20"/>
-      <c r="I184" s="20"/>
-      <c r="J184" s="20"/>
-      <c r="K184" s="20"/>
-      <c r="L184" s="20"/>
-      <c r="M184" s="20"/>
-      <c r="N184" s="20"/>
-      <c r="O184" s="20"/>
-      <c r="P184" s="20"/>
-      <c r="Q184" s="20"/>
-      <c r="R184" s="20"/>
-      <c r="S184" s="20"/>
-      <c r="T184" s="20"/>
-      <c r="U184" s="20"/>
-      <c r="V184" s="20"/>
-      <c r="W184" s="20"/>
-      <c r="X184" s="20"/>
-      <c r="Y184" s="20"/>
+      <c r="F184" s="19"/>
+      <c r="G184" s="19"/>
+      <c r="H184" s="19"/>
+      <c r="I184" s="19"/>
+      <c r="J184" s="19"/>
+      <c r="K184" s="19"/>
+      <c r="L184" s="19"/>
+      <c r="M184" s="19"/>
+      <c r="N184" s="19"/>
+      <c r="O184" s="19"/>
+      <c r="P184" s="19"/>
+      <c r="Q184" s="19"/>
+      <c r="R184" s="19"/>
+      <c r="S184" s="19"/>
+      <c r="T184" s="19"/>
+      <c r="U184" s="19"/>
+      <c r="V184" s="19"/>
+      <c r="W184" s="19"/>
+      <c r="X184" s="19"/>
+      <c r="Y184" s="19"/>
     </row>
     <row r="185" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="4" t="s">
@@ -8756,31 +8739,31 @@
       <c r="Y185" s="8"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="26" t="s">
+      <c r="A186" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B186" s="26" t="s">
+      <c r="B186" s="25" t="s">
         <v>450</v>
       </c>
-      <c r="C186" s="26" t="s">
+      <c r="C186" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D186" s="27"/>
-      <c r="E186" s="27"/>
-      <c r="F186" s="26" t="s">
+      <c r="D186" s="26"/>
+      <c r="E186" s="26"/>
+      <c r="F186" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G186" s="27"/>
-      <c r="H186" s="27"/>
-      <c r="I186" s="27"/>
-      <c r="J186" s="27"/>
-      <c r="K186" s="27"/>
-      <c r="L186" s="27"/>
-      <c r="M186" s="27"/>
-      <c r="N186" s="27"/>
+      <c r="G186" s="26"/>
+      <c r="H186" s="26"/>
+      <c r="I186" s="26"/>
+      <c r="J186" s="26"/>
+      <c r="K186" s="26"/>
+      <c r="L186" s="26"/>
+      <c r="M186" s="26"/>
+      <c r="N186" s="26"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="28" t="s">
+      <c r="A187" s="27" t="s">
         <v>45</v>
       </c>
       <c r="B187" s="4" t="s">
@@ -8789,37 +8772,37 @@
       <c r="C187" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D187" s="29"/>
-      <c r="E187" s="30"/>
-      <c r="F187" s="30"/>
-      <c r="G187" s="30"/>
-      <c r="H187" s="30"/>
+      <c r="D187" s="28"/>
+      <c r="E187" s="29"/>
+      <c r="F187" s="29"/>
+      <c r="G187" s="29"/>
+      <c r="H187" s="29"/>
       <c r="I187" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="J187" s="30"/>
-      <c r="K187" s="30"/>
-      <c r="L187" s="30"/>
-      <c r="M187" s="30"/>
-      <c r="N187" s="30"/>
+      <c r="J187" s="29"/>
+      <c r="K187" s="29"/>
+      <c r="L187" s="29"/>
+      <c r="M187" s="29"/>
+      <c r="N187" s="29"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="31" t="s">
+      <c r="A188" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B188" s="27"/>
-      <c r="C188" s="27"/>
-      <c r="D188" s="27"/>
-      <c r="E188" s="27"/>
-      <c r="F188" s="27"/>
-      <c r="G188" s="27"/>
-      <c r="H188" s="27"/>
-      <c r="I188" s="27"/>
-      <c r="J188" s="27"/>
-      <c r="K188" s="27"/>
-      <c r="L188" s="27"/>
-      <c r="M188" s="27"/>
-      <c r="N188" s="27"/>
+      <c r="B188" s="26"/>
+      <c r="C188" s="26"/>
+      <c r="D188" s="26"/>
+      <c r="E188" s="26"/>
+      <c r="F188" s="26"/>
+      <c r="G188" s="26"/>
+      <c r="H188" s="26"/>
+      <c r="I188" s="26"/>
+      <c r="J188" s="26"/>
+      <c r="K188" s="26"/>
+      <c r="L188" s="26"/>
+      <c r="M188" s="26"/>
+      <c r="N188" s="26"/>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -12488,1448 +12471,1449 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A121" activeCellId="0" sqref="A121"/>
+      <selection pane="bottomLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="84.7755102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="103.311224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="131.122448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="87.8367346938775"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="107.005102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="135.801020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>453</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>463</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>469</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>473</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>476</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>477</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>489</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
     </row>
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
     </row>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C70" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
     </row>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="13" t="s">
         <v>524</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="13" t="s">
         <v>525</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
     </row>
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
     </row>
     <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
     </row>
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="13" t="s">
         <v>529</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C82" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="13" t="s">
         <v>529</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" s="13" t="s">
         <v>531</v>
       </c>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
     </row>
     <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="13" t="s">
         <v>529</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C84" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="13" t="s">
         <v>529</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="13" t="s">
         <v>489</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
     </row>
     <row r="86" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="13" t="s">
         <v>529</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C86" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
     </row>
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="13" t="s">
         <v>529</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C87" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
     </row>
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="14"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
+      <c r="A88" s="13"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
     </row>
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="14"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
+      <c r="A89" s="13"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
     </row>
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C90" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
     </row>
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C91" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
     </row>
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C92" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="13" t="s">
         <v>489</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C93" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
     </row>
     <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C94" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
     </row>
     <row r="96" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="C96" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
     </row>
     <row r="97" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C97" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
     </row>
     <row r="98" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="C98" s="14" t="s">
+      <c r="C98" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
     </row>
     <row r="99" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="14" t="s">
+      <c r="A99" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="C99" s="14" t="s">
+      <c r="C99" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="14" t="s">
+      <c r="A100" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="13" t="s">
         <v>535</v>
       </c>
-      <c r="C100" s="14" t="s">
+      <c r="C100" s="13" t="s">
         <v>536</v>
       </c>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
     </row>
     <row r="101" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="14" t="s">
+      <c r="A101" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B101" s="13" t="s">
         <v>537</v>
       </c>
-      <c r="C101" s="14" t="s">
+      <c r="C101" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
     </row>
     <row r="102" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="13" t="s">
         <v>539</v>
       </c>
-      <c r="C102" s="14" t="s">
+      <c r="C102" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
     </row>
     <row r="103" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="C103" s="14" t="s">
+      <c r="C103" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
     </row>
     <row r="104" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="C104" s="14" t="s">
+      <c r="C104" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
     </row>
     <row r="105" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="C105" s="14" t="s">
+      <c r="C105" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
     </row>
     <row r="106" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="14" t="s">
+      <c r="A106" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="B106" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="C106" s="14" t="s">
+      <c r="C106" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
     </row>
     <row r="107" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="14" t="s">
+      <c r="A107" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B107" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="C107" s="14" t="s">
+      <c r="C107" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
     </row>
     <row r="108" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="B108" s="14" t="s">
+      <c r="B108" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="C108" s="14" t="s">
+      <c r="C108" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="14"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
+      <c r="A109" s="13"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="14"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
+      <c r="A110" s="13"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
     </row>
     <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="14" t="s">
+      <c r="A112" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="B112" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="C112" s="14" t="s">
+      <c r="C112" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
     </row>
     <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="C113" s="14" t="s">
+      <c r="C113" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
     </row>
     <row r="114" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="B114" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="C114" s="14" t="s">
+      <c r="C114" s="13" t="s">
         <v>549</v>
       </c>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
     </row>
     <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="C115" s="14" t="s">
+      <c r="C115" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>550</v>
       </c>
-      <c r="B117" s="34" t="s">
+      <c r="B117" s="33" t="s">
         <v>551</v>
       </c>
       <c r="C117" s="0" t="s">
@@ -13940,7 +13924,7 @@
       <c r="A118" s="0" t="s">
         <v>550</v>
       </c>
-      <c r="B118" s="34" t="s">
+      <c r="B118" s="33" t="s">
         <v>553</v>
       </c>
       <c r="C118" s="0" t="s">
@@ -13951,7 +13935,7 @@
       <c r="A120" s="0" t="s">
         <v>555</v>
       </c>
-      <c r="B120" s="34" t="s">
+      <c r="B120" s="33" t="s">
         <v>556</v>
       </c>
       <c r="C120" s="0" t="s">
@@ -13962,7 +13946,7 @@
       <c r="A122" s="0" t="s">
         <v>558</v>
       </c>
-      <c r="B122" s="34" t="s">
+      <c r="B122" s="33" t="s">
         <v>559</v>
       </c>
       <c r="C122" s="0" t="s">
@@ -13973,7 +13957,7 @@
       <c r="A123" s="0" t="s">
         <v>558</v>
       </c>
-      <c r="B123" s="34" t="s">
+      <c r="B123" s="33" t="s">
         <v>561</v>
       </c>
       <c r="C123" s="0" t="s">
@@ -14003,60 +13987,60 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="13" t="s">
         <v>564</v>
       </c>
-      <c r="C129" s="14" t="s">
+      <c r="C129" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="14" t="s">
+      <c r="A130" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="B130" s="14" t="s">
+      <c r="B130" s="13" t="s">
         <v>566</v>
       </c>
-      <c r="C130" s="14" t="s">
+      <c r="C130" s="13" t="s">
         <v>567</v>
       </c>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
     </row>
     <row r="132" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="35" t="s">
+      <c r="A132" s="34" t="s">
         <v>568</v>
       </c>
-      <c r="B132" s="14" t="s">
+      <c r="B132" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="C132" s="14" t="s">
+      <c r="C132" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
     </row>
     <row r="133" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="35" t="s">
+      <c r="A133" s="34" t="s">
         <v>568</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="B133" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="C133" s="14" t="s">
+      <c r="C133" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
     </row>
     <row r="1048573" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -14088,47 +14072,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="75.3265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="78.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>572</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>573</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>574</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>575</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>576</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="31" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>578</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>579</v>
       </c>
-      <c r="C2" s="36" t="n">
+      <c r="C2" s="35" t="n">
         <f aca="true">NOW()</f>
-        <v>44335.6544180116</v>
-      </c>
-      <c r="D2" s="14" t="s">
+        <v>44335.922903302</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/config/default/forms/app/hts_retest_test.xlsx
+++ b/config/default/forms/app/hts_retest_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -687,7 +687,7 @@
     <t xml:space="preserve">_1710_clientConsented_99DCT</t>
   </si>
   <si>
-    <t xml:space="preserve">Has client consented?</t>
+    <t xml:space="preserve">Has consent been given?</t>
   </si>
   <si>
     <t xml:space="preserve">select_one test_mode</t>
@@ -2127,7 +2127,16 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
@@ -2226,26 +2235,24 @@
   </sheetPr>
   <dimension ref="A1:AL65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C95" activeCellId="0" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9897959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.2244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="83.4234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.8061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="209.867346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="58.4948979591837"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.1377551020408"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="112.581632653061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="257.382653061225"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="85.8571428571429"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="81.8061224489796"/>
-    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="102.862244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.3367346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.2959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="86.484693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.1581632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="217.515306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="60.5663265306122"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="50.8469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="116.632653061224"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="266.744897959184"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="88.9132653061225"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="84.7755102040816"/>
+    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="106.551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5491,7 +5498,7 @@
       <c r="X94" s="8"/>
       <c r="Y94" s="8"/>
     </row>
-    <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="8" t="s">
         <v>219</v>
       </c>
@@ -12476,10 +12483,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="87.8367346938775"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="107.005102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="135.801020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="90.984693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="110.872448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="140.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14072,9 +14078,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="78.0255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="80.8163265306122"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14106,7 +14110,7 @@
       </c>
       <c r="C2" s="35" t="n">
         <f aca="true">NOW()</f>
-        <v>44335.922903302</v>
+        <v>44338.8084159993</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>580</v>

--- a/config/default/forms/app/hts_retest_test.xlsx
+++ b/config/default/forms/app/hts_retest_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="583">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -1503,6 +1503,9 @@
   </si>
   <si>
     <t xml:space="preserve">_160542_opd_99DCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outpatient Department(OPD)</t>
   </si>
   <si>
     <t xml:space="preserve">_5485_ipd_99DCT</t>
@@ -2127,16 +2130,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -2235,24 +2229,26 @@
   </sheetPr>
   <dimension ref="A1:AL65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C95" activeCellId="0" sqref="C95"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.3367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.2959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="86.484693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.1581632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="217.515306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="60.5663265306122"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="50.8469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="116.632653061224"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="266.744897959184"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="88.9132653061225"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="84.7755102040816"/>
-    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="106.551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.5663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="67.0459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="96.1122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.3877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="242.086734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="67.3163265306122"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="56.515306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="129.683673469388"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="296.801020408163"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="98.8163265306122"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="94.3163265306123"/>
+    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="118.612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12476,16 +12472,17 @@
   <dimension ref="A1:F65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="90.984693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="110.872448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="140.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="101.15306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="123.382653061225"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="156.591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12988,7 +12985,7 @@
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
     </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13" t="s">
         <v>491</v>
       </c>
@@ -12996,7 +12993,7 @@
         <v>492</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>348</v>
+        <v>493</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
@@ -13007,7 +13004,7 @@
         <v>491</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>351</v>
@@ -13021,7 +13018,7 @@
         <v>491</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>354</v>
@@ -13035,7 +13032,7 @@
         <v>491</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>357</v>
@@ -13049,7 +13046,7 @@
         <v>491</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>360</v>
@@ -13063,7 +13060,7 @@
         <v>491</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>363</v>
@@ -13077,7 +13074,7 @@
         <v>491</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>366</v>
@@ -13091,7 +13088,7 @@
         <v>491</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>369</v>
@@ -13133,7 +13130,7 @@
         <v>491</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>343</v>
@@ -13152,13 +13149,13 @@
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="13" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
@@ -13166,13 +13163,13 @@
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="13" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
@@ -13188,13 +13185,13 @@
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="13" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
@@ -13202,13 +13199,13 @@
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="13" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
@@ -13224,13 +13221,13 @@
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="13" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
@@ -13246,10 +13243,10 @@
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="13" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>381</v>
@@ -13260,10 +13257,10 @@
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="13" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>384</v>
@@ -13274,10 +13271,10 @@
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>387</v>
@@ -13295,10 +13292,10 @@
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="13" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>381</v>
@@ -13309,10 +13306,10 @@
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="13" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>384</v>
@@ -13323,10 +13320,10 @@
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="B67" s="13" t="s">
         <v>518</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>517</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>387</v>
@@ -13345,10 +13342,10 @@
     </row>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="13" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>410</v>
@@ -13359,10 +13356,10 @@
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="13" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>413</v>
@@ -13373,10 +13370,10 @@
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="13" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>416</v>
@@ -13395,10 +13392,10 @@
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="13" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>421</v>
@@ -13409,10 +13406,10 @@
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="13" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>424</v>
@@ -13423,10 +13420,10 @@
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="13" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>427</v>
@@ -13437,10 +13434,10 @@
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="13" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>430</v>
@@ -13454,7 +13451,7 @@
         <v>256</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>381</v>
@@ -13468,7 +13465,7 @@
         <v>256</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>384</v>
@@ -13482,7 +13479,7 @@
         <v>256</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>396</v>
@@ -13493,13 +13490,13 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="13" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>483</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
@@ -13507,13 +13504,13 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="13" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>484</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
@@ -13521,7 +13518,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="13" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>485</v>
@@ -13535,13 +13532,13 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="13" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>489</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
@@ -13549,7 +13546,7 @@
     </row>
     <row r="86" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="13" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>488</v>
@@ -13563,7 +13560,7 @@
     </row>
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="13" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B87" s="13" t="s">
         <v>490</v>
@@ -13593,7 +13590,7 @@
     </row>
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="13" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B90" s="13" t="s">
         <v>486</v>
@@ -13607,7 +13604,7 @@
     </row>
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="13" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>487</v>
@@ -13621,7 +13618,7 @@
     </row>
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="13" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B92" s="13" t="s">
         <v>488</v>
@@ -13635,13 +13632,13 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="13" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>489</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
@@ -13649,7 +13646,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="13" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B94" s="13" t="s">
         <v>490</v>
@@ -13661,15 +13658,15 @@
       <c r="E94" s="13"/>
       <c r="F94" s="13"/>
     </row>
-    <row r="96" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="13" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B96" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>348</v>
+        <v>493</v>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
@@ -13677,10 +13674,10 @@
     </row>
     <row r="97" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="13" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>351</v>
@@ -13691,10 +13688,10 @@
     </row>
     <row r="98" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="13" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>354</v>
@@ -13705,10 +13702,10 @@
     </row>
     <row r="99" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="13" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C99" s="13" t="s">
         <v>357</v>
@@ -13719,13 +13716,13 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="13" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13"/>
@@ -13733,13 +13730,13 @@
     </row>
     <row r="101" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="13" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
@@ -13747,13 +13744,13 @@
     </row>
     <row r="102" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="13" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
@@ -13761,10 +13758,10 @@
     </row>
     <row r="103" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="13" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C103" s="13" t="s">
         <v>363</v>
@@ -13775,10 +13772,10 @@
     </row>
     <row r="104" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="13" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>369</v>
@@ -13789,13 +13786,13 @@
     </row>
     <row r="105" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="13" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
@@ -13803,13 +13800,13 @@
     </row>
     <row r="106" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="13" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="13"/>
@@ -13817,13 +13814,13 @@
     </row>
     <row r="107" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="13" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
@@ -13831,10 +13828,10 @@
     </row>
     <row r="108" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="13" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C108" s="13" t="s">
         <v>343</v>
@@ -13861,7 +13858,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="13" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B112" s="13" t="s">
         <v>487</v>
@@ -13875,7 +13872,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="13" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B113" s="13" t="s">
         <v>488</v>
@@ -13889,13 +13886,13 @@
     </row>
     <row r="114" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="13" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D114" s="13"/>
       <c r="E114" s="13"/>
@@ -13903,10 +13900,10 @@
     </row>
     <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="13" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C115" s="13" t="s">
         <v>343</v>
@@ -13917,62 +13914,62 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B117" s="33" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B118" s="33" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B120" s="33" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B122" s="33" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B123" s="33" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>1</v>
@@ -13983,7 +13980,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>2</v>
@@ -13997,10 +13994,10 @@
         <v>177</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D129" s="13"/>
       <c r="E129" s="13"/>
@@ -14011,10 +14008,10 @@
         <v>177</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D130" s="13"/>
       <c r="E130" s="13"/>
@@ -14022,10 +14019,10 @@
     </row>
     <row r="132" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="34" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C132" s="13" t="s">
         <v>322</v>
@@ -14036,13 +14033,13 @@
     </row>
     <row r="133" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="34" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D133" s="13"/>
       <c r="E133" s="13"/>
@@ -14078,45 +14075,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="80.8163265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="89.8163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C2" s="35" t="n">
         <f aca="true">NOW()</f>
-        <v>44338.8084159993</v>
+        <v>44347.4619658411</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F2" s="13"/>
     </row>
